--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634A95C4-BC17-41DC-8B70-764AD7949A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0845CDD3-E04A-4EA3-ADDD-FE612271314A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="237">
   <si>
     <t>#</t>
   </si>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>Amit</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>N</t>
@@ -826,14 +823,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1152,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
   <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1218,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -1290,10 +1286,10 @@
         <v>30</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
@@ -1331,25 +1327,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="R2" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S2">
         <f>SUM(COUNTIF(M2:R2, "Y"))</f>
@@ -1362,35 +1358,35 @@
       <c r="U2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" t="s">
+        <v>108</v>
+      </c>
+      <c r="W2" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="AB2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH2" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="AI2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AJ2" t="str">
         <f>CONCATENATE(V2, ", ", W2,", ",X2)</f>
@@ -1432,25 +1428,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="R3" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S16" si="0">SUM(COUNTIF(M3:R3, "Y"))</f>
@@ -1463,35 +1459,35 @@
       <c r="U3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" t="s">
+        <v>124</v>
+      </c>
+      <c r="W3" t="s">
         <v>125</v>
       </c>
-      <c r="W3" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="AB3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AD3" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AE3" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AF3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AG3" s="6" t="s">
         <v>118</v>
       </c>
+      <c r="AH3" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="AI3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AJ3" t="str">
         <f t="shared" ref="AJ3:AJ16" si="2">CONCATENATE(V3, ", ", W3,", ",X3)</f>
@@ -1536,22 +1532,22 @@
         <v>92</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
@@ -1564,35 +1560,35 @@
       <c r="U4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" t="s">
+        <v>133</v>
+      </c>
+      <c r="W4" t="s">
         <v>134</v>
       </c>
-      <c r="W4" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="AB4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD4" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AD4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AE4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG4" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="AF4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH4" s="7" t="s">
-        <v>127</v>
+      <c r="AH4" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="AI4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AJ4" t="str">
         <f t="shared" si="2"/>
@@ -1634,25 +1630,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="Q5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
@@ -1665,26 +1661,32 @@
       <c r="U5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="V5" s="6" t="s">
-        <v>141</v>
+      <c r="V5" t="s">
+        <v>140</v>
       </c>
       <c r="AB5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AE5" s="7" t="s">
+      <c r="AC5" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF5" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="AF5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH5" s="7" t="s">
-        <v>136</v>
+      <c r="AG5" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="AI5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AJ5" t="str">
         <f t="shared" si="2"/>
@@ -1726,25 +1728,25 @@
         <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="O6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
@@ -1757,32 +1759,32 @@
       <c r="U6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V6" s="6" t="s">
-        <v>150</v>
+      <c r="V6" t="s">
+        <v>149</v>
       </c>
       <c r="AB6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD6" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="AD6" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE6" s="7" t="s">
+      <c r="AE6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF6" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="AF6" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG6" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH6" s="7" t="s">
-        <v>142</v>
+      <c r="AG6" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="AI6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ6" t="str">
         <f t="shared" si="2"/>
@@ -1824,25 +1826,25 @@
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="P7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
@@ -1855,26 +1857,32 @@
       <c r="U7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="V7" t="s">
+        <v>155</v>
+      </c>
+      <c r="W7" t="s">
         <v>156</v>
       </c>
-      <c r="W7" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="AB7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD7" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="AD7" s="7" t="s">
+      <c r="AE7" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AE7" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH7" s="7" t="s">
-        <v>151</v>
+      <c r="AF7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="AI7" t="s">
         <v>15</v>
@@ -1922,22 +1930,22 @@
         <v>92</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
@@ -1948,35 +1956,37 @@
         <v>2</v>
       </c>
       <c r="U8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="V8" t="s">
+        <v>164</v>
+      </c>
+      <c r="W8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC8" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="V8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7" t="s">
+      <c r="AD8" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE8" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="AE8" s="7" t="s">
+      <c r="AF8" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AF8" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG8" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH8" s="7" t="s">
+      <c r="AG8" s="6" t="s">
         <v>159</v>
       </c>
+      <c r="AH8" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="AI8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AJ8" t="str">
         <f t="shared" si="2"/>
@@ -2018,25 +2028,25 @@
         <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="R9" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
@@ -2047,37 +2057,37 @@
         <v>3</v>
       </c>
       <c r="U9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="V9" t="s">
+        <v>171</v>
+      </c>
+      <c r="W9" t="s">
         <v>173</v>
       </c>
-      <c r="V9" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="W9" s="6" t="s">
+      <c r="X9" t="s">
         <v>174</v>
       </c>
-      <c r="X9" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="AB9" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE9" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF9" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="AD9" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE9" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF9" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH9" s="7" t="s">
-        <v>152</v>
+      <c r="AH9" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="AI9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ9" t="str">
         <f t="shared" si="2"/>
@@ -2119,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S10">
         <f t="shared" si="0"/>
@@ -2148,25 +2158,31 @@
         <v>1</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="V10" s="6" t="s">
         <v>180</v>
       </c>
+      <c r="V10" t="s">
+        <v>179</v>
+      </c>
       <c r="AB10" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE10" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="AG10" s="7" t="s">
+      <c r="AF10" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="AH10" s="7" t="s">
+      <c r="AG10" s="6" t="s">
         <v>176</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="AI10" t="s">
         <v>12</v>
@@ -2211,25 +2227,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="R11" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S11">
         <f t="shared" si="0"/>
@@ -2242,32 +2258,35 @@
       <c r="U11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V11" s="6" t="s">
+      <c r="V11" t="s">
+        <v>187</v>
+      </c>
+      <c r="W11" t="s">
         <v>188</v>
       </c>
-      <c r="W11" s="6" t="s">
-        <v>189</v>
-      </c>
       <c r="AB11" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE11" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AD11" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE11" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="AF11" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH11" s="7" t="s">
+      <c r="AF11" s="6" t="s">
         <v>182</v>
       </c>
+      <c r="AG11" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH11" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="AI11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AJ11" t="str">
         <f t="shared" si="2"/>
@@ -2309,25 +2328,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="O12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="R12" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S12">
         <f t="shared" si="0"/>
@@ -2340,35 +2359,38 @@
       <c r="U12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V12" s="6" t="s">
+      <c r="V12" t="s">
+        <v>193</v>
+      </c>
+      <c r="W12" t="s">
         <v>194</v>
       </c>
-      <c r="W12" s="6" t="s">
+      <c r="X12" t="s">
         <v>195</v>
       </c>
-      <c r="X12" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="AB12" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD12" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AD12" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE12" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF12" s="7" t="s">
+      <c r="AE12" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AH12" s="7" t="s">
-        <v>112</v>
+      <c r="AF12" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH12" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="AI12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AJ12" t="str">
         <f t="shared" si="2"/>
@@ -2410,25 +2432,25 @@
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S13">
         <f t="shared" si="0"/>
@@ -2441,29 +2463,29 @@
       <c r="U13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="V13" s="6" t="s">
-        <v>202</v>
+      <c r="V13" t="s">
+        <v>201</v>
       </c>
       <c r="AB13" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC13" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AE13" s="7" t="s">
+      <c r="AD13" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AF13" s="7" t="s">
+      <c r="AE13" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AG13" s="7" t="s">
+      <c r="AF13" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AH13" s="7" t="s">
-        <v>143</v>
+      <c r="AG13" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH13" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="AI13" t="s">
         <v>12</v>
@@ -2508,25 +2530,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="O14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S14">
         <f t="shared" si="0"/>
@@ -2537,34 +2559,37 @@
         <v>2</v>
       </c>
       <c r="U14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="V14" t="s">
+        <v>208</v>
+      </c>
+      <c r="W14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC14" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="V14" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD14" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="AE14" s="7" t="s">
+      <c r="AD14" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE14" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF14" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="AF14" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AG14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH14" s="7" t="s">
+      <c r="AG14" s="6" t="s">
         <v>204</v>
       </c>
+      <c r="AH14" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="AI14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ14" t="str">
         <f t="shared" si="2"/>
@@ -2609,22 +2634,22 @@
         <v>92</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
@@ -2637,32 +2662,32 @@
       <c r="U15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="V15" s="6" t="s">
-        <v>218</v>
+      <c r="V15" t="s">
+        <v>217</v>
       </c>
       <c r="AB15" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC15" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="AD15" s="7" t="s">
+      <c r="AC15" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="AE15" s="7" t="s">
+      <c r="AD15" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="AF15" s="7" t="s">
+      <c r="AE15" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="AG15" s="7" t="s">
+      <c r="AF15" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="AH15" s="7" t="s">
+      <c r="AG15" s="6" t="s">
         <v>211</v>
       </c>
+      <c r="AH15" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="AI15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AJ15" t="str">
         <f t="shared" si="2"/>
@@ -2707,22 +2732,22 @@
         <v>92</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S16">
         <f t="shared" si="0"/>
@@ -2735,35 +2760,38 @@
       <c r="U16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="V16" s="6" t="s">
+      <c r="V16" t="s">
+        <v>223</v>
+      </c>
+      <c r="W16" t="s">
         <v>224</v>
       </c>
-      <c r="W16" s="6" t="s">
+      <c r="X16" t="s">
         <v>225</v>
       </c>
-      <c r="X16" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="AB16" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE16" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AD16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="AF16" s="7" t="s">
+      <c r="AF16" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG16" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="AH16" s="7" t="s">
-        <v>220</v>
+      <c r="AH16" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="AI16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AJ16" t="str">
         <f t="shared" si="2"/>
@@ -2850,8 +2878,19 @@
     <hyperlink ref="AC16" r:id="rId76" xr:uid="{DE3B13DF-341C-48F1-81E3-856EEEDB5768}"/>
     <hyperlink ref="AE16" r:id="rId77" xr:uid="{1230256E-D3D5-4CAD-861A-4251F080B526}"/>
     <hyperlink ref="AD16" r:id="rId78" xr:uid="{3DA3ED37-07F8-4ED3-900C-FC82FF2D05D2}"/>
+    <hyperlink ref="AG5" r:id="rId79" xr:uid="{5BCE39B3-EEA6-414E-9982-D99B1615957C}"/>
+    <hyperlink ref="AC5" r:id="rId80" xr:uid="{9A190B3F-D7B9-4747-A966-8AE5845CCC81}"/>
+    <hyperlink ref="AG7" r:id="rId81" xr:uid="{A14266B7-819B-446A-B536-2F89DDDFCB15}"/>
+    <hyperlink ref="AF7" r:id="rId82" xr:uid="{82013CE7-588F-44E3-BE90-EF7C21792C46}"/>
+    <hyperlink ref="AC8" r:id="rId83" xr:uid="{E7C24AAC-9383-49C9-BF5E-C05E67E9F463}"/>
+    <hyperlink ref="AD10" r:id="rId84" xr:uid="{E4447B91-9E5A-46A9-8DAC-B016A5428D1F}"/>
+    <hyperlink ref="AC10" r:id="rId85" xr:uid="{3341AE68-96D0-4F6C-BE0A-313F964460A8}"/>
+    <hyperlink ref="AG11" r:id="rId86" xr:uid="{4425E7DA-BD81-4057-B9DC-445E99898864}"/>
+    <hyperlink ref="AG12" r:id="rId87" xr:uid="{CD720F4E-73B3-4EC0-B920-5A0E13676EB3}"/>
+    <hyperlink ref="AC14" r:id="rId88" xr:uid="{DE6EE6C9-71F4-4596-95FE-3FDED3B24E39}"/>
+    <hyperlink ref="AG16" r:id="rId89" xr:uid="{2FEC43B7-C96F-4320-94CF-FD9777C1C223}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId79"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId90"/>
 </worksheet>
 </file>
--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0845CDD3-E04A-4EA3-ADDD-FE612271314A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597E2F48-1749-4217-A216-035B7D7A7AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="254">
   <si>
     <t>#</t>
   </si>
@@ -131,51 +131,6 @@
     <t>Website (Company)</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>HooVu Fresh</t>
   </si>
   <si>
@@ -407,9 +362,6 @@
     <t>https://in.linkedin.com/company/dorje-teas</t>
   </si>
   <si>
-    <t>Food</t>
-  </si>
-  <si>
     <t>Ishaan Kanoria</t>
   </si>
   <si>
@@ -527,9 +479,6 @@
     <t>https://www.facebook.com/atmosphere.in/</t>
   </si>
   <si>
-    <t>Beverage</t>
-  </si>
-  <si>
     <t>Rebekah Sood</t>
   </si>
   <si>
@@ -747,13 +696,115 @@
   </si>
   <si>
     <t>Entrepreneurs/Founders</t>
+  </si>
+  <si>
+    <t>Tea Fit</t>
+  </si>
+  <si>
+    <t>Jyoti Bharadwaj</t>
+  </si>
+  <si>
+    <t>Food and Beverages</t>
+  </si>
+  <si>
+    <t>₹50 Lakhs for 3% equity</t>
+  </si>
+  <si>
+    <t>Unsweetened Ice Tea</t>
+  </si>
+  <si>
+    <t>₹50 Lakhs for 8% equity</t>
+  </si>
+  <si>
+    <t>Aman, Anupam, Vineeta, Peyush</t>
+  </si>
+  <si>
+    <t>Haqdarshak</t>
+  </si>
+  <si>
+    <t>Aniket Doegar</t>
+  </si>
+  <si>
+    <t>₹1 Crore for 0.5% equity</t>
+  </si>
+  <si>
+    <t>₹1 Crore for 2% equity</t>
+  </si>
+  <si>
+    <t>Bhaskar's Puranpoli Ghar</t>
+  </si>
+  <si>
+    <t>Bhaskar KR</t>
+  </si>
+  <si>
+    <t>Vittal Shetty</t>
+  </si>
+  <si>
+    <t>Saurabh Choudhary</t>
+  </si>
+  <si>
+    <t>Bhaskar KR, Vittal Shetty, Saurabh Choudhary</t>
+  </si>
+  <si>
+    <t>₹75 Lakhs for 1% equity</t>
+  </si>
+  <si>
+    <t>http://tea.fit/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TeaFitOfficial/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/drinkteafit/?hl=en</t>
+  </si>
+  <si>
+    <t>https://twitter.com/drinkteafit</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/company/teafit</t>
+  </si>
+  <si>
+    <t>https://haqdarshak.com/</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/haqdarshak</t>
+  </si>
+  <si>
+    <t>http://www.instagram.com/haqdarshak</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/haqdarshak</t>
+  </si>
+  <si>
+    <t>https://au.linkedin.com/company/haqdarshak</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCBgOumeCl6jMQK5KbKlRF7g</t>
+  </si>
+  <si>
+    <t>A tech platform that connects citizens with their eligible welfare schemes</t>
+  </si>
+  <si>
+    <t>Civic and Social Organizations</t>
+  </si>
+  <si>
+    <t>http://bhaskarspuranpolighar.in/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/puranpolighar/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/puranpolighar/</t>
+  </si>
+  <si>
+    <t>Varieties of Live Puranpoli</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,6 +828,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -786,7 +843,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -818,12 +875,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -831,6 +897,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1146,16 +1215,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="3" max="3" width="65.88671875" customWidth="1"/>
     <col min="4" max="4" width="23.77734375" customWidth="1"/>
     <col min="5" max="5" width="30.109375" customWidth="1"/>
     <col min="6" max="6" width="21.88671875" customWidth="1"/>
@@ -1170,15 +1239,15 @@
     <col min="21" max="21" width="22.109375" customWidth="1"/>
     <col min="22" max="22" width="18.44140625" customWidth="1"/>
     <col min="23" max="23" width="15.77734375" customWidth="1"/>
-    <col min="24" max="24" width="16" customWidth="1"/>
-    <col min="28" max="28" width="14.21875" customWidth="1"/>
+    <col min="24" max="24" width="18.44140625" customWidth="1"/>
+    <col min="28" max="28" width="25.88671875" customWidth="1"/>
     <col min="29" max="29" width="21.88671875" customWidth="1"/>
     <col min="30" max="30" width="22.5546875" customWidth="1"/>
     <col min="31" max="31" width="20.21875" customWidth="1"/>
     <col min="32" max="32" width="22.77734375" customWidth="1"/>
     <col min="33" max="33" width="20.44140625" customWidth="1"/>
     <col min="34" max="34" width="35" customWidth="1"/>
-    <col min="35" max="35" width="24.88671875" customWidth="1"/>
+    <col min="35" max="35" width="31.77734375" customWidth="1"/>
     <col min="36" max="36" width="51.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1214,7 +1283,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -1235,7 +1304,7 @@
         <v>14</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>16</v>
@@ -1286,24 +1355,24 @@
         <v>30</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E2">
         <v>8000000</v>
@@ -1312,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H2">
         <v>10000000</v>
@@ -1327,25 +1396,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="S2">
         <f>SUM(COUNTIF(M2:R2, "Y"))</f>
@@ -1356,37 +1425,37 @@
         <v>2</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="V2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="W2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="AB2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AI2" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="AJ2" t="str">
         <f>CONCATENATE(V2, ", ", W2,", ",X2)</f>
@@ -1394,17 +1463,17 @@
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E3">
         <v>3000000</v>
@@ -1413,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="H3">
         <v>3000000</v>
@@ -1428,66 +1497,66 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S19" si="0">SUM(COUNTIF(M3:R3, "Y"))</f>
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T19" si="1">COUNTIF(V3:AA3, "*")</f>
+        <v>2</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>108</v>
+      </c>
+      <c r="W3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="AF3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S16" si="0">SUM(COUNTIF(M3:R3, "Y"))</f>
-        <v>3</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T16" si="1">COUNTIF(V3:AA3, "*")</f>
-        <v>2</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" t="s">
-        <v>124</v>
-      </c>
-      <c r="W3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>118</v>
-      </c>
       <c r="AH3" s="6" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="AI3" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="AJ3" t="str">
         <f t="shared" ref="AJ3:AJ16" si="2">CONCATENATE(V3, ", ", W3,", ",X3)</f>
@@ -1495,17 +1564,17 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E4">
         <v>10000000</v>
@@ -1514,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1529,25 +1598,25 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
@@ -1558,37 +1627,37 @@
         <v>2</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="W4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="AB4" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="AH4" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="AI4" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="AJ4" t="str">
         <f t="shared" si="2"/>
@@ -1596,17 +1665,17 @@
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E5">
         <v>5000000</v>
@@ -1615,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H5">
         <v>5000000</v>
@@ -1630,25 +1699,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
@@ -1659,34 +1728,34 @@
         <v>1</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="V5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="AB5" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="AI5" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="AJ5" t="str">
         <f t="shared" si="2"/>
@@ -1694,17 +1763,17 @@
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E6">
         <v>20000000</v>
@@ -1713,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H6">
         <v>10000000</v>
@@ -1728,25 +1797,25 @@
         <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
@@ -1757,34 +1826,34 @@
         <v>1</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="V6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="AB6" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="AH6" s="6" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="AI6" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="AJ6" t="str">
         <f t="shared" si="2"/>
@@ -1792,17 +1861,17 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="E7">
         <v>7500000</v>
@@ -1811,7 +1880,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H7">
         <v>5000000</v>
@@ -1826,25 +1895,25 @@
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
@@ -1855,34 +1924,34 @@
         <v>2</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="V7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="W7" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="AB7" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="AE7" s="6" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AH7" s="6" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AI7" t="s">
         <v>15</v>
@@ -1893,17 +1962,17 @@
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E8">
         <v>7500000</v>
@@ -1912,7 +1981,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1927,25 +1996,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
@@ -1956,37 +2025,37 @@
         <v>2</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="V8" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="W8" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="AB8" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="AE8" s="6" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="AF8" s="6" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="AG8" s="6" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="AH8" s="6" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="AI8" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="AJ8" t="str">
         <f t="shared" si="2"/>
@@ -1994,17 +2063,17 @@
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E9">
         <v>30000000</v>
@@ -2013,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H9">
         <v>15000000</v>
@@ -2028,25 +2097,25 @@
         <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
@@ -2057,37 +2126,37 @@
         <v>3</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="V9" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="W9" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="X9" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="AB9" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="AE9" s="6" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="AH9" s="6" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="AI9" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="AJ9" t="str">
         <f t="shared" si="2"/>
@@ -2095,17 +2164,17 @@
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E10">
         <v>2000000</v>
@@ -2114,7 +2183,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="H10">
         <v>2000000</v>
@@ -2129,25 +2198,25 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="S10">
         <f t="shared" si="0"/>
@@ -2158,31 +2227,31 @@
         <v>1</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="V10" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="AB10" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="AE10" s="6" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="AF10" s="6" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="AG10" s="6" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="AH10" s="6" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="AI10" t="s">
         <v>12</v>
@@ -2193,17 +2262,17 @@
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E11">
         <v>7500000</v>
@@ -2212,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="H11">
         <v>10000000</v>
@@ -2227,25 +2296,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="S11">
         <f t="shared" si="0"/>
@@ -2256,37 +2325,37 @@
         <v>2</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="V11" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="W11" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="AB11" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="AE11" s="6" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="AF11" s="6" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="AG11" s="6" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="AH11" s="6" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="AI11" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="AJ11" t="str">
         <f t="shared" si="2"/>
@@ -2294,17 +2363,17 @@
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E12">
         <v>4000000</v>
@@ -2313,7 +2382,7 @@
         <v>2.5</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="H12">
         <v>4000000</v>
@@ -2328,25 +2397,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="S12">
         <f t="shared" si="0"/>
@@ -2357,40 +2426,40 @@
         <v>3</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="V12" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="W12" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="X12" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="AB12" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="AC12" s="6" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="AD12" s="6" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="AE12" s="6" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="AF12" s="6" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="AG12" s="6" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="AH12" s="6" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="AI12" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="AJ12" t="str">
         <f t="shared" si="2"/>
@@ -2398,17 +2467,17 @@
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="E13">
         <v>7000000</v>
@@ -2417,7 +2486,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H13">
         <v>3500000</v>
@@ -2432,25 +2501,25 @@
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="S13">
         <f t="shared" si="0"/>
@@ -2461,31 +2530,31 @@
         <v>1</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="V13" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="AB13" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="AE13" s="6" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="AF13" s="6" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="AG13" s="6" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="AH13" s="6" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="AI13" t="s">
         <v>12</v>
@@ -2496,17 +2565,17 @@
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="E14">
         <v>10000000</v>
@@ -2515,7 +2584,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="H14">
         <v>10000000</v>
@@ -2530,25 +2599,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="S14">
         <f t="shared" si="0"/>
@@ -2559,37 +2628,37 @@
         <v>2</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="V14" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="W14" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="AB14" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="AD14" s="6" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="AE14" s="6" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="AF14" s="6" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="AG14" s="6" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="AH14" s="6" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="AI14" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="AJ14" t="str">
         <f t="shared" si="2"/>
@@ -2597,17 +2666,17 @@
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E15">
         <v>7500000</v>
@@ -2616,7 +2685,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2631,25 +2700,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
@@ -2660,34 +2729,34 @@
         <v>1</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="V15" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="AB15" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="AD15" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF15" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG15" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH15" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI15" t="s">
         <v>214</v>
-      </c>
-      <c r="AE15" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF15" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG15" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AH15" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>231</v>
       </c>
       <c r="AJ15" t="str">
         <f t="shared" si="2"/>
@@ -2695,17 +2764,17 @@
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E16">
         <v>10000000</v>
@@ -2714,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2729,25 +2798,25 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="S16">
         <f t="shared" si="0"/>
@@ -2758,44 +2827,341 @@
         <v>3</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="V16" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="W16" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="X16" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="AB16" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="AI16" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="AJ16" t="str">
         <f t="shared" si="2"/>
         <v>Gaurav Chhabra, Nitin Chhabra, Piyush</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17">
+        <v>5000000</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17">
+        <v>5000000</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="V17" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18">
+        <v>10000000</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18">
+        <v>10000000</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="V18" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG18" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19">
+        <v>7500000</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="V19" t="s">
+        <v>232</v>
+      </c>
+      <c r="W19" t="s">
+        <v>233</v>
+      </c>
+      <c r="X19" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2889,8 +3255,26 @@
     <hyperlink ref="AG12" r:id="rId87" xr:uid="{CD720F4E-73B3-4EC0-B920-5A0E13676EB3}"/>
     <hyperlink ref="AC14" r:id="rId88" xr:uid="{DE6EE6C9-71F4-4596-95FE-3FDED3B24E39}"/>
     <hyperlink ref="AG16" r:id="rId89" xr:uid="{2FEC43B7-C96F-4320-94CF-FD9777C1C223}"/>
+    <hyperlink ref="AH17" r:id="rId90" xr:uid="{CD74F6D7-91D5-402B-B0FA-2EF3AB3183C0}"/>
+    <hyperlink ref="AF17" r:id="rId91" xr:uid="{05D8FF2F-2134-4713-BCA5-E3DA59332808}"/>
+    <hyperlink ref="AE17" r:id="rId92" xr:uid="{740AD28C-7E68-4844-8C07-3DDEEA7CA4D2}"/>
+    <hyperlink ref="AC17" r:id="rId93" xr:uid="{880BEED5-E662-4A9B-87DF-63898463F385}"/>
+    <hyperlink ref="AD17" r:id="rId94" xr:uid="{B0E1C1B6-A5A5-4E6D-96AC-866146775635}"/>
+    <hyperlink ref="AG17" r:id="rId95" xr:uid="{B4687576-9244-4E94-B61C-8B9F5CB26197}"/>
+    <hyperlink ref="AH18" r:id="rId96" xr:uid="{88B02E71-B062-47DE-82E5-DE68EC20CABA}"/>
+    <hyperlink ref="AF18" r:id="rId97" xr:uid="{6769E244-A963-4594-A0BA-1F3CF823E076}"/>
+    <hyperlink ref="AE18" r:id="rId98" xr:uid="{35B37D5E-DAC1-4CEF-ABC4-383D2B9E1771}"/>
+    <hyperlink ref="AC18" r:id="rId99" xr:uid="{D651767C-42E6-4642-99CF-5D11D8228494}"/>
+    <hyperlink ref="AD18" r:id="rId100" xr:uid="{6CE93D7C-06A7-4840-BC8E-EFE8B31F2E85}"/>
+    <hyperlink ref="AG18" r:id="rId101" xr:uid="{F0075616-DA5D-4D2F-ADD8-40D1197920F3}"/>
+    <hyperlink ref="AH19" r:id="rId102" xr:uid="{69556C4F-1EC0-4412-AC64-F06B056F0934}"/>
+    <hyperlink ref="AE19" r:id="rId103" xr:uid="{31F4C284-C220-4E52-BD26-F017E44CA9D4}"/>
+    <hyperlink ref="AF19" r:id="rId104" xr:uid="{A99B8CAD-E180-4116-8987-9D501D65FE6C}"/>
+    <hyperlink ref="AC19" r:id="rId105" xr:uid="{AD07CC9D-AB11-41C7-9567-B1C9920669D5}"/>
+    <hyperlink ref="AD19" r:id="rId106" xr:uid="{54337246-83AF-4E6F-8E89-B6BEE801F13C}"/>
+    <hyperlink ref="AG19" r:id="rId107" xr:uid="{6C9D9B4D-01EF-4334-9C77-D62B105314E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId90"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId108"/>
 </worksheet>
 </file>
--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597E2F48-1749-4217-A216-035B7D7A7AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D68C62-F928-4DF3-89CE-26A7E26F8F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="270">
   <si>
     <t>#</t>
   </si>
@@ -149,15 +149,6 @@
     <t>SoupX</t>
   </si>
   <si>
-    <t>Atmosphere</t>
-  </si>
-  <si>
-    <t>Stage</t>
-  </si>
-  <si>
-    <t>Girgit</t>
-  </si>
-  <si>
     <t>Gear Head Motors</t>
   </si>
   <si>
@@ -167,9 +158,6 @@
     <t>Brandsdaddy</t>
   </si>
   <si>
-    <t>Winston</t>
-  </si>
-  <si>
     <t>Flatheads</t>
   </si>
   <si>
@@ -497,9 +485,6 @@
     <t>https://in.linkedin.com/company/stagedotin</t>
   </si>
   <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
     <t>Vinay Singhal</t>
   </si>
   <si>
@@ -545,9 +530,6 @@
     <t>https://in.linkedin.com/company/gear-head-motors</t>
   </si>
   <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
     <t>Amigo Nikhil</t>
   </si>
   <si>
@@ -665,12 +647,6 @@
     <t>Piyush</t>
   </si>
   <si>
-    <t>Safety</t>
-  </si>
-  <si>
-    <t>Recreation</t>
-  </si>
-  <si>
     <t>Sharks on Board</t>
   </si>
   <si>
@@ -798,6 +774,78 @@
   </si>
   <si>
     <t>Varieties of Live Puranpoli</t>
+  </si>
+  <si>
+    <t>No. of Sectors</t>
+  </si>
+  <si>
+    <t>Sectors</t>
+  </si>
+  <si>
+    <t>Automobile</t>
+  </si>
+  <si>
+    <t>Leisure</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>No. of Deals</t>
+  </si>
+  <si>
+    <t>Deals that happened</t>
+  </si>
+  <si>
+    <t>Founders per Company</t>
+  </si>
+  <si>
+    <t>No. of Founders per Company</t>
+  </si>
+  <si>
+    <t>Sharks on Board per Deal</t>
+  </si>
+  <si>
+    <t>No. of Sharks on Board per Deal</t>
+  </si>
+  <si>
+    <t>1 founder</t>
+  </si>
+  <si>
+    <t>2 co-founders</t>
+  </si>
+  <si>
+    <t>3 co-founders</t>
+  </si>
+  <si>
+    <t>4 co-founders</t>
+  </si>
+  <si>
+    <t>5 co-founders</t>
+  </si>
+  <si>
+    <t>6 co-founders</t>
+  </si>
+  <si>
+    <t>0 (No Deal)</t>
+  </si>
+  <si>
+    <t>1 Shark</t>
+  </si>
+  <si>
+    <t>2 Sharks</t>
+  </si>
+  <si>
+    <t>3 Sharks</t>
+  </si>
+  <si>
+    <t>4 Sharks</t>
+  </si>
+  <si>
+    <t>5 Sharks</t>
+  </si>
+  <si>
+    <t>6 Sharks</t>
   </si>
 </sst>
 </file>
@@ -889,7 +937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -897,8 +945,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1215,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AY19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1249,9 +1296,17 @@
     <col min="34" max="34" width="35" customWidth="1"/>
     <col min="35" max="35" width="31.77734375" customWidth="1"/>
     <col min="36" max="36" width="51.88671875" customWidth="1"/>
+    <col min="41" max="41" width="28.21875" customWidth="1"/>
+    <col min="42" max="42" width="23.109375" customWidth="1"/>
+    <col min="44" max="44" width="19" customWidth="1"/>
+    <col min="45" max="45" width="16.44140625" customWidth="1"/>
+    <col min="47" max="47" width="20.21875" customWidth="1"/>
+    <col min="48" max="48" width="24.5546875" customWidth="1"/>
+    <col min="50" max="50" width="18.21875" customWidth="1"/>
+    <col min="51" max="51" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1338,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -1304,7 +1359,7 @@
         <v>14</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>16</v>
@@ -1312,9 +1367,7 @@
       <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U1" s="1"/>
       <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1355,13 +1408,37 @@
         <v>30</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>219</v>
+      <c r="AO1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1369,10 +1446,10 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>8000000</v>
@@ -1381,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H2">
         <v>10000000</v>
@@ -1396,25 +1473,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S2">
         <f>SUM(COUNTIF(M2:R2, "Y"))</f>
@@ -1424,45 +1501,71 @@
         <f>COUNTIF(V2:AA2, "*")</f>
         <v>2</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U2" s="2"/>
       <c r="V2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="W2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="AH2" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AI2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AJ2" t="str">
         <f>CONCATENATE(V2, ", ", W2,", ",X2)</f>
         <v xml:space="preserve">Rhea Karuturi, Yeshoda Karuturi, </v>
       </c>
+      <c r="AO2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP2">
+        <f>COUNTIF(AB:AB,AO2)</f>
+        <v>1</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS2">
+        <f>COUNTIF(L:L,AR2)</f>
+        <v>13</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AV2">
+        <f>COUNTIF(T:T,"1")</f>
+        <v>7</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AY2">
+        <f>COUNTIF(S:S,"0")</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1470,10 +1573,10 @@
         <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E3">
         <v>3000000</v>
@@ -1482,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H3">
         <v>3000000</v>
@@ -1497,25 +1600,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S19" si="0">SUM(COUNTIF(M3:R3, "Y"))</f>
@@ -1525,45 +1628,71 @@
         <f t="shared" ref="T3:T19" si="1">COUNTIF(V3:AA3, "*")</f>
         <v>2</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="U3" s="2"/>
       <c r="V3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="W3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AB3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AH3" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AI3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AJ3" t="str">
         <f t="shared" ref="AJ3:AJ16" si="2">CONCATENATE(V3, ", ", W3,", ",X3)</f>
         <v xml:space="preserve">Ishaan Kanoria, Sparsh Agarwal, </v>
       </c>
+      <c r="AO3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AP3">
+        <f>COUNTIF(AB:AB,AO3)</f>
+        <v>6</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS3">
+        <f>COUNTIF(L:L,AR3)</f>
+        <v>5</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AV3">
+        <f>COUNTIF(T:T,"2")</f>
+        <v>7</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AY3">
+        <f>COUNTIF(S:S,"1")</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1571,10 +1700,10 @@
         <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>10000000</v>
@@ -1583,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1598,25 +1727,25 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
@@ -1626,45 +1755,64 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="U4" s="2"/>
       <c r="V4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="W4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AB4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AH4" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AI4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="AJ4" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Dheeraj Bansal, Rahul Sachdeva, </v>
       </c>
+      <c r="AO4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" ref="AP3:AP11" si="3">COUNTIF(AB:AB,AO4)</f>
+        <v>1</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AV4">
+        <f>COUNTIF(T:T,"3")</f>
+        <v>4</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AY4">
+        <f>COUNTIF(S:S,"2")</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1672,10 +1820,10 @@
         <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>5000000</v>
@@ -1684,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H5">
         <v>5000000</v>
@@ -1699,25 +1847,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
@@ -1727,42 +1875,61 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="U5" s="2"/>
       <c r="V5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AB5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AI5" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AJ5" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Slony Gambhir, , </v>
       </c>
+      <c r="AO5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV5">
+        <f>COUNTIF(T:T,"4")</f>
+        <v>0</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AY5">
+        <f>COUNTIF(S:S,"3")</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1770,10 +1937,10 @@
         <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>20000000</v>
@@ -1782,7 +1949,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <v>10000000</v>
@@ -1797,25 +1964,25 @@
         <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
@@ -1825,42 +1992,61 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="U6" s="2"/>
       <c r="V6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AB6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AH6" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AI6" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AJ6" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Abhisek Baheti, , </v>
       </c>
+      <c r="AO6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV6">
+        <f>COUNTIF(T:T,"5")</f>
+        <v>0</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY6">
+        <f>COUNTIF(S:S,"4")</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1868,10 +2054,10 @@
         <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>7500000</v>
@@ -1880,7 +2066,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H7">
         <v>5000000</v>
@@ -1895,25 +2081,25 @@
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
@@ -1923,35 +2109,33 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="U7" s="2"/>
       <c r="V7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="W7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AB7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AE7" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AH7" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AI7" t="s">
         <v>15</v>
@@ -1960,19 +2144,40 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Uttam Kumar, Priyank Jain, </v>
       </c>
+      <c r="AO7" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>262</v>
+      </c>
+      <c r="AV7">
+        <f>COUNTIF(T:T,"6")</f>
+        <v>0</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>268</v>
+      </c>
+      <c r="AY7">
+        <f>COUNTIF(S:S,"5")</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>7500000</v>
@@ -1981,7 +2186,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1996,25 +2201,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
@@ -2024,56 +2229,68 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="U8" s="2"/>
+      <c r="V8" t="s">
+        <v>143</v>
+      </c>
+      <c r="W8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE8" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="V8" t="s">
-        <v>147</v>
-      </c>
-      <c r="W8" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC8" s="6" t="s">
+      <c r="AF8" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="AD8" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE8" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF8" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="AG8" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AH8" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AI8" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="AJ8" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Rebekah Sood, Ariella Blank, </v>
       </c>
+      <c r="AO8" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>269</v>
+      </c>
+      <c r="AY8">
+        <f>COUNTIF(S:S,"6")</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <v>30000000</v>
@@ -2082,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H9">
         <v>15000000</v>
@@ -2097,25 +2314,25 @@
         <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
@@ -2125,56 +2342,61 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U9" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="U9" s="2"/>
       <c r="V9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="W9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="X9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AB9" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AE9" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AH9" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AI9" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AJ9" t="str">
         <f t="shared" si="2"/>
         <v>Vinay Singhal, Shashank Vaishnav, Parveen Singhal</v>
       </c>
+      <c r="AO9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E10">
         <v>2000000</v>
@@ -2183,7 +2405,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H10">
         <v>2000000</v>
@@ -2198,25 +2420,25 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S10">
         <f t="shared" si="0"/>
@@ -2226,32 +2448,30 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>163</v>
-      </c>
+      <c r="U10" s="2"/>
       <c r="V10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AB10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AE10" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AF10" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG10" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AH10" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AI10" t="s">
         <v>12</v>
@@ -2260,19 +2480,26 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Pooja Bajaj, , </v>
       </c>
+      <c r="AO10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E11">
         <v>7500000</v>
@@ -2281,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H11">
         <v>10000000</v>
@@ -2296,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S11">
         <f t="shared" si="0"/>
@@ -2324,56 +2551,61 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U11" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="U11" s="2"/>
       <c r="V11" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="W11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AB11" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AE11" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AF11" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AG11" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AH11" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AI11" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AJ11" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Amigo Nikhil, Meher Sai, </v>
       </c>
+      <c r="AO11" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E12">
         <v>4000000</v>
@@ -2382,7 +2614,7 @@
         <v>2.5</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H12">
         <v>4000000</v>
@@ -2397,25 +2629,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S12">
         <f t="shared" si="0"/>
@@ -2425,59 +2657,57 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U12" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="U12" s="2"/>
       <c r="V12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="W12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="X12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AB12" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AC12" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AD12" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AE12" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AF12" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AG12" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AH12" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AI12" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AJ12" t="str">
         <f t="shared" si="2"/>
         <v>Vinit Patil, Geeta Patil, Darshil Savla</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E13">
         <v>7000000</v>
@@ -2486,7 +2716,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H13">
         <v>3500000</v>
@@ -2501,25 +2731,25 @@
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S13">
         <f t="shared" si="0"/>
@@ -2529,32 +2759,30 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U13" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="U13" s="2"/>
       <c r="V13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AB13" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AE13" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AF13" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AG13" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AH13" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AI13" t="s">
         <v>12</v>
@@ -2564,18 +2792,18 @@
         <v xml:space="preserve">Roshaan V Mishra, , </v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>10000000</v>
@@ -2584,7 +2812,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H14">
         <v>10000000</v>
@@ -2599,25 +2827,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S14">
         <f t="shared" si="0"/>
@@ -2627,56 +2855,54 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="U14" s="2"/>
+      <c r="V14" t="s">
         <v>185</v>
       </c>
-      <c r="V14" t="s">
-        <v>191</v>
-      </c>
       <c r="W14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AB14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AD14" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AE14" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AF14" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AG14" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AH14" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AI14" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AJ14" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Himanshu Adlakha, Nikita Malhotra, </v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>7500000</v>
@@ -2685,7 +2911,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2700,25 +2926,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
@@ -2728,53 +2954,51 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="U15" s="2"/>
       <c r="V15" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AB15" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AF15" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AG15" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AH15" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AI15" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="AJ15" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Ganesh Balakrishnan, , </v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E16">
         <v>10000000</v>
@@ -2783,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2798,25 +3022,25 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S16">
         <f t="shared" si="0"/>
@@ -2826,41 +3050,39 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U16" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="U16" s="2"/>
       <c r="V16" t="s">
+        <v>200</v>
+      </c>
+      <c r="W16" t="s">
+        <v>201</v>
+      </c>
+      <c r="X16" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG16" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI16" t="s">
         <v>206</v>
-      </c>
-      <c r="W16" t="s">
-        <v>207</v>
-      </c>
-      <c r="X16" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC16" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD16" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE16" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF16" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AG16" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH16" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>214</v>
       </c>
       <c r="AJ16" t="str">
         <f t="shared" si="2"/>
@@ -2871,14 +3093,14 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>224</v>
+      <c r="B17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" t="s">
+        <v>216</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E17">
         <v>5000000</v>
@@ -2887,7 +3109,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H17">
         <v>5000000</v>
@@ -2902,25 +3124,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="M17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" t="s">
+        <v>85</v>
+      </c>
+      <c r="O17" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="S17">
         <f t="shared" si="0"/>
@@ -2930,52 +3152,49 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U17" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="V17" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AB17" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AI17" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AJ17" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>248</v>
+      <c r="B18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E18">
         <v>10000000</v>
@@ -2984,7 +3203,7 @@
         <v>0.5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H18">
         <v>10000000</v>
@@ -2999,25 +3218,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>90</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="M18" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" t="s">
+        <v>84</v>
+      </c>
+      <c r="O18" t="s">
+        <v>84</v>
+      </c>
+      <c r="P18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>85</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="S18">
         <f t="shared" si="0"/>
@@ -3027,52 +3246,49 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U18" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="V18" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AB18" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="AE18" s="6" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AH18" s="6" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AI18" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AJ18" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>253</v>
+      <c r="B19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" t="s">
+        <v>245</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E19">
         <v>7500000</v>
@@ -3081,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3096,25 +3312,25 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>88</v>
+        <v>73</v>
+      </c>
+      <c r="M19" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O19" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>84</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="S19">
         <f t="shared" si="0"/>
@@ -3124,44 +3340,41 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U19" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="V19" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="W19" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="X19" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AB19" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AI19" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="AJ19" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D68C62-F928-4DF3-89CE-26A7E26F8F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AD2B58-0E44-4D76-BFF9-807E7C9BAAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="285">
   <si>
     <t>#</t>
   </si>
@@ -846,6 +846,51 @@
   </si>
   <si>
     <t>6 Sharks</t>
+  </si>
+  <si>
+    <t>No. of deals made by a Shark</t>
+  </si>
+  <si>
+    <t>Sharks</t>
+  </si>
+  <si>
+    <t>Founders Relation</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>Friends &amp; Family</t>
+  </si>
+  <si>
+    <t>Couple</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCZgq0kHCr8COZd-lnGnmz9w</t>
+  </si>
+  <si>
+    <t>Founders Relationship</t>
+  </si>
+  <si>
+    <t>Number of FR</t>
+  </si>
+  <si>
+    <t>Original Ask Valuation in INR Crores</t>
+  </si>
+  <si>
+    <t>Final Deal Valuation in INR Crores</t>
+  </si>
+  <si>
+    <t>Original Ask Amount in INR Lakhs</t>
+  </si>
+  <si>
+    <t>Final Deal Amount in INR Lakhs</t>
   </si>
 </sst>
 </file>
@@ -1262,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:BH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BH20" sqref="BH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1296,17 +1341,25 @@
     <col min="34" max="34" width="35" customWidth="1"/>
     <col min="35" max="35" width="31.77734375" customWidth="1"/>
     <col min="36" max="36" width="51.88671875" customWidth="1"/>
+    <col min="37" max="37" width="36" customWidth="1"/>
+    <col min="38" max="38" width="29.88671875" customWidth="1"/>
     <col min="41" max="41" width="28.21875" customWidth="1"/>
     <col min="42" max="42" width="23.109375" customWidth="1"/>
     <col min="44" max="44" width="19" customWidth="1"/>
     <col min="45" max="45" width="16.44140625" customWidth="1"/>
     <col min="47" max="47" width="20.21875" customWidth="1"/>
-    <col min="48" max="48" width="24.5546875" customWidth="1"/>
-    <col min="50" max="50" width="18.21875" customWidth="1"/>
+    <col min="48" max="48" width="28.6640625" customWidth="1"/>
+    <col min="50" max="50" width="26.109375" customWidth="1"/>
     <col min="51" max="51" width="28.44140625" customWidth="1"/>
+    <col min="53" max="53" width="27" customWidth="1"/>
+    <col min="54" max="54" width="26.44140625" customWidth="1"/>
+    <col min="56" max="56" width="27.5546875" customWidth="1"/>
+    <col min="57" max="57" width="18.109375" customWidth="1"/>
+    <col min="59" max="59" width="29.44140625" customWidth="1"/>
+    <col min="60" max="60" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1420,9 @@
       <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1"/>
+      <c r="U1" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1413,6 +1468,12 @@
       <c r="AJ1" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="AO1" s="1" t="s">
         <v>247</v>
       </c>
@@ -1437,8 +1498,26 @@
       <c r="AY1" s="1" t="s">
         <v>256</v>
       </c>
+      <c r="BA1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>284</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1501,7 +1580,9 @@
         <f>COUNTIF(V2:AA2, "*")</f>
         <v>2</v>
       </c>
-      <c r="U2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="V2" t="s">
         <v>89</v>
       </c>
@@ -1536,6 +1617,14 @@
         <f>CONCATENATE(V2, ", ", W2,", ",X2)</f>
         <v xml:space="preserve">Rhea Karuturi, Yeshoda Karuturi, </v>
       </c>
+      <c r="AK2">
+        <f xml:space="preserve"> (( E2/F2 ) * 100) / 10000000</f>
+        <v>80</v>
+      </c>
+      <c r="AL2">
+        <f>IFERROR(((H2/I2)*100)/10000000, 0)</f>
+        <v>50</v>
+      </c>
       <c r="AO2" t="s">
         <v>88</v>
       </c>
@@ -1564,8 +1653,30 @@
         <f>COUNTIF(S:S,"0")</f>
         <v>5</v>
       </c>
+      <c r="BA2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB2">
+        <f>COUNTIF(M:M,"Y")</f>
+        <v>5</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>273</v>
+      </c>
+      <c r="BE2">
+        <f>COUNTIF(U:U,BD2)</f>
+        <v>2</v>
+      </c>
+      <c r="BG2">
+        <f>E2/100000</f>
+        <v>80</v>
+      </c>
+      <c r="BH2">
+        <f>H2/100000</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1628,7 +1739,9 @@
         <f t="shared" ref="T3:T19" si="1">COUNTIF(V3:AA3, "*")</f>
         <v>2</v>
       </c>
-      <c r="U3" s="2"/>
+      <c r="U3" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="V3" t="s">
         <v>104</v>
       </c>
@@ -1663,6 +1776,14 @@
         <f t="shared" ref="AJ3:AJ16" si="2">CONCATENATE(V3, ", ", W3,", ",X3)</f>
         <v xml:space="preserve">Ishaan Kanoria, Sparsh Agarwal, </v>
       </c>
+      <c r="AK3">
+        <f t="shared" ref="AK3:AK19" si="3" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
+        <v>6</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" ref="AL3:AL19" si="4">IFERROR(((H3/I3)*100)/10000000, 0)</f>
+        <v>2</v>
+      </c>
       <c r="AO3" t="s">
         <v>214</v>
       </c>
@@ -1691,8 +1812,30 @@
         <f>COUNTIF(S:S,"1")</f>
         <v>3</v>
       </c>
+      <c r="BA3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB3">
+        <f>COUNTIF(N:N,"Y")</f>
+        <v>5</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>275</v>
+      </c>
+      <c r="BE3">
+        <f t="shared" ref="BE3:BE6" si="5">COUNTIF(U:U,BD3)</f>
+        <v>5</v>
+      </c>
+      <c r="BG3">
+        <f t="shared" ref="BG3:BG24" si="6">E3/100000</f>
+        <v>30</v>
+      </c>
+      <c r="BH3">
+        <f t="shared" ref="BH3:BH19" si="7">H3/100000</f>
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1755,7 +1898,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U4" s="2"/>
+      <c r="U4" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="V4" t="s">
         <v>113</v>
       </c>
@@ -1790,11 +1935,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Dheeraj Bansal, Rahul Sachdeva, </v>
       </c>
+      <c r="AK4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AO4" t="s">
         <v>112</v>
       </c>
       <c r="AP4">
-        <f t="shared" ref="AP3:AP11" si="3">COUNTIF(AB:AB,AO4)</f>
+        <f t="shared" ref="AP4:AP11" si="8">COUNTIF(AB:AB,AO4)</f>
         <v>1</v>
       </c>
       <c r="AU4" t="s">
@@ -1811,8 +1964,30 @@
         <f>COUNTIF(S:S,"2")</f>
         <v>6</v>
       </c>
+      <c r="BA4" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB4">
+        <f>COUNTIF(O:O,"Y")</f>
+        <v>5</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE4">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="BG4">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="BH4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1875,7 +2050,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U5" s="2"/>
+      <c r="U5" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="V5" t="s">
         <v>120</v>
       </c>
@@ -1907,11 +2084,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Slony Gambhir, , </v>
       </c>
+      <c r="AK5">
+        <f t="shared" si="3"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
       <c r="AO5" t="s">
         <v>119</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AU5" t="s">
@@ -1928,8 +2113,30 @@
         <f>COUNTIF(S:S,"3")</f>
         <v>3</v>
       </c>
+      <c r="BA5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB5">
+        <f>COUNTIF(P:P,"Y")</f>
+        <v>6</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>277</v>
+      </c>
+      <c r="BE5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BH5">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1992,7 +2199,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U6" s="2"/>
+      <c r="U6" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="V6" t="s">
         <v>129</v>
       </c>
@@ -2024,11 +2233,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Abhisek Baheti, , </v>
       </c>
+      <c r="AK6">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
       <c r="AO6" t="s">
         <v>128</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AU6" t="s">
@@ -2045,8 +2262,30 @@
         <f>COUNTIF(S:S,"4")</f>
         <v>1</v>
       </c>
+      <c r="BA6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB6">
+        <f>COUNTIF(Q:Q,"Y")</f>
+        <v>7</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>276</v>
+      </c>
+      <c r="BE6">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="BG6">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="BH6">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2109,7 +2348,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U7" s="2"/>
+      <c r="U7" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="V7" t="s">
         <v>135</v>
       </c>
@@ -2144,11 +2385,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Uttam Kumar, Priyank Jain, </v>
       </c>
+      <c r="AK7">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="4"/>
+        <v>2.7777777777777777</v>
+      </c>
       <c r="AO7" t="s">
         <v>248</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AU7" t="s">
@@ -2165,8 +2414,23 @@
         <f>COUNTIF(S:S,"5")</f>
         <v>0</v>
       </c>
+      <c r="BA7" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB7">
+        <f>COUNTIF(R:R,"Y")</f>
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH7">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2229,7 +2493,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U8" s="2"/>
+      <c r="U8" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="V8" t="s">
         <v>143</v>
       </c>
@@ -2264,11 +2530,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Rebekah Sood, Ariella Blank, </v>
       </c>
+      <c r="AK8">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AO8" t="s">
         <v>250</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AX8" t="s">
@@ -2278,8 +2552,16 @@
         <f>COUNTIF(S:S,"6")</f>
         <v>0</v>
       </c>
+      <c r="BG8">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2342,7 +2624,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U9" s="2"/>
+      <c r="U9" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="V9" t="s">
         <v>149</v>
       </c>
@@ -2366,6 +2650,9 @@
       </c>
       <c r="AF9" s="6" t="s">
         <v>146</v>
+      </c>
+      <c r="AG9" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="AH9" s="6" t="s">
         <v>131</v>
@@ -2377,15 +2664,31 @@
         <f t="shared" si="2"/>
         <v>Vinay Singhal, Shashank Vaishnav, Parveen Singhal</v>
       </c>
+      <c r="AK9">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
       <c r="AO9" t="s">
         <v>193</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="BG9">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="BH9">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2448,7 +2751,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U10" s="2"/>
+      <c r="U10" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="V10" t="s">
         <v>157</v>
       </c>
@@ -2480,15 +2785,31 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Pooja Bajaj, , </v>
       </c>
+      <c r="AK10">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AO10" t="s">
         <v>249</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
+      <c r="BG10">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="BH10">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2551,7 +2872,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U11" s="2"/>
+      <c r="U11" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="V11" t="s">
         <v>164</v>
       </c>
@@ -2586,15 +2909,31 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Amigo Nikhil, Meher Sai, </v>
       </c>
+      <c r="AK11">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="4"/>
+        <v>14.992503748125937</v>
+      </c>
       <c r="AO11" t="s">
         <v>241</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="BG11">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH11">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2657,7 +2996,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U12" s="2"/>
+      <c r="U12" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="V12" t="s">
         <v>170</v>
       </c>
@@ -2695,8 +3036,24 @@
         <f t="shared" si="2"/>
         <v>Vinit Patil, Geeta Patil, Darshil Savla</v>
       </c>
+      <c r="AK12">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="BG12">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="BH12">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2759,7 +3116,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U13" s="2"/>
+      <c r="U13" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="V13" t="s">
         <v>178</v>
       </c>
@@ -2791,8 +3150,24 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Roshaan V Mishra, , </v>
       </c>
+      <c r="AK13">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="BG13">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="BH13">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2855,7 +3230,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U14" s="2"/>
+      <c r="U14" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="V14" t="s">
         <v>185</v>
       </c>
@@ -2890,8 +3267,24 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Himanshu Adlakha, Nikita Malhotra, </v>
       </c>
+      <c r="AK14">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="BG14">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="BH14">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2954,7 +3347,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U15" s="2"/>
+      <c r="U15" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="V15" t="s">
         <v>194</v>
       </c>
@@ -2986,8 +3381,24 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">Ganesh Balakrishnan, , </v>
       </c>
+      <c r="AK15">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3050,7 +3461,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U16" s="2"/>
+      <c r="U16" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="V16" t="s">
         <v>200</v>
       </c>
@@ -3088,8 +3501,24 @@
         <f t="shared" si="2"/>
         <v>Gaurav Chhabra, Nitin Chhabra, Piyush</v>
       </c>
+      <c r="AK16">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="BH16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3152,6 +3581,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="U17" t="s">
+        <v>274</v>
+      </c>
       <c r="V17" t="s">
         <v>213</v>
       </c>
@@ -3182,8 +3614,24 @@
       <c r="AJ17" t="s">
         <v>213</v>
       </c>
+      <c r="AK17">
+        <f t="shared" si="3"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+      <c r="BG17">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BH17">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3246,6 +3694,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="U18" t="s">
+        <v>274</v>
+      </c>
       <c r="V18" t="s">
         <v>220</v>
       </c>
@@ -3276,8 +3727,24 @@
       <c r="AJ18" t="s">
         <v>220</v>
       </c>
+      <c r="AK18">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="BG18">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="BH18">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3340,6 +3807,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
+      <c r="U19" t="s">
+        <v>275</v>
+      </c>
       <c r="V19" t="s">
         <v>224</v>
       </c>
@@ -3375,6 +3845,22 @@
       </c>
       <c r="AJ19" t="s">
         <v>227</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH19">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3486,8 +3972,9 @@
     <hyperlink ref="AC19" r:id="rId105" xr:uid="{AD07CC9D-AB11-41C7-9567-B1C9920669D5}"/>
     <hyperlink ref="AD19" r:id="rId106" xr:uid="{54337246-83AF-4E6F-8E89-B6BEE801F13C}"/>
     <hyperlink ref="AG19" r:id="rId107" xr:uid="{6C9D9B4D-01EF-4334-9C77-D62B105314E5}"/>
+    <hyperlink ref="AG9" r:id="rId108" xr:uid="{EF90CFC8-1B0C-419E-9FEE-22DFB70336C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId108"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId109"/>
 </worksheet>
 </file>
--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AD2B58-0E44-4D76-BFF9-807E7C9BAAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534DF7DB-0BFF-4083-957C-271D9ABCFB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="322">
   <si>
     <t>#</t>
   </si>
@@ -891,6 +891,117 @@
   </si>
   <si>
     <t>Final Deal Amount in INR Lakhs</t>
+  </si>
+  <si>
+    <t>Gunjan Apps Studios</t>
+  </si>
+  <si>
+    <t>An app for children to learn by gamification</t>
+  </si>
+  <si>
+    <t>Sourav Gupta</t>
+  </si>
+  <si>
+    <t>Gunjan Gupta</t>
+  </si>
+  <si>
+    <t>https://gunjanappstudios.com/</t>
+  </si>
+  <si>
+    <t>Sourav Gupta, Gunjan Gupta</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/KidsEducationalTV/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/gunjanappsstudios</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/gunjanapps_studios/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/gunjanappstudios/</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>₹2.5 Crore for 1% equity</t>
+  </si>
+  <si>
+    <t>The Simply Salad</t>
+  </si>
+  <si>
+    <t>https://thesimplysalad.com/</t>
+  </si>
+  <si>
+    <t>Payal Pathak</t>
+  </si>
+  <si>
+    <t>Soham Payal Pathak</t>
+  </si>
+  <si>
+    <t>Varieties of Salad</t>
+  </si>
+  <si>
+    <t>₹30 Lakhs for 10% equity</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/thesimplysalad/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100089285553796</t>
+  </si>
+  <si>
+    <t>Aman, Vineeta</t>
+  </si>
+  <si>
+    <t>Payal Pathak, Soham Payal Pathak</t>
+  </si>
+  <si>
+    <t>Adarsh Kachappilly</t>
+  </si>
+  <si>
+    <t>Tapas Pandey</t>
+  </si>
+  <si>
+    <t>Varad Patil</t>
+  </si>
+  <si>
+    <t>Adarsh Kachappilly, Tapas Pandey, Varad Patil</t>
+  </si>
+  <si>
+    <t>https://www.ayudevices.com/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCAIr6KZYJKauzbCcqfy39Ng</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AyuDevices/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ayu_devices_pvt/?hl=en</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Ayu_Devices</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/ayu-devices/</t>
+  </si>
+  <si>
+    <t>Ayu Devices</t>
+  </si>
+  <si>
+    <t>Digital Stethescope ( AyuSynk )</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>₹1 Crore for 1.5% equity</t>
+  </si>
+  <si>
+    <t>₹50 Lakhs for 3.5% equity and ₹50 Lakhs debt @10% interest</t>
   </si>
 </sst>
 </file>
@@ -982,7 +1093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -992,6 +1103,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1307,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH19"/>
+  <dimension ref="A1:BH22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BH20" sqref="BH20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1330,7 +1442,7 @@
     <col min="20" max="20" width="32" customWidth="1"/>
     <col min="21" max="21" width="22.109375" customWidth="1"/>
     <col min="22" max="22" width="18.44140625" customWidth="1"/>
-    <col min="23" max="23" width="15.77734375" customWidth="1"/>
+    <col min="23" max="23" width="21" customWidth="1"/>
     <col min="24" max="24" width="18.44140625" customWidth="1"/>
     <col min="28" max="28" width="25.88671875" customWidth="1"/>
     <col min="29" max="29" width="21.88671875" customWidth="1"/>
@@ -1637,7 +1749,7 @@
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU2" t="s">
         <v>257</v>
@@ -1651,21 +1763,21 @@
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD2" t="s">
         <v>273</v>
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -1732,11 +1844,11 @@
         <v>84</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S19" si="0">SUM(COUNTIF(M3:R3, "Y"))</f>
+        <f t="shared" ref="S3:S22" si="0">SUM(COUNTIF(M3:R3, "Y"))</f>
         <v>3</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T19" si="1">COUNTIF(V3:AA3, "*")</f>
+        <f t="shared" ref="T3:T22" si="1">COUNTIF(V3:AA3, "*")</f>
         <v>2</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -1777,11 +1889,11 @@
         <v xml:space="preserve">Ishaan Kanoria, Sparsh Agarwal, </v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK19" si="3" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK3:AK22" si="3" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
         <v>6</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL19" si="4">IFERROR(((H3/I3)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL3:AL22" si="4">IFERROR(((H3/I3)*100)/10000000, 0)</f>
         <v>2</v>
       </c>
       <c r="AO3" t="s">
@@ -1789,28 +1901,28 @@
       </c>
       <c r="AP3">
         <f>COUNTIF(AB:AB,AO3)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR3" t="s">
         <v>73</v>
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU3" t="s">
         <v>258</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX3" t="s">
         <v>264</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
@@ -1824,14 +1936,14 @@
       </c>
       <c r="BE3">
         <f t="shared" ref="BE3:BE6" si="5">COUNTIF(U:U,BD3)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG3">
-        <f t="shared" ref="BG3:BG24" si="6">E3/100000</f>
+        <f t="shared" ref="BG3:BG22" si="6">E3/100000</f>
         <v>30</v>
       </c>
       <c r="BH3">
-        <f t="shared" ref="BH3:BH19" si="7">H3/100000</f>
+        <f t="shared" ref="BH3:BH22" si="7">H3/100000</f>
         <v>30</v>
       </c>
     </row>
@@ -1947,7 +2059,7 @@
         <v>112</v>
       </c>
       <c r="AP4">
-        <f t="shared" ref="AP4:AP11" si="8">COUNTIF(AB:AB,AO4)</f>
+        <f t="shared" ref="AP4:AP13" si="8">COUNTIF(AB:AB,AO4)</f>
         <v>1</v>
       </c>
       <c r="AU4" t="s">
@@ -1955,21 +2067,21 @@
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="s">
         <v>265</v>
       </c>
       <c r="AY4">
         <f>COUNTIF(S:S,"2")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA4" t="s">
         <v>15</v>
       </c>
       <c r="BB4">
         <f>COUNTIF(O:O,"Y")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD4" t="s">
         <v>274</v>
@@ -2118,14 +2230,14 @@
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD5" t="s">
         <v>277</v>
       </c>
       <c r="BE5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG5">
         <f t="shared" si="6"/>
@@ -3044,6 +3156,13 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
+      <c r="AO12" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="BG12">
         <f t="shared" si="6"/>
         <v>40</v>
@@ -3158,6 +3277,13 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
+      <c r="AO13" t="s">
+        <v>319</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="BG13">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -3861,6 +3987,357 @@
       <c r="BH19">
         <f t="shared" si="7"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E20">
+        <v>25000000</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N20" t="s">
+        <v>84</v>
+      </c>
+      <c r="O20" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>84</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U20" t="s">
+        <v>277</v>
+      </c>
+      <c r="V20" t="s">
+        <v>287</v>
+      </c>
+      <c r="W20" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>290</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="BH20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E21">
+        <v>3000000</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H21">
+        <v>3000000</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" t="s">
+        <v>84</v>
+      </c>
+      <c r="N21" t="s">
+        <v>84</v>
+      </c>
+      <c r="O21" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>84</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U21" t="s">
+        <v>273</v>
+      </c>
+      <c r="V21" t="s">
+        <v>299</v>
+      </c>
+      <c r="W21" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="BG21">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="BH21">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E22">
+        <v>10000000</v>
+      </c>
+      <c r="F22">
+        <v>1.5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H22">
+        <v>5000000</v>
+      </c>
+      <c r="I22">
+        <v>3.5</v>
+      </c>
+      <c r="J22">
+        <v>5000000</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22" t="s">
+        <v>86</v>
+      </c>
+      <c r="M22" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" t="s">
+        <v>84</v>
+      </c>
+      <c r="O22" t="s">
+        <v>84</v>
+      </c>
+      <c r="P22" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>84</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U22" t="s">
+        <v>275</v>
+      </c>
+      <c r="V22" t="s">
+        <v>307</v>
+      </c>
+      <c r="W22" t="s">
+        <v>308</v>
+      </c>
+      <c r="X22" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="3"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="4"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="BG22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="BH22">
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3973,8 +4450,26 @@
     <hyperlink ref="AD19" r:id="rId106" xr:uid="{54337246-83AF-4E6F-8E89-B6BEE801F13C}"/>
     <hyperlink ref="AG19" r:id="rId107" xr:uid="{6C9D9B4D-01EF-4334-9C77-D62B105314E5}"/>
     <hyperlink ref="AG9" r:id="rId108" xr:uid="{EF90CFC8-1B0C-419E-9FEE-22DFB70336C1}"/>
+    <hyperlink ref="AH20" r:id="rId109" xr:uid="{F9A71871-1AEF-4770-9CFA-FA705B781E6A}"/>
+    <hyperlink ref="AG20" r:id="rId110" xr:uid="{A70DCFB5-4803-4816-8166-25C8621E47F4}"/>
+    <hyperlink ref="AF20" r:id="rId111" xr:uid="{28228CE7-8831-4EE6-B0D4-E6AE143370BF}"/>
+    <hyperlink ref="AE20" r:id="rId112" xr:uid="{E5FDB21A-5135-45A6-906A-63836D61E2AC}"/>
+    <hyperlink ref="AD20" r:id="rId113" xr:uid="{402E4943-6A28-4B45-B78D-8065B182F202}"/>
+    <hyperlink ref="AC20" r:id="rId114" xr:uid="{464DFC8F-9442-455E-BA3B-D78FFB70B239}"/>
+    <hyperlink ref="AH21" r:id="rId115" xr:uid="{7579159A-CA46-4EF1-91D6-0B7BD15DD312}"/>
+    <hyperlink ref="AE21" r:id="rId116" xr:uid="{726A0F9D-A174-4943-A78B-EB793AEFE39C}"/>
+    <hyperlink ref="AF21" r:id="rId117" xr:uid="{3AFD2E78-3C2F-4C86-BCFA-93F03C8B0429}"/>
+    <hyperlink ref="AG21" r:id="rId118" xr:uid="{F21F0A70-7DFE-4E40-A879-DFBB870ADBE1}"/>
+    <hyperlink ref="AC21" r:id="rId119" xr:uid="{65870480-A23F-484A-A605-E5F61027C6A8}"/>
+    <hyperlink ref="AD21" r:id="rId120" xr:uid="{587BFA9A-0A39-4024-8BE6-A0CE2354D2AA}"/>
+    <hyperlink ref="AH22" r:id="rId121" xr:uid="{F3CEE5EB-C6D4-47F9-81E3-1AEF33D37F1F}"/>
+    <hyperlink ref="AG22" r:id="rId122" xr:uid="{AE656E3F-8AA5-4456-9098-BB41CDF2BC64}"/>
+    <hyperlink ref="AF22" r:id="rId123" xr:uid="{D61CF161-FC43-42BE-90BA-C6FC7181E1A5}"/>
+    <hyperlink ref="AE22" r:id="rId124" xr:uid="{701A552C-F56F-44CE-AB71-47C634C4A8EC}"/>
+    <hyperlink ref="AC22" r:id="rId125" xr:uid="{E893A4DC-20B4-4084-AB9D-4F06D84F91C5}"/>
+    <hyperlink ref="AD22" r:id="rId126" xr:uid="{966A1D77-5787-4B86-9055-E0D8B2D84DA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId109"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId127"/>
 </worksheet>
 </file>
--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534DF7DB-0BFF-4083-957C-271D9ABCFB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EB827D-A1C9-463A-857A-317897402711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -1093,7 +1093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1103,7 +1103,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1421,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
   <dimension ref="A1:BH22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4041,7 +4040,7 @@
       <c r="Q20" t="s">
         <v>84</v>
       </c>
-      <c r="R20" s="9" t="s">
+      <c r="R20" s="7" t="s">
         <v>84</v>
       </c>
       <c r="S20">
@@ -4157,7 +4156,7 @@
       <c r="Q21" t="s">
         <v>84</v>
       </c>
-      <c r="R21" s="9" t="s">
+      <c r="R21" s="7" t="s">
         <v>84</v>
       </c>
       <c r="S21">
@@ -4273,7 +4272,7 @@
       <c r="Q22" t="s">
         <v>84</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="R22" s="7" t="s">
         <v>84</v>
       </c>
       <c r="S22">

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EB827D-A1C9-463A-857A-317897402711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EAE3FB-F4F3-4A3D-A7AA-0B20FCFF91CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="350">
   <si>
     <t>#</t>
   </si>
@@ -302,9 +302,6 @@
     <t>Final Deal Debt Interest in %</t>
   </si>
   <si>
-    <t>Retail</t>
-  </si>
-  <si>
     <t>Rhea Karuturi</t>
   </si>
   <si>
@@ -923,9 +920,6 @@
     <t>https://www.linkedin.com/company/gunjanappstudios/</t>
   </si>
   <si>
-    <t>App</t>
-  </si>
-  <si>
     <t>₹2.5 Crore for 1% equity</t>
   </si>
   <si>
@@ -1002,6 +996,96 @@
   </si>
   <si>
     <t>₹50 Lakhs for 3.5% equity and ₹50 Lakhs debt @10% interest</t>
+  </si>
+  <si>
+    <t>Atypical Advantage</t>
+  </si>
+  <si>
+    <t>https://atypicaladvantage.in/</t>
+  </si>
+  <si>
+    <t>Inclusive Platform for people with disabilities</t>
+  </si>
+  <si>
+    <t>Vineet Saraiwala</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCJMTgM6q67G0Dz5D8DdUvzw</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AtypicalAdvantage</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AtypicalAdv</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/atypical-advantage</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/atypicaladvantage</t>
+  </si>
+  <si>
+    <t>₹30 Lakhs for 1% equity</t>
+  </si>
+  <si>
+    <t>₹30 Lakhs for 3% equity</t>
+  </si>
+  <si>
+    <t>House of Chikankari</t>
+  </si>
+  <si>
+    <t>https://www.houseofchikankari.in/</t>
+  </si>
+  <si>
+    <t>Aakriti Rawal, Poonam Rawal</t>
+  </si>
+  <si>
+    <t>Aakriti Rawal</t>
+  </si>
+  <si>
+    <t>Poonal Rawal</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/houseofchikankariin-111272640697261</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/houseofchikankari.in/?hl=en</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/company/house-of-chikankari</t>
+  </si>
+  <si>
+    <t>Exclusive Lucknow Chikankari Kurta Collections</t>
+  </si>
+  <si>
+    <t>₹75 Lakhs for 3.75% equity</t>
+  </si>
+  <si>
+    <t>Magic of Memories</t>
+  </si>
+  <si>
+    <t>https://themagicofmemories.com/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/the_magic_of_memories/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Preetymago/</t>
+  </si>
+  <si>
+    <t>Preety Maggo</t>
+  </si>
+  <si>
+    <t>Jewellery infused with DNA items</t>
+  </si>
+  <si>
+    <t>₹25 Lakhs for 5% equity</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>Consumer</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1103,6 +1187,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1410,7 +1496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1418,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH22"/>
+  <dimension ref="A1:BH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1532,7 +1618,7 @@
         <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>18</v>
@@ -1574,58 +1660,58 @@
         <v>30</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.3">
@@ -1692,37 +1778,37 @@
         <v>2</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W2" t="s">
         <v>89</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AB2" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AB2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="AI2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ2" t="str">
         <f>CONCATENATE(V2, ", ", W2,", ",X2)</f>
@@ -1737,7 +1823,7 @@
         <v>50</v>
       </c>
       <c r="AO2" t="s">
-        <v>88</v>
+        <v>349</v>
       </c>
       <c r="AP2">
         <f>COUNTIF(AB:AB,AO2)</f>
@@ -1748,35 +1834,35 @@
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -1843,60 +1929,60 @@
         <v>84</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S22" si="0">SUM(COUNTIF(M3:R3, "Y"))</f>
+        <f t="shared" ref="S3:S25" si="0">SUM(COUNTIF(M3:R3, "Y"))</f>
         <v>3</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T22" si="1">COUNTIF(V3:AA3, "*")</f>
+        <f t="shared" ref="T3:T25" si="1">COUNTIF(V3:AA3, "*")</f>
         <v>2</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V3" t="s">
+        <v>103</v>
+      </c>
+      <c r="W3" t="s">
         <v>104</v>
       </c>
-      <c r="W3" t="s">
-        <v>105</v>
-      </c>
       <c r="AB3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AD3" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="AE3" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AH3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AJ3" t="str">
         <f t="shared" ref="AJ3:AJ16" si="2">CONCATENATE(V3, ", ", W3,", ",X3)</f>
         <v xml:space="preserve">Ishaan Kanoria, Sparsh Agarwal, </v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK22" si="3" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK3:AK25" si="3" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
         <v>6</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL22" si="4">IFERROR(((H3/I3)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL3:AL25" si="4">IFERROR(((H3/I3)*100)/10000000, 0)</f>
         <v>2</v>
       </c>
       <c r="AO3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AP3">
         <f>COUNTIF(AB:AB,AO3)</f>
@@ -1907,17 +1993,17 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
@@ -1931,18 +2017,18 @@
         <v>5</v>
       </c>
       <c r="BD3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BE3">
         <f t="shared" ref="BE3:BE6" si="5">COUNTIF(U:U,BD3)</f>
         <v>6</v>
       </c>
       <c r="BG3">
-        <f t="shared" ref="BG3:BG22" si="6">E3/100000</f>
+        <f t="shared" ref="BG3:BG25" si="6">E3/100000</f>
         <v>30</v>
       </c>
       <c r="BH3">
-        <f t="shared" ref="BH3:BH22" si="7">H3/100000</f>
+        <f t="shared" ref="BH3:BH25" si="7">H3/100000</f>
         <v>30</v>
       </c>
     </row>
@@ -2010,37 +2096,37 @@
         <v>2</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V4" t="s">
+        <v>112</v>
+      </c>
+      <c r="W4" t="s">
         <v>113</v>
       </c>
-      <c r="W4" t="s">
-        <v>114</v>
-      </c>
       <c r="AB4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD4" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="AD4" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="AE4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AF4" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="AH4" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ4" t="str">
         <f t="shared" si="2"/>
@@ -2055,25 +2141,25 @@
         <v>0</v>
       </c>
       <c r="AO4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP4">
         <f t="shared" ref="AP4:AP13" si="8">COUNTIF(AB:AB,AO4)</f>
         <v>1</v>
       </c>
       <c r="AU4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
         <v>5</v>
       </c>
       <c r="AX4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AY4">
         <f>COUNTIF(S:S,"2")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA4" t="s">
         <v>15</v>
@@ -2083,11 +2169,11 @@
         <v>6</v>
       </c>
       <c r="BD4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BE4">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BG4">
         <f t="shared" si="6"/>
@@ -2162,34 +2248,34 @@
         <v>1</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB5" t="s">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="AC5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="AD5" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE5" s="6" t="s">
+      <c r="AF5" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AF5" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="AG5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AI5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AJ5" t="str">
         <f t="shared" si="2"/>
@@ -2204,21 +2290,21 @@
         <v>5</v>
       </c>
       <c r="AO5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AP5">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AV5">
         <f>COUNTIF(T:T,"4")</f>
         <v>0</v>
       </c>
       <c r="AX5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AY5">
         <f>COUNTIF(S:S,"3")</f>
@@ -2229,10 +2315,10 @@
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BE5">
         <f t="shared" si="5"/>
@@ -2311,34 +2397,34 @@
         <v>1</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD6" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AD6" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="AE6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF6" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AF6" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="AG6" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AH6" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AJ6" t="str">
         <f t="shared" si="2"/>
@@ -2353,21 +2439,21 @@
         <v>10</v>
       </c>
       <c r="AO6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AP6">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AU6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AV6">
         <f>COUNTIF(T:T,"5")</f>
         <v>0</v>
       </c>
       <c r="AX6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AY6">
         <f>COUNTIF(S:S,"4")</f>
@@ -2378,10 +2464,10 @@
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BE6">
         <f t="shared" si="5"/>
@@ -2460,34 +2546,34 @@
         <v>2</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W7" t="s">
         <v>135</v>
       </c>
-      <c r="W7" t="s">
-        <v>136</v>
-      </c>
       <c r="AB7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC7" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD7" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AE7" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="AE7" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="AF7" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH7" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI7" t="s">
         <v>15</v>
@@ -2505,21 +2591,21 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="AO7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AP7">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AU7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AV7">
         <f>COUNTIF(T:T,"6")</f>
         <v>0</v>
       </c>
       <c r="AX7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AY7">
         <f>COUNTIF(S:S,"5")</f>
@@ -2546,7 +2632,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>48</v>
@@ -2605,37 +2691,37 @@
         <v>2</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V8" t="s">
+        <v>142</v>
+      </c>
+      <c r="W8" t="s">
         <v>143</v>
       </c>
-      <c r="W8" t="s">
-        <v>144</v>
-      </c>
       <c r="AB8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG8" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="AD8" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE8" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF8" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG8" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="AH8" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ8" t="str">
         <f t="shared" si="2"/>
@@ -2650,14 +2736,14 @@
         <v>0</v>
       </c>
       <c r="AO8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AP8">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AX8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AY8">
         <f>COUNTIF(S:S,"6")</f>
@@ -2677,7 +2763,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>49</v>
@@ -2736,40 +2822,40 @@
         <v>3</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W9" t="s">
+        <v>150</v>
+      </c>
+      <c r="X9" t="s">
         <v>151</v>
       </c>
-      <c r="X9" t="s">
-        <v>152</v>
-      </c>
       <c r="AB9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AC9" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF9" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="AD9" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE9" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF9" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="AG9" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AH9" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AJ9" t="str">
         <f t="shared" si="2"/>
@@ -2784,11 +2870,11 @@
         <v>250</v>
       </c>
       <c r="AO9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AP9">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BG9">
         <f t="shared" si="6"/>
@@ -2804,7 +2890,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>50</v>
@@ -2863,31 +2949,31 @@
         <v>1</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB10" t="s">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="AC10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE10" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF10" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG10" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="AD10" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF10" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG10" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="AH10" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AI10" t="s">
         <v>12</v>
@@ -2905,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="AO10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AP10">
         <f t="shared" si="8"/>
@@ -2984,37 +3070,37 @@
         <v>2</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V11" t="s">
+        <v>163</v>
+      </c>
+      <c r="W11" t="s">
         <v>164</v>
       </c>
-      <c r="W11" t="s">
-        <v>165</v>
-      </c>
       <c r="AB11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AC11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE11" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="AD11" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="AF11" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG11" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AH11" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AI11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ11" t="str">
         <f t="shared" si="2"/>
@@ -3029,11 +3115,11 @@
         <v>14.992503748125937</v>
       </c>
       <c r="AO11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AP11">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG11">
         <f t="shared" si="6"/>
@@ -3108,40 +3194,40 @@
         <v>3</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V12" t="s">
+        <v>169</v>
+      </c>
+      <c r="W12" t="s">
         <v>170</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>171</v>
       </c>
-      <c r="X12" t="s">
-        <v>172</v>
-      </c>
       <c r="AB12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC12" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD12" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="AD12" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="AE12" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF12" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG12" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH12" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AJ12" t="str">
         <f t="shared" si="2"/>
@@ -3156,7 +3242,7 @@
         <v>10</v>
       </c>
       <c r="AO12" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="AP12">
         <f t="shared" si="8"/>
@@ -3235,31 +3321,31 @@
         <v>1</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AB13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AE13" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF13" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG13" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AH13" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI13" t="s">
         <v>12</v>
@@ -3277,7 +3363,7 @@
         <v>7</v>
       </c>
       <c r="AO13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AP13">
         <f t="shared" si="8"/>
@@ -3297,7 +3383,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>54</v>
@@ -3356,37 +3442,37 @@
         <v>2</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V14" t="s">
+        <v>184</v>
+      </c>
+      <c r="W14" t="s">
         <v>185</v>
       </c>
-      <c r="W14" t="s">
-        <v>186</v>
-      </c>
       <c r="AB14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC14" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD14" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE14" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG14" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="AD14" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE14" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF14" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG14" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="AH14" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AI14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AJ14" t="str">
         <f t="shared" si="2"/>
@@ -3473,34 +3559,34 @@
         <v>1</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF15" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG15" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH15" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ15" t="str">
         <f t="shared" si="2"/>
@@ -3587,40 +3673,40 @@
         <v>3</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V16" t="s">
+        <v>199</v>
+      </c>
+      <c r="W16" t="s">
         <v>200</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>201</v>
       </c>
-      <c r="X16" t="s">
-        <v>202</v>
-      </c>
       <c r="AB16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AC16" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE16" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AD16" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE16" s="6" t="s">
-        <v>198</v>
-      </c>
       <c r="AF16" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG16" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AG16" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="AH16" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ16" t="str">
         <f t="shared" si="2"/>
@@ -3648,13 +3734,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E17">
         <v>5000000</v>
@@ -3663,7 +3749,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H17">
         <v>5000000</v>
@@ -3707,37 +3793,37 @@
         <v>1</v>
       </c>
       <c r="U17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V17" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB17" t="s">
         <v>213</v>
       </c>
-      <c r="AB17" t="s">
-        <v>214</v>
-      </c>
       <c r="AC17" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD17" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="AD17" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="AE17" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK17">
         <f t="shared" si="3"/>
@@ -3761,13 +3847,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E18">
         <v>10000000</v>
@@ -3776,7 +3862,7 @@
         <v>0.5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H18">
         <v>10000000</v>
@@ -3820,37 +3906,37 @@
         <v>1</v>
       </c>
       <c r="U18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AB18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC18" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD18" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AD18" s="6" t="s">
+      <c r="AE18" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG18" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AE18" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="AF18" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="AG18" s="6" t="s">
-        <v>239</v>
-      </c>
       <c r="AH18" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AI18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AJ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK18">
         <f t="shared" si="3"/>
@@ -3874,13 +3960,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E19">
         <v>7500000</v>
@@ -3933,43 +4019,43 @@
         <v>3</v>
       </c>
       <c r="U19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V19" t="s">
+        <v>223</v>
+      </c>
+      <c r="W19" t="s">
         <v>224</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>225</v>
       </c>
-      <c r="X19" t="s">
+      <c r="AB19" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>226</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD19" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE19" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF19" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG19" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH19" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>227</v>
       </c>
       <c r="AK19">
         <f t="shared" si="3"/>
@@ -3993,13 +4079,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" t="s">
         <v>285</v>
       </c>
-      <c r="C20" t="s">
-        <v>286</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E20">
         <v>25000000</v>
@@ -4052,40 +4138,40 @@
         <v>2</v>
       </c>
       <c r="U20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V20" t="s">
+        <v>286</v>
+      </c>
+      <c r="W20" t="s">
         <v>287</v>
       </c>
-      <c r="W20" t="s">
+      <c r="AB20" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC20" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="AB20" t="s">
-        <v>295</v>
-      </c>
-      <c r="AC20" s="6" t="s">
+      <c r="AD20" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>289</v>
-      </c>
-      <c r="AD20" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="AE20" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="AF20" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AG20" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="AH20" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>290</v>
       </c>
       <c r="AK20">
         <f t="shared" si="3"/>
@@ -4109,13 +4195,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E21">
         <v>3000000</v>
@@ -4124,7 +4210,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H21">
         <v>3000000</v>
@@ -4168,40 +4254,40 @@
         <v>2</v>
       </c>
       <c r="U21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="W21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AB21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AE21" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AI21" t="s">
         <v>303</v>
       </c>
-      <c r="AF21" s="6" t="s">
+      <c r="AJ21" t="s">
         <v>304</v>
-      </c>
-      <c r="AG21" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="AH21" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>306</v>
       </c>
       <c r="AK21">
         <f t="shared" si="3"/>
@@ -4225,13 +4311,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C22" t="s">
+        <v>316</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="E22">
         <v>10000000</v>
@@ -4240,7 +4326,7 @@
         <v>1.5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H22">
         <v>5000000</v>
@@ -4284,43 +4370,43 @@
         <v>3</v>
       </c>
       <c r="U22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V22" t="s">
+        <v>305</v>
+      </c>
+      <c r="W22" t="s">
+        <v>306</v>
+      </c>
+      <c r="X22" t="s">
         <v>307</v>
       </c>
-      <c r="W22" t="s">
-        <v>308</v>
-      </c>
-      <c r="X22" t="s">
+      <c r="AB22" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH22" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="AD22" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AE22" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="AF22" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="AG22" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="AH22" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="AI22" t="s">
         <v>12</v>
       </c>
       <c r="AJ22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AK22">
         <f t="shared" si="3"/>
@@ -4337,6 +4423,348 @@
       <c r="BH22">
         <f t="shared" si="7"/>
         <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>320</v>
+      </c>
+      <c r="C23" t="s">
+        <v>322</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E23">
+        <v>3000000</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H23">
+        <v>3000000</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M23" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" t="s">
+        <v>84</v>
+      </c>
+      <c r="O23" t="s">
+        <v>84</v>
+      </c>
+      <c r="P23" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>84</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U23" t="s">
+        <v>273</v>
+      </c>
+      <c r="V23" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>323</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="BG23">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="BH23">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>331</v>
+      </c>
+      <c r="C24" t="s">
+        <v>339</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24">
+        <v>7500000</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H24">
+        <v>7500000</v>
+      </c>
+      <c r="I24">
+        <v>3.75</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" t="s">
+        <v>84</v>
+      </c>
+      <c r="O24" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>85</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U24" t="s">
+        <v>272</v>
+      </c>
+      <c r="V24" t="s">
+        <v>334</v>
+      </c>
+      <c r="W24" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>333</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="BG24">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH24">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>341</v>
+      </c>
+      <c r="C25" t="s">
+        <v>346</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E25">
+        <v>2500000</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O25" t="s">
+        <v>84</v>
+      </c>
+      <c r="P25" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>84</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U25" t="s">
+        <v>273</v>
+      </c>
+      <c r="V25" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>345</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="BH25">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4467,8 +4895,26 @@
     <hyperlink ref="AE22" r:id="rId124" xr:uid="{701A552C-F56F-44CE-AB71-47C634C4A8EC}"/>
     <hyperlink ref="AC22" r:id="rId125" xr:uid="{E893A4DC-20B4-4084-AB9D-4F06D84F91C5}"/>
     <hyperlink ref="AD22" r:id="rId126" xr:uid="{966A1D77-5787-4B86-9055-E0D8B2D84DA4}"/>
+    <hyperlink ref="AH23" r:id="rId127" xr:uid="{0EC99FDC-BDFE-4B74-B053-76C8AECD1DB3}"/>
+    <hyperlink ref="AG23" r:id="rId128" xr:uid="{83F245A2-1828-484D-8C4B-D59DCBCC114A}"/>
+    <hyperlink ref="AF23" r:id="rId129" xr:uid="{5C7BE93C-60B5-488D-9CB5-4B637832FFF7}"/>
+    <hyperlink ref="AC23" r:id="rId130" xr:uid="{FEC287D0-882C-44F3-885D-89CD23EA97D4}"/>
+    <hyperlink ref="AD23" r:id="rId131" xr:uid="{97B8412E-1775-457D-BE1A-D8F5D99BCABD}"/>
+    <hyperlink ref="AE23" r:id="rId132" xr:uid="{48FD2C95-DF0A-4FB5-9913-6058B0660D3D}"/>
+    <hyperlink ref="AH24" r:id="rId133" xr:uid="{32F0D57F-D355-422A-868B-074A5674B543}"/>
+    <hyperlink ref="AF24" r:id="rId134" xr:uid="{FC769496-C3CE-4B70-92FA-6BC111102D9C}"/>
+    <hyperlink ref="AE24" r:id="rId135" xr:uid="{D9D98E96-422E-454C-8EF7-6F6DE6715CA3}"/>
+    <hyperlink ref="AD24" r:id="rId136" xr:uid="{25B7214E-8C63-40B1-A6E9-3DE7AAB3BD23}"/>
+    <hyperlink ref="AC24" r:id="rId137" xr:uid="{CC6F8EEE-1837-4E12-A577-AF2A10CB4AA5}"/>
+    <hyperlink ref="AG24" r:id="rId138" xr:uid="{8F44F0F1-E48E-4DBD-8C4E-7A953E0645D2}"/>
+    <hyperlink ref="AH25" r:id="rId139" xr:uid="{E0A8CA91-DC21-4ACA-B705-0864CAEADB30}"/>
+    <hyperlink ref="AE25" r:id="rId140" xr:uid="{C696BD66-78BD-4C90-A3E9-8D8CFEF79AFA}"/>
+    <hyperlink ref="AF25" r:id="rId141" xr:uid="{75A92BA2-CC11-4C41-BFCB-25D7E4FD1FAB}"/>
+    <hyperlink ref="AG25" r:id="rId142" xr:uid="{9E5A2230-B69E-4021-A6A3-31F58E82757C}"/>
+    <hyperlink ref="AC25" r:id="rId143" xr:uid="{29FD098A-55EC-4803-BF25-BE6A35C5547A}"/>
+    <hyperlink ref="AD25" r:id="rId144" xr:uid="{A288BDB8-1FD3-436E-A6C1-C785FD3C86B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId127"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId145"/>
 </worksheet>
 </file>
--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EAE3FB-F4F3-4A3D-A7AA-0B20FCFF91CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2446FD-4F17-42DD-9D37-1FBD9D1EBBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="349">
   <si>
     <t>#</t>
   </si>
@@ -371,9 +371,6 @@
     <t>https://in.linkedin.com/company/recodestudios</t>
   </si>
   <si>
-    <t>Wellness</t>
-  </si>
-  <si>
     <t>Dheeraj Bansal</t>
   </si>
   <si>
@@ -392,9 +389,6 @@
     <t>https://www.linkedin.com/company/very-much-indian/</t>
   </si>
   <si>
-    <t>Clothing</t>
-  </si>
-  <si>
     <t>Slony Gambhir</t>
   </si>
   <si>
@@ -1086,6 +1080,9 @@
   </si>
   <si>
     <t>Consumer</t>
+  </si>
+  <si>
+    <t>Beauty and Wellness</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1187,8 +1184,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1506,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
   <dimension ref="A1:BH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="AO7" sqref="AO7"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AO5" sqref="AO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1618,7 +1613,7 @@
         <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>18</v>
@@ -1660,58 +1655,58 @@
         <v>30</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.3">
@@ -1778,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="V2" t="s">
         <v>88</v>
@@ -1787,7 +1782,7 @@
         <v>89</v>
       </c>
       <c r="AB2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AC2" s="6" t="s">
         <v>95</v>
@@ -1808,7 +1803,7 @@
         <v>90</v>
       </c>
       <c r="AI2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AJ2" t="str">
         <f>CONCATENATE(V2, ", ", W2,", ",X2)</f>
@@ -1823,7 +1818,7 @@
         <v>50</v>
       </c>
       <c r="AO2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AP2">
         <f>COUNTIF(AB:AB,AO2)</f>
@@ -1837,14 +1832,14 @@
         <v>17</v>
       </c>
       <c r="AU2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
         <v>9</v>
       </c>
       <c r="AX2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
@@ -1858,7 +1853,7 @@
         <v>7</v>
       </c>
       <c r="BD2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
@@ -1937,7 +1932,7 @@
         <v>2</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="V3" t="s">
         <v>103</v>
@@ -1946,7 +1941,7 @@
         <v>104</v>
       </c>
       <c r="AB3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AC3" s="6" t="s">
         <v>101</v>
@@ -1967,7 +1962,7 @@
         <v>97</v>
       </c>
       <c r="AI3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AJ3" t="str">
         <f t="shared" ref="AJ3:AJ16" si="2">CONCATENATE(V3, ", ", W3,", ",X3)</f>
@@ -1982,7 +1977,7 @@
         <v>2</v>
       </c>
       <c r="AO3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AP3">
         <f>COUNTIF(AB:AB,AO3)</f>
@@ -1996,14 +1991,14 @@
         <v>7</v>
       </c>
       <c r="AU3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
         <v>10</v>
       </c>
       <c r="AX3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
@@ -2017,7 +2012,7 @@
         <v>5</v>
       </c>
       <c r="BD3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BE3">
         <f t="shared" ref="BE3:BE6" si="5">COUNTIF(U:U,BD3)</f>
@@ -2096,16 +2091,16 @@
         <v>2</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="V4" t="s">
+        <v>111</v>
+      </c>
+      <c r="W4" t="s">
         <v>112</v>
       </c>
-      <c r="W4" t="s">
-        <v>113</v>
-      </c>
       <c r="AB4" t="s">
-        <v>111</v>
+        <v>348</v>
       </c>
       <c r="AC4" s="6" t="s">
         <v>109</v>
@@ -2126,7 +2121,7 @@
         <v>105</v>
       </c>
       <c r="AI4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ4" t="str">
         <f t="shared" si="2"/>
@@ -2141,21 +2136,21 @@
         <v>0</v>
       </c>
       <c r="AO4" t="s">
-        <v>111</v>
+        <v>348</v>
       </c>
       <c r="AP4">
         <f t="shared" ref="AP4:AP13" si="8">COUNTIF(AB:AB,AO4)</f>
         <v>1</v>
       </c>
       <c r="AU4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
         <v>5</v>
       </c>
       <c r="AX4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AY4">
         <f>COUNTIF(S:S,"2")</f>
@@ -2169,7 +2164,7 @@
         <v>6</v>
       </c>
       <c r="BD4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="BE4">
         <f t="shared" si="5"/>
@@ -2248,34 +2243,34 @@
         <v>1</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="V5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AB5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AC5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE5" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="AD5" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE5" s="6" t="s">
+      <c r="AF5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="AF5" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="AG5" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AI5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AJ5" t="str">
         <f t="shared" si="2"/>
@@ -2290,21 +2285,21 @@
         <v>5</v>
       </c>
       <c r="AO5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>COUNTIF(AB:AB,AO5)</f>
+        <v>2</v>
       </c>
       <c r="AU5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AV5">
         <f>COUNTIF(T:T,"4")</f>
         <v>0</v>
       </c>
       <c r="AX5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AY5">
         <f>COUNTIF(S:S,"3")</f>
@@ -2318,7 +2313,7 @@
         <v>9</v>
       </c>
       <c r="BD5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BE5">
         <f t="shared" si="5"/>
@@ -2397,34 +2392,34 @@
         <v>1</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="V6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AB6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AH6" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AI6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AJ6" t="str">
         <f t="shared" si="2"/>
@@ -2439,21 +2434,21 @@
         <v>10</v>
       </c>
       <c r="AO6" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f>COUNTIF(AB:AB,AO6)</f>
+        <v>1</v>
       </c>
       <c r="AU6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AV6">
         <f>COUNTIF(T:T,"5")</f>
         <v>0</v>
       </c>
       <c r="AX6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AY6">
         <f>COUNTIF(S:S,"4")</f>
@@ -2467,7 +2462,7 @@
         <v>8</v>
       </c>
       <c r="BD6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="BE6">
         <f t="shared" si="5"/>
@@ -2546,34 +2541,34 @@
         <v>2</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="V7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AB7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AC7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE7" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AD7" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="AF7" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AH7" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AI7" t="s">
         <v>15</v>
@@ -2594,18 +2589,18 @@
         <v>247</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(AB:AB,AO7)</f>
         <v>1</v>
       </c>
       <c r="AU7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AV7">
         <f>COUNTIF(T:T,"6")</f>
         <v>0</v>
       </c>
       <c r="AX7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AY7">
         <f>COUNTIF(S:S,"5")</f>
@@ -2632,7 +2627,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>48</v>
@@ -2691,37 +2686,37 @@
         <v>2</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="V8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AB8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AC8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD8" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="AD8" s="6" t="s">
+      <c r="AE8" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF8" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="AE8" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF8" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="AG8" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AH8" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AI8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ8" t="str">
         <f t="shared" si="2"/>
@@ -2736,14 +2731,14 @@
         <v>0</v>
       </c>
       <c r="AO8" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>COUNTIF(AB:AB,AO8)</f>
+        <v>5</v>
       </c>
       <c r="AX8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AY8">
         <f>COUNTIF(S:S,"6")</f>
@@ -2763,7 +2758,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>49</v>
@@ -2822,40 +2817,40 @@
         <v>3</v>
       </c>
       <c r="U9" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="V9" t="s">
+        <v>146</v>
+      </c>
+      <c r="W9" t="s">
+        <v>148</v>
+      </c>
+      <c r="X9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE9" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF9" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG9" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="V9" t="s">
-        <v>148</v>
-      </c>
-      <c r="W9" t="s">
-        <v>150</v>
-      </c>
-      <c r="X9" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC9" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD9" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE9" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF9" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG9" s="6" t="s">
-        <v>277</v>
-      </c>
       <c r="AH9" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AI9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AJ9" t="str">
         <f t="shared" si="2"/>
@@ -2870,11 +2865,11 @@
         <v>250</v>
       </c>
       <c r="AO9" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f>COUNTIF(AB:AB,AO9)</f>
+        <v>2</v>
       </c>
       <c r="BG9">
         <f t="shared" si="6"/>
@@ -2890,7 +2885,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>50</v>
@@ -2949,31 +2944,31 @@
         <v>1</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="V10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AB10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AC10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE10" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF10" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="AD10" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF10" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="AG10" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AH10" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AI10" t="s">
         <v>12</v>
@@ -2991,10 +2986,10 @@
         <v>1</v>
       </c>
       <c r="AO10" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(AB:AB,AO10)</f>
         <v>2</v>
       </c>
       <c r="BG10">
@@ -3070,37 +3065,37 @@
         <v>2</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="V11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="W11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AB11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AC11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD11" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AD11" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="AE11" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AF11" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AG11" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AH11" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AI11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AJ11" t="str">
         <f t="shared" si="2"/>
@@ -3115,11 +3110,11 @@
         <v>14.992503748125937</v>
       </c>
       <c r="AO11" t="s">
-        <v>240</v>
+        <v>346</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f>COUNTIF(AB:AB,AO11)</f>
+        <v>1</v>
       </c>
       <c r="BG11">
         <f t="shared" si="6"/>
@@ -3194,31 +3189,31 @@
         <v>3</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="V12" t="s">
+        <v>167</v>
+      </c>
+      <c r="W12" t="s">
+        <v>168</v>
+      </c>
+      <c r="X12" t="s">
         <v>169</v>
       </c>
-      <c r="W12" t="s">
-        <v>170</v>
-      </c>
-      <c r="X12" t="s">
-        <v>171</v>
-      </c>
       <c r="AB12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AC12" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AD12" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AE12" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AF12" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AG12" s="6" t="s">
         <v>91</v>
@@ -3227,7 +3222,7 @@
         <v>91</v>
       </c>
       <c r="AI12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AJ12" t="str">
         <f t="shared" si="2"/>
@@ -3242,10 +3237,10 @@
         <v>10</v>
       </c>
       <c r="AO12" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(AB:AB,AO12)</f>
         <v>1</v>
       </c>
       <c r="BG12">
@@ -3321,31 +3316,31 @@
         <v>1</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="V13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AB13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AE13" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF13" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AG13" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AH13" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AI13" t="s">
         <v>12</v>
@@ -3361,13 +3356,6 @@
       <c r="AL13">
         <f t="shared" si="4"/>
         <v>7</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>317</v>
-      </c>
-      <c r="AP13">
-        <f t="shared" si="8"/>
-        <v>1</v>
       </c>
       <c r="BG13">
         <f t="shared" si="6"/>
@@ -3383,7 +3371,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>54</v>
@@ -3442,37 +3430,37 @@
         <v>2</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="V14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="W14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AC14" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD14" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE14" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="AD14" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE14" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="AF14" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AG14" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AH14" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AI14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AJ14" t="str">
         <f t="shared" si="2"/>
@@ -3559,34 +3547,34 @@
         <v>1</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="V15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AB15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF15" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AG15" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AH15" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ15" t="str">
         <f t="shared" si="2"/>
@@ -3673,40 +3661,40 @@
         <v>3</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="V16" t="s">
+        <v>197</v>
+      </c>
+      <c r="W16" t="s">
+        <v>198</v>
+      </c>
+      <c r="X16" t="s">
         <v>199</v>
       </c>
-      <c r="W16" t="s">
-        <v>200</v>
-      </c>
-      <c r="X16" t="s">
-        <v>201</v>
-      </c>
       <c r="AB16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC16" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD16" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AD16" s="6" t="s">
-        <v>198</v>
-      </c>
       <c r="AE16" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AI16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ16" t="str">
         <f t="shared" si="2"/>
@@ -3734,13 +3722,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E17">
         <v>5000000</v>
@@ -3749,7 +3737,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H17">
         <v>5000000</v>
@@ -3793,37 +3781,37 @@
         <v>1</v>
       </c>
       <c r="U17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="V17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AI17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AJ17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AK17">
         <f t="shared" si="3"/>
@@ -3847,13 +3835,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="E18">
         <v>10000000</v>
@@ -3862,7 +3850,7 @@
         <v>0.5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H18">
         <v>10000000</v>
@@ -3906,37 +3894,37 @@
         <v>1</v>
       </c>
       <c r="U18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="V18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AB18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AC18" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG18" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="AD18" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AE18" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF18" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG18" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="AH18" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AI18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AJ18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AK18">
         <f t="shared" si="3"/>
@@ -3960,13 +3948,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E19">
         <v>7500000</v>
@@ -4019,43 +4007,43 @@
         <v>3</v>
       </c>
       <c r="U19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="V19" t="s">
+        <v>221</v>
+      </c>
+      <c r="W19" t="s">
+        <v>222</v>
+      </c>
+      <c r="X19" t="s">
         <v>223</v>
       </c>
-      <c r="W19" t="s">
+      <c r="AB19" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>224</v>
-      </c>
-      <c r="X19" t="s">
-        <v>225</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD19" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AE19" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF19" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AG19" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AH19" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>205</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>226</v>
       </c>
       <c r="AK19">
         <f t="shared" si="3"/>
@@ -4079,13 +4067,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E20">
         <v>25000000</v>
@@ -4138,40 +4126,40 @@
         <v>2</v>
       </c>
       <c r="U20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="V20" t="s">
+        <v>284</v>
+      </c>
+      <c r="W20" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC20" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="W20" t="s">
+      <c r="AD20" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>287</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>348</v>
-      </c>
-      <c r="AC20" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD20" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="AE20" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AF20" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="AG20" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="AH20" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>205</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>289</v>
       </c>
       <c r="AK20">
         <f t="shared" si="3"/>
@@ -4195,13 +4183,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E21">
         <v>3000000</v>
@@ -4210,7 +4198,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H21">
         <v>3000000</v>
@@ -4254,40 +4242,40 @@
         <v>2</v>
       </c>
       <c r="U21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="V21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="W21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AB21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AE21" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI21" t="s">
         <v>301</v>
       </c>
-      <c r="AF21" s="6" t="s">
+      <c r="AJ21" t="s">
         <v>302</v>
-      </c>
-      <c r="AG21" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="AH21" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>303</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>304</v>
       </c>
       <c r="AK21">
         <f t="shared" si="3"/>
@@ -4311,13 +4299,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C22" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="E22">
         <v>10000000</v>
@@ -4326,7 +4314,7 @@
         <v>1.5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H22">
         <v>5000000</v>
@@ -4370,43 +4358,43 @@
         <v>3</v>
       </c>
       <c r="U22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="V22" t="s">
+        <v>303</v>
+      </c>
+      <c r="W22" t="s">
+        <v>304</v>
+      </c>
+      <c r="X22" t="s">
         <v>305</v>
       </c>
-      <c r="W22" t="s">
-        <v>306</v>
-      </c>
-      <c r="X22" t="s">
+      <c r="AB22" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="AH22" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD22" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="AE22" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="AF22" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="AG22" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="AH22" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="AI22" t="s">
         <v>12</v>
       </c>
       <c r="AJ22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AK22">
         <f t="shared" si="3"/>
@@ -4430,13 +4418,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>318</v>
+      </c>
+      <c r="C23" t="s">
         <v>320</v>
       </c>
-      <c r="C23" t="s">
-        <v>322</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E23">
         <v>3000000</v>
@@ -4445,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H23">
         <v>3000000</v>
@@ -4477,7 +4465,7 @@
       <c r="Q23" t="s">
         <v>84</v>
       </c>
-      <c r="R23" s="9" t="s">
+      <c r="R23" s="7" t="s">
         <v>84</v>
       </c>
       <c r="S23">
@@ -4489,37 +4477,37 @@
         <v>1</v>
       </c>
       <c r="U23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="V23" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF23" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="AB23" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="AF23" s="6" t="s">
-        <v>325</v>
-      </c>
       <c r="AG23" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AH23" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>321</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>323</v>
       </c>
       <c r="AK23">
         <f t="shared" si="3"/>
@@ -4543,13 +4531,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E24">
         <v>7500000</v>
@@ -4558,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H24">
         <v>7500000</v>
@@ -4590,7 +4578,7 @@
       <c r="Q24" t="s">
         <v>85</v>
       </c>
-      <c r="R24" s="9" t="s">
+      <c r="R24" s="7" t="s">
         <v>84</v>
       </c>
       <c r="S24">
@@ -4602,40 +4590,40 @@
         <v>2</v>
       </c>
       <c r="U24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="V24" t="s">
+        <v>332</v>
+      </c>
+      <c r="W24" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="AF24" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="W24" t="s">
-        <v>335</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="AD24" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="AE24" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="AF24" s="6" t="s">
-        <v>336</v>
-      </c>
       <c r="AG24" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AI24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AJ24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AK24">
         <f t="shared" si="3"/>
@@ -4659,13 +4647,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E25">
         <v>2500000</v>
@@ -4673,7 +4661,7 @@
       <c r="F25">
         <v>5</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" t="s">
         <v>73</v>
       </c>
       <c r="H25">
@@ -4706,7 +4694,7 @@
       <c r="Q25" t="s">
         <v>84</v>
       </c>
-      <c r="R25" s="9" t="s">
+      <c r="R25" s="7" t="s">
         <v>84</v>
       </c>
       <c r="S25">
@@ -4718,37 +4706,37 @@
         <v>1</v>
       </c>
       <c r="U25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="V25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AB25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AC25" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF25" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="AD25" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AE25" s="6" t="s">
+      <c r="AG25" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>343</v>
-      </c>
-      <c r="AF25" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AG25" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AH25" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>205</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>345</v>
       </c>
       <c r="AK25">
         <f t="shared" si="3"/>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2446FD-4F17-42DD-9D37-1FBD9D1EBBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8C0B6E-068A-43B5-A234-D3061AC13E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="382">
   <si>
     <t>#</t>
   </si>
@@ -1083,6 +1083,105 @@
   </si>
   <si>
     <t>Beauty and Wellness</t>
+  </si>
+  <si>
+    <t>Paradyes</t>
+  </si>
+  <si>
+    <t>Hair Colour Dye Products</t>
+  </si>
+  <si>
+    <t>₹65 Lakhs for 1% equity</t>
+  </si>
+  <si>
+    <t>₹65 Lakhs for 2% equity</t>
+  </si>
+  <si>
+    <t>Siddharth Raghuvanshi</t>
+  </si>
+  <si>
+    <t>Yushika Jolly</t>
+  </si>
+  <si>
+    <t>Siddharth Raghuvanshi, Yushika Jolly</t>
+  </si>
+  <si>
+    <t>https://www.birdsofparadyes.com/</t>
+  </si>
+  <si>
+    <t>https://youtube.com/channel/UC4ZJ0lbWhGySqfVDoRhFxQQ</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/birdsofparadyes</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/birdsofparadyes/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/birdsofparadyes</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/company/birdsofparadyes</t>
+  </si>
+  <si>
+    <t>₹50 Lakhs for 1% equity</t>
+  </si>
+  <si>
+    <t>₹50 Lakhs for 2% equity</t>
+  </si>
+  <si>
+    <t>Nestroots</t>
+  </si>
+  <si>
+    <t>https://www.nestroots.com/</t>
+  </si>
+  <si>
+    <t>Chhavi Singh</t>
+  </si>
+  <si>
+    <t>https://m.facebook.com/nestroots</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/nestroots/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/nestroots/</t>
+  </si>
+  <si>
+    <t>Home Furnishing</t>
+  </si>
+  <si>
+    <t>Luxury Home Furnishing Products</t>
+  </si>
+  <si>
+    <t>Coezy Sleep</t>
+  </si>
+  <si>
+    <t>Cozy Sleep Relaxer</t>
+  </si>
+  <si>
+    <t>Hardik Rathore</t>
+  </si>
+  <si>
+    <t>₹35 Lakhs for 20% equity</t>
+  </si>
+  <si>
+    <t>https://www.coezysleep.com/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/coezy-sleep/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCck3qIBPuER0kqYM_pqnUXg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100087470617594</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/coezysleep/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/CoezyR</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1184,6 +1283,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1499,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH25"/>
+  <dimension ref="A1:BH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AO5" sqref="AO5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1521,7 +1622,7 @@
     <col min="19" max="19" width="21.5546875" customWidth="1"/>
     <col min="20" max="20" width="32" customWidth="1"/>
     <col min="21" max="21" width="22.109375" customWidth="1"/>
-    <col min="22" max="22" width="18.44140625" customWidth="1"/>
+    <col min="22" max="22" width="23.88671875" customWidth="1"/>
     <col min="23" max="23" width="21" customWidth="1"/>
     <col min="24" max="24" width="18.44140625" customWidth="1"/>
     <col min="28" max="28" width="25.88671875" customWidth="1"/>
@@ -1829,28 +1930,28 @@
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU2" t="s">
         <v>254</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="s">
         <v>260</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD2" t="s">
         <v>270</v>
@@ -1924,11 +2025,11 @@
         <v>84</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S25" si="0">SUM(COUNTIF(M3:R3, "Y"))</f>
+        <f t="shared" ref="S3:S28" si="0">SUM(COUNTIF(M3:R3, "Y"))</f>
         <v>3</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T25" si="1">COUNTIF(V3:AA3, "*")</f>
+        <f t="shared" ref="T3:T28" si="1">COUNTIF(V3:AA3, "*")</f>
         <v>2</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -1969,11 +2070,11 @@
         <v xml:space="preserve">Ishaan Kanoria, Sparsh Agarwal, </v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK25" si="3" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK3:AK28" si="3" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
         <v>6</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL25" si="4">IFERROR(((H3/I3)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL3:AL28" si="4">IFERROR(((H3/I3)*100)/10000000, 0)</f>
         <v>2</v>
       </c>
       <c r="AO3" t="s">
@@ -1988,21 +2089,21 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="s">
         <v>255</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX3" t="s">
         <v>261</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
@@ -2019,11 +2120,11 @@
         <v>6</v>
       </c>
       <c r="BG3">
-        <f t="shared" ref="BG3:BG25" si="6">E3/100000</f>
+        <f t="shared" ref="BG3:BG28" si="6">E3/100000</f>
         <v>30</v>
       </c>
       <c r="BH3">
-        <f t="shared" ref="BH3:BH25" si="7">H3/100000</f>
+        <f t="shared" ref="BH3:BH28" si="7">H3/100000</f>
         <v>30</v>
       </c>
     </row>
@@ -2139,8 +2240,8 @@
         <v>348</v>
       </c>
       <c r="AP4">
-        <f t="shared" ref="AP4:AP13" si="8">COUNTIF(AB:AB,AO4)</f>
-        <v>1</v>
+        <f t="shared" ref="AP4" si="8">COUNTIF(AB:AB,AO4)</f>
+        <v>2</v>
       </c>
       <c r="AU4" t="s">
         <v>256</v>
@@ -2154,21 +2255,21 @@
       </c>
       <c r="AY4">
         <f>COUNTIF(S:S,"2")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA4" t="s">
         <v>15</v>
       </c>
       <c r="BB4">
         <f>COUNTIF(O:O,"Y")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD4" t="s">
         <v>271</v>
       </c>
       <c r="BE4">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BG4">
         <f t="shared" si="6"/>
@@ -2288,7 +2389,7 @@
         <v>125</v>
       </c>
       <c r="AP5">
-        <f>COUNTIF(AB:AB,AO5)</f>
+        <f t="shared" ref="AP5:AP13" si="9">COUNTIF(AB:AB,AO5)</f>
         <v>2</v>
       </c>
       <c r="AU5" t="s">
@@ -2310,14 +2411,14 @@
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD5" t="s">
         <v>274</v>
       </c>
       <c r="BE5">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG5">
         <f t="shared" si="6"/>
@@ -2437,7 +2538,7 @@
         <v>245</v>
       </c>
       <c r="AP6">
-        <f>COUNTIF(AB:AB,AO6)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AU6" t="s">
@@ -2589,7 +2690,7 @@
         <v>247</v>
       </c>
       <c r="AP7">
-        <f>COUNTIF(AB:AB,AO7)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AU7" t="s">
@@ -2734,8 +2835,8 @@
         <v>190</v>
       </c>
       <c r="AP8">
-        <f>COUNTIF(AB:AB,AO8)</f>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="AX8" t="s">
         <v>266</v>
@@ -2868,7 +2969,7 @@
         <v>246</v>
       </c>
       <c r="AP9">
-        <f>COUNTIF(AB:AB,AO9)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="BG9">
@@ -2989,7 +3090,7 @@
         <v>238</v>
       </c>
       <c r="AP10">
-        <f>COUNTIF(AB:AB,AO10)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="BG10">
@@ -3113,7 +3214,7 @@
         <v>346</v>
       </c>
       <c r="AP11">
-        <f>COUNTIF(AB:AB,AO11)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="BG11">
@@ -3240,7 +3341,7 @@
         <v>315</v>
       </c>
       <c r="AP12">
-        <f>COUNTIF(AB:AB,AO12)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="BG12">
@@ -3357,6 +3458,13 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
+      <c r="AO13" t="s">
+        <v>370</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="BG13">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -4751,6 +4859,348 @@
         <v>25</v>
       </c>
       <c r="BH25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>349</v>
+      </c>
+      <c r="C26" t="s">
+        <v>350</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E26">
+        <v>6500000</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H26">
+        <v>6500000</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M26" t="s">
+        <v>84</v>
+      </c>
+      <c r="N26" t="s">
+        <v>84</v>
+      </c>
+      <c r="O26" t="s">
+        <v>85</v>
+      </c>
+      <c r="P26" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>84</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U26" t="s">
+        <v>274</v>
+      </c>
+      <c r="V26" t="s">
+        <v>353</v>
+      </c>
+      <c r="W26" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>301</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>355</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="4"/>
+        <v>32.5</v>
+      </c>
+      <c r="BG26">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="BH26">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>364</v>
+      </c>
+      <c r="C27" t="s">
+        <v>371</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E27">
+        <v>5000000</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H27">
+        <v>5000000</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>86</v>
+      </c>
+      <c r="M27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N27" t="s">
+        <v>84</v>
+      </c>
+      <c r="O27" t="s">
+        <v>84</v>
+      </c>
+      <c r="P27" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>84</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U27" t="s">
+        <v>271</v>
+      </c>
+      <c r="V27" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="AG27" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH27" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>366</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="BG27">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BH27">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" t="s">
+        <v>373</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E28">
+        <v>3500000</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" t="s">
+        <v>84</v>
+      </c>
+      <c r="N28" t="s">
+        <v>84</v>
+      </c>
+      <c r="O28" t="s">
+        <v>84</v>
+      </c>
+      <c r="P28" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>84</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U28" t="s">
+        <v>271</v>
+      </c>
+      <c r="V28" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG28" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>374</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="BH28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -4901,8 +5351,26 @@
     <hyperlink ref="AG25" r:id="rId142" xr:uid="{9E5A2230-B69E-4021-A6A3-31F58E82757C}"/>
     <hyperlink ref="AC25" r:id="rId143" xr:uid="{29FD098A-55EC-4803-BF25-BE6A35C5547A}"/>
     <hyperlink ref="AD25" r:id="rId144" xr:uid="{A288BDB8-1FD3-436E-A6C1-C785FD3C86B1}"/>
+    <hyperlink ref="AH26" r:id="rId145" xr:uid="{E998FE3F-2CED-4AC2-B919-D4D9810B0577}"/>
+    <hyperlink ref="AG26" r:id="rId146" xr:uid="{623F479D-B418-4E69-BF0F-0F0EFE87ADC4}"/>
+    <hyperlink ref="AF26" r:id="rId147" xr:uid="{E7E473D0-047A-4FBD-9392-4AD1B983E9FE}"/>
+    <hyperlink ref="AE26" r:id="rId148" xr:uid="{631CEBD3-0D0B-40FF-8F48-32F16EE3FAE1}"/>
+    <hyperlink ref="AC26" r:id="rId149" xr:uid="{EA507F9E-3C24-4F9B-BD19-A43A21CFF48D}"/>
+    <hyperlink ref="AD26" r:id="rId150" xr:uid="{2B32780F-74C3-49C6-95E1-373289712EFA}"/>
+    <hyperlink ref="AH27" r:id="rId151" xr:uid="{1C415FEC-93FF-412A-BA8E-E236ADE31C51}"/>
+    <hyperlink ref="AF27" r:id="rId152" xr:uid="{DB07D93F-1109-4CE4-85E2-5042F7B8F26F}"/>
+    <hyperlink ref="AE27" r:id="rId153" xr:uid="{BE4704A0-48E8-4AB5-B428-DFEE0726686F}"/>
+    <hyperlink ref="AD27" r:id="rId154" xr:uid="{B1B6F811-35B8-4195-A410-61FC77AAD5B0}"/>
+    <hyperlink ref="AG27" r:id="rId155" xr:uid="{C6E8B95E-6A21-4ECC-9D73-8E987D175229}"/>
+    <hyperlink ref="AC27" r:id="rId156" xr:uid="{0A3A7DCD-B7E7-4E98-AEA1-97617B4BC5D2}"/>
+    <hyperlink ref="AH28" r:id="rId157" xr:uid="{46E452FF-081B-4FFE-9AB5-1783CA48038B}"/>
+    <hyperlink ref="AD28" r:id="rId158" xr:uid="{290F5BDF-496C-422F-9706-60B4D5451A04}"/>
+    <hyperlink ref="AG28" r:id="rId159" xr:uid="{63D5824A-1B9D-4308-99D8-B93DD8036062}"/>
+    <hyperlink ref="AF28" r:id="rId160" xr:uid="{3D951EEC-001B-4B9A-9BE8-58EBCB9F1B8B}"/>
+    <hyperlink ref="AE28" r:id="rId161" xr:uid="{D45C7DC6-84B0-416E-9E1C-82D47A08C0CE}"/>
+    <hyperlink ref="AC28" r:id="rId162" xr:uid="{615624B8-8D87-4237-8E7D-89744B28913E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId145"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId163"/>
 </worksheet>
 </file>
--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8C0B6E-068A-43B5-A234-D3061AC13E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12865CB7-2D89-4310-A800-0860731F7661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="419">
   <si>
     <t>#</t>
   </si>
@@ -1182,6 +1182,117 @@
   </si>
   <si>
     <t>https://twitter.com/CoezyR</t>
+  </si>
+  <si>
+    <t>Zillionaire</t>
+  </si>
+  <si>
+    <t>Raghav Goyal</t>
+  </si>
+  <si>
+    <t>Aaditya Fatehpuriya</t>
+  </si>
+  <si>
+    <t>Raghav Goyal, Aaditya Fatehpuriya</t>
+  </si>
+  <si>
+    <t>₹50 Lakhs for 3.3% equity</t>
+  </si>
+  <si>
+    <t>https://zillionaireindia.com/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/zillionaireindia/</t>
+  </si>
+  <si>
+    <t>https://youtu.be/qpn1etQ0SUw</t>
+  </si>
+  <si>
+    <t>https://instagram.com/zillionaireindia?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/zillionaireindia/</t>
+  </si>
+  <si>
+    <t>Luxury Apparel for Millenials</t>
+  </si>
+  <si>
+    <t>₹50 Lakhs for 5% equity</t>
+  </si>
+  <si>
+    <t>Credmate</t>
+  </si>
+  <si>
+    <t>A platform which records the consents and promises of finance transactions</t>
+  </si>
+  <si>
+    <t>Gaurav Kundra</t>
+  </si>
+  <si>
+    <t>Gaurav Sharma</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Gaurav Kundra, Gaurav Sharma</t>
+  </si>
+  <si>
+    <t>https://credmate.in/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCAY5yvCTVaYd09ntxoUDRUQ</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/credmate/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/thecredmate/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/credmate</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/thecredmate/</t>
+  </si>
+  <si>
+    <t>Freebowler</t>
+  </si>
+  <si>
+    <t>Cricket Bowling Machine</t>
+  </si>
+  <si>
+    <t>Pratheek Palanethra</t>
+  </si>
+  <si>
+    <t>Vishwanath HK</t>
+  </si>
+  <si>
+    <t>Pratheek Palanethra, Vishwanath HK</t>
+  </si>
+  <si>
+    <t>https://freebowler.com/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCY1msnXL886TyvBiWGSD5Hw/videos</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/freebowler/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/freebowler/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/freebowler</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/freebowler/</t>
+  </si>
+  <si>
+    <t>₹75 Lakhs for 7.5% equity</t>
+  </si>
+  <si>
+    <t>₹25 Lakhs for 7.5% equity and ₹50 Lakhs debt @10% interest</t>
   </si>
 </sst>
 </file>
@@ -1600,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH28"/>
+  <dimension ref="A1:BH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="BJ28" sqref="BJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1930,7 +2041,7 @@
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU2" t="s">
         <v>254</v>
@@ -1944,14 +2055,14 @@
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD2" t="s">
         <v>270</v>
@@ -2025,11 +2136,11 @@
         <v>84</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S28" si="0">SUM(COUNTIF(M3:R3, "Y"))</f>
+        <f t="shared" ref="S3:S31" si="0">SUM(COUNTIF(M3:R3, "Y"))</f>
         <v>3</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T28" si="1">COUNTIF(V3:AA3, "*")</f>
+        <f t="shared" ref="T3:T31" si="1">COUNTIF(V3:AA3, "*")</f>
         <v>2</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -2070,11 +2181,11 @@
         <v xml:space="preserve">Ishaan Kanoria, Sparsh Agarwal, </v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK28" si="3" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK3:AK31" si="3" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
         <v>6</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL28" si="4">IFERROR(((H3/I3)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL3:AL31" si="4">IFERROR(((H3/I3)*100)/10000000, 0)</f>
         <v>2</v>
       </c>
       <c r="AO3" t="s">
@@ -2089,42 +2200,42 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU3" t="s">
         <v>255</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AX3" t="s">
         <v>261</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
       </c>
       <c r="BB3">
         <f>COUNTIF(N:N,"Y")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD3" t="s">
         <v>272</v>
       </c>
       <c r="BE3">
         <f t="shared" ref="BE3:BE6" si="5">COUNTIF(U:U,BD3)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BG3">
-        <f t="shared" ref="BG3:BG28" si="6">E3/100000</f>
+        <f t="shared" ref="BG3:BG31" si="6">E3/100000</f>
         <v>30</v>
       </c>
       <c r="BH3">
-        <f t="shared" ref="BH3:BH28" si="7">H3/100000</f>
+        <f t="shared" ref="BH3:BH31" si="7">H3/100000</f>
         <v>30</v>
       </c>
     </row>
@@ -2389,7 +2500,7 @@
         <v>125</v>
       </c>
       <c r="AP5">
-        <f t="shared" ref="AP5:AP13" si="9">COUNTIF(AB:AB,AO5)</f>
+        <f t="shared" ref="AP5:AP14" si="9">COUNTIF(AB:AB,AO5)</f>
         <v>2</v>
       </c>
       <c r="AU5" t="s">
@@ -2836,7 +2947,7 @@
       </c>
       <c r="AP8">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX8" t="s">
         <v>266</v>
@@ -2970,7 +3081,7 @@
       </c>
       <c r="AP9">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG9">
         <f t="shared" si="6"/>
@@ -3582,6 +3693,13 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
+      <c r="AO14" t="s">
+        <v>398</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="BG14">
         <f t="shared" si="6"/>
         <v>100</v>
@@ -4915,7 +5033,7 @@
       <c r="Q26" t="s">
         <v>84</v>
       </c>
-      <c r="R26" s="9" t="s">
+      <c r="R26" s="7" t="s">
         <v>84</v>
       </c>
       <c r="S26">
@@ -5031,7 +5149,7 @@
       <c r="Q27" t="s">
         <v>84</v>
       </c>
-      <c r="R27" s="9" t="s">
+      <c r="R27" s="7" t="s">
         <v>84</v>
       </c>
       <c r="S27">
@@ -5111,7 +5229,7 @@
       <c r="F28">
         <v>20</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" t="s">
         <v>73</v>
       </c>
       <c r="H28">
@@ -5144,7 +5262,7 @@
       <c r="Q28" t="s">
         <v>84</v>
       </c>
-      <c r="R28" s="9" t="s">
+      <c r="R28" s="7" t="s">
         <v>84</v>
       </c>
       <c r="S28">
@@ -5203,6 +5321,354 @@
       <c r="BH28">
         <f t="shared" si="7"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>382</v>
+      </c>
+      <c r="C29" t="s">
+        <v>392</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E29">
+        <v>5000000</v>
+      </c>
+      <c r="F29">
+        <v>3.3</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29">
+        <v>10000000</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M29" t="s">
+        <v>84</v>
+      </c>
+      <c r="N29" t="s">
+        <v>85</v>
+      </c>
+      <c r="O29" t="s">
+        <v>84</v>
+      </c>
+      <c r="P29" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>84</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U29" t="s">
+        <v>272</v>
+      </c>
+      <c r="V29" t="s">
+        <v>383</v>
+      </c>
+      <c r="W29" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="3"/>
+        <v>15.15151515151515</v>
+      </c>
+      <c r="AL29">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="BG29">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BH29">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>394</v>
+      </c>
+      <c r="C30" t="s">
+        <v>395</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E30">
+        <v>5000000</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" t="s">
+        <v>84</v>
+      </c>
+      <c r="N30" t="s">
+        <v>84</v>
+      </c>
+      <c r="O30" t="s">
+        <v>84</v>
+      </c>
+      <c r="P30" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>84</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U30" t="s">
+        <v>272</v>
+      </c>
+      <c r="V30" t="s">
+        <v>396</v>
+      </c>
+      <c r="W30" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>398</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BH30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>406</v>
+      </c>
+      <c r="C31" t="s">
+        <v>407</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E31">
+        <v>7500000</v>
+      </c>
+      <c r="F31">
+        <v>7.5</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H31">
+        <v>2500000</v>
+      </c>
+      <c r="I31">
+        <v>7.5</v>
+      </c>
+      <c r="J31">
+        <v>5000000</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31" t="s">
+        <v>86</v>
+      </c>
+      <c r="M31" t="s">
+        <v>85</v>
+      </c>
+      <c r="N31" t="s">
+        <v>84</v>
+      </c>
+      <c r="O31" t="s">
+        <v>84</v>
+      </c>
+      <c r="P31" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>84</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U31" t="s">
+        <v>272</v>
+      </c>
+      <c r="V31" t="s">
+        <v>408</v>
+      </c>
+      <c r="W31" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF31" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AG31" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AH31" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>410</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AL31">
+        <f t="shared" si="4"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="BG31">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH31">
+        <f t="shared" si="7"/>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5369,8 +5835,26 @@
     <hyperlink ref="AF28" r:id="rId160" xr:uid="{3D951EEC-001B-4B9A-9BE8-58EBCB9F1B8B}"/>
     <hyperlink ref="AE28" r:id="rId161" xr:uid="{D45C7DC6-84B0-416E-9E1C-82D47A08C0CE}"/>
     <hyperlink ref="AC28" r:id="rId162" xr:uid="{615624B8-8D87-4237-8E7D-89744B28913E}"/>
+    <hyperlink ref="AH29" r:id="rId163" xr:uid="{D3B03CC7-FA95-40F2-81E5-A1EB324C71E2}"/>
+    <hyperlink ref="AD29" r:id="rId164" xr:uid="{5FF2B09C-EAEA-4C9D-AB32-106AC0D00FA0}"/>
+    <hyperlink ref="AG29" r:id="rId165" xr:uid="{58FDDCE2-53CA-47EE-A9CA-F949A3FE351E}"/>
+    <hyperlink ref="AE29" r:id="rId166" xr:uid="{BD79A693-3BB3-4078-9D6A-C048CF8F8FCB}"/>
+    <hyperlink ref="AF29" r:id="rId167" xr:uid="{075F23AB-82A3-4FA3-B04C-BCC9E1FF17B9}"/>
+    <hyperlink ref="AC29" r:id="rId168" xr:uid="{ED9343C6-9FAF-4ECC-9BAE-83553E411D32}"/>
+    <hyperlink ref="AH30" r:id="rId169" xr:uid="{3345D159-6692-43A3-8CEA-B7F763A5D264}"/>
+    <hyperlink ref="AG30" r:id="rId170" xr:uid="{7433BDB2-4EEF-4377-80B3-F0F3837308D3}"/>
+    <hyperlink ref="AD30" r:id="rId171" xr:uid="{B1249335-AA50-4CAF-ADE7-E2574D59DD57}"/>
+    <hyperlink ref="AE30" r:id="rId172" xr:uid="{643F35B3-FE71-4AE0-BDDA-6A9276AE4354}"/>
+    <hyperlink ref="AC30" r:id="rId173" xr:uid="{2E100EE9-65CA-493F-880F-46018C090CE6}"/>
+    <hyperlink ref="AF30" r:id="rId174" xr:uid="{5DF248FE-1644-474F-BFDC-F3993B608B00}"/>
+    <hyperlink ref="AH31" r:id="rId175" xr:uid="{F5396B2D-44C3-4DA2-AC36-4F2B5C516C9B}"/>
+    <hyperlink ref="AG31" r:id="rId176" xr:uid="{37974435-2C4D-4517-83BC-302D06040DBA}"/>
+    <hyperlink ref="AF31" r:id="rId177" xr:uid="{2DF5B699-D589-41DD-B645-402E6A9EC55B}"/>
+    <hyperlink ref="AE31" r:id="rId178" xr:uid="{659C3E70-393F-4E83-B37A-41AE08850B3C}"/>
+    <hyperlink ref="AC31" r:id="rId179" xr:uid="{C957BA4E-6EBF-45E0-BDF3-BE0EE7B3F299}"/>
+    <hyperlink ref="AD31" r:id="rId180" xr:uid="{2ACEC19B-1400-4F53-9021-7BE3B3C316D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId163"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId181"/>
 </worksheet>
 </file>
--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12865CB7-2D89-4310-A800-0860731F7661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D2BB3B-FCDD-4B18-9AEA-DB390429520A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="460">
   <si>
     <t>#</t>
   </si>
@@ -1079,9 +1079,6 @@
     <t>Information Technology</t>
   </si>
   <si>
-    <t>Consumer</t>
-  </si>
-  <si>
     <t>Beauty and Wellness</t>
   </si>
   <si>
@@ -1293,6 +1290,132 @@
   </si>
   <si>
     <t>₹25 Lakhs for 7.5% equity and ₹50 Lakhs debt @10% interest</t>
+  </si>
+  <si>
+    <t>ABC Fitness Firm</t>
+  </si>
+  <si>
+    <t>Anirudh Anil Pole</t>
+  </si>
+  <si>
+    <t>Roshan Bhaskar Pole</t>
+  </si>
+  <si>
+    <t>Anirudh Anil Pole, Roshan Bhaskar Pole</t>
+  </si>
+  <si>
+    <t>https://www.abcfitnessfirm.com/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100063753222970</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abc-fitness-firm-4503a9261/</t>
+  </si>
+  <si>
+    <t>https://instagram.com/abcfitnessfirm?igshid=MDM4ZDc5MmU=</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Sports and Fitness</t>
+  </si>
+  <si>
+    <t>A multi sports firm aiming to transform kids play time into organized sports time</t>
+  </si>
+  <si>
+    <t>₹40 Lakhs for 2% equity</t>
+  </si>
+  <si>
+    <t>₹40 Lakhs for 10% equity</t>
+  </si>
+  <si>
+    <t>Primebook</t>
+  </si>
+  <si>
+    <t>https://www.primebook.in/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@primeosofficial3932</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/primeos_official/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/primeosIN</t>
+  </si>
+  <si>
+    <t>https://twitter.com/primebookindia</t>
+  </si>
+  <si>
+    <t>Aman Verma</t>
+  </si>
+  <si>
+    <t>Chitranshu Mahant</t>
+  </si>
+  <si>
+    <t>Umang Leekha</t>
+  </si>
+  <si>
+    <t>Pankaj Rawat</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/primeos/</t>
+  </si>
+  <si>
+    <t>Chitranshu Mahant, Umang Leekha, Pankaj Rawat, Aman Verma</t>
+  </si>
+  <si>
+    <t>Android laptop powered by PrimeOS (made in India)</t>
+  </si>
+  <si>
+    <t>₹ 75 lakh for 1.5% Equity</t>
+  </si>
+  <si>
+    <t>₹ 75 lakh for 3% Equity</t>
+  </si>
+  <si>
+    <t>Daily Dump</t>
+  </si>
+  <si>
+    <t>https://www.dailydump.org/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/pbkasturi</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/compostwali/?ref=br_rs</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dailydumpcompost/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/compostwali</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/daily-dump/</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Poonam Bir Kasturi, Arjun Dev</t>
+  </si>
+  <si>
+    <t>Poonam Bir Kasturi</t>
+  </si>
+  <si>
+    <t>Arjun Dev</t>
+  </si>
+  <si>
+    <t>Waste Management Composting Products</t>
+  </si>
+  <si>
+    <t>₹ 80 lakh for 4% Equity</t>
+  </si>
+  <si>
+    <t>₹ 30 lakh for 4% Equity and ₹50 Lakhs Debt @10% Interest</t>
   </si>
 </sst>
 </file>
@@ -1711,10 +1834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH31"/>
+  <dimension ref="A1:BH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="BJ28" sqref="BJ28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AT34" sqref="AT34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1736,6 +1859,7 @@
     <col min="22" max="22" width="23.88671875" customWidth="1"/>
     <col min="23" max="23" width="21" customWidth="1"/>
     <col min="24" max="24" width="18.44140625" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" customWidth="1"/>
     <col min="28" max="28" width="25.88671875" customWidth="1"/>
     <col min="29" max="29" width="21.88671875" customWidth="1"/>
     <col min="30" max="30" width="22.5546875" customWidth="1"/>
@@ -1744,7 +1868,7 @@
     <col min="33" max="33" width="20.44140625" customWidth="1"/>
     <col min="34" max="34" width="35" customWidth="1"/>
     <col min="35" max="35" width="31.77734375" customWidth="1"/>
-    <col min="36" max="36" width="51.88671875" customWidth="1"/>
+    <col min="36" max="36" width="55.21875" customWidth="1"/>
     <col min="37" max="37" width="36" customWidth="1"/>
     <col min="38" max="38" width="29.88671875" customWidth="1"/>
     <col min="41" max="41" width="28.21875" customWidth="1"/>
@@ -1994,7 +2118,7 @@
         <v>89</v>
       </c>
       <c r="AB2" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="AC2" s="6" t="s">
         <v>95</v>
@@ -2030,18 +2154,18 @@
         <v>50</v>
       </c>
       <c r="AO2" t="s">
-        <v>347</v>
+        <v>211</v>
       </c>
       <c r="AP2">
         <f>COUNTIF(AB:AB,AO2)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="s">
         <v>86</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="s">
         <v>254</v>
@@ -2062,7 +2186,7 @@
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD2" t="s">
         <v>270</v>
@@ -2136,11 +2260,11 @@
         <v>84</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S31" si="0">SUM(COUNTIF(M3:R3, "Y"))</f>
+        <f t="shared" ref="S3:S34" si="0">SUM(COUNTIF(M3:R3, "Y"))</f>
         <v>3</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T31" si="1">COUNTIF(V3:AA3, "*")</f>
+        <f t="shared" ref="T3:T34" si="1">COUNTIF(V3:AA3, "*")</f>
         <v>2</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -2181,19 +2305,19 @@
         <v xml:space="preserve">Ishaan Kanoria, Sparsh Agarwal, </v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK31" si="3" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK3:AK34" si="3" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
         <v>6</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL31" si="4">IFERROR(((H3/I3)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL3:AL34" si="4">IFERROR(((H3/I3)*100)/10000000, 0)</f>
         <v>2</v>
       </c>
       <c r="AO3" t="s">
-        <v>211</v>
+        <v>347</v>
       </c>
       <c r="AP3">
         <f>COUNTIF(AB:AB,AO3)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AR3" t="s">
         <v>73</v>
@@ -2207,14 +2331,14 @@
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX3" t="s">
         <v>261</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
@@ -2228,14 +2352,14 @@
       </c>
       <c r="BE3">
         <f t="shared" ref="BE3:BE6" si="5">COUNTIF(U:U,BD3)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BG3">
-        <f t="shared" ref="BG3:BG31" si="6">E3/100000</f>
+        <f t="shared" ref="BG3:BG34" si="6">E3/100000</f>
         <v>30</v>
       </c>
       <c r="BH3">
-        <f t="shared" ref="BH3:BH31" si="7">H3/100000</f>
+        <f t="shared" ref="BH3:BH34" si="7">H3/100000</f>
         <v>30</v>
       </c>
     </row>
@@ -2312,7 +2436,7 @@
         <v>112</v>
       </c>
       <c r="AB4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AC4" s="6" t="s">
         <v>109</v>
@@ -2348,11 +2472,11 @@
         <v>0</v>
       </c>
       <c r="AO4" t="s">
-        <v>348</v>
+        <v>125</v>
       </c>
       <c r="AP4">
-        <f t="shared" ref="AP4" si="8">COUNTIF(AB:AB,AO4)</f>
-        <v>2</v>
+        <f>COUNTIF(AB:AB,AO4)</f>
+        <v>3</v>
       </c>
       <c r="AU4" t="s">
         <v>256</v>
@@ -2366,7 +2490,7 @@
       </c>
       <c r="AY4">
         <f>COUNTIF(S:S,"2")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA4" t="s">
         <v>15</v>
@@ -2497,18 +2621,18 @@
         <v>5</v>
       </c>
       <c r="AO5" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="AP5">
-        <f t="shared" ref="AP5:AP14" si="9">COUNTIF(AB:AB,AO5)</f>
-        <v>2</v>
+        <f>COUNTIF(AB:AB,AO5)</f>
+        <v>1</v>
       </c>
       <c r="AU5" t="s">
         <v>257</v>
       </c>
       <c r="AV5">
         <f>COUNTIF(T:T,"4")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5" t="s">
         <v>263</v>
@@ -2522,14 +2646,14 @@
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD5" t="s">
         <v>274</v>
       </c>
       <c r="BE5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG5">
         <f t="shared" si="6"/>
@@ -2646,11 +2770,11 @@
         <v>10</v>
       </c>
       <c r="AO6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>COUNTIF(AB:AB,AO6)</f>
+        <v>2</v>
       </c>
       <c r="AU6" t="s">
         <v>258</v>
@@ -2671,7 +2795,7 @@
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD6" t="s">
         <v>273</v>
@@ -2798,11 +2922,11 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="AO7" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>COUNTIF(AB:AB,AO7)</f>
+        <v>7</v>
       </c>
       <c r="AU7" t="s">
         <v>259</v>
@@ -2943,11 +3067,11 @@
         <v>0</v>
       </c>
       <c r="AO8" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f>COUNTIF(AB:AB,AO8)</f>
+        <v>1</v>
       </c>
       <c r="AX8" t="s">
         <v>266</v>
@@ -3041,7 +3165,7 @@
         <v>149</v>
       </c>
       <c r="AB9" t="s">
-        <v>246</v>
+        <v>426</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>142</v>
@@ -3077,11 +3201,11 @@
         <v>250</v>
       </c>
       <c r="AO9" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f>COUNTIF(AB:AB,AO9)</f>
+        <v>2</v>
       </c>
       <c r="BG9">
         <f t="shared" si="6"/>
@@ -3198,11 +3322,11 @@
         <v>1</v>
       </c>
       <c r="AO10" t="s">
-        <v>238</v>
+        <v>346</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>COUNTIF(AB:AB,AO10)</f>
+        <v>1</v>
       </c>
       <c r="BG10">
         <f t="shared" si="6"/>
@@ -3322,10 +3446,10 @@
         <v>14.992503748125937</v>
       </c>
       <c r="AO11" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(AB:AB,AO11)</f>
         <v>1</v>
       </c>
       <c r="BG11">
@@ -3449,10 +3573,10 @@
         <v>10</v>
       </c>
       <c r="AO12" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(AB:AB,AO12)</f>
         <v>1</v>
       </c>
       <c r="BG12">
@@ -3570,10 +3694,10 @@
         <v>7</v>
       </c>
       <c r="AO13" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(AB:AB,AO13)</f>
         <v>1</v>
       </c>
       <c r="BG13">
@@ -3694,11 +3818,11 @@
         <v>10</v>
       </c>
       <c r="AO14" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>COUNTIF(AB:AB,AO14)</f>
+        <v>2</v>
       </c>
       <c r="BG14">
         <f t="shared" si="6"/>
@@ -3814,6 +3938,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AO15" t="s">
+        <v>426</v>
+      </c>
+      <c r="AP15">
+        <f>COUNTIF(AB:AB,AO15)</f>
+        <v>1</v>
+      </c>
       <c r="BG15">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -3934,6 +4065,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AO16" t="s">
+        <v>453</v>
+      </c>
+      <c r="AP16">
+        <f>COUNTIF(AB:AB,AO16)</f>
+        <v>1</v>
+      </c>
       <c r="BG16">
         <f t="shared" si="6"/>
         <v>100</v>
@@ -4986,13 +5124,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C26" t="s">
         <v>349</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="E26">
         <v>6500000</v>
@@ -5001,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H26">
         <v>6500000</v>
@@ -5048,37 +5186,37 @@
         <v>274</v>
       </c>
       <c r="V26" t="s">
+        <v>352</v>
+      </c>
+      <c r="W26" t="s">
         <v>353</v>
       </c>
-      <c r="W26" t="s">
-        <v>354</v>
-      </c>
       <c r="AB26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AC26" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD26" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="AD26" s="6" t="s">
-        <v>361</v>
-      </c>
       <c r="AE26" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AI26" t="s">
         <v>301</v>
       </c>
       <c r="AJ26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AK26">
         <f t="shared" si="3"/>
@@ -5102,13 +5240,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E27">
         <v>5000000</v>
@@ -5117,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H27">
         <v>5000000</v>
@@ -5164,34 +5302,34 @@
         <v>271</v>
       </c>
       <c r="V27" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF27" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="AB27" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="AD27" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE27" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF27" s="6" t="s">
-        <v>367</v>
-      </c>
       <c r="AG27" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AI27" t="s">
         <v>12</v>
       </c>
       <c r="AJ27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AK27">
         <f t="shared" si="3"/>
@@ -5215,13 +5353,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>371</v>
+      </c>
+      <c r="C28" t="s">
         <v>372</v>
       </c>
-      <c r="C28" t="s">
-        <v>373</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E28">
         <v>3500000</v>
@@ -5277,34 +5415,34 @@
         <v>271</v>
       </c>
       <c r="V28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AB28" t="s">
         <v>190</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AD28" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="AG28" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="AE28" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="AF28" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="AG28" s="6" t="s">
-        <v>378</v>
-      </c>
       <c r="AH28" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AI28" t="s">
         <v>203</v>
       </c>
       <c r="AJ28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AK28">
         <f t="shared" si="3"/>
@@ -5328,13 +5466,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C29" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E29">
         <v>5000000</v>
@@ -5375,7 +5513,7 @@
       <c r="Q29" t="s">
         <v>84</v>
       </c>
-      <c r="R29" s="9" t="s">
+      <c r="R29" s="7" t="s">
         <v>84</v>
       </c>
       <c r="S29">
@@ -5390,37 +5528,37 @@
         <v>272</v>
       </c>
       <c r="V29" t="s">
+        <v>382</v>
+      </c>
+      <c r="W29" t="s">
         <v>383</v>
-      </c>
-      <c r="W29" t="s">
-        <v>384</v>
       </c>
       <c r="AB29" t="s">
         <v>190</v>
       </c>
       <c r="AC29" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD29" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="AD29" s="6" t="s">
+      <c r="AE29" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG29" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="AE29" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="AF29" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="AG29" s="6" t="s">
-        <v>389</v>
-      </c>
       <c r="AH29" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AI29" t="s">
         <v>11</v>
       </c>
       <c r="AJ29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AK29">
         <f t="shared" si="3"/>
@@ -5444,13 +5582,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30" t="s">
         <v>394</v>
       </c>
-      <c r="C30" t="s">
-        <v>395</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E30">
         <v>5000000</v>
@@ -5458,7 +5596,7 @@
       <c r="F30">
         <v>5</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" t="s">
         <v>73</v>
       </c>
       <c r="H30">
@@ -5491,7 +5629,7 @@
       <c r="Q30" t="s">
         <v>84</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="R30" s="7" t="s">
         <v>84</v>
       </c>
       <c r="S30">
@@ -5506,37 +5644,37 @@
         <v>272</v>
       </c>
       <c r="V30" t="s">
+        <v>395</v>
+      </c>
+      <c r="W30" t="s">
         <v>396</v>
       </c>
-      <c r="W30" t="s">
+      <c r="AB30" t="s">
         <v>397</v>
       </c>
-      <c r="AB30" t="s">
-        <v>398</v>
-      </c>
       <c r="AC30" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="AF30" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="AD30" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="AE30" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="AF30" s="6" t="s">
-        <v>405</v>
-      </c>
       <c r="AG30" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AI30" t="s">
         <v>203</v>
       </c>
       <c r="AJ30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AK30">
         <f t="shared" si="3"/>
@@ -5560,13 +5698,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>405</v>
+      </c>
+      <c r="C31" t="s">
         <v>406</v>
       </c>
-      <c r="C31" t="s">
-        <v>407</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E31">
         <v>7500000</v>
@@ -5575,7 +5713,7 @@
         <v>7.5</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H31">
         <v>2500000</v>
@@ -5607,7 +5745,7 @@
       <c r="Q31" t="s">
         <v>84</v>
       </c>
-      <c r="R31" s="9" t="s">
+      <c r="R31" s="7" t="s">
         <v>84</v>
       </c>
       <c r="S31">
@@ -5622,37 +5760,37 @@
         <v>272</v>
       </c>
       <c r="V31" t="s">
+        <v>407</v>
+      </c>
+      <c r="W31" t="s">
         <v>408</v>
       </c>
-      <c r="W31" t="s">
-        <v>409</v>
-      </c>
       <c r="AB31" t="s">
-        <v>246</v>
+        <v>427</v>
       </c>
       <c r="AC31" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AD31" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="AD31" s="6" t="s">
-        <v>416</v>
-      </c>
       <c r="AE31" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF31" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG31" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AH31" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AI31" t="s">
         <v>12</v>
       </c>
       <c r="AJ31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AK31">
         <f t="shared" si="3"/>
@@ -5669,6 +5807,360 @@
       <c r="BH31">
         <f t="shared" si="7"/>
         <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>418</v>
+      </c>
+      <c r="C32" t="s">
+        <v>428</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E32">
+        <v>4000000</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="H32">
+        <v>4000000</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M32" t="s">
+        <v>84</v>
+      </c>
+      <c r="N32" t="s">
+        <v>84</v>
+      </c>
+      <c r="O32" t="s">
+        <v>84</v>
+      </c>
+      <c r="P32" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>85</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U32" t="s">
+        <v>272</v>
+      </c>
+      <c r="V32" t="s">
+        <v>419</v>
+      </c>
+      <c r="W32" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC32" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD32" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE32" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="AF32" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="AG32" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH32" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>421</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="AL32">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="BG32">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="BH32">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>431</v>
+      </c>
+      <c r="C33" t="s">
+        <v>443</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="E33">
+        <v>7500000</v>
+      </c>
+      <c r="F33">
+        <v>1.5</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="H33">
+        <v>7500000</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>86</v>
+      </c>
+      <c r="M33" t="s">
+        <v>84</v>
+      </c>
+      <c r="N33" t="s">
+        <v>84</v>
+      </c>
+      <c r="O33" t="s">
+        <v>84</v>
+      </c>
+      <c r="P33" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>85</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U33" t="s">
+        <v>272</v>
+      </c>
+      <c r="V33" t="s">
+        <v>438</v>
+      </c>
+      <c r="W33" t="s">
+        <v>439</v>
+      </c>
+      <c r="X33" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE33" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="AG33" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH33" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>442</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="AL33">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="BG33">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH33">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>446</v>
+      </c>
+      <c r="C34" t="s">
+        <v>457</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="E34">
+        <v>8000000</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="H34">
+        <v>3000000</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>5000000</v>
+      </c>
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="L34" t="s">
+        <v>86</v>
+      </c>
+      <c r="M34" t="s">
+        <v>85</v>
+      </c>
+      <c r="N34" t="s">
+        <v>84</v>
+      </c>
+      <c r="O34" t="s">
+        <v>84</v>
+      </c>
+      <c r="P34" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>84</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U34" t="s">
+        <v>274</v>
+      </c>
+      <c r="V34" t="s">
+        <v>455</v>
+      </c>
+      <c r="W34" t="s">
+        <v>456</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>453</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AG34" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AH34" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="AL34">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="BG34">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="BH34">
+        <f t="shared" si="7"/>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -5853,8 +6345,26 @@
     <hyperlink ref="AE31" r:id="rId178" xr:uid="{659C3E70-393F-4E83-B37A-41AE08850B3C}"/>
     <hyperlink ref="AC31" r:id="rId179" xr:uid="{C957BA4E-6EBF-45E0-BDF3-BE0EE7B3F299}"/>
     <hyperlink ref="AD31" r:id="rId180" xr:uid="{2ACEC19B-1400-4F53-9021-7BE3B3C316D8}"/>
+    <hyperlink ref="AH32" r:id="rId181" xr:uid="{06064A3C-889A-479B-8901-E7EC94D45DC8}"/>
+    <hyperlink ref="AF32" r:id="rId182" xr:uid="{E5C76F42-DE6A-4D59-A913-38BD75020175}"/>
+    <hyperlink ref="AE32" r:id="rId183" xr:uid="{73EC29D2-60B4-4573-85C9-2817FE297E6C}"/>
+    <hyperlink ref="AD32" r:id="rId184" xr:uid="{12A43C2D-3520-4DF6-9A19-948214AF9BD1}"/>
+    <hyperlink ref="AG32" r:id="rId185" xr:uid="{0F053CDC-4AD2-46D3-B8B0-FCB933775968}"/>
+    <hyperlink ref="AC32" r:id="rId186" xr:uid="{F7102AAC-2268-4F26-9450-3A7CD950FEDD}"/>
+    <hyperlink ref="AH33" r:id="rId187" xr:uid="{86658B74-E4F4-45A1-B61F-32039F46E7F6}"/>
+    <hyperlink ref="AG33" r:id="rId188" xr:uid="{5B27311E-4791-4F3B-9373-9FEBD2688C88}"/>
+    <hyperlink ref="AE33" r:id="rId189" xr:uid="{EF43143E-B637-448D-96A9-6A08531AE3B2}"/>
+    <hyperlink ref="AF33" r:id="rId190" xr:uid="{EDABD84B-FE4F-42CD-8B88-CA9915DF61CC}"/>
+    <hyperlink ref="AC33" r:id="rId191" xr:uid="{0A1CB737-D3E3-4BAD-B4CD-D549BEDF39A9}"/>
+    <hyperlink ref="AD33" r:id="rId192" xr:uid="{191A5F52-1378-44B5-BBD2-50131CD87691}"/>
+    <hyperlink ref="AH34" r:id="rId193" xr:uid="{779C2498-309D-4B39-B6B6-E296BB3705F3}"/>
+    <hyperlink ref="AG34" r:id="rId194" xr:uid="{74C0C030-1F5A-41B7-9BCB-FAA8725A10DF}"/>
+    <hyperlink ref="AF34" r:id="rId195" xr:uid="{34103481-88D4-49CE-BEBE-8D64B62060E3}"/>
+    <hyperlink ref="AE34" r:id="rId196" xr:uid="{489D0362-2C76-4BE0-BA36-2DCC7BD4485C}"/>
+    <hyperlink ref="AC34" r:id="rId197" xr:uid="{F807C618-1695-42BF-A623-0D3036DCD702}"/>
+    <hyperlink ref="AD34" r:id="rId198" xr:uid="{C2ED72ED-5A83-4689-88BF-1CA176192FEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId181"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId199"/>
 </worksheet>
 </file>
--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D2BB3B-FCDD-4B18-9AEA-DB390429520A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05200111-EC5F-407D-BA8F-6588C04C86A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="493">
   <si>
     <t>#</t>
   </si>
@@ -1416,6 +1416,105 @@
   </si>
   <si>
     <t>₹ 30 lakh for 4% Equity and ₹50 Lakhs Debt @10% Interest</t>
+  </si>
+  <si>
+    <t>Gharsoaps</t>
+  </si>
+  <si>
+    <t>Sayyam Jain</t>
+  </si>
+  <si>
+    <t>Sunny Jain</t>
+  </si>
+  <si>
+    <t>Sayyam Jain, Sunny Jain</t>
+  </si>
+  <si>
+    <t>https://www.gharsoaps.shop/</t>
+  </si>
+  <si>
+    <t>https://instagram.com/gharsoaps?igshid=YmMyMTA2M2Y=</t>
+  </si>
+  <si>
+    <t>https://twitter.com/gharsoaps</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@gharsoaps</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/ghar-soaps/</t>
+  </si>
+  <si>
+    <t>Handmade and Organic Skincare Products</t>
+  </si>
+  <si>
+    <t>₹ 60 lakh for 2% Equity</t>
+  </si>
+  <si>
+    <t>₹ 60 lakh for 4% Equity</t>
+  </si>
+  <si>
+    <t>Janitri</t>
+  </si>
+  <si>
+    <t>https://www.janitri.in/</t>
+  </si>
+  <si>
+    <t>₹ 1 Crore for 2.5% Equity</t>
+  </si>
+  <si>
+    <t>Arun Agarwal</t>
+  </si>
+  <si>
+    <t>₹ 1 Crore for 2.5% Equity (Condition - If revenue of ₹ 20 Crore is not achieved in the next financial year, the sharks will get an additional 2.5% Equity)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCFsQAxUcGTj8t-43e9lOt6w/videos</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/janitriofficial/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/janitri.official/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/janitri/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/janitri_innovat</t>
+  </si>
+  <si>
+    <t>AI enabled Medical Devices</t>
+  </si>
+  <si>
+    <t>Jaipur Watch Company</t>
+  </si>
+  <si>
+    <t>Gaurav Mehta</t>
+  </si>
+  <si>
+    <t>₹ 50 lakh for 2% Equity</t>
+  </si>
+  <si>
+    <t>Micro Luxury Watches</t>
+  </si>
+  <si>
+    <t>https://jaipur.watch/en-us</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCKadgg7Obp0OCCmtAX4yACA</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/JaipurWatchCompany/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jaipurwatchcompany/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/jaipurwatchco</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/company/jaipur-watch-company</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1518,7 +1617,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1834,10 +1932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH34"/>
+  <dimension ref="A1:BH37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AT34" sqref="AT34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2157,7 +2255,7 @@
         <v>211</v>
       </c>
       <c r="AP2">
-        <f>COUNTIF(AB:AB,AO2)</f>
+        <f t="shared" ref="AP2:AP16" si="0">COUNTIF(AB:AB,AO2)</f>
         <v>7</v>
       </c>
       <c r="AR2" t="s">
@@ -2165,35 +2263,35 @@
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU2" t="s">
         <v>254</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="s">
         <v>260</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD2" t="s">
         <v>270</v>
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -2260,11 +2358,11 @@
         <v>84</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S34" si="0">SUM(COUNTIF(M3:R3, "Y"))</f>
+        <f t="shared" ref="S3:S37" si="1">SUM(COUNTIF(M3:R3, "Y"))</f>
         <v>3</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T34" si="1">COUNTIF(V3:AA3, "*")</f>
+        <f t="shared" ref="T3:T37" si="2">COUNTIF(V3:AA3, "*")</f>
         <v>2</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -2301,44 +2399,44 @@
         <v>202</v>
       </c>
       <c r="AJ3" t="str">
-        <f t="shared" ref="AJ3:AJ16" si="2">CONCATENATE(V3, ", ", W3,", ",X3)</f>
+        <f t="shared" ref="AJ3:AJ16" si="3">CONCATENATE(V3, ", ", W3,", ",X3)</f>
         <v xml:space="preserve">Ishaan Kanoria, Sparsh Agarwal, </v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK34" si="3" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK3:AK37" si="4" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
         <v>6</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL34" si="4">IFERROR(((H3/I3)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL3:AL37" si="5">IFERROR(((H3/I3)*100)/10000000, 0)</f>
         <v>2</v>
       </c>
       <c r="AO3" t="s">
         <v>347</v>
       </c>
       <c r="AP3">
-        <f>COUNTIF(AB:AB,AO3)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="AR3" t="s">
         <v>73</v>
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU3" t="s">
         <v>255</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX3" t="s">
         <v>261</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
@@ -2351,15 +2449,15 @@
         <v>272</v>
       </c>
       <c r="BE3">
-        <f t="shared" ref="BE3:BE6" si="5">COUNTIF(U:U,BD3)</f>
+        <f t="shared" ref="BE3:BE6" si="6">COUNTIF(U:U,BD3)</f>
         <v>11</v>
       </c>
       <c r="BG3">
-        <f t="shared" ref="BG3:BG34" si="6">E3/100000</f>
+        <f t="shared" ref="BG3:BG37" si="7">E3/100000</f>
         <v>30</v>
       </c>
       <c r="BH3">
-        <f t="shared" ref="BH3:BH34" si="7">H3/100000</f>
+        <f t="shared" ref="BH3:BH37" si="8">H3/100000</f>
         <v>30</v>
       </c>
     </row>
@@ -2419,11 +2517,11 @@
         <v>84</v>
       </c>
       <c r="S4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U4" s="2" t="s">
@@ -2460,22 +2558,22 @@
         <v>203</v>
       </c>
       <c r="AJ4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Dheeraj Bansal, Rahul Sachdeva, </v>
       </c>
       <c r="AK4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="AL4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO4" t="s">
         <v>125</v>
       </c>
       <c r="AP4">
-        <f>COUNTIF(AB:AB,AO4)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AU4" t="s">
@@ -2503,15 +2601,15 @@
         <v>271</v>
       </c>
       <c r="BE4">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="BG4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="BH4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2571,11 +2669,11 @@
         <v>84</v>
       </c>
       <c r="S5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="T5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U5" s="2" t="s">
@@ -2609,22 +2707,22 @@
         <v>204</v>
       </c>
       <c r="AJ5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Slony Gambhir, , </v>
       </c>
       <c r="AK5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.666666666666668</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AO5" t="s">
         <v>245</v>
       </c>
       <c r="AP5">
-        <f>COUNTIF(AB:AB,AO5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AU5" t="s">
@@ -2646,21 +2744,21 @@
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD5" t="s">
         <v>274</v>
       </c>
       <c r="BE5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="BG5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="BH5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -2720,11 +2818,11 @@
         <v>84</v>
       </c>
       <c r="S6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="T6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U6" s="2" t="s">
@@ -2758,22 +2856,22 @@
         <v>205</v>
       </c>
       <c r="AJ6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Abhisek Baheti, , </v>
       </c>
       <c r="AK6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AO6" t="s">
         <v>247</v>
       </c>
       <c r="AP6">
-        <f>COUNTIF(AB:AB,AO6)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AU6" t="s">
@@ -2801,15 +2899,15 @@
         <v>273</v>
       </c>
       <c r="BE6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="BG6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="BH6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
     </row>
@@ -2869,11 +2967,11 @@
         <v>84</v>
       </c>
       <c r="S7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U7" s="2" t="s">
@@ -2910,23 +3008,23 @@
         <v>15</v>
       </c>
       <c r="AJ7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Uttam Kumar, Priyank Jain, </v>
       </c>
       <c r="AK7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7777777777777777</v>
       </c>
       <c r="AO7" t="s">
         <v>190</v>
       </c>
       <c r="AP7">
-        <f>COUNTIF(AB:AB,AO7)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="AU7" t="s">
         <v>259</v>
@@ -2950,11 +3048,11 @@
         <v>0</v>
       </c>
       <c r="BG7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="BH7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -3014,11 +3112,11 @@
         <v>84</v>
       </c>
       <c r="S8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U8" s="2" t="s">
@@ -3055,22 +3153,22 @@
         <v>203</v>
       </c>
       <c r="AJ8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Rebekah Sood, Ariella Blank, </v>
       </c>
       <c r="AK8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO8" t="s">
         <v>246</v>
       </c>
       <c r="AP8">
-        <f>COUNTIF(AB:AB,AO8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AX8" t="s">
@@ -3081,11 +3179,11 @@
         <v>0</v>
       </c>
       <c r="BG8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="BH8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3145,13 +3243,13 @@
         <v>84</v>
       </c>
       <c r="S9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="T9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="U9" s="2" t="s">
         <v>273</v>
       </c>
@@ -3189,30 +3287,30 @@
         <v>206</v>
       </c>
       <c r="AJ9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vinay Singhal, Shashank Vaishnav, Parveen Singhal</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="AO9" t="s">
         <v>238</v>
       </c>
       <c r="AP9">
-        <f>COUNTIF(AB:AB,AO9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BG9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="BH9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
     </row>
@@ -3272,68 +3370,68 @@
         <v>84</v>
       </c>
       <c r="S10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="V10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE10" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ10" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Pooja Bajaj, , </v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>346</v>
+      </c>
+      <c r="AP10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="V10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC10" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD10" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF10" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG10" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH10" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Pooja Bajaj, , </v>
-      </c>
-      <c r="AK10">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AL10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>346</v>
-      </c>
-      <c r="AP10">
-        <f>COUNTIF(AB:AB,AO10)</f>
-        <v>1</v>
-      </c>
       <c r="BG10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="BH10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -3393,71 +3491,71 @@
         <v>84</v>
       </c>
       <c r="S11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="V11" t="s">
+        <v>161</v>
+      </c>
+      <c r="W11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF11" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Amigo Nikhil, Meher Sai, </v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="4"/>
+        <v>37.5</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="5"/>
+        <v>14.992503748125937</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>315</v>
+      </c>
+      <c r="AP11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="T11">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="V11" t="s">
-        <v>161</v>
-      </c>
-      <c r="W11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC11" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF11" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG11" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH11" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>201</v>
-      </c>
-      <c r="AJ11" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Amigo Nikhil, Meher Sai, </v>
-      </c>
-      <c r="AK11">
-        <f t="shared" si="3"/>
-        <v>37.5</v>
-      </c>
-      <c r="AL11">
-        <f t="shared" si="4"/>
-        <v>14.992503748125937</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>315</v>
-      </c>
-      <c r="AP11">
-        <f>COUNTIF(AB:AB,AO11)</f>
-        <v>1</v>
-      </c>
       <c r="BG11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="BH11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
     </row>
@@ -3517,11 +3615,11 @@
         <v>84</v>
       </c>
       <c r="S12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="T12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="U12" s="2" t="s">
@@ -3561,30 +3659,30 @@
         <v>207</v>
       </c>
       <c r="AJ12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vinit Patil, Geeta Patil, Darshil Savla</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AO12" t="s">
         <v>369</v>
       </c>
       <c r="AP12">
-        <f>COUNTIF(AB:AB,AO12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BG12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="BH12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
     </row>
@@ -3644,68 +3742,68 @@
         <v>84</v>
       </c>
       <c r="S13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="V13" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE13" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF13" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG13" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Roshaan V Mishra, , </v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>397</v>
+      </c>
+      <c r="AP13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="V13" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC13" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE13" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF13" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG13" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH13" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ13" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Roshaan V Mishra, , </v>
-      </c>
-      <c r="AK13">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="AL13">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>397</v>
-      </c>
-      <c r="AP13">
-        <f>COUNTIF(AB:AB,AO13)</f>
-        <v>1</v>
-      </c>
       <c r="BG13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="BH13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
     </row>
@@ -3765,71 +3863,71 @@
         <v>84</v>
       </c>
       <c r="S14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="V14" t="s">
+        <v>182</v>
+      </c>
+      <c r="W14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC14" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD14" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE14" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG14" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH14" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Himanshu Adlakha, Nikita Malhotra, </v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>427</v>
+      </c>
+      <c r="AP14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="T14">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="V14" t="s">
-        <v>182</v>
-      </c>
-      <c r="W14" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC14" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD14" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE14" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF14" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG14" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH14" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>205</v>
-      </c>
-      <c r="AJ14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Himanshu Adlakha, Nikita Malhotra, </v>
-      </c>
-      <c r="AK14">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="AL14">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>427</v>
-      </c>
-      <c r="AP14">
-        <f>COUNTIF(AB:AB,AO14)</f>
-        <v>2</v>
-      </c>
       <c r="BG14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="BH14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
     </row>
@@ -3889,11 +3987,11 @@
         <v>84</v>
       </c>
       <c r="S15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U15" s="2" t="s">
@@ -3927,30 +4025,30 @@
         <v>203</v>
       </c>
       <c r="AJ15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Ganesh Balakrishnan, , </v>
       </c>
       <c r="AK15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="AL15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO15" t="s">
         <v>426</v>
       </c>
       <c r="AP15">
-        <f>COUNTIF(AB:AB,AO15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BG15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="BH15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4010,11 +4108,11 @@
         <v>84</v>
       </c>
       <c r="S16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="U16" s="2" t="s">
@@ -4054,30 +4152,30 @@
         <v>203</v>
       </c>
       <c r="AJ16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Gaurav Chhabra, Nitin Chhabra, Piyush</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO16" t="s">
         <v>453</v>
       </c>
       <c r="AP16">
-        <f>COUNTIF(AB:AB,AO16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BG16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="BH16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4137,11 +4235,11 @@
         <v>84</v>
       </c>
       <c r="S17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="T17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U17" t="s">
@@ -4178,19 +4276,19 @@
         <v>210</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.666666666666668</v>
       </c>
       <c r="AL17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.25</v>
       </c>
       <c r="BG17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="BH17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -4250,11 +4348,11 @@
         <v>84</v>
       </c>
       <c r="S18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="T18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U18" t="s">
@@ -4291,19 +4389,19 @@
         <v>217</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="BG18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="BH18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
     </row>
@@ -4363,11 +4461,11 @@
         <v>84</v>
       </c>
       <c r="S19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="U19" t="s">
@@ -4410,19 +4508,19 @@
         <v>224</v>
       </c>
       <c r="AK19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="AL19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="BH19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4482,11 +4580,11 @@
         <v>84</v>
       </c>
       <c r="S20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U20" t="s">
@@ -4526,19 +4624,19 @@
         <v>287</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>250</v>
       </c>
       <c r="BH20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4598,13 +4696,13 @@
         <v>84</v>
       </c>
       <c r="S21">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T21">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="U21" t="s">
         <v>270</v>
       </c>
@@ -4642,19 +4740,19 @@
         <v>302</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AL21">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
+      <c r="AL21">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
       <c r="BG21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="BH21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
@@ -4714,11 +4812,11 @@
         <v>84</v>
       </c>
       <c r="S22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="U22" t="s">
@@ -4761,19 +4859,19 @@
         <v>306</v>
       </c>
       <c r="AK22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66.666666666666671</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.285714285714286</v>
       </c>
       <c r="BG22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="BH22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -4833,11 +4931,11 @@
         <v>84</v>
       </c>
       <c r="S23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="T23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U23" t="s">
@@ -4874,19 +4972,19 @@
         <v>321</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="BG23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="BH23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
@@ -4946,13 +5044,13 @@
         <v>84</v>
       </c>
       <c r="S24">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="U24" t="s">
         <v>270</v>
       </c>
@@ -4990,19 +5088,19 @@
         <v>331</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="BG24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="BH24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
     </row>
@@ -5062,11 +5160,11 @@
         <v>84</v>
       </c>
       <c r="S25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U25" t="s">
@@ -5103,19 +5201,19 @@
         <v>343</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="BH25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5175,13 +5273,13 @@
         <v>84</v>
       </c>
       <c r="S26">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T26">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
+      <c r="T26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="U26" t="s">
         <v>274</v>
       </c>
@@ -5219,19 +5317,19 @@
         <v>354</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.5</v>
       </c>
       <c r="BG26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="BH26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
     </row>
@@ -5291,13 +5389,13 @@
         <v>84</v>
       </c>
       <c r="S27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="T27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="U27" t="s">
         <v>271</v>
       </c>
@@ -5332,19 +5430,19 @@
         <v>365</v>
       </c>
       <c r="AK27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="AL27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="BG27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="BH27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -5404,11 +5502,11 @@
         <v>84</v>
       </c>
       <c r="S28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U28" t="s">
@@ -5445,19 +5543,19 @@
         <v>373</v>
       </c>
       <c r="AK28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
       <c r="AL28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="BH28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5517,11 +5615,11 @@
         <v>84</v>
       </c>
       <c r="S29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U29" t="s">
@@ -5561,19 +5659,19 @@
         <v>384</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.15151515151515</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="BG29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="BH29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
     </row>
@@ -5633,11 +5731,11 @@
         <v>84</v>
       </c>
       <c r="S30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U30" t="s">
@@ -5677,19 +5775,19 @@
         <v>398</v>
       </c>
       <c r="AK30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="AL30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="BH30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5749,11 +5847,11 @@
         <v>84</v>
       </c>
       <c r="S31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U31" t="s">
@@ -5793,19 +5891,19 @@
         <v>409</v>
       </c>
       <c r="AK31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="AL31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.333333333333333</v>
       </c>
       <c r="BG31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="BH31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
     </row>
@@ -5861,15 +5959,15 @@
       <c r="Q32" t="s">
         <v>85</v>
       </c>
-      <c r="R32" s="9" t="s">
+      <c r="R32" s="7" t="s">
         <v>84</v>
       </c>
       <c r="S32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U32" t="s">
@@ -5909,19 +6007,19 @@
         <v>421</v>
       </c>
       <c r="AK32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AL32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BG32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="BH32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
     </row>
@@ -5935,7 +6033,7 @@
       <c r="C33" t="s">
         <v>443</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" t="s">
         <v>444</v>
       </c>
       <c r="E33">
@@ -5944,7 +6042,7 @@
       <c r="F33">
         <v>1.5</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" t="s">
         <v>445</v>
       </c>
       <c r="H33">
@@ -5977,15 +6075,15 @@
       <c r="Q33" t="s">
         <v>85</v>
       </c>
-      <c r="R33" s="9" t="s">
+      <c r="R33" s="7" t="s">
         <v>84</v>
       </c>
       <c r="S33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="T33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="U33" t="s">
@@ -6031,19 +6129,19 @@
         <v>442</v>
       </c>
       <c r="AK33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="AL33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="BG33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="BH33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
     </row>
@@ -6057,7 +6155,7 @@
       <c r="C34" t="s">
         <v>457</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" t="s">
         <v>458</v>
       </c>
       <c r="E34">
@@ -6066,7 +6164,7 @@
       <c r="F34">
         <v>4</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" t="s">
         <v>459</v>
       </c>
       <c r="H34">
@@ -6099,15 +6197,15 @@
       <c r="Q34" t="s">
         <v>84</v>
       </c>
-      <c r="R34" s="9" t="s">
+      <c r="R34" s="7" t="s">
         <v>84</v>
       </c>
       <c r="S34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U34" t="s">
@@ -6147,20 +6245,362 @@
         <v>454</v>
       </c>
       <c r="AK34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AL34">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
+      <c r="BG34">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="BH34">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>460</v>
+      </c>
+      <c r="C35" t="s">
+        <v>469</v>
+      </c>
+      <c r="D35" t="s">
+        <v>470</v>
+      </c>
+      <c r="E35">
+        <v>6000000</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>471</v>
+      </c>
+      <c r="H35">
+        <v>6000000</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>86</v>
+      </c>
+      <c r="M35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N35" t="s">
+        <v>84</v>
+      </c>
+      <c r="O35" t="s">
+        <v>84</v>
+      </c>
+      <c r="P35" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>84</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U35" t="s">
+        <v>270</v>
+      </c>
+      <c r="V35" t="s">
+        <v>461</v>
+      </c>
+      <c r="W35" t="s">
+        <v>462</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC35" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD35" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="AE35" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AF35" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AG35" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AH35" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>463</v>
+      </c>
+      <c r="AK35">
         <f t="shared" si="4"/>
-        <v>7.5</v>
-      </c>
-      <c r="BG34">
-        <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="BH34">
+        <v>30</v>
+      </c>
+      <c r="AL35">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="BG35">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="BH35">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>472</v>
+      </c>
+      <c r="C36" t="s">
+        <v>482</v>
+      </c>
+      <c r="D36" t="s">
+        <v>474</v>
+      </c>
+      <c r="E36">
+        <v>10000000</v>
+      </c>
+      <c r="F36">
+        <v>2.5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>476</v>
+      </c>
+      <c r="H36">
+        <v>10000000</v>
+      </c>
+      <c r="I36">
+        <v>2.5</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>86</v>
+      </c>
+      <c r="M36" t="s">
+        <v>85</v>
+      </c>
+      <c r="N36" t="s">
+        <v>84</v>
+      </c>
+      <c r="O36" t="s">
+        <v>84</v>
+      </c>
+      <c r="P36" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>84</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U36" t="s">
+        <v>271</v>
+      </c>
+      <c r="V36" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="AD36" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF36" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AG36" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AH36" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>475</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="AL36">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="BG36">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="BH36">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>483</v>
+      </c>
+      <c r="C37" t="s">
+        <v>486</v>
+      </c>
+      <c r="D37" t="s">
+        <v>485</v>
+      </c>
+      <c r="E37">
+        <v>5000000</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>73</v>
+      </c>
+      <c r="M37" t="s">
+        <v>84</v>
+      </c>
+      <c r="N37" t="s">
+        <v>84</v>
+      </c>
+      <c r="O37" t="s">
+        <v>84</v>
+      </c>
+      <c r="P37" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>84</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U37" t="s">
+        <v>271</v>
+      </c>
+      <c r="V37" t="s">
+        <v>484</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC37" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AD37" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AE37" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF37" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AG37" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH37" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>484</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="AL37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG37">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="BH37">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6363,8 +6803,26 @@
     <hyperlink ref="AE34" r:id="rId196" xr:uid="{489D0362-2C76-4BE0-BA36-2DCC7BD4485C}"/>
     <hyperlink ref="AC34" r:id="rId197" xr:uid="{F807C618-1695-42BF-A623-0D3036DCD702}"/>
     <hyperlink ref="AD34" r:id="rId198" xr:uid="{C2ED72ED-5A83-4689-88BF-1CA176192FEB}"/>
+    <hyperlink ref="AH35" r:id="rId199" xr:uid="{99E1E29C-CF81-49E1-937C-172FB56BB139}"/>
+    <hyperlink ref="AE35" r:id="rId200" xr:uid="{2C93C740-A0DA-4BAB-85FB-645BA9A215F6}"/>
+    <hyperlink ref="AC35" r:id="rId201" xr:uid="{84F329CB-352B-4346-89CE-F5AC228F6591}"/>
+    <hyperlink ref="AG35" r:id="rId202" xr:uid="{4C76E7E6-1653-4794-A2BF-DE3DAA02A7D3}"/>
+    <hyperlink ref="AD35" r:id="rId203" xr:uid="{4D8AFCDA-4C7A-45E9-B206-02A5202ADEB8}"/>
+    <hyperlink ref="AF35" r:id="rId204" xr:uid="{7C0F025D-8820-4646-A04A-6D495C0CFA3B}"/>
+    <hyperlink ref="AH36" r:id="rId205" xr:uid="{B2C4E130-AF2A-484E-8CFD-09E5F452E89E}"/>
+    <hyperlink ref="AG36" r:id="rId206" xr:uid="{C2AB4CBB-77F1-440F-BF65-2C514C3BE3A7}"/>
+    <hyperlink ref="AF36" r:id="rId207" xr:uid="{763E721F-AF00-44F1-A33A-71051F2AC3F8}"/>
+    <hyperlink ref="AE36" r:id="rId208" xr:uid="{AE7A918D-B2C4-4E7C-A11A-2ABEC6DE0859}"/>
+    <hyperlink ref="AD36" r:id="rId209" xr:uid="{B8ED356D-53CD-4248-BACB-892328877960}"/>
+    <hyperlink ref="AC36" r:id="rId210" xr:uid="{486D27ED-6ADB-4D6C-873C-ECBCA957D31D}"/>
+    <hyperlink ref="AH37" r:id="rId211" xr:uid="{65ACE7C0-A559-4A46-9ABC-5F469D314345}"/>
+    <hyperlink ref="AG37" r:id="rId212" xr:uid="{1C73105E-4F7B-4A75-929E-24C821CCFA58}"/>
+    <hyperlink ref="AF37" r:id="rId213" xr:uid="{BDFBAB4D-8D4F-47D3-82CD-9EF3241A2C23}"/>
+    <hyperlink ref="AE37" r:id="rId214" xr:uid="{3521806E-59E3-46A2-BB52-46E3FAE8F342}"/>
+    <hyperlink ref="AC37" r:id="rId215" xr:uid="{BF9C934B-7D39-44C8-9D70-675E7190F8CA}"/>
+    <hyperlink ref="AD37" r:id="rId216" xr:uid="{4AA40D24-429D-4C8A-B259-565C8FE72C21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId199"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId217"/>
 </worksheet>
 </file>
--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05200111-EC5F-407D-BA8F-6588C04C86A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5094F25A-255D-4AFD-8B3E-B663F75138B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="530">
   <si>
     <t>#</t>
   </si>
@@ -1515,6 +1515,117 @@
   </si>
   <si>
     <t>https://in.linkedin.com/company/jaipur-watch-company</t>
+  </si>
+  <si>
+    <t>insideFPV</t>
+  </si>
+  <si>
+    <t>Arth Chowdhary</t>
+  </si>
+  <si>
+    <t>Oshi Kumari</t>
+  </si>
+  <si>
+    <t>Devyant Bhardwaj</t>
+  </si>
+  <si>
+    <t>Arth Chowdary, Oshi Kumari, Devyant Bhardwaj</t>
+  </si>
+  <si>
+    <t>https://www.insidefpv.com/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@insidefpv373</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/inside_fpv/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/inside-fpv/mycompany/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/insidefpvdrones?s=11&amp;t=rqRh1B7RK5aS3vAjsVKPaw</t>
+  </si>
+  <si>
+    <t>Consumer Drones</t>
+  </si>
+  <si>
+    <t>₹ 75 lakh for 4% Equity</t>
+  </si>
+  <si>
+    <t>₹ 75 lakh for 15% Equity</t>
+  </si>
+  <si>
+    <t>Aman, Anupam, Peyush, Amit</t>
+  </si>
+  <si>
+    <t>₹40 Lakhs for 5% equity</t>
+  </si>
+  <si>
+    <t>https://www.angrakhaa.com/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/angrakhaa</t>
+  </si>
+  <si>
+    <t>https://instagram.com/angrakhaa</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/angrakhaa/</t>
+  </si>
+  <si>
+    <t>Asana Riamei, Vishakha Bhaskkar</t>
+  </si>
+  <si>
+    <t>Vishakha Bhaskkar</t>
+  </si>
+  <si>
+    <t>Asana Riamei</t>
+  </si>
+  <si>
+    <t>Angrakhaa</t>
+  </si>
+  <si>
+    <t>Size Inclusive Women Clothing</t>
+  </si>
+  <si>
+    <t>₹40 Lakhs for 20% equity</t>
+  </si>
+  <si>
+    <t>Diabexy</t>
+  </si>
+  <si>
+    <t>Diabetes Friendly Food Products</t>
+  </si>
+  <si>
+    <t>https://diabexy.com/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/diabexy</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/diabexy</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/diabexy</t>
+  </si>
+  <si>
+    <t>https://mobile.twitter.com/diabexyindia</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/nutroactive/</t>
+  </si>
+  <si>
+    <t>₹1.5 Crore for 1% equity</t>
+  </si>
+  <si>
+    <t>Lokendra Tomar</t>
+  </si>
+  <si>
+    <t>Nishu Tomar</t>
+  </si>
+  <si>
+    <t>Lokendra Tomar, Nishu Tomar</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1617,6 +1728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1932,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH37"/>
+  <dimension ref="A1:BH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="BC16" workbookViewId="0">
+      <selection activeCell="AU40" sqref="AU40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2256,14 +2368,14 @@
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP16" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR2" t="s">
         <v>86</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AU2" t="s">
         <v>254</v>
@@ -2277,14 +2389,14 @@
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="s">
         <v>270</v>
@@ -2358,11 +2470,11 @@
         <v>84</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S37" si="1">SUM(COUNTIF(M3:R3, "Y"))</f>
+        <f t="shared" ref="S3:S40" si="1">SUM(COUNTIF(M3:R3, "Y"))</f>
         <v>3</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T37" si="2">COUNTIF(V3:AA3, "*")</f>
+        <f t="shared" ref="T3:T40" si="2">COUNTIF(V3:AA3, "*")</f>
         <v>2</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -2403,11 +2515,11 @@
         <v xml:space="preserve">Ishaan Kanoria, Sparsh Agarwal, </v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK37" si="4" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK3:AK40" si="4" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
         <v>6</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL37" si="5">IFERROR(((H3/I3)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL3:AL40" si="5">IFERROR(((H3/I3)*100)/10000000, 0)</f>
         <v>2</v>
       </c>
       <c r="AO3" t="s">
@@ -2422,21 +2534,21 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="s">
         <v>255</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX3" t="s">
         <v>261</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
@@ -2450,14 +2562,14 @@
       </c>
       <c r="BE3">
         <f t="shared" ref="BE3:BE6" si="6">COUNTIF(U:U,BD3)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BG3">
-        <f t="shared" ref="BG3:BG37" si="7">E3/100000</f>
+        <f t="shared" ref="BG3:BG40" si="7">E3/100000</f>
         <v>30</v>
       </c>
       <c r="BH3">
-        <f t="shared" ref="BH3:BH37" si="8">H3/100000</f>
+        <f t="shared" ref="BH3:BH40" si="8">H3/100000</f>
         <v>30</v>
       </c>
     </row>
@@ -2574,14 +2686,14 @@
       </c>
       <c r="AP4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU4" t="s">
         <v>256</v>
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="s">
         <v>262</v>
@@ -2744,14 +2856,14 @@
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD5" t="s">
         <v>274</v>
       </c>
       <c r="BE5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG5">
         <f t="shared" si="7"/>
@@ -2886,14 +2998,14 @@
       </c>
       <c r="AY6">
         <f>COUNTIF(S:S,"4")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA6" t="s">
         <v>14</v>
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD6" t="s">
         <v>273</v>
@@ -3024,7 +3136,7 @@
       </c>
       <c r="AP7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU7" t="s">
         <v>259</v>
@@ -3045,7 +3157,7 @@
       </c>
       <c r="BB7">
         <f>COUNTIF(R:R,"Y")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG7">
         <f t="shared" si="7"/>
@@ -6313,7 +6425,7 @@
       <c r="Q35" t="s">
         <v>84</v>
       </c>
-      <c r="R35" s="9" t="s">
+      <c r="R35" s="7" t="s">
         <v>84</v>
       </c>
       <c r="S35">
@@ -6429,7 +6541,7 @@
       <c r="Q36" t="s">
         <v>84</v>
       </c>
-      <c r="R36" s="9" t="s">
+      <c r="R36" s="7" t="s">
         <v>84</v>
       </c>
       <c r="S36">
@@ -6542,7 +6654,7 @@
       <c r="Q37" t="s">
         <v>84</v>
       </c>
-      <c r="R37" s="9" t="s">
+      <c r="R37" s="7" t="s">
         <v>84</v>
       </c>
       <c r="S37">
@@ -6599,6 +6711,357 @@
         <v>50</v>
       </c>
       <c r="BH37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>493</v>
+      </c>
+      <c r="C38" t="s">
+        <v>503</v>
+      </c>
+      <c r="D38" t="s">
+        <v>504</v>
+      </c>
+      <c r="E38">
+        <v>7500000</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>505</v>
+      </c>
+      <c r="H38">
+        <v>7500000</v>
+      </c>
+      <c r="I38">
+        <v>15</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M38" t="s">
+        <v>85</v>
+      </c>
+      <c r="N38" t="s">
+        <v>84</v>
+      </c>
+      <c r="O38" t="s">
+        <v>84</v>
+      </c>
+      <c r="P38" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>85</v>
+      </c>
+      <c r="R38" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="U38" t="s">
+        <v>272</v>
+      </c>
+      <c r="V38" t="s">
+        <v>494</v>
+      </c>
+      <c r="W38" t="s">
+        <v>495</v>
+      </c>
+      <c r="X38" t="s">
+        <v>496</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC38" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="AD38" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE38" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="AF38" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AG38" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="AH38" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>506</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>497</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="4"/>
+        <v>18.75</v>
+      </c>
+      <c r="AL38">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="BG38">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="BH38">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>515</v>
+      </c>
+      <c r="C39" t="s">
+        <v>516</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E39">
+        <v>4000000</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H39">
+        <v>4000000</v>
+      </c>
+      <c r="I39">
+        <v>20</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N39" t="s">
+        <v>84</v>
+      </c>
+      <c r="O39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P39" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>84</v>
+      </c>
+      <c r="R39" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U39" t="s">
+        <v>272</v>
+      </c>
+      <c r="V39" t="s">
+        <v>514</v>
+      </c>
+      <c r="W39" t="s">
+        <v>513</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="AD39" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="AE39" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="AF39" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="AG39" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="AH39" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>512</v>
+      </c>
+      <c r="AK39">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AL39">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BG39">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="BH39">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>518</v>
+      </c>
+      <c r="C40" t="s">
+        <v>519</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E40">
+        <v>15000000</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M40" t="s">
+        <v>84</v>
+      </c>
+      <c r="N40" t="s">
+        <v>84</v>
+      </c>
+      <c r="O40" t="s">
+        <v>84</v>
+      </c>
+      <c r="P40" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>84</v>
+      </c>
+      <c r="R40" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U40" t="s">
+        <v>274</v>
+      </c>
+      <c r="V40" t="s">
+        <v>527</v>
+      </c>
+      <c r="W40" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC40" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="AD40" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="AE40" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF40" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG40" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH40" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>529</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="AL40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="BH40">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -6821,8 +7284,26 @@
     <hyperlink ref="AE37" r:id="rId214" xr:uid="{3521806E-59E3-46A2-BB52-46E3FAE8F342}"/>
     <hyperlink ref="AC37" r:id="rId215" xr:uid="{BF9C934B-7D39-44C8-9D70-675E7190F8CA}"/>
     <hyperlink ref="AD37" r:id="rId216" xr:uid="{4AA40D24-429D-4C8A-B259-565C8FE72C21}"/>
+    <hyperlink ref="AH38" r:id="rId217" xr:uid="{9A1A5552-1990-47D3-9558-67C0F2E99A70}"/>
+    <hyperlink ref="AG38" r:id="rId218" xr:uid="{905274B1-8FE7-4386-81B4-F8B6168391CB}"/>
+    <hyperlink ref="AE38" r:id="rId219" xr:uid="{07AB1EBA-F4F9-48BD-BFD8-3A69F0C6F029}"/>
+    <hyperlink ref="AD38" r:id="rId220" xr:uid="{346517DD-ABC9-4958-AD90-427FC5C372AB}"/>
+    <hyperlink ref="AC38" r:id="rId221" xr:uid="{6BF2BC93-5C2A-4DBB-9D59-0639E66BAFA9}"/>
+    <hyperlink ref="AF38" r:id="rId222" xr:uid="{71086CE4-47BA-4E10-A573-2B6AAB932FE4}"/>
+    <hyperlink ref="AH39" r:id="rId223" xr:uid="{51146F7D-75CE-47E7-BE64-93A153217656}"/>
+    <hyperlink ref="AF39" r:id="rId224" xr:uid="{08C027CD-1EF4-4E6C-A3A7-2199DF595B94}"/>
+    <hyperlink ref="AE39" r:id="rId225" xr:uid="{A2043F54-C81F-4A74-90B9-A5CED87A367F}"/>
+    <hyperlink ref="AD39" r:id="rId226" xr:uid="{CED52847-CA9D-4DDE-8284-2D3A380C3CA5}"/>
+    <hyperlink ref="AG39" r:id="rId227" xr:uid="{AA9625D5-894B-4C1B-84FC-B05224846520}"/>
+    <hyperlink ref="AC39" r:id="rId228" xr:uid="{2DD80C20-968D-4FAC-80FD-9D04DFB020BC}"/>
+    <hyperlink ref="AH40" r:id="rId229" xr:uid="{AA24A7BA-BF1A-4E8F-8CEF-A0F76933B2DF}"/>
+    <hyperlink ref="AG40" r:id="rId230" xr:uid="{3EECB29E-975E-41D1-B51A-9560299F682F}"/>
+    <hyperlink ref="AF40" r:id="rId231" xr:uid="{B7FFE04A-D3E0-42B0-948F-33B878A3660B}"/>
+    <hyperlink ref="AE40" r:id="rId232" xr:uid="{4ABDB8D9-8B4C-4180-8C45-3F4223E7FC2F}"/>
+    <hyperlink ref="AC40" r:id="rId233" xr:uid="{0EBB95B1-C930-43AE-9F1D-73DAE1268BD9}"/>
+    <hyperlink ref="AD40" r:id="rId234" xr:uid="{646CCB0C-90C9-42A7-A93F-D32902C6E50D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId217"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId235"/>
 </worksheet>
 </file>
--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5094F25A-255D-4AFD-8B3E-B663F75138B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799950F1-FC91-4619-997E-8034A5BA508F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="605">
   <si>
     <t>#</t>
   </si>
@@ -1626,6 +1626,231 @@
   </si>
   <si>
     <t>Lokendra Tomar, Nishu Tomar</t>
+  </si>
+  <si>
+    <t>Kyari Innovation</t>
+  </si>
+  <si>
+    <t>Adventure Safety Gadgets</t>
+  </si>
+  <si>
+    <t>₹ 51 lakh for 1% Equity</t>
+  </si>
+  <si>
+    <t>₹ 51 lakh for 6% Equity</t>
+  </si>
+  <si>
+    <t>MOPP Foods</t>
+  </si>
+  <si>
+    <t>₹ 75 lakh for 2.25% Equity</t>
+  </si>
+  <si>
+    <t>₹ 75 lakh for 5% Equity</t>
+  </si>
+  <si>
+    <t>Econiture</t>
+  </si>
+  <si>
+    <t>₹ 50 lakh for 8% Equity</t>
+  </si>
+  <si>
+    <t>Dobiee</t>
+  </si>
+  <si>
+    <t>₹ 72 lakh for 2% Equity</t>
+  </si>
+  <si>
+    <t>FastBeetle</t>
+  </si>
+  <si>
+    <t>₹ 90 lakh for 3% Equity</t>
+  </si>
+  <si>
+    <t>₹ 90 lakh for 7.5% Equity</t>
+  </si>
+  <si>
+    <t>P-Flow</t>
+  </si>
+  <si>
+    <t>₹ 60 lakh for 1% Equity</t>
+  </si>
+  <si>
+    <t>₹ 60 lakh for 6% Equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 72 lakh for 6.5% Equity	</t>
+  </si>
+  <si>
+    <t>Paratha and Pakoda Food Chain</t>
+  </si>
+  <si>
+    <t>Plastic Recycled Furniture</t>
+  </si>
+  <si>
+    <t>Delivery Service dedicated to Kashmir</t>
+  </si>
+  <si>
+    <t>Medical Device that analyses urine</t>
+  </si>
+  <si>
+    <t>Namita, Amit</t>
+  </si>
+  <si>
+    <t>https://kyari.in/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kyariInnovations/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kyari_innovations/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/kyari/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/KyariInnovation</t>
+  </si>
+  <si>
+    <t>Smratika Sharma, Abhay Sharma</t>
+  </si>
+  <si>
+    <t>Abhay Sharma</t>
+  </si>
+  <si>
+    <t>Smratika Sharma</t>
+  </si>
+  <si>
+    <t>https://moppfoods.com/</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/company/moppindia</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/moppindia/?hl=en</t>
+  </si>
+  <si>
+    <t>https://twitter.com/moppindia?lang=en</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MOPPIndia/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCUSaGbNhEB1oLxIY1kH4Low</t>
+  </si>
+  <si>
+    <t>Gaurav Gupta, Geetika Gupta</t>
+  </si>
+  <si>
+    <t>Geetika Gupta</t>
+  </si>
+  <si>
+    <t>Gaurav Gupta</t>
+  </si>
+  <si>
+    <t>https://www.econiture.com/</t>
+  </si>
+  <si>
+    <t>https://www.dobiee.com/</t>
+  </si>
+  <si>
+    <t>https://www.fastbeetle.com/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCZ3dxaTvSm5UIRq4bTDlwuQ</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/econiture.recycle/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/econiture.recycle/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/econiture_recyc</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/company/econiture</t>
+  </si>
+  <si>
+    <t>Madhur Rathi, Roshan Pidiyar, Bhushan Boob, Ashish Modak</t>
+  </si>
+  <si>
+    <t>Madhur Rathi</t>
+  </si>
+  <si>
+    <t>Roshan Pidiyar</t>
+  </si>
+  <si>
+    <t>Bhushan Boob</t>
+  </si>
+  <si>
+    <t>Ashish Modak</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/DOBIEEFOODS</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dobieefoodsindia/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/dobieeinternational/</t>
+  </si>
+  <si>
+    <t>Arjun Dharamshi</t>
+  </si>
+  <si>
+    <t>Mukesh Dharamshi</t>
+  </si>
+  <si>
+    <t>Arjun Dharamshi, Mukesh Dharamshi</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/fastbeetle/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/fastbeetle_</t>
+  </si>
+  <si>
+    <t>https://twitter.com/fastbeetle_</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/company/fastbeetle</t>
+  </si>
+  <si>
+    <t>Logistics</t>
+  </si>
+  <si>
+    <t>Abid Rashid</t>
+  </si>
+  <si>
+    <t>Sheikh Samiullah</t>
+  </si>
+  <si>
+    <t>Abid Rashid, Sheikh Samiullah</t>
+  </si>
+  <si>
+    <t>Dr Ashish Rawandale Patil, Dr Preeti Rawandale Patil</t>
+  </si>
+  <si>
+    <t>Dr Ashish Rawandale Patil</t>
+  </si>
+  <si>
+    <t>Dr Preeti Rawandale Patil</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/tejnakshhealthcare/</t>
+  </si>
+  <si>
+    <t>https://facebook.com/tejnaksh</t>
+  </si>
+  <si>
+    <t>https://twitter.com/TEJNAKSH</t>
+  </si>
+  <si>
+    <t>https://tejnaksh.com/</t>
+  </si>
+  <si>
+    <t>Candies</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1727,7 +1952,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2044,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH40"/>
+  <dimension ref="A1:BH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC16" workbookViewId="0">
-      <selection activeCell="AU40" sqref="AU40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2367,15 +2591,15 @@
         <v>211</v>
       </c>
       <c r="AP2">
-        <f t="shared" ref="AP2:AP16" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>8</v>
+        <f t="shared" ref="AP2:AP17" si="0">COUNTIF(AB:AB,AO2)</f>
+        <v>10</v>
       </c>
       <c r="AR2" t="s">
         <v>86</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AU2" t="s">
         <v>254</v>
@@ -2389,21 +2613,21 @@
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="s">
         <v>270</v>
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -2470,11 +2694,11 @@
         <v>84</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S40" si="1">SUM(COUNTIF(M3:R3, "Y"))</f>
+        <f t="shared" ref="S3:S46" si="1">SUM(COUNTIF(M3:R3, "Y"))</f>
         <v>3</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T40" si="2">COUNTIF(V3:AA3, "*")</f>
+        <f t="shared" ref="T3:T46" si="2">COUNTIF(V3:AA3, "*")</f>
         <v>2</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -2515,11 +2739,11 @@
         <v xml:space="preserve">Ishaan Kanoria, Sparsh Agarwal, </v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK40" si="4" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK3:AK46" si="4" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
         <v>6</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL40" si="5">IFERROR(((H3/I3)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL3:AL46" si="5">IFERROR(((H3/I3)*100)/10000000, 0)</f>
         <v>2</v>
       </c>
       <c r="AO3" t="s">
@@ -2534,42 +2758,42 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="s">
         <v>255</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AX3" t="s">
         <v>261</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
       </c>
       <c r="BB3">
         <f>COUNTIF(N:N,"Y")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD3" t="s">
         <v>272</v>
       </c>
       <c r="BE3">
         <f t="shared" ref="BE3:BE6" si="6">COUNTIF(U:U,BD3)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BG3">
-        <f t="shared" ref="BG3:BG40" si="7">E3/100000</f>
+        <f t="shared" ref="BG3:BG46" si="7">E3/100000</f>
         <v>30</v>
       </c>
       <c r="BH3">
-        <f t="shared" ref="BH3:BH40" si="8">H3/100000</f>
+        <f t="shared" ref="BH3:BH46" si="8">H3/100000</f>
         <v>30</v>
       </c>
     </row>
@@ -2686,7 +2910,7 @@
       </c>
       <c r="AP4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU4" t="s">
         <v>256</v>
@@ -2700,7 +2924,7 @@
       </c>
       <c r="AY4">
         <f>COUNTIF(S:S,"2")</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA4" t="s">
         <v>15</v>
@@ -2842,7 +3066,7 @@
       </c>
       <c r="AV5">
         <f>COUNTIF(T:T,"4")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5" t="s">
         <v>263</v>
@@ -2856,14 +3080,14 @@
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD5" t="s">
         <v>274</v>
       </c>
       <c r="BE5">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG5">
         <f t="shared" si="7"/>
@@ -3005,7 +3229,7 @@
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD6" t="s">
         <v>273</v>
@@ -3157,7 +3381,7 @@
       </c>
       <c r="BB7">
         <f>COUNTIF(R:R,"Y")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG7">
         <f t="shared" si="7"/>
@@ -3660,7 +3884,7 @@
       </c>
       <c r="AP11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG11">
         <f t="shared" si="7"/>
@@ -3787,7 +4011,7 @@
       </c>
       <c r="AP12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG12">
         <f t="shared" si="7"/>
@@ -4395,6 +4619,13 @@
         <f t="shared" si="5"/>
         <v>6.25</v>
       </c>
+      <c r="AO17" t="s">
+        <v>593</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="BG17">
         <f t="shared" si="7"/>
         <v>50</v>
@@ -6767,7 +6998,7 @@
       <c r="Q38" t="s">
         <v>85</v>
       </c>
-      <c r="R38" s="9" t="s">
+      <c r="R38" s="7" t="s">
         <v>85</v>
       </c>
       <c r="S38">
@@ -6886,7 +7117,7 @@
       <c r="Q39" t="s">
         <v>84</v>
       </c>
-      <c r="R39" s="9" t="s">
+      <c r="R39" s="7" t="s">
         <v>85</v>
       </c>
       <c r="S39">
@@ -6969,7 +7200,7 @@
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" t="s">
         <v>73</v>
       </c>
       <c r="H40">
@@ -7002,7 +7233,7 @@
       <c r="Q40" t="s">
         <v>84</v>
       </c>
-      <c r="R40" s="9" t="s">
+      <c r="R40" s="7" t="s">
         <v>84</v>
       </c>
       <c r="S40">
@@ -7064,6 +7295,708 @@
       <c r="BH40">
         <f t="shared" si="8"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>530</v>
+      </c>
+      <c r="C41" t="s">
+        <v>531</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="E41">
+        <v>5100000</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>533</v>
+      </c>
+      <c r="H41">
+        <v>5100000</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>86</v>
+      </c>
+      <c r="M41" t="s">
+        <v>84</v>
+      </c>
+      <c r="N41" t="s">
+        <v>85</v>
+      </c>
+      <c r="O41" t="s">
+        <v>84</v>
+      </c>
+      <c r="P41" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>85</v>
+      </c>
+      <c r="R41" t="s">
+        <v>84</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U41" t="s">
+        <v>270</v>
+      </c>
+      <c r="V41" t="s">
+        <v>560</v>
+      </c>
+      <c r="W41" t="s">
+        <v>559</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC41" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="AD41" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="AE41" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="AF41" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="AG41" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="AH41" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>558</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="AL41">
+        <f t="shared" si="5"/>
+        <v>8.5</v>
+      </c>
+      <c r="BG41">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="BH41">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>534</v>
+      </c>
+      <c r="C42" t="s">
+        <v>548</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="E42">
+        <v>7500000</v>
+      </c>
+      <c r="F42">
+        <v>2.25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>536</v>
+      </c>
+      <c r="H42">
+        <v>7500000</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>86</v>
+      </c>
+      <c r="M42" t="s">
+        <v>84</v>
+      </c>
+      <c r="N42" t="s">
+        <v>84</v>
+      </c>
+      <c r="O42" t="s">
+        <v>84</v>
+      </c>
+      <c r="P42" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>84</v>
+      </c>
+      <c r="R42" t="s">
+        <v>85</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U42" t="s">
+        <v>274</v>
+      </c>
+      <c r="V42" t="s">
+        <v>569</v>
+      </c>
+      <c r="W42" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC42" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="AD42" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="AE42" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="AF42" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="AG42" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="AH42" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>567</v>
+      </c>
+      <c r="AK42">
+        <f t="shared" si="4"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="AL42">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="BG42">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="BH42">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>537</v>
+      </c>
+      <c r="C43" t="s">
+        <v>549</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="E43">
+        <v>5000000</v>
+      </c>
+      <c r="F43">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>73</v>
+      </c>
+      <c r="M43" t="s">
+        <v>84</v>
+      </c>
+      <c r="N43" t="s">
+        <v>84</v>
+      </c>
+      <c r="O43" t="s">
+        <v>84</v>
+      </c>
+      <c r="P43" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>84</v>
+      </c>
+      <c r="R43" t="s">
+        <v>84</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U43" t="s">
+        <v>272</v>
+      </c>
+      <c r="V43" t="s">
+        <v>579</v>
+      </c>
+      <c r="W43" t="s">
+        <v>580</v>
+      </c>
+      <c r="X43" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>582</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC43" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD43" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="AE43" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="AF43" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="AG43" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="AH43" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>578</v>
+      </c>
+      <c r="AK43">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+      <c r="AL43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG43">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="BH43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>539</v>
+      </c>
+      <c r="C44" t="s">
+        <v>604</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="E44">
+        <v>7200000</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>547</v>
+      </c>
+      <c r="H44">
+        <v>7200000</v>
+      </c>
+      <c r="I44">
+        <v>6.5</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>86</v>
+      </c>
+      <c r="M44" t="s">
+        <v>84</v>
+      </c>
+      <c r="N44" t="s">
+        <v>84</v>
+      </c>
+      <c r="O44" t="s">
+        <v>84</v>
+      </c>
+      <c r="P44" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>84</v>
+      </c>
+      <c r="R44" t="s">
+        <v>85</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U44" t="s">
+        <v>270</v>
+      </c>
+      <c r="V44" t="s">
+        <v>586</v>
+      </c>
+      <c r="W44" t="s">
+        <v>587</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC44" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="AD44" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="AE44" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="AF44" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="AG44" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH44" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>588</v>
+      </c>
+      <c r="AK44">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="AL44">
+        <f t="shared" si="5"/>
+        <v>11.076923076923077</v>
+      </c>
+      <c r="BG44">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="BH44">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>541</v>
+      </c>
+      <c r="C45" t="s">
+        <v>550</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="E45">
+        <v>9000000</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45" t="s">
+        <v>543</v>
+      </c>
+      <c r="H45">
+        <v>9000000</v>
+      </c>
+      <c r="I45">
+        <v>7.5</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>86</v>
+      </c>
+      <c r="M45" t="s">
+        <v>84</v>
+      </c>
+      <c r="N45" t="s">
+        <v>84</v>
+      </c>
+      <c r="O45" t="s">
+        <v>84</v>
+      </c>
+      <c r="P45" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>85</v>
+      </c>
+      <c r="R45" t="s">
+        <v>84</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U45" t="s">
+        <v>272</v>
+      </c>
+      <c r="V45" t="s">
+        <v>594</v>
+      </c>
+      <c r="W45" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC45" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD45" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="AE45" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="AF45" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="AG45" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="AH45" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>596</v>
+      </c>
+      <c r="AK45">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="AL45">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="BG45">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="BH45">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>544</v>
+      </c>
+      <c r="C46" t="s">
+        <v>551</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="E46">
+        <v>6000000</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>546</v>
+      </c>
+      <c r="H46">
+        <v>6000000</v>
+      </c>
+      <c r="I46">
+        <v>6</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>86</v>
+      </c>
+      <c r="M46" t="s">
+        <v>85</v>
+      </c>
+      <c r="N46" t="s">
+        <v>84</v>
+      </c>
+      <c r="O46" t="s">
+        <v>84</v>
+      </c>
+      <c r="P46" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>84</v>
+      </c>
+      <c r="R46" t="s">
+        <v>85</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U46" t="s">
+        <v>274</v>
+      </c>
+      <c r="V46" t="s">
+        <v>598</v>
+      </c>
+      <c r="W46" t="s">
+        <v>599</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC46" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="AD46" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="AE46" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="AF46" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="AG46" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="AH46" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>552</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>597</v>
+      </c>
+      <c r="AK46">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AL46">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="BG46">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="BH46">
+        <f t="shared" si="8"/>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -7302,8 +8235,44 @@
     <hyperlink ref="AE40" r:id="rId232" xr:uid="{4ABDB8D9-8B4C-4180-8C45-3F4223E7FC2F}"/>
     <hyperlink ref="AC40" r:id="rId233" xr:uid="{0EBB95B1-C930-43AE-9F1D-73DAE1268BD9}"/>
     <hyperlink ref="AD40" r:id="rId234" xr:uid="{646CCB0C-90C9-42A7-A93F-D32902C6E50D}"/>
+    <hyperlink ref="AH41" r:id="rId235" xr:uid="{D2BD4358-AC75-4C03-BEB0-A3F637990455}"/>
+    <hyperlink ref="AF41" r:id="rId236" xr:uid="{A697BF60-40C9-4A38-8154-71D69861B51F}"/>
+    <hyperlink ref="AE41" r:id="rId237" xr:uid="{C1EE3D5C-40AC-4483-879D-C0BB53644793}"/>
+    <hyperlink ref="AD41" r:id="rId238" xr:uid="{55B3A328-610C-4130-BF34-B86EAA827C1D}"/>
+    <hyperlink ref="AC41" r:id="rId239" xr:uid="{9C0AAB68-17D0-401C-A2B8-C2C0B3DAE6A7}"/>
+    <hyperlink ref="AG41" r:id="rId240" xr:uid="{426D998B-A00C-4DB2-BDC2-0472906735B0}"/>
+    <hyperlink ref="AH42" r:id="rId241" xr:uid="{070E242C-85E1-49D8-BD0B-76E64AA3B38B}"/>
+    <hyperlink ref="AD42" r:id="rId242" xr:uid="{C3C81B13-7CF9-4B56-8247-1BB72B77FEAD}"/>
+    <hyperlink ref="AE42" r:id="rId243" xr:uid="{F952C826-6D60-4787-A148-09E89122BBFB}"/>
+    <hyperlink ref="AC42" r:id="rId244" xr:uid="{CC6E7178-E400-44B7-A00D-574DD961DA10}"/>
+    <hyperlink ref="AF42" r:id="rId245" xr:uid="{1745B915-73C7-440F-8EB7-1EBEAADC407A}"/>
+    <hyperlink ref="AG42" r:id="rId246" xr:uid="{D9F37817-D233-4362-8177-6A781E78562D}"/>
+    <hyperlink ref="AH43" r:id="rId247" xr:uid="{DAD07F87-955F-44C8-895B-FA321BDD26D9}"/>
+    <hyperlink ref="AG43" r:id="rId248" xr:uid="{75D2A2F9-68C4-4433-8ACA-1FF66C506F0C}"/>
+    <hyperlink ref="AF43" r:id="rId249" xr:uid="{A476A731-44BC-4163-AE14-D41695108FDF}"/>
+    <hyperlink ref="AE43" r:id="rId250" xr:uid="{81EF9DC2-78D4-4BE0-AE79-8FF82FD618A8}"/>
+    <hyperlink ref="AC43" r:id="rId251" xr:uid="{EACFEDF6-34C1-4980-B9FC-46DD4B184D43}"/>
+    <hyperlink ref="AD43" r:id="rId252" xr:uid="{CBEB0BAB-5C3C-4559-A5C3-B10CA71726E2}"/>
+    <hyperlink ref="AH44" r:id="rId253" xr:uid="{4813F024-2A23-4C43-B613-4DBEDF116883}"/>
+    <hyperlink ref="AF44" r:id="rId254" xr:uid="{E3B35362-79AA-48F4-9FB1-C886E698B6F3}"/>
+    <hyperlink ref="AE44" r:id="rId255" xr:uid="{392261AD-382D-49BE-AA1C-4B349CB50D06}"/>
+    <hyperlink ref="AD44" r:id="rId256" xr:uid="{E9E553BA-0988-482C-AF35-92BBCC01639D}"/>
+    <hyperlink ref="AG44" r:id="rId257" xr:uid="{7F8CC413-CC5D-4A00-AF75-0CF8CE06AC9A}"/>
+    <hyperlink ref="AC44" r:id="rId258" xr:uid="{9A288AD3-E2FD-42A9-8378-9A88F0F9E1B4}"/>
+    <hyperlink ref="AH45" r:id="rId259" xr:uid="{2D9E42B3-19F2-4FCD-BC53-CDD510831349}"/>
+    <hyperlink ref="AF45" r:id="rId260" xr:uid="{EC197615-DB87-426F-8645-84EB2B025C08}"/>
+    <hyperlink ref="AE45" r:id="rId261" xr:uid="{7491BFFF-37DD-4D4F-A8DB-7B4565B2610D}"/>
+    <hyperlink ref="AC45" r:id="rId262" xr:uid="{B500BAC8-08C1-4DD7-9043-63910C603E36}"/>
+    <hyperlink ref="AD45" r:id="rId263" xr:uid="{F22649F9-F880-48CF-9967-E375A0F58493}"/>
+    <hyperlink ref="AG45" r:id="rId264" xr:uid="{AAEC2660-02B4-4A39-9B97-0D99C294931F}"/>
+    <hyperlink ref="AD46" r:id="rId265" xr:uid="{3156C411-E31A-480F-96A2-9B4C2E868F9D}"/>
+    <hyperlink ref="AF46" r:id="rId266" xr:uid="{38225886-A5BA-49BD-A47A-8217A97DB171}"/>
+    <hyperlink ref="AC46" r:id="rId267" xr:uid="{89CF28D9-70A4-4898-9FDA-C71483A9CD94}"/>
+    <hyperlink ref="AG46" r:id="rId268" xr:uid="{49D3023C-9877-4BD2-AB13-791266325587}"/>
+    <hyperlink ref="AH46" r:id="rId269" xr:uid="{0E10EFED-6DD1-4769-BC1C-6261D0106B07}"/>
+    <hyperlink ref="AE46" r:id="rId270" xr:uid="{E12ACBE0-D7C0-4F36-9B0C-8580A8617589}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId235"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId271"/>
 </worksheet>
 </file>
--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799950F1-FC91-4619-997E-8034A5BA508F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509B6C1B-7745-4372-A856-4CDFADBA3CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="676">
   <si>
     <t>#</t>
   </si>
@@ -1851,6 +1851,219 @@
   </si>
   <si>
     <t>Candies</t>
+  </si>
+  <si>
+    <t>VS Mani &amp; Co</t>
+  </si>
+  <si>
+    <t>Sepal</t>
+  </si>
+  <si>
+    <t>Solinas</t>
+  </si>
+  <si>
+    <t>Motorcycle Canopy</t>
+  </si>
+  <si>
+    <t>Filter Coffee and Snacks Brand</t>
+  </si>
+  <si>
+    <t>Water Sanitation Asset Management</t>
+  </si>
+  <si>
+    <t>₹ 60 lakh for 1.5% Equity</t>
+  </si>
+  <si>
+    <t>₹ 50 lakh for 1% Equity</t>
+  </si>
+  <si>
+    <t>₹ 90 lakh for 2% Equity</t>
+  </si>
+  <si>
+    <t>₹ 19 lakh for 1% Equity and ₹ 41 Lakhs Debt @10% Interest</t>
+  </si>
+  <si>
+    <t>https://vsmani.com/</t>
+  </si>
+  <si>
+    <t>https://instagram.com/vsmaniandco</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/vs-mani-co/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vsmaniandco/</t>
+  </si>
+  <si>
+    <t>GD Prasad, Rahul Bajaj, Yashas Alur</t>
+  </si>
+  <si>
+    <t>Yashas Alur</t>
+  </si>
+  <si>
+    <t>Rahul Bajaj</t>
+  </si>
+  <si>
+    <t>GD Prasad</t>
+  </si>
+  <si>
+    <t>https://sepal.in/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCqdAdDW_vJ3KAD9S1AwPflA</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Sepal.Auto</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sepal_auto</t>
+  </si>
+  <si>
+    <t>https://twitter.com/sepal_auto</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/sepal/</t>
+  </si>
+  <si>
+    <t>Vidhey Addepally, Kashyap Addepally</t>
+  </si>
+  <si>
+    <t>Vidhey Addepally</t>
+  </si>
+  <si>
+    <t>Kashyap Addepally</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/solinasin/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SolinasInt</t>
+  </si>
+  <si>
+    <t>https://twitter.com/solinas_in</t>
+  </si>
+  <si>
+    <t>http://www.solinas.in/</t>
+  </si>
+  <si>
+    <t>Divanshu Kumar, Bhavesh Narayani, Prabhu Rajagopal, Krishnan Balasubramanian</t>
+  </si>
+  <si>
+    <t>Divanshu Kumar</t>
+  </si>
+  <si>
+    <t>Bhavesh Narayani</t>
+  </si>
+  <si>
+    <t>Prabhu Rajagopal</t>
+  </si>
+  <si>
+    <t>Krishnan Balasubramanian</t>
+  </si>
+  <si>
+    <t>Avimee Herbal</t>
+  </si>
+  <si>
+    <t>Hair and Skin Care Products</t>
+  </si>
+  <si>
+    <t>Radha Krishna Choudhary</t>
+  </si>
+  <si>
+    <t>Siddhant Agarwal</t>
+  </si>
+  <si>
+    <t>Ambika Agarwal</t>
+  </si>
+  <si>
+    <t>Vinita Agarwal</t>
+  </si>
+  <si>
+    <t>Vibhor Agarwal</t>
+  </si>
+  <si>
+    <t>Radha Krishna Choudhary, Siddhant Agarwal, Ambika Agarwal, Vinita Agarwal, Vibhor Agarwal</t>
+  </si>
+  <si>
+    <t>https://avimeeherbal.com/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@avimeeherbal487/featured</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100085126276775</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/avimeeherbal/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/82805769/admin/</t>
+  </si>
+  <si>
+    <t>₹2.8 Crore for 0.5% equity</t>
+  </si>
+  <si>
+    <t>Eyenic</t>
+  </si>
+  <si>
+    <t>Eyewear Brand</t>
+  </si>
+  <si>
+    <t>https://eyenic.in/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/eyeniceyewear</t>
+  </si>
+  <si>
+    <t>https://instagram.com/eyenic_eyewear</t>
+  </si>
+  <si>
+    <t>https://twitter.com/eyeniceyewear</t>
+  </si>
+  <si>
+    <t>Piyuesh Kalra, Sunil Chhabra</t>
+  </si>
+  <si>
+    <t>Piyuesh Kalra</t>
+  </si>
+  <si>
+    <t>Sunil Chhabra</t>
+  </si>
+  <si>
+    <t>₹ 75 lakh for 6% Equity</t>
+  </si>
+  <si>
+    <t>Ekatra</t>
+  </si>
+  <si>
+    <t>https://ekatrahandmade.com/</t>
+  </si>
+  <si>
+    <t>https://instagram.com/ekatra.in</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/company/ekatrahandmadecollective</t>
+  </si>
+  <si>
+    <t>Aishwarya Jhawar, Minakshi Jhawar</t>
+  </si>
+  <si>
+    <t>Aishwarya Jhawar</t>
+  </si>
+  <si>
+    <t>Minkashi Jhawar</t>
+  </si>
+  <si>
+    <t>Handcrafted stationery &amp; accessories.</t>
+  </si>
+  <si>
+    <t>₹ 40 lakh for 10% Equity</t>
+  </si>
+  <si>
+    <t>₹ 20 lakh for 20% Equity and ₹ 20 Lakhs Debt @12% Interest</t>
+  </si>
+  <si>
+    <t>Peyush, Amit</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +2155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1952,7 +2165,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2268,10 +2480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH46"/>
+  <dimension ref="A1:BH52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2293,7 +2505,8 @@
     <col min="22" max="22" width="23.88671875" customWidth="1"/>
     <col min="23" max="23" width="21" customWidth="1"/>
     <col min="24" max="24" width="18.44140625" customWidth="1"/>
-    <col min="25" max="25" width="15.6640625" customWidth="1"/>
+    <col min="25" max="25" width="22.77734375" customWidth="1"/>
+    <col min="26" max="26" width="14.6640625" customWidth="1"/>
     <col min="28" max="28" width="25.88671875" customWidth="1"/>
     <col min="29" max="29" width="21.88671875" customWidth="1"/>
     <col min="30" max="30" width="22.5546875" customWidth="1"/>
@@ -2302,7 +2515,7 @@
     <col min="33" max="33" width="20.44140625" customWidth="1"/>
     <col min="34" max="34" width="35" customWidth="1"/>
     <col min="35" max="35" width="31.77734375" customWidth="1"/>
-    <col min="36" max="36" width="55.21875" customWidth="1"/>
+    <col min="36" max="36" width="80.88671875" customWidth="1"/>
     <col min="37" max="37" width="36" customWidth="1"/>
     <col min="38" max="38" width="29.88671875" customWidth="1"/>
     <col min="41" max="41" width="28.21875" customWidth="1"/>
@@ -2592,14 +2805,14 @@
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP17" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR2" t="s">
         <v>86</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AU2" t="s">
         <v>254</v>
@@ -2613,21 +2826,21 @@
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD2" t="s">
         <v>270</v>
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -2694,11 +2907,11 @@
         <v>84</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S46" si="1">SUM(COUNTIF(M3:R3, "Y"))</f>
+        <f t="shared" ref="S3:S52" si="1">SUM(COUNTIF(M3:R3, "Y"))</f>
         <v>3</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T46" si="2">COUNTIF(V3:AA3, "*")</f>
+        <f t="shared" ref="T3:T52" si="2">COUNTIF(V3:AA3, "*")</f>
         <v>2</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -2739,11 +2952,11 @@
         <v xml:space="preserve">Ishaan Kanoria, Sparsh Agarwal, </v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK46" si="4" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK3:AK52" si="4" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
         <v>6</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL46" si="5">IFERROR(((H3/I3)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL3:AL52" si="5">IFERROR(((H3/I3)*100)/10000000, 0)</f>
         <v>2</v>
       </c>
       <c r="AO3" t="s">
@@ -2751,49 +2964,49 @@
       </c>
       <c r="AP3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR3" t="s">
         <v>73</v>
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU3" t="s">
         <v>255</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AX3" t="s">
         <v>261</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
       </c>
       <c r="BB3">
         <f>COUNTIF(N:N,"Y")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD3" t="s">
         <v>272</v>
       </c>
       <c r="BE3">
         <f t="shared" ref="BE3:BE6" si="6">COUNTIF(U:U,BD3)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BG3">
-        <f t="shared" ref="BG3:BG46" si="7">E3/100000</f>
+        <f t="shared" ref="BG3:BG52" si="7">E3/100000</f>
         <v>30</v>
       </c>
       <c r="BH3">
-        <f t="shared" ref="BH3:BH46" si="8">H3/100000</f>
+        <f t="shared" ref="BH3:BH52" si="8">H3/100000</f>
         <v>30</v>
       </c>
     </row>
@@ -2910,21 +3123,21 @@
       </c>
       <c r="AP4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU4" t="s">
         <v>256</v>
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="s">
         <v>262</v>
       </c>
       <c r="AY4">
         <f>COUNTIF(S:S,"2")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA4" t="s">
         <v>15</v>
@@ -3066,7 +3279,7 @@
       </c>
       <c r="AV5">
         <f>COUNTIF(T:T,"4")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX5" t="s">
         <v>263</v>
@@ -3208,14 +3421,14 @@
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU6" t="s">
         <v>258</v>
       </c>
       <c r="AV6">
         <f>COUNTIF(T:T,"5")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6" t="s">
         <v>264</v>
@@ -3229,7 +3442,7 @@
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BD6" t="s">
         <v>273</v>
@@ -3360,7 +3573,7 @@
       </c>
       <c r="AP7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU7" t="s">
         <v>259</v>
@@ -3381,7 +3594,7 @@
       </c>
       <c r="BB7">
         <f>COUNTIF(R:R,"Y")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG7">
         <f t="shared" si="7"/>
@@ -7307,7 +7520,7 @@
       <c r="C41" t="s">
         <v>531</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" t="s">
         <v>532</v>
       </c>
       <c r="E41">
@@ -7423,7 +7636,7 @@
       <c r="C42" t="s">
         <v>548</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" t="s">
         <v>535</v>
       </c>
       <c r="E42">
@@ -7539,7 +7752,7 @@
       <c r="C43" t="s">
         <v>549</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" t="s">
         <v>538</v>
       </c>
       <c r="E43">
@@ -7661,7 +7874,7 @@
       <c r="C44" t="s">
         <v>604</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" t="s">
         <v>540</v>
       </c>
       <c r="E44">
@@ -7777,7 +7990,7 @@
       <c r="C45" t="s">
         <v>550</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" t="s">
         <v>542</v>
       </c>
       <c r="E45">
@@ -7893,7 +8106,7 @@
       <c r="C46" t="s">
         <v>551</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" t="s">
         <v>545</v>
       </c>
       <c r="E46">
@@ -7997,6 +8210,720 @@
       <c r="BH46">
         <f t="shared" si="8"/>
         <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>605</v>
+      </c>
+      <c r="C47" t="s">
+        <v>609</v>
+      </c>
+      <c r="D47" t="s">
+        <v>611</v>
+      </c>
+      <c r="E47">
+        <v>6000000</v>
+      </c>
+      <c r="F47">
+        <v>1.5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>614</v>
+      </c>
+      <c r="H47">
+        <v>1900000</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>4100000</v>
+      </c>
+      <c r="K47">
+        <v>10</v>
+      </c>
+      <c r="L47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M47" t="s">
+        <v>85</v>
+      </c>
+      <c r="N47" t="s">
+        <v>84</v>
+      </c>
+      <c r="O47" t="s">
+        <v>84</v>
+      </c>
+      <c r="P47" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>84</v>
+      </c>
+      <c r="R47" t="s">
+        <v>84</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="U47" t="s">
+        <v>272</v>
+      </c>
+      <c r="V47" t="s">
+        <v>622</v>
+      </c>
+      <c r="W47" t="s">
+        <v>621</v>
+      </c>
+      <c r="X47" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC47" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="AD47" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="AE47" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF47" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="AG47" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="AH47" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>619</v>
+      </c>
+      <c r="AK47">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="AL47">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="BG47">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="BH47">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>606</v>
+      </c>
+      <c r="C48" t="s">
+        <v>608</v>
+      </c>
+      <c r="D48" t="s">
+        <v>612</v>
+      </c>
+      <c r="E48">
+        <v>5000000</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>485</v>
+      </c>
+      <c r="H48">
+        <v>5000000</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>86</v>
+      </c>
+      <c r="M48" t="s">
+        <v>84</v>
+      </c>
+      <c r="N48" t="s">
+        <v>84</v>
+      </c>
+      <c r="O48" t="s">
+        <v>84</v>
+      </c>
+      <c r="P48" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>85</v>
+      </c>
+      <c r="R48" t="s">
+        <v>84</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U48" t="s">
+        <v>270</v>
+      </c>
+      <c r="V48" t="s">
+        <v>630</v>
+      </c>
+      <c r="W48" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC48" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="AD48" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="AE48" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="AF48" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="AG48" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="AH48" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>629</v>
+      </c>
+      <c r="AK48">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="AL48">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="BG48">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="BH48">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>607</v>
+      </c>
+      <c r="C49" t="s">
+        <v>610</v>
+      </c>
+      <c r="D49" t="s">
+        <v>613</v>
+      </c>
+      <c r="E49">
+        <v>9000000</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>542</v>
+      </c>
+      <c r="H49">
+        <v>9000000</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>86</v>
+      </c>
+      <c r="M49" t="s">
+        <v>84</v>
+      </c>
+      <c r="N49" t="s">
+        <v>85</v>
+      </c>
+      <c r="O49" t="s">
+        <v>84</v>
+      </c>
+      <c r="P49" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>85</v>
+      </c>
+      <c r="R49" t="s">
+        <v>84</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U49" t="s">
+        <v>272</v>
+      </c>
+      <c r="V49" t="s">
+        <v>637</v>
+      </c>
+      <c r="W49" t="s">
+        <v>638</v>
+      </c>
+      <c r="X49" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC49" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="AD49" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="AE49" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="AF49" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="AG49" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="AH49" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>636</v>
+      </c>
+      <c r="AK49">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="AL49">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="BG49">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="BH49">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>641</v>
+      </c>
+      <c r="C50" t="s">
+        <v>642</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E50">
+        <v>28000000</v>
+      </c>
+      <c r="F50">
+        <v>0.5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>73</v>
+      </c>
+      <c r="M50" t="s">
+        <v>84</v>
+      </c>
+      <c r="N50" t="s">
+        <v>84</v>
+      </c>
+      <c r="O50" t="s">
+        <v>84</v>
+      </c>
+      <c r="P50" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>84</v>
+      </c>
+      <c r="R50" t="s">
+        <v>84</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="U50" t="s">
+        <v>270</v>
+      </c>
+      <c r="V50" t="s">
+        <v>643</v>
+      </c>
+      <c r="W50" t="s">
+        <v>644</v>
+      </c>
+      <c r="X50" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>646</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>647</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC50" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="AD50" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="AE50" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="AF50" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="AG50" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="AH50" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>648</v>
+      </c>
+      <c r="AK50">
+        <f t="shared" si="4"/>
+        <v>560</v>
+      </c>
+      <c r="AL50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG50">
+        <f t="shared" si="7"/>
+        <v>280</v>
+      </c>
+      <c r="BH50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>655</v>
+      </c>
+      <c r="C51" t="s">
+        <v>656</v>
+      </c>
+      <c r="D51" t="s">
+        <v>664</v>
+      </c>
+      <c r="E51">
+        <v>7500000</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>73</v>
+      </c>
+      <c r="M51" t="s">
+        <v>84</v>
+      </c>
+      <c r="N51" t="s">
+        <v>84</v>
+      </c>
+      <c r="O51" t="s">
+        <v>84</v>
+      </c>
+      <c r="P51" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>84</v>
+      </c>
+      <c r="R51" t="s">
+        <v>84</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U51" t="s">
+        <v>270</v>
+      </c>
+      <c r="V51" t="s">
+        <v>662</v>
+      </c>
+      <c r="W51" t="s">
+        <v>663</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC51" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD51" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="AE51" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="AF51" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="AG51" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="AH51" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>661</v>
+      </c>
+      <c r="AK51">
+        <f t="shared" si="4"/>
+        <v>12.5</v>
+      </c>
+      <c r="AL51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG51">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="BH51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>665</v>
+      </c>
+      <c r="C52" t="s">
+        <v>672</v>
+      </c>
+      <c r="D52" t="s">
+        <v>673</v>
+      </c>
+      <c r="E52">
+        <v>4000000</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>674</v>
+      </c>
+      <c r="H52">
+        <v>2000000</v>
+      </c>
+      <c r="I52">
+        <v>20</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>86</v>
+      </c>
+      <c r="M52" t="s">
+        <v>84</v>
+      </c>
+      <c r="N52" t="s">
+        <v>84</v>
+      </c>
+      <c r="O52" t="s">
+        <v>84</v>
+      </c>
+      <c r="P52" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>85</v>
+      </c>
+      <c r="R52" t="s">
+        <v>85</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U52" t="s">
+        <v>270</v>
+      </c>
+      <c r="V52" t="s">
+        <v>670</v>
+      </c>
+      <c r="W52" t="s">
+        <v>671</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC52" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="AD52" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="AE52" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="AF52" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="AG52" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH52" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>675</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>669</v>
+      </c>
+      <c r="AK52">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AL52">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BG52">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="BH52">
+        <f t="shared" si="8"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -8271,8 +9198,44 @@
     <hyperlink ref="AG46" r:id="rId268" xr:uid="{49D3023C-9877-4BD2-AB13-791266325587}"/>
     <hyperlink ref="AH46" r:id="rId269" xr:uid="{0E10EFED-6DD1-4769-BC1C-6261D0106B07}"/>
     <hyperlink ref="AE46" r:id="rId270" xr:uid="{E12ACBE0-D7C0-4F36-9B0C-8580A8617589}"/>
+    <hyperlink ref="AH47" r:id="rId271" xr:uid="{79D2BD9A-F60B-4B9A-AC8B-3BE139DA1C6C}"/>
+    <hyperlink ref="AE47" r:id="rId272" xr:uid="{E2216F23-09AC-45DF-9001-BC512A80A9B8}"/>
+    <hyperlink ref="AD47" r:id="rId273" xr:uid="{5DA14959-CC24-42EC-819F-C4EA3000D0FB}"/>
+    <hyperlink ref="AF47" r:id="rId274" xr:uid="{47D4E942-FDEE-43E2-80C6-6E42944D4304}"/>
+    <hyperlink ref="AG47" r:id="rId275" xr:uid="{A4C13BB8-9A20-4233-B6EB-89EBDDBFCB5B}"/>
+    <hyperlink ref="AC47" r:id="rId276" xr:uid="{29646C78-5F07-4B0B-9F38-2305A6195329}"/>
+    <hyperlink ref="AH48" r:id="rId277" xr:uid="{EAC4D120-0332-44E7-A7D4-8F8126C6475A}"/>
+    <hyperlink ref="AG48" r:id="rId278" xr:uid="{1329A353-B21B-474A-BC7B-7CFF3863796D}"/>
+    <hyperlink ref="AF48" r:id="rId279" xr:uid="{162CAA34-5956-4096-A9B1-42BEC014F479}"/>
+    <hyperlink ref="AE48" r:id="rId280" xr:uid="{A1A50CA9-6A71-48F1-93FC-C637AD1C6A76}"/>
+    <hyperlink ref="AC48" r:id="rId281" xr:uid="{474245C7-A942-4D8F-9D25-0F557BE2E975}"/>
+    <hyperlink ref="AD48" r:id="rId282" xr:uid="{1228EC5A-EBC2-4C60-B400-FAB850DB5DAF}"/>
+    <hyperlink ref="AD49" r:id="rId283" xr:uid="{42BD168C-74A4-4AB4-B352-F755B186FC4E}"/>
+    <hyperlink ref="AF49" r:id="rId284" xr:uid="{B5E70591-0823-4AD1-817C-035CBE38B383}"/>
+    <hyperlink ref="AC49" r:id="rId285" xr:uid="{36E3D7AB-4D86-43CB-966E-3651F71ACEF4}"/>
+    <hyperlink ref="AH49" r:id="rId286" xr:uid="{40BFB119-051C-4AA2-B4B3-0D1DE92763F5}"/>
+    <hyperlink ref="AG49" r:id="rId287" xr:uid="{B4B24391-6087-499A-8632-CDEEF050D687}"/>
+    <hyperlink ref="AE49" r:id="rId288" xr:uid="{328BA14D-92B6-430F-BF79-A367B3FCEA01}"/>
+    <hyperlink ref="AH50" r:id="rId289" xr:uid="{07A4D3BE-5839-4F16-B2BA-77165F89104E}"/>
+    <hyperlink ref="AG50" r:id="rId290" xr:uid="{3EA10115-99E5-4390-8BB4-30CE36DB457E}"/>
+    <hyperlink ref="AF50" r:id="rId291" xr:uid="{ECD214F2-362F-422F-9FDF-29B3FFB9F68B}"/>
+    <hyperlink ref="AE50" r:id="rId292" xr:uid="{ED0560E8-508C-4B97-A28A-8DF299828D61}"/>
+    <hyperlink ref="AD50" r:id="rId293" xr:uid="{A22EA7EC-CF4E-472D-9A6C-3EE5C9716005}"/>
+    <hyperlink ref="AC50" r:id="rId294" xr:uid="{1A0098B6-317A-4970-953F-61A4AB8E2BA9}"/>
+    <hyperlink ref="AH51" r:id="rId295" xr:uid="{368E0AC4-AC26-4C87-8C65-99FEE3B7136F}"/>
+    <hyperlink ref="AF51" r:id="rId296" xr:uid="{4A5B090B-04E0-4E5C-8F0A-6A2B9DCF0877}"/>
+    <hyperlink ref="AE51" r:id="rId297" xr:uid="{F5345F47-AE50-4284-83FF-4B94C34D2FF2}"/>
+    <hyperlink ref="AC51" r:id="rId298" xr:uid="{FD9AFF5A-DE3A-47EC-A301-5E6FE8824A5F}"/>
+    <hyperlink ref="AG51" r:id="rId299" xr:uid="{99B59C1B-6EEE-4313-831E-934429ACBCEF}"/>
+    <hyperlink ref="AD51" r:id="rId300" xr:uid="{7F5A08C7-B860-4FDE-A376-CB616A992456}"/>
+    <hyperlink ref="AH52" r:id="rId301" xr:uid="{384BD2BC-911A-41BD-879F-67D18868E75A}"/>
+    <hyperlink ref="AE52" r:id="rId302" xr:uid="{FCF3AFBA-7197-45A0-AA52-57C45CEDA2C9}"/>
+    <hyperlink ref="AD52" r:id="rId303" xr:uid="{5AE67081-E213-4655-A75E-44C5DE16E44E}"/>
+    <hyperlink ref="AC52" r:id="rId304" xr:uid="{69106AFD-5101-4F4A-8D3F-817F798D72E2}"/>
+    <hyperlink ref="AF52" r:id="rId305" xr:uid="{EC3AC079-A765-4C69-9955-D4B09CB82A29}"/>
+    <hyperlink ref="AG52" r:id="rId306" xr:uid="{A6718519-4D72-44F7-99FD-865E4BD2144F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId271"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId307"/>
 </worksheet>
 </file>
--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509B6C1B-7745-4372-A856-4CDFADBA3CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0CF4A7-CF56-4D8C-A74D-345F6A852726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="707">
   <si>
     <t>#</t>
   </si>
@@ -2064,6 +2064,99 @@
   </si>
   <si>
     <t>Peyush, Amit</t>
+  </si>
+  <si>
+    <t>Raasa</t>
+  </si>
+  <si>
+    <t>Manik Sehgal</t>
+  </si>
+  <si>
+    <t>https://raasakarts.com/</t>
+  </si>
+  <si>
+    <t>₹ 50 lakh for 5% Equity</t>
+  </si>
+  <si>
+    <t>Organized Food Carts for Street Food Vendors</t>
+  </si>
+  <si>
+    <t>₹ 50 lakh for 25% Equity</t>
+  </si>
+  <si>
+    <t>NeoMotion</t>
+  </si>
+  <si>
+    <t>Ashish Sharma</t>
+  </si>
+  <si>
+    <t>Swostik Dash</t>
+  </si>
+  <si>
+    <t>Siddharth Daga</t>
+  </si>
+  <si>
+    <t>Ashish Sharma, Swostik Dash, Siddharth Daga</t>
+  </si>
+  <si>
+    <t>https://www.neomotion.in/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@neomotioncare2398</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/neomotionlife</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/neomotionlife</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/neomotionlife/</t>
+  </si>
+  <si>
+    <t>Personalized Wheel Chairs</t>
+  </si>
+  <si>
+    <t>₹ 1 Crore for 1% Equity (Condition - Peyush will receive 5% of profits till he receives ₹ 1 Crore)</t>
+  </si>
+  <si>
+    <t>Licksters</t>
+  </si>
+  <si>
+    <t>https://www.licksters.com/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lickstersicecream/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/licksters/?hl=en</t>
+  </si>
+  <si>
+    <t>Parimal Kalikar</t>
+  </si>
+  <si>
+    <t>Dhivya S</t>
+  </si>
+  <si>
+    <t>Parimal Kalikar, Dhivya S</t>
+  </si>
+  <si>
+    <t>Fruit Popsicles and Ice Creams</t>
+  </si>
+  <si>
+    <t>₹ 25 lakh for 5% Equity and ₹ 25 Lakhs Debt @12% Interest</t>
+  </si>
+  <si>
+    <t>Sayonara</t>
+  </si>
+  <si>
+    <t>Petticoats</t>
+  </si>
+  <si>
+    <t>Sahill Shaha</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sahillshaha/?hl=en</t>
   </si>
 </sst>
 </file>
@@ -2480,10 +2573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH52"/>
+  <dimension ref="A1:BH56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2805,28 +2898,28 @@
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP17" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR2" t="s">
         <v>86</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AU2" t="s">
         <v>254</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX2" t="s">
         <v>260</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
@@ -2907,11 +3000,11 @@
         <v>84</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S52" si="1">SUM(COUNTIF(M3:R3, "Y"))</f>
+        <f t="shared" ref="S3:S56" si="1">SUM(COUNTIF(M3:R3, "Y"))</f>
         <v>3</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T52" si="2">COUNTIF(V3:AA3, "*")</f>
+        <f t="shared" ref="T3:T56" si="2">COUNTIF(V3:AA3, "*")</f>
         <v>2</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -2952,11 +3045,11 @@
         <v xml:space="preserve">Ishaan Kanoria, Sparsh Agarwal, </v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK52" si="4" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK3:AK56" si="4" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
         <v>6</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL52" si="5">IFERROR(((H3/I3)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL3:AL56" si="5">IFERROR(((H3/I3)*100)/10000000, 0)</f>
         <v>2</v>
       </c>
       <c r="AO3" t="s">
@@ -2971,42 +3064,42 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="s">
         <v>255</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX3" t="s">
         <v>261</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
       </c>
       <c r="BB3">
         <f>COUNTIF(N:N,"Y")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD3" t="s">
         <v>272</v>
       </c>
       <c r="BE3">
         <f t="shared" ref="BE3:BE6" si="6">COUNTIF(U:U,BD3)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BG3">
-        <f t="shared" ref="BG3:BG52" si="7">E3/100000</f>
+        <f t="shared" ref="BG3:BG56" si="7">E3/100000</f>
         <v>30</v>
       </c>
       <c r="BH3">
-        <f t="shared" ref="BH3:BH52" si="8">H3/100000</f>
+        <f t="shared" ref="BH3:BH56" si="8">H3/100000</f>
         <v>30</v>
       </c>
     </row>
@@ -3123,14 +3216,14 @@
       </c>
       <c r="AP4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU4" t="s">
         <v>256</v>
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX4" t="s">
         <v>262</v>
@@ -3151,7 +3244,7 @@
       </c>
       <c r="BE4">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BG4">
         <f t="shared" si="7"/>
@@ -3272,7 +3365,7 @@
       </c>
       <c r="AP5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="s">
         <v>257</v>
@@ -3300,7 +3393,7 @@
       </c>
       <c r="BE5">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG5">
         <f t="shared" si="7"/>
@@ -3442,7 +3535,7 @@
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD6" t="s">
         <v>273</v>
@@ -3573,7 +3666,7 @@
       </c>
       <c r="AP7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU7" t="s">
         <v>259</v>
@@ -3594,7 +3687,7 @@
       </c>
       <c r="BB7">
         <f>COUNTIF(R:R,"Y")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG7">
         <f t="shared" si="7"/>
@@ -8404,7 +8497,7 @@
         <v>631</v>
       </c>
       <c r="AB48" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="AC48" s="6" t="s">
         <v>627</v>
@@ -8924,6 +9017,467 @@
       <c r="BH52">
         <f t="shared" si="8"/>
         <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>676</v>
+      </c>
+      <c r="C53" t="s">
+        <v>680</v>
+      </c>
+      <c r="D53" t="s">
+        <v>679</v>
+      </c>
+      <c r="E53">
+        <v>5000000</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>681</v>
+      </c>
+      <c r="H53">
+        <v>5000000</v>
+      </c>
+      <c r="I53">
+        <v>20</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>86</v>
+      </c>
+      <c r="M53" t="s">
+        <v>84</v>
+      </c>
+      <c r="N53" t="s">
+        <v>85</v>
+      </c>
+      <c r="O53" t="s">
+        <v>84</v>
+      </c>
+      <c r="P53" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>84</v>
+      </c>
+      <c r="R53" t="s">
+        <v>84</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U53" t="s">
+        <v>271</v>
+      </c>
+      <c r="V53" t="s">
+        <v>677</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC53" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="AD53" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="AE53" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="AF53" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="AG53" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="AH53" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>677</v>
+      </c>
+      <c r="AK53">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="AL53">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="BG53">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="BH53">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>682</v>
+      </c>
+      <c r="C54" t="s">
+        <v>692</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54">
+        <v>10000000</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>693</v>
+      </c>
+      <c r="H54">
+        <v>10000000</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>86</v>
+      </c>
+      <c r="M54" t="s">
+        <v>84</v>
+      </c>
+      <c r="N54" t="s">
+        <v>84</v>
+      </c>
+      <c r="O54" t="s">
+        <v>84</v>
+      </c>
+      <c r="P54" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>85</v>
+      </c>
+      <c r="R54" t="s">
+        <v>84</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="U54" t="s">
+        <v>272</v>
+      </c>
+      <c r="V54" t="s">
+        <v>683</v>
+      </c>
+      <c r="W54" t="s">
+        <v>684</v>
+      </c>
+      <c r="X54" t="s">
+        <v>685</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC54" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="AD54" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="AE54" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="AF54" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="AG54" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="AH54" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>686</v>
+      </c>
+      <c r="AK54">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="AL54">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="BG54">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="BH54">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>694</v>
+      </c>
+      <c r="C55" t="s">
+        <v>701</v>
+      </c>
+      <c r="D55" t="s">
+        <v>679</v>
+      </c>
+      <c r="E55">
+        <v>5000000</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>702</v>
+      </c>
+      <c r="H55">
+        <v>2500000</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>2500000</v>
+      </c>
+      <c r="K55">
+        <v>12</v>
+      </c>
+      <c r="L55" t="s">
+        <v>86</v>
+      </c>
+      <c r="M55" t="s">
+        <v>84</v>
+      </c>
+      <c r="N55" t="s">
+        <v>84</v>
+      </c>
+      <c r="O55" t="s">
+        <v>84</v>
+      </c>
+      <c r="P55" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>84</v>
+      </c>
+      <c r="R55" t="s">
+        <v>85</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U55" t="s">
+        <v>274</v>
+      </c>
+      <c r="V55" t="s">
+        <v>698</v>
+      </c>
+      <c r="W55" t="s">
+        <v>699</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC55" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="AD55" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE55" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="AF55" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="AG55" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="AH55" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>700</v>
+      </c>
+      <c r="AK55">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="AL55">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="BG55">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="BH55">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>703</v>
+      </c>
+      <c r="C56" t="s">
+        <v>704</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56">
+        <v>10000000</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>73</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M56" t="s">
+        <v>84</v>
+      </c>
+      <c r="N56" t="s">
+        <v>84</v>
+      </c>
+      <c r="O56" t="s">
+        <v>84</v>
+      </c>
+      <c r="P56" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>84</v>
+      </c>
+      <c r="R56" t="s">
+        <v>84</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U56" t="s">
+        <v>271</v>
+      </c>
+      <c r="V56" t="s">
+        <v>705</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC56" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="AD56" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="AE56" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="AF56" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="AG56" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="AH56" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>705</v>
+      </c>
+      <c r="AK56">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="AL56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="BH56">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9234,8 +9788,32 @@
     <hyperlink ref="AC52" r:id="rId304" xr:uid="{69106AFD-5101-4F4A-8D3F-817F798D72E2}"/>
     <hyperlink ref="AF52" r:id="rId305" xr:uid="{EC3AC079-A765-4C69-9955-D4B09CB82A29}"/>
     <hyperlink ref="AG52" r:id="rId306" xr:uid="{A6718519-4D72-44F7-99FD-865E4BD2144F}"/>
+    <hyperlink ref="AH53" r:id="rId307" xr:uid="{6F18D272-D13E-4518-A3A2-5B310B33E00B}"/>
+    <hyperlink ref="AG53" r:id="rId308" xr:uid="{15BD1346-6590-4D09-9B02-E866132D01FE}"/>
+    <hyperlink ref="AF53" r:id="rId309" xr:uid="{2D3F23AC-67A0-40BB-AA27-ADDC435C9B79}"/>
+    <hyperlink ref="AE53" r:id="rId310" xr:uid="{1054549F-20B6-48BA-AB93-1DFC24B54B96}"/>
+    <hyperlink ref="AD53" r:id="rId311" xr:uid="{D77F0C73-73D7-42EC-9C30-9F8172DC66C4}"/>
+    <hyperlink ref="AC53" r:id="rId312" xr:uid="{92BCACDA-BD81-4D15-84CB-24DDE185903E}"/>
+    <hyperlink ref="AH54" r:id="rId313" xr:uid="{5F43AFC8-0811-40EB-AE98-D08A67CD9A33}"/>
+    <hyperlink ref="AG54" r:id="rId314" xr:uid="{ACA78B21-83BA-4157-ADFC-96C7E6960E22}"/>
+    <hyperlink ref="AF54" r:id="rId315" xr:uid="{D2939D49-A73E-46D5-B121-9B573E6A4699}"/>
+    <hyperlink ref="AE54" r:id="rId316" xr:uid="{37DA6A7E-6F34-4A68-96C7-FD0DA1056FFD}"/>
+    <hyperlink ref="AD54" r:id="rId317" xr:uid="{FA411261-C01E-4499-9789-D1007826BBB9}"/>
+    <hyperlink ref="AC54" r:id="rId318" xr:uid="{AFD8DA13-B02D-4E02-AF49-8B44F635F172}"/>
+    <hyperlink ref="AH55" r:id="rId319" xr:uid="{F98E4CB7-9150-4C22-9480-4E9F021D5E6D}"/>
+    <hyperlink ref="AF55" r:id="rId320" xr:uid="{FF4A87CD-3837-4845-8E41-27D86AF343BC}"/>
+    <hyperlink ref="AE55" r:id="rId321" xr:uid="{F924B87F-1A25-4409-BED8-ED2ABD249C4D}"/>
+    <hyperlink ref="AG55" r:id="rId322" xr:uid="{157E272F-C42E-47F3-BBF9-8DD4E42C8E8B}"/>
+    <hyperlink ref="AD55" r:id="rId323" xr:uid="{7218956A-35AC-4AF2-8BBB-80B93BF63A7F}"/>
+    <hyperlink ref="AC55" r:id="rId324" xr:uid="{99538D8A-2B73-484D-BC04-C63A3CA102AD}"/>
+    <hyperlink ref="AH56" r:id="rId325" xr:uid="{752C0158-8AE7-4EB9-9FEA-9E88BDB1B7B0}"/>
+    <hyperlink ref="AG56" r:id="rId326" xr:uid="{440E8564-3FFD-4D20-969E-1974B5EAC5FE}"/>
+    <hyperlink ref="AF56" r:id="rId327" xr:uid="{DA24CDF1-7A74-499F-BABD-9ABE7CDA523E}"/>
+    <hyperlink ref="AE56" r:id="rId328" xr:uid="{7F0E5946-5700-495A-A004-55094FD6ED5F}"/>
+    <hyperlink ref="AD56" r:id="rId329" xr:uid="{0D961AED-F12A-4768-85CA-2D6CF36BDB5E}"/>
+    <hyperlink ref="AC56" r:id="rId330" xr:uid="{E94FA238-C295-468E-9507-348A9DAD6356}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId307"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId331"/>
 </worksheet>
 </file>
--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0CF4A7-CF56-4D8C-A74D-345F6A852726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1687D6-6275-4E79-B476-BEA19591BE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="743">
   <si>
     <t>#</t>
   </si>
@@ -2157,6 +2157,114 @@
   </si>
   <si>
     <t>https://www.instagram.com/sahillshaha/?hl=en</t>
+  </si>
+  <si>
+    <t>PMV Electric</t>
+  </si>
+  <si>
+    <t>Kalpit Patel</t>
+  </si>
+  <si>
+    <t>2 Seater Electric Micro Car (Eas-E)</t>
+  </si>
+  <si>
+    <t>https://pmvelectric.com/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/PMVElectric/videos</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/pmvelectric/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PMVElectric/</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/company/pmvelectric</t>
+  </si>
+  <si>
+    <t>https://twitter.com/pmvelectric</t>
+  </si>
+  <si>
+    <t>₹ 70 lakh for 2% Equity</t>
+  </si>
+  <si>
+    <t>Vibhor Rastogi</t>
+  </si>
+  <si>
+    <t>Soumyadeep Mukherjee</t>
+  </si>
+  <si>
+    <t>Gayatri Gogate</t>
+  </si>
+  <si>
+    <t>Spice Story</t>
+  </si>
+  <si>
+    <t>Spics and Flavoured sauces from all over India</t>
+  </si>
+  <si>
+    <t>Vibhor Rastogi, Soumyadeep Mukherjee, Gayatri Gogate</t>
+  </si>
+  <si>
+    <t>https://spice-story.in/</t>
+  </si>
+  <si>
+    <t>https://youtube.com/c/SpiceStoryIndia</t>
+  </si>
+  <si>
+    <t>https://facebook.com/spicestoryindia/</t>
+  </si>
+  <si>
+    <t>https://instagram.com/spicestoryindia</t>
+  </si>
+  <si>
+    <t>https://twitter.com/spicestoryindia</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/company/spicestoryindia</t>
+  </si>
+  <si>
+    <t>₹ 70 lakh for 5% Equity</t>
+  </si>
+  <si>
+    <t>Bullspree</t>
+  </si>
+  <si>
+    <t>Divyansh Mathur</t>
+  </si>
+  <si>
+    <t>Dharmil Bavishi</t>
+  </si>
+  <si>
+    <t>Harsh Dhanawat</t>
+  </si>
+  <si>
+    <t>Divyansh Mathur, Dharmil Bavishi, Harsh Dhanawat</t>
+  </si>
+  <si>
+    <t>Game App to learn about Stock Market</t>
+  </si>
+  <si>
+    <t>https://bullspree.com/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bullspreeapp</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/bullspree_/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Bullspree_</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/bullspree/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCHaIEuocTfP6MYiuq3L7J1A</t>
+  </si>
+  <si>
+    <t>₹ 75 lakh for 2.86% Equity</t>
   </si>
 </sst>
 </file>
@@ -2573,10 +2681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH56"/>
+  <dimension ref="A1:BH59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="AK43" workbookViewId="0">
+      <selection activeCell="AQ59" sqref="AQ59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2898,35 +3006,35 @@
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP17" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR2" t="s">
         <v>86</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AU2" t="s">
         <v>254</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX2" t="s">
         <v>260</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD2" t="s">
         <v>270</v>
@@ -3000,11 +3108,11 @@
         <v>84</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S56" si="1">SUM(COUNTIF(M3:R3, "Y"))</f>
+        <f t="shared" ref="S3:S59" si="1">SUM(COUNTIF(M3:R3, "Y"))</f>
         <v>3</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T56" si="2">COUNTIF(V3:AA3, "*")</f>
+        <f t="shared" ref="T3:T59" si="2">COUNTIF(V3:AA3, "*")</f>
         <v>2</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -3045,11 +3153,11 @@
         <v xml:space="preserve">Ishaan Kanoria, Sparsh Agarwal, </v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK56" si="4" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK3:AK59" si="4" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
         <v>6</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL56" si="5">IFERROR(((H3/I3)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL3:AL59" si="5">IFERROR(((H3/I3)*100)/10000000, 0)</f>
         <v>2</v>
       </c>
       <c r="AO3" t="s">
@@ -3064,7 +3172,7 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU3" t="s">
         <v>255</v>
@@ -3078,7 +3186,7 @@
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
@@ -3092,14 +3200,14 @@
       </c>
       <c r="BE3">
         <f t="shared" ref="BE3:BE6" si="6">COUNTIF(U:U,BD3)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BG3">
-        <f t="shared" ref="BG3:BG56" si="7">E3/100000</f>
+        <f t="shared" ref="BG3:BG59" si="7">E3/100000</f>
         <v>30</v>
       </c>
       <c r="BH3">
-        <f t="shared" ref="BH3:BH56" si="8">H3/100000</f>
+        <f t="shared" ref="BH3:BH59" si="8">H3/100000</f>
         <v>30</v>
       </c>
     </row>
@@ -3223,14 +3331,14 @@
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX4" t="s">
         <v>262</v>
       </c>
       <c r="AY4">
         <f>COUNTIF(S:S,"2")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA4" t="s">
         <v>15</v>
@@ -3244,7 +3352,7 @@
       </c>
       <c r="BE4">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BG4">
         <f t="shared" si="7"/>
@@ -3365,7 +3473,7 @@
       </c>
       <c r="AP5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU5" t="s">
         <v>257</v>
@@ -3386,7 +3494,7 @@
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD5" t="s">
         <v>274</v>
@@ -3535,7 +3643,7 @@
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD6" t="s">
         <v>273</v>
@@ -4438,7 +4546,7 @@
       </c>
       <c r="AP13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG13">
         <f t="shared" si="7"/>
@@ -9478,6 +9586,357 @@
       <c r="BH56">
         <f t="shared" si="8"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>707</v>
+      </c>
+      <c r="C57" t="s">
+        <v>709</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57">
+        <v>10000000</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>73</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>73</v>
+      </c>
+      <c r="M57" t="s">
+        <v>84</v>
+      </c>
+      <c r="N57" t="s">
+        <v>84</v>
+      </c>
+      <c r="O57" t="s">
+        <v>84</v>
+      </c>
+      <c r="P57" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>84</v>
+      </c>
+      <c r="R57" t="s">
+        <v>84</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U57" t="s">
+        <v>271</v>
+      </c>
+      <c r="V57" t="s">
+        <v>708</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC57" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="AD57" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="AE57" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="AF57" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="AG57" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="AH57" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>708</v>
+      </c>
+      <c r="AK57">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="AL57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="BH57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>720</v>
+      </c>
+      <c r="C58" t="s">
+        <v>721</v>
+      </c>
+      <c r="D58" t="s">
+        <v>716</v>
+      </c>
+      <c r="E58">
+        <v>7000000</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>729</v>
+      </c>
+      <c r="H58">
+        <v>7000000</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>86</v>
+      </c>
+      <c r="M58" t="s">
+        <v>85</v>
+      </c>
+      <c r="N58" t="s">
+        <v>84</v>
+      </c>
+      <c r="O58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P58" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>84</v>
+      </c>
+      <c r="R58" t="s">
+        <v>84</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="U58" t="s">
+        <v>272</v>
+      </c>
+      <c r="V58" t="s">
+        <v>717</v>
+      </c>
+      <c r="W58" t="s">
+        <v>718</v>
+      </c>
+      <c r="X58" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC58" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="AD58" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE58" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="AF58" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="AG58" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="AH58" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>722</v>
+      </c>
+      <c r="AK58">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="AL58">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="BG58">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="BH58">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>730</v>
+      </c>
+      <c r="C59" t="s">
+        <v>735</v>
+      </c>
+      <c r="D59" t="s">
+        <v>444</v>
+      </c>
+      <c r="E59">
+        <v>7500000</v>
+      </c>
+      <c r="F59">
+        <v>1.5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>742</v>
+      </c>
+      <c r="H59">
+        <v>7500000</v>
+      </c>
+      <c r="I59">
+        <v>2.86</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59" t="s">
+        <v>86</v>
+      </c>
+      <c r="M59" t="s">
+        <v>84</v>
+      </c>
+      <c r="N59" t="s">
+        <v>84</v>
+      </c>
+      <c r="O59" t="s">
+        <v>84</v>
+      </c>
+      <c r="P59" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>85</v>
+      </c>
+      <c r="R59" t="s">
+        <v>84</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="U59" t="s">
+        <v>272</v>
+      </c>
+      <c r="V59" t="s">
+        <v>731</v>
+      </c>
+      <c r="W59" t="s">
+        <v>732</v>
+      </c>
+      <c r="X59" t="s">
+        <v>733</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC59" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="AD59" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="AE59" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="AF59" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="AG59" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="AH59" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>734</v>
+      </c>
+      <c r="AK59">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="AL59">
+        <f t="shared" si="5"/>
+        <v>26.223776223776223</v>
+      </c>
+      <c r="BG59">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="BH59">
+        <f t="shared" si="8"/>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -9812,8 +10271,26 @@
     <hyperlink ref="AE56" r:id="rId328" xr:uid="{7F0E5946-5700-495A-A004-55094FD6ED5F}"/>
     <hyperlink ref="AD56" r:id="rId329" xr:uid="{0D961AED-F12A-4768-85CA-2D6CF36BDB5E}"/>
     <hyperlink ref="AC56" r:id="rId330" xr:uid="{E94FA238-C295-468E-9507-348A9DAD6356}"/>
+    <hyperlink ref="AH57" r:id="rId331" xr:uid="{4DC2FEA7-E713-49EB-97FA-79494AF64758}"/>
+    <hyperlink ref="AG57" r:id="rId332" xr:uid="{0583DD0E-B8CE-4470-8D9F-2684FF698962}"/>
+    <hyperlink ref="AE57" r:id="rId333" xr:uid="{9C1CECC8-32CC-41DF-BB85-FE4A6DF4738C}"/>
+    <hyperlink ref="AF57" r:id="rId334" xr:uid="{AEEEA439-8B49-4CAD-BA92-74F37E3B9909}"/>
+    <hyperlink ref="AD57" r:id="rId335" xr:uid="{77E1D331-BF46-44E2-AE1C-15F210EAEC8F}"/>
+    <hyperlink ref="AC57" r:id="rId336" xr:uid="{FE0170D5-ED89-4231-B607-48D8E586C7BA}"/>
+    <hyperlink ref="AH58" r:id="rId337" xr:uid="{6481ED32-A627-4CEB-A65D-464A86D0294B}"/>
+    <hyperlink ref="AG58" r:id="rId338" xr:uid="{CF8681E0-E742-48A8-9F8E-B285A2EB917C}"/>
+    <hyperlink ref="AF58" r:id="rId339" xr:uid="{0DF8344B-5685-428A-8A25-916E8766AAF6}"/>
+    <hyperlink ref="AE58" r:id="rId340" xr:uid="{A0A15251-F21F-406B-88F4-C5D5889EB143}"/>
+    <hyperlink ref="AC58" r:id="rId341" xr:uid="{4CB4DBF7-BCFF-42E9-815D-7FB64806E936}"/>
+    <hyperlink ref="AD58" r:id="rId342" xr:uid="{FAC8A8DD-CC7F-4B66-8735-420355C4016A}"/>
+    <hyperlink ref="AH59" r:id="rId343" xr:uid="{0E82FE48-8D17-46D7-A68F-7FDE239D6DFC}"/>
+    <hyperlink ref="AF59" r:id="rId344" xr:uid="{636DC510-3E36-41A7-9853-5DD2E96FFCDA}"/>
+    <hyperlink ref="AE59" r:id="rId345" xr:uid="{D077BF1A-C808-4832-B547-177FCAA0D21A}"/>
+    <hyperlink ref="AC59" r:id="rId346" xr:uid="{6F20597D-17D5-418E-8A1C-EBC4BAA7A7D1}"/>
+    <hyperlink ref="AD59" r:id="rId347" xr:uid="{6C016712-7FE6-497F-8A48-B4D487E86281}"/>
+    <hyperlink ref="AG59" r:id="rId348" xr:uid="{CE4A58BA-0EED-446F-BD9F-E1C7B03E3975}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId331"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId349"/>
 </worksheet>
 </file>
--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1687D6-6275-4E79-B476-BEA19591BE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B99E46D-D477-4841-9B28-FE983A388F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="775">
   <si>
     <t>#</t>
   </si>
@@ -2265,6 +2265,102 @@
   </si>
   <si>
     <t>₹ 75 lakh for 2.86% Equity</t>
+  </si>
+  <si>
+    <t>Snitch</t>
+  </si>
+  <si>
+    <t>Clothing wear for Men</t>
+  </si>
+  <si>
+    <t>₹1.5 Crore for 0.5% equity</t>
+  </si>
+  <si>
+    <t>₹1.5 Crore for 1.5% equity</t>
+  </si>
+  <si>
+    <t>Siddharth R Dungarwal</t>
+  </si>
+  <si>
+    <t>Namita, Aman, Anupam, Vineeta, Peyush</t>
+  </si>
+  <si>
+    <t>PORTL</t>
+  </si>
+  <si>
+    <t>Hi -Tech Mirror companion for fitness</t>
+  </si>
+  <si>
+    <t>₹1.5 Crore for 2.5% equity</t>
+  </si>
+  <si>
+    <t>Indraneel Gupta</t>
+  </si>
+  <si>
+    <t>Armaan Kandhari</t>
+  </si>
+  <si>
+    <t>Vishal Chandapeta</t>
+  </si>
+  <si>
+    <t>Indraneel Gupta, Armaan Kandhari, Vishal Chandapeta</t>
+  </si>
+  <si>
+    <t>Fat to Slim</t>
+  </si>
+  <si>
+    <t>Fitness and Diet Solution</t>
+  </si>
+  <si>
+    <t>₹ 20 lakh for 1% Equity</t>
+  </si>
+  <si>
+    <t>Shikha Agarwal Sharma</t>
+  </si>
+  <si>
+    <t>https://www.snitch.co.in/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCiGsylzwIneE01nD4BFyJHA</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/snitch.co.in</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/snitch.co.in/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/snitch-co-in/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/snitchindia</t>
+  </si>
+  <si>
+    <t>https://portl.co/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/portlfitness</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/portlfitness/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/portl-technologies-inc/</t>
+  </si>
+  <si>
+    <t>https://fattoslimshikhaaggarwalsharma.com/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/diet.befit/?hl=en</t>
+  </si>
+  <si>
+    <t>https://m.facebook.com/people/Shikha-A-Sharma-Fat-To-Slim/100046314866173/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B8RexK8GueI</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/in/shikha-a-sharma-0a9727184</t>
   </si>
 </sst>
 </file>
@@ -2356,7 +2452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2366,6 +2462,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2681,10 +2778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH59"/>
+  <dimension ref="A1:BH62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK43" workbookViewId="0">
-      <selection activeCell="AQ59" sqref="AQ59"/>
+    <sheetView tabSelected="1" topLeftCell="Z46" workbookViewId="0">
+      <selection activeCell="AH62" sqref="AH62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3013,28 +3110,28 @@
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AU2" t="s">
         <v>254</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX2" t="s">
         <v>260</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BD2" t="s">
         <v>270</v>
@@ -3108,11 +3205,11 @@
         <v>84</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S59" si="1">SUM(COUNTIF(M3:R3, "Y"))</f>
+        <f t="shared" ref="S3:S62" si="1">SUM(COUNTIF(M3:R3, "Y"))</f>
         <v>3</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T59" si="2">COUNTIF(V3:AA3, "*")</f>
+        <f t="shared" ref="T3:T62" si="2">COUNTIF(V3:AA3, "*")</f>
         <v>2</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -3153,11 +3250,11 @@
         <v xml:space="preserve">Ishaan Kanoria, Sparsh Agarwal, </v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK59" si="4" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK3:AK62" si="4" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
         <v>6</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL59" si="5">IFERROR(((H3/I3)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL3:AL62" si="5">IFERROR(((H3/I3)*100)/10000000, 0)</f>
         <v>2</v>
       </c>
       <c r="AO3" t="s">
@@ -3172,7 +3269,7 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU3" t="s">
         <v>255</v>
@@ -3193,21 +3290,21 @@
       </c>
       <c r="BB3">
         <f>COUNTIF(N:N,"Y")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD3" t="s">
         <v>272</v>
       </c>
       <c r="BE3">
         <f t="shared" ref="BE3:BE6" si="6">COUNTIF(U:U,BD3)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BG3">
-        <f t="shared" ref="BG3:BG59" si="7">E3/100000</f>
+        <f t="shared" ref="BG3:BG62" si="7">E3/100000</f>
         <v>30</v>
       </c>
       <c r="BH3">
-        <f t="shared" ref="BH3:BH59" si="8">H3/100000</f>
+        <f t="shared" ref="BH3:BH62" si="8">H3/100000</f>
         <v>30</v>
       </c>
     </row>
@@ -3331,7 +3428,7 @@
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX4" t="s">
         <v>262</v>
@@ -3345,14 +3442,14 @@
       </c>
       <c r="BB4">
         <f>COUNTIF(O:O,"Y")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD4" t="s">
         <v>271</v>
       </c>
       <c r="BE4">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BG4">
         <f t="shared" si="7"/>
@@ -3487,14 +3584,14 @@
       </c>
       <c r="AY5">
         <f>COUNTIF(S:S,"3")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA5" t="s">
         <v>13</v>
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BD5" t="s">
         <v>274</v>
@@ -3643,7 +3740,7 @@
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD6" t="s">
         <v>273</v>
@@ -3774,7 +3871,7 @@
       </c>
       <c r="AP7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU7" t="s">
         <v>259</v>
@@ -3788,7 +3885,7 @@
       </c>
       <c r="AY7">
         <f>COUNTIF(S:S,"5")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" t="s">
         <v>83</v>
@@ -4670,7 +4767,7 @@
       </c>
       <c r="AP14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG14">
         <f t="shared" si="7"/>
@@ -9937,6 +10034,351 @@
       <c r="BH59">
         <f t="shared" si="8"/>
         <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>743</v>
+      </c>
+      <c r="C60" t="s">
+        <v>744</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E60">
+        <v>15000000</v>
+      </c>
+      <c r="F60">
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="H60">
+        <v>15000000</v>
+      </c>
+      <c r="I60">
+        <v>1.5</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>86</v>
+      </c>
+      <c r="M60" t="s">
+        <v>85</v>
+      </c>
+      <c r="N60" t="s">
+        <v>85</v>
+      </c>
+      <c r="O60" t="s">
+        <v>85</v>
+      </c>
+      <c r="P60" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>85</v>
+      </c>
+      <c r="R60" t="s">
+        <v>84</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U60" t="s">
+        <v>271</v>
+      </c>
+      <c r="V60" t="s">
+        <v>747</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC60" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="AD60" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="AE60" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="AF60" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="AG60" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="AH60" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>748</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>747</v>
+      </c>
+      <c r="AK60">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="AL60">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="BG60">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="BH60">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>749</v>
+      </c>
+      <c r="C61" t="s">
+        <v>750</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E61">
+        <v>15000000</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="H61">
+        <v>15000000</v>
+      </c>
+      <c r="I61">
+        <v>2.5</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
+        <v>86</v>
+      </c>
+      <c r="M61" t="s">
+        <v>85</v>
+      </c>
+      <c r="N61" t="s">
+        <v>84</v>
+      </c>
+      <c r="O61" t="s">
+        <v>84</v>
+      </c>
+      <c r="P61" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>85</v>
+      </c>
+      <c r="R61" t="s">
+        <v>84</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="U61" t="s">
+        <v>272</v>
+      </c>
+      <c r="V61" t="s">
+        <v>752</v>
+      </c>
+      <c r="W61" t="s">
+        <v>753</v>
+      </c>
+      <c r="X61" t="s">
+        <v>754</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC61" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="AD61" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="AE61" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="AF61" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="AG61" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="AH61" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>755</v>
+      </c>
+      <c r="AK61">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="AL61">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="BG61">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="BH61">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>756</v>
+      </c>
+      <c r="C62" t="s">
+        <v>757</v>
+      </c>
+      <c r="D62" t="s">
+        <v>758</v>
+      </c>
+      <c r="E62">
+        <v>2000000</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>73</v>
+      </c>
+      <c r="M62" t="s">
+        <v>84</v>
+      </c>
+      <c r="N62" t="s">
+        <v>84</v>
+      </c>
+      <c r="O62" t="s">
+        <v>84</v>
+      </c>
+      <c r="P62" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>84</v>
+      </c>
+      <c r="R62" t="s">
+        <v>84</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U62" t="s">
+        <v>271</v>
+      </c>
+      <c r="V62" t="s">
+        <v>759</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC62" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="AD62" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="AE62" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="AF62" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="AG62" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="AH62" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>759</v>
+      </c>
+      <c r="AK62">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AL62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG62">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="BH62">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10289,8 +10731,26 @@
     <hyperlink ref="AC59" r:id="rId346" xr:uid="{6F20597D-17D5-418E-8A1C-EBC4BAA7A7D1}"/>
     <hyperlink ref="AD59" r:id="rId347" xr:uid="{6C016712-7FE6-497F-8A48-B4D487E86281}"/>
     <hyperlink ref="AG59" r:id="rId348" xr:uid="{CE4A58BA-0EED-446F-BD9F-E1C7B03E3975}"/>
+    <hyperlink ref="AH60" r:id="rId349" xr:uid="{3064397A-F5AA-4942-A5CF-C085AB74A521}"/>
+    <hyperlink ref="AG60" r:id="rId350" xr:uid="{441F0ECD-64C6-44E9-B210-3A7542C95918}"/>
+    <hyperlink ref="AF60" r:id="rId351" xr:uid="{63DAC0C4-484F-4C6F-8641-262988DEEE96}"/>
+    <hyperlink ref="AE60" r:id="rId352" xr:uid="{ACEDFBF0-AF15-4713-8903-545653349FE1}"/>
+    <hyperlink ref="AD60" r:id="rId353" xr:uid="{936E2CBC-14EB-4E65-9D7B-072792DDD1E4}"/>
+    <hyperlink ref="AC60" r:id="rId354" xr:uid="{70D49F1A-692B-4B45-B3C7-C4B67513B176}"/>
+    <hyperlink ref="AH61" r:id="rId355" xr:uid="{2D0B04D9-52D8-447B-A0D6-826C3D8B2E87}"/>
+    <hyperlink ref="AF61" r:id="rId356" xr:uid="{13ACC80B-010A-4C6D-8727-B3127C9B3229}"/>
+    <hyperlink ref="AE61" r:id="rId357" xr:uid="{B0600482-141D-4306-B5D0-07B20AA861CD}"/>
+    <hyperlink ref="AD61" r:id="rId358" xr:uid="{1C15CA81-4EEA-4DD7-908D-7DAC51E11AF2}"/>
+    <hyperlink ref="AG61" r:id="rId359" xr:uid="{1D0AC965-A1F7-4710-B0E5-646882A5DA27}"/>
+    <hyperlink ref="AC61" r:id="rId360" xr:uid="{E58CBEDE-CF23-434E-988B-A2F21249BF41}"/>
+    <hyperlink ref="AH62" r:id="rId361" xr:uid="{0EC31320-A0ED-4730-B8F5-7C26B25447B7}"/>
+    <hyperlink ref="AE62" r:id="rId362" xr:uid="{99F2D499-5784-49DC-A403-3ED5BE777539}"/>
+    <hyperlink ref="AF62" r:id="rId363" xr:uid="{13DCFFC6-905B-4A44-9062-B7DFA52531D5}"/>
+    <hyperlink ref="AG62" r:id="rId364" xr:uid="{57BF6EF9-A0DA-4BE4-A775-DFAB52218477}"/>
+    <hyperlink ref="AD62" r:id="rId365" xr:uid="{30C5B129-014D-4AFE-9920-4454DE19415A}"/>
+    <hyperlink ref="AC62" r:id="rId366" xr:uid="{09EB148C-7DC2-4178-8ACF-8C8245C2CFF8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId349"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId367"/>
 </worksheet>
 </file>
--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B99E46D-D477-4841-9B28-FE983A388F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6A5C31-1845-4889-A68F-30CCACA3A550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="956">
   <si>
     <t>#</t>
   </si>
@@ -2361,6 +2362,549 @@
   </si>
   <si>
     <t>https://in.linkedin.com/in/shikha-a-sharma-0a9727184</t>
+  </si>
+  <si>
+    <t>Cheesecake &amp; Co.</t>
+  </si>
+  <si>
+    <t>Cheesecake Company</t>
+  </si>
+  <si>
+    <t>Himanshu Gakhreja</t>
+  </si>
+  <si>
+    <t>Shreya Agarwal</t>
+  </si>
+  <si>
+    <t>Dabble</t>
+  </si>
+  <si>
+    <t>Crayons with Edible Colors</t>
+  </si>
+  <si>
+    <t>₹ 50 lakh for 10% Equity</t>
+  </si>
+  <si>
+    <t>₹ 15 lakh for 10% Equity and ₹ 35 Lakhs Debt @0% Interest</t>
+  </si>
+  <si>
+    <t>Neha Bajaj</t>
+  </si>
+  <si>
+    <t>Karen Saldhana</t>
+  </si>
+  <si>
+    <t>Cloud Tailor</t>
+  </si>
+  <si>
+    <t>Tailoring Services</t>
+  </si>
+  <si>
+    <t>₹1 Crore for 1.4% equity</t>
+  </si>
+  <si>
+    <t>Rudra Pratap</t>
+  </si>
+  <si>
+    <t>Sushmitha Lakkakula</t>
+  </si>
+  <si>
+    <t>Mahesh Patel</t>
+  </si>
+  <si>
+    <t>Himanshu Gakhreja, Shreya Agarwal</t>
+  </si>
+  <si>
+    <t>Neha Bajaj, Karen Saldhana</t>
+  </si>
+  <si>
+    <t>Rudra Pratap, Sushmitha Lakkakula, Mahesh Patel</t>
+  </si>
+  <si>
+    <t>BeUnic</t>
+  </si>
+  <si>
+    <t>Gender Inclusive Lifestyle Brand</t>
+  </si>
+  <si>
+    <t>₹ 1 crore for 10% Equity</t>
+  </si>
+  <si>
+    <t>Ashish Chopra</t>
+  </si>
+  <si>
+    <t>Vishesh Chopra</t>
+  </si>
+  <si>
+    <t>Simmi Nanda</t>
+  </si>
+  <si>
+    <t>Ashish Chopra, Vishesh Chopra, Simmi Nanda</t>
+  </si>
+  <si>
+    <t>Broomees</t>
+  </si>
+  <si>
+    <t>Professional Home Maker Services</t>
+  </si>
+  <si>
+    <t>₹ 80 lakh for 2% Equity</t>
+  </si>
+  <si>
+    <t>₹1 Crore for 3% equity</t>
+  </si>
+  <si>
+    <t>Saurav</t>
+  </si>
+  <si>
+    <t>Vaibhav Agarwal</t>
+  </si>
+  <si>
+    <t>Niharika Jain</t>
+  </si>
+  <si>
+    <t>Saurav, Vaibhav Agarwal, Niharika Jain</t>
+  </si>
+  <si>
+    <t>Ravel</t>
+  </si>
+  <si>
+    <t>Hair Care Products</t>
+  </si>
+  <si>
+    <t>₹ 75 lakh for 2.5% Equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 75 lakh for 10% Equity (Condition - Ravel needs to achieve ₹ 7.5 lakhs monthly profit in 2 months)	</t>
+  </si>
+  <si>
+    <t>Ayush Mahesh Verma</t>
+  </si>
+  <si>
+    <t>HoneyVeda</t>
+  </si>
+  <si>
+    <t>Honey Products</t>
+  </si>
+  <si>
+    <t>₹ 75 lakh for 7.5% Equity</t>
+  </si>
+  <si>
+    <t>₹ 50 lakh for 20% Equity and ₹ 25 Lakhs Debt @ 12% Interest</t>
+  </si>
+  <si>
+    <t>Hardik Joshi</t>
+  </si>
+  <si>
+    <t>Kashyap Joshi</t>
+  </si>
+  <si>
+    <t>Hardik Joshi, Kashyap Joshi</t>
+  </si>
+  <si>
+    <t>Padcare</t>
+  </si>
+  <si>
+    <t>Menstrual Products Recycling</t>
+  </si>
+  <si>
+    <t>₹ 1 crore for 4% Equity</t>
+  </si>
+  <si>
+    <t>Ajinkya Dhairya</t>
+  </si>
+  <si>
+    <t>Namita, Anupam, Vineeta, Peyush</t>
+  </si>
+  <si>
+    <t>Swadeshi Blessings</t>
+  </si>
+  <si>
+    <t>Artisinal Kitchenware and Home Décor Brand</t>
+  </si>
+  <si>
+    <t>₹ 25 lakh for 5% Equity and ₹ 25 Lakhs Debt @ 12% Interest</t>
+  </si>
+  <si>
+    <t>Dattatreya Vyas</t>
+  </si>
+  <si>
+    <t>Sunita Vyas</t>
+  </si>
+  <si>
+    <t>Madhavi Paliwal</t>
+  </si>
+  <si>
+    <t>Namita, Vineeta</t>
+  </si>
+  <si>
+    <t>Dattatreya Vyas, Sunita Vyas, Madhavi Paliwal</t>
+  </si>
+  <si>
+    <t>Shreyaan Daga</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>OLL</t>
+  </si>
+  <si>
+    <t>Online Live Learning Platform</t>
+  </si>
+  <si>
+    <t>₹ 30 lakh for 2% Equity</t>
+  </si>
+  <si>
+    <t>₹ 30 lakh for 5% Equity</t>
+  </si>
+  <si>
+    <t>Vineeta, Peyush</t>
+  </si>
+  <si>
+    <t>Febris</t>
+  </si>
+  <si>
+    <t>Lifestyle Brand for Medical Professionals</t>
+  </si>
+  <si>
+    <t>₹ 1 crore for 2.5% Equity</t>
+  </si>
+  <si>
+    <t>Vishal Bajaj</t>
+  </si>
+  <si>
+    <t>Giridhar Bajaj</t>
+  </si>
+  <si>
+    <t>GeeAni</t>
+  </si>
+  <si>
+    <t>Cheapest &amp; Smallest Electric Tractor</t>
+  </si>
+  <si>
+    <t>Divyarajsinh Bihola</t>
+  </si>
+  <si>
+    <t>Prajal Geeta Menon</t>
+  </si>
+  <si>
+    <t>Anitha Panikar</t>
+  </si>
+  <si>
+    <t>Anupam, Vineeta, Aman</t>
+  </si>
+  <si>
+    <t>Divyarajsinh Bihola, Prajal Geeta Menon, Anitha Panikar</t>
+  </si>
+  <si>
+    <t>Amore</t>
+  </si>
+  <si>
+    <t>Italian Gelato &amp; Sorbetto</t>
+  </si>
+  <si>
+    <t>₹ 75 lakh for 7.5% Equity (Condition - Amore needs to achieve sales of ₹ 80 lakhs per month by March 2023)</t>
+  </si>
+  <si>
+    <t>Yasser Ali</t>
+  </si>
+  <si>
+    <t>Nayyer Hussain</t>
+  </si>
+  <si>
+    <t>Yasser Ali, Nayyer Hussain</t>
+  </si>
+  <si>
+    <t>Leafy Affair</t>
+  </si>
+  <si>
+    <t>Botanical Lifestyle Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 50 lakh for 2.5% Equity	</t>
+  </si>
+  <si>
+    <t>Supriya Donthi</t>
+  </si>
+  <si>
+    <t>Scrap Uncle</t>
+  </si>
+  <si>
+    <t>Scrap Collection Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 60 lakh for 3% Equity	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 60 lakh for 5% Equity	</t>
+  </si>
+  <si>
+    <t>Mukul Chhabra</t>
+  </si>
+  <si>
+    <t>Sharma ji ka Aata</t>
+  </si>
+  <si>
+    <t>Variety Flour Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 40 lakh for 10% Equity	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 40 lakh for 20% Equity	</t>
+  </si>
+  <si>
+    <t>Sangeeta Sharma</t>
+  </si>
+  <si>
+    <t>Pranav Sharma</t>
+  </si>
+  <si>
+    <t>Sangeeta Sharma, Pranav Sharma</t>
+  </si>
+  <si>
+    <t>Manetain</t>
+  </si>
+  <si>
+    <t>Curly Hair and other hair products</t>
+  </si>
+  <si>
+    <t>₹ 75 lakh for 10% Equity</t>
+  </si>
+  <si>
+    <t>Hinshra Manadath Habeeb</t>
+  </si>
+  <si>
+    <t>Yuba Mohammed Romin Aga</t>
+  </si>
+  <si>
+    <t>Hinshra Manadath Habeeb, Yuba Mohammed Romin Aga</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/cheese_cake_and_co/?hl=en</t>
+  </si>
+  <si>
+    <t>https://cheesecakeco.in/</t>
+  </si>
+  <si>
+    <t>https://dabbleplayart.com/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC8xXi_XBHMW2v_NBhucTWcQ</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/dabbleplayart/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dabbleplayart/?hl=en</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Karen92827562</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/company/dabble-playart</t>
+  </si>
+  <si>
+    <t>https://www.cloudtailor.com/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCXfnpNFMi5yUmfTZDpGf4jw</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/cloudtailor.in/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/cloudtailor.in/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/cloudtailor/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/CloudTailor_in</t>
+  </si>
+  <si>
+    <t>https://beunic.in/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/beunic_india/?_ga=2.52566120.1131080553.1653301588-163879516.1653301588</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/beUnicIndia/?_ga=2.200857454.1131080553.1653301588-163879516.1653301588</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/company/beunic</t>
+  </si>
+  <si>
+    <t>https://broomees.com/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/broomees/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/broomees/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/broomees.india/</t>
+  </si>
+  <si>
+    <t>https://www.ravelcare.com/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCYZd8QX7LyJihyTupfFZPrQ?view_as=subscriber</t>
+  </si>
+  <si>
+    <t>https://facebook.com/ravelcare</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ravelcare</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Ravelcare</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/ravelofficial/</t>
+  </si>
+  <si>
+    <t>https://www.honeyveda.in/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/honeyveda.in/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/honeyveda.in/?hl=en</t>
+  </si>
+  <si>
+    <t>https://twitter.com/honeyveda_in</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCr3UADxEZghAKnDyhWz_aNg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/honey-veda</t>
+  </si>
+  <si>
+    <t>https://www.padcarelabs.com/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCdWlGDIXuEJ66geRB3LRhMg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/padcarelabs/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/padcarel?lang=en</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/padcare/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/padcare/?originalSubdomain=in</t>
+  </si>
+  <si>
+    <t>https://www.swadeshiblessings.in/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/swadeshiblessings</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/swadeshiblessings/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/ollonlinelivelearning/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ollcompany</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Onlinelivelearn?s=08</t>
+  </si>
+  <si>
+    <t>https://www.oll.co/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCwQyfX_lsVCLBUV5Or-rZ8g</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/oll.co_/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.febris.in/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/wearfebris/?hl=en</t>
+  </si>
+  <si>
+    <t>Vishal Bajaj, Giridhar Bajaj</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/febrisindia</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/in/prajal-geeta-menon-648997238</t>
+  </si>
+  <si>
+    <t>https://www.amoregelato.com/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/amoregourmetgelato/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/amoregelato</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/amore-gourmet-gelato-company/?originalSubdomain=in</t>
+  </si>
+  <si>
+    <t>https://leafyaffair.com/en-us</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/leafyaffair</t>
+  </si>
+  <si>
+    <t>https://instagram.com/leafyaffair</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/company/leafyaffair</t>
+  </si>
+  <si>
+    <t>https://scrapuncle.com/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/scrapuncle</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/scrapuncle/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/scrapuncleapp</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/scrapuncle</t>
+  </si>
+  <si>
+    <t>https://sharmajikaaata.com/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sharmajikaaata/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sharmajikaaata</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/in/sangeeta-sharma-b2ba28241</t>
+  </si>
+  <si>
+    <t>https://manetain.in/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/themanetainstore</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/manetainstore/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/manetain-store/</t>
   </si>
 </sst>
 </file>
@@ -2770,7 +3314,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2778,10 +3322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH62"/>
+  <dimension ref="A1:BH79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z46" workbookViewId="0">
-      <selection activeCell="AH62" sqref="AH62"/>
+    <sheetView tabSelected="1" topLeftCell="AJ64" workbookViewId="0">
+      <selection activeCell="AG79" sqref="AG79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3102,43 +3646,43 @@
         <v>211</v>
       </c>
       <c r="AP2">
-        <f t="shared" ref="AP2:AP17" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>14</v>
+        <f t="shared" ref="AP2:AP18" si="0">COUNTIF(AB:AB,AO2)</f>
+        <v>18</v>
       </c>
       <c r="AR2" t="s">
         <v>86</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AU2" t="s">
         <v>254</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AX2" t="s">
         <v>260</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BD2" t="s">
         <v>270</v>
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -3205,11 +3749,11 @@
         <v>84</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S62" si="1">SUM(COUNTIF(M3:R3, "Y"))</f>
+        <f t="shared" ref="S3:S79" si="1">SUM(COUNTIF(M3:R3, "Y"))</f>
         <v>3</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T62" si="2">COUNTIF(V3:AA3, "*")</f>
+        <f t="shared" ref="T3:T68" si="2">COUNTIF(V3:AA3, "*")</f>
         <v>2</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -3250,11 +3794,11 @@
         <v xml:space="preserve">Ishaan Kanoria, Sparsh Agarwal, </v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK62" si="4" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK3:AK79" si="4" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
         <v>6</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL62" si="5">IFERROR(((H3/I3)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL3:AL79" si="5">IFERROR(((H3/I3)*100)/10000000, 0)</f>
         <v>2</v>
       </c>
       <c r="AO3" t="s">
@@ -3262,49 +3806,49 @@
       </c>
       <c r="AP3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR3" t="s">
         <v>73</v>
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AU3" t="s">
         <v>255</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AX3" t="s">
         <v>261</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
       </c>
       <c r="BB3">
         <f>COUNTIF(N:N,"Y")</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BD3" t="s">
         <v>272</v>
       </c>
       <c r="BE3">
-        <f t="shared" ref="BE3:BE6" si="6">COUNTIF(U:U,BD3)</f>
-        <v>21</v>
+        <f>COUNTIF(U:U,BD3)</f>
+        <v>25</v>
       </c>
       <c r="BG3">
-        <f t="shared" ref="BG3:BG62" si="7">E3/100000</f>
+        <f t="shared" ref="BG3:BG79" si="6">E3/100000</f>
         <v>30</v>
       </c>
       <c r="BH3">
-        <f t="shared" ref="BH3:BH62" si="8">H3/100000</f>
+        <f t="shared" ref="BH3:BH79" si="7">H3/100000</f>
         <v>30</v>
       </c>
     </row>
@@ -3428,35 +3972,35 @@
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AX4" t="s">
         <v>262</v>
       </c>
       <c r="AY4">
         <f>COUNTIF(S:S,"2")</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA4" t="s">
         <v>15</v>
       </c>
       <c r="BB4">
         <f>COUNTIF(O:O,"Y")</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD4" t="s">
         <v>271</v>
       </c>
       <c r="BE4">
+        <f>COUNTIF(U:U,BD4)</f>
+        <v>23</v>
+      </c>
+      <c r="BG4">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="BG4">
+        <v>100</v>
+      </c>
+      <c r="BH4">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="BH4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3570,7 +4114,7 @@
       </c>
       <c r="AP5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU5" t="s">
         <v>257</v>
@@ -3584,28 +4128,28 @@
       </c>
       <c r="AY5">
         <f>COUNTIF(S:S,"3")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA5" t="s">
         <v>13</v>
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="s">
         <v>274</v>
       </c>
       <c r="BE5">
+        <f>COUNTIF(U:U,BD5)</f>
+        <v>9</v>
+      </c>
+      <c r="BG5">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="BG5">
+        <v>50</v>
+      </c>
+      <c r="BH5">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="BH5">
-        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -3719,7 +4263,7 @@
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="s">
         <v>258</v>
@@ -3733,28 +4277,28 @@
       </c>
       <c r="AY6">
         <f>COUNTIF(S:S,"4")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA6" t="s">
         <v>14</v>
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BD6" t="s">
         <v>273</v>
       </c>
       <c r="BE6">
+        <f>COUNTIF(U:U,BD6)</f>
+        <v>5</v>
+      </c>
+      <c r="BG6">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="BG6">
+        <v>200</v>
+      </c>
+      <c r="BH6">
         <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="BH6">
-        <f t="shared" si="8"/>
         <v>100</v>
       </c>
     </row>
@@ -3871,7 +4415,7 @@
       </c>
       <c r="AP7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AU7" t="s">
         <v>259</v>
@@ -3892,14 +4436,14 @@
       </c>
       <c r="BB7">
         <f>COUNTIF(R:R,"Y")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG7">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH7">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="BH7">
-        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -4026,11 +4570,11 @@
         <v>0</v>
       </c>
       <c r="BG8">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH8">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="BH8">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4153,11 +4697,11 @@
         <v>2</v>
       </c>
       <c r="BG9">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="BH9">
         <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="BH9">
-        <f t="shared" si="8"/>
         <v>150</v>
       </c>
     </row>
@@ -4274,11 +4818,11 @@
         <v>1</v>
       </c>
       <c r="BG10">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="BH10">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="BH10">
-        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -4395,14 +4939,14 @@
       </c>
       <c r="AP11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG11">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH11">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="BH11">
-        <f t="shared" si="8"/>
         <v>100</v>
       </c>
     </row>
@@ -4522,14 +5066,14 @@
       </c>
       <c r="AP12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG12">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="BH12">
         <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="BH12">
-        <f t="shared" si="8"/>
         <v>40</v>
       </c>
     </row>
@@ -4646,11 +5190,11 @@
         <v>2</v>
       </c>
       <c r="BG13">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="BH13">
         <f t="shared" si="7"/>
-        <v>70</v>
-      </c>
-      <c r="BH13">
-        <f t="shared" si="8"/>
         <v>35</v>
       </c>
     </row>
@@ -4770,11 +5314,11 @@
         <v>4</v>
       </c>
       <c r="BG14">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="BH14">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="BH14">
-        <f t="shared" si="8"/>
         <v>100</v>
       </c>
     </row>
@@ -4891,11 +5435,11 @@
         <v>1</v>
       </c>
       <c r="BG15">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH15">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="BH15">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5018,11 +5562,11 @@
         <v>1</v>
       </c>
       <c r="BG16">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="BH16">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="BH16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5138,11 +5682,11 @@
         <v>1</v>
       </c>
       <c r="BG17">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BH17">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="BH17">
-        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -5250,12 +5794,19 @@
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
+      <c r="AO18" t="s">
+        <v>835</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="BG18">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="BH18">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="BH18">
-        <f t="shared" si="8"/>
         <v>100</v>
       </c>
     </row>
@@ -5370,11 +5921,11 @@
         <v>0</v>
       </c>
       <c r="BG19">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH19">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="BH19">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5486,11 +6037,11 @@
         <v>0</v>
       </c>
       <c r="BG20">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="BH20">
         <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="BH20">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5602,11 +6153,11 @@
         <v>3</v>
       </c>
       <c r="BG21">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="BH21">
         <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="BH21">
-        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
@@ -5721,11 +6272,11 @@
         <v>14.285714285714286</v>
       </c>
       <c r="BG22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="BH22">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="BH22">
-        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -5834,11 +6385,11 @@
         <v>10</v>
       </c>
       <c r="BG23">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="BH23">
         <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="BH23">
-        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
@@ -5950,11 +6501,11 @@
         <v>20</v>
       </c>
       <c r="BG24">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH24">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="BH24">
-        <f t="shared" si="8"/>
         <v>75</v>
       </c>
     </row>
@@ -6063,11 +6614,11 @@
         <v>0</v>
       </c>
       <c r="BG25">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="BH25">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="BH25">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6179,11 +6730,11 @@
         <v>32.5</v>
       </c>
       <c r="BG26">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="BH26">
         <f t="shared" si="7"/>
-        <v>65</v>
-      </c>
-      <c r="BH26">
-        <f t="shared" si="8"/>
         <v>65</v>
       </c>
     </row>
@@ -6292,11 +6843,11 @@
         <v>25</v>
       </c>
       <c r="BG27">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BH27">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="BH27">
-        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -6405,11 +6956,11 @@
         <v>0</v>
       </c>
       <c r="BG28">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="BH28">
         <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="BH28">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6521,11 +7072,11 @@
         <v>10</v>
       </c>
       <c r="BG29">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BH29">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="BH29">
-        <f t="shared" si="8"/>
         <v>100</v>
       </c>
     </row>
@@ -6637,11 +7188,11 @@
         <v>0</v>
       </c>
       <c r="BG30">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BH30">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="BH30">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6753,11 +7304,11 @@
         <v>3.333333333333333</v>
       </c>
       <c r="BG31">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH31">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="BH31">
-        <f t="shared" si="8"/>
         <v>25</v>
       </c>
     </row>
@@ -6869,11 +7420,11 @@
         <v>4</v>
       </c>
       <c r="BG32">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="BH32">
         <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="BH32">
-        <f t="shared" si="8"/>
         <v>40</v>
       </c>
     </row>
@@ -6991,11 +7542,11 @@
         <v>25</v>
       </c>
       <c r="BG33">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH33">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="BH33">
-        <f t="shared" si="8"/>
         <v>75</v>
       </c>
     </row>
@@ -7107,11 +7658,11 @@
         <v>7.5</v>
       </c>
       <c r="BG34">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="BH34">
         <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-      <c r="BH34">
-        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
@@ -7223,11 +7774,11 @@
         <v>15</v>
       </c>
       <c r="BG35">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="BH35">
         <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="BH35">
-        <f t="shared" si="8"/>
         <v>60</v>
       </c>
     </row>
@@ -7336,11 +7887,11 @@
         <v>40</v>
       </c>
       <c r="BG36">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="BH36">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="BH36">
-        <f t="shared" si="8"/>
         <v>100</v>
       </c>
     </row>
@@ -7449,11 +8000,11 @@
         <v>0</v>
       </c>
       <c r="BG37">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BH37">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="BH37">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7568,11 +8119,11 @@
         <v>5</v>
       </c>
       <c r="BG38">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH38">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="BH38">
-        <f t="shared" si="8"/>
         <v>75</v>
       </c>
     </row>
@@ -7684,11 +8235,11 @@
         <v>2</v>
       </c>
       <c r="BG39">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="BH39">
         <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="BH39">
-        <f t="shared" si="8"/>
         <v>40</v>
       </c>
     </row>
@@ -7800,11 +8351,11 @@
         <v>0</v>
       </c>
       <c r="BG40">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="BH40">
         <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="BH40">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7916,11 +8467,11 @@
         <v>8.5</v>
       </c>
       <c r="BG41">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="BH41">
         <f t="shared" si="7"/>
-        <v>51</v>
-      </c>
-      <c r="BH41">
-        <f t="shared" si="8"/>
         <v>51</v>
       </c>
     </row>
@@ -8032,11 +8583,11 @@
         <v>15</v>
       </c>
       <c r="BG42">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH42">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="BH42">
-        <f t="shared" si="8"/>
         <v>75</v>
       </c>
     </row>
@@ -8154,11 +8705,11 @@
         <v>0</v>
       </c>
       <c r="BG43">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BH43">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="BH43">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8270,11 +8821,11 @@
         <v>11.076923076923077</v>
       </c>
       <c r="BG44">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="BH44">
         <f t="shared" si="7"/>
-        <v>72</v>
-      </c>
-      <c r="BH44">
-        <f t="shared" si="8"/>
         <v>72</v>
       </c>
     </row>
@@ -8386,11 +8937,11 @@
         <v>12</v>
       </c>
       <c r="BG45">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="BH45">
         <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="BH45">
-        <f t="shared" si="8"/>
         <v>90</v>
       </c>
     </row>
@@ -8502,11 +9053,11 @@
         <v>10</v>
       </c>
       <c r="BG46">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="BH46">
         <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="BH46">
-        <f t="shared" si="8"/>
         <v>60</v>
       </c>
     </row>
@@ -8621,11 +9172,11 @@
         <v>19</v>
       </c>
       <c r="BG47">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="BH47">
         <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="BH47">
-        <f t="shared" si="8"/>
         <v>19</v>
       </c>
     </row>
@@ -8737,11 +9288,11 @@
         <v>25</v>
       </c>
       <c r="BG48">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BH48">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="BH48">
-        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -8859,11 +9410,11 @@
         <v>30</v>
       </c>
       <c r="BG49">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="BH49">
         <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="BH49">
-        <f t="shared" si="8"/>
         <v>90</v>
       </c>
     </row>
@@ -8984,11 +9535,11 @@
         <v>0</v>
       </c>
       <c r="BG50">
+        <f t="shared" si="6"/>
+        <v>280</v>
+      </c>
+      <c r="BH50">
         <f t="shared" si="7"/>
-        <v>280</v>
-      </c>
-      <c r="BH50">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9100,11 +9651,11 @@
         <v>0</v>
       </c>
       <c r="BG51">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH51">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="BH51">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9216,11 +9767,11 @@
         <v>1</v>
       </c>
       <c r="BG52">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="BH52">
         <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="BH52">
-        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -9329,11 +9880,11 @@
         <v>2.5</v>
       </c>
       <c r="BG53">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BH53">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="BH53">
-        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -9448,11 +9999,11 @@
         <v>100</v>
       </c>
       <c r="BG54">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="BH54">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="BH54">
-        <f t="shared" si="8"/>
         <v>100</v>
       </c>
     </row>
@@ -9564,11 +10115,11 @@
         <v>5</v>
       </c>
       <c r="BG55">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BH55">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="BH55">
-        <f t="shared" si="8"/>
         <v>25</v>
       </c>
     </row>
@@ -9677,11 +10228,11 @@
         <v>0</v>
       </c>
       <c r="BG56">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="BH56">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="BH56">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9790,11 +10341,11 @@
         <v>0</v>
       </c>
       <c r="BG57">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="BH57">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="BH57">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9909,11 +10460,11 @@
         <v>14</v>
       </c>
       <c r="BG58">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="BH58">
         <f t="shared" si="7"/>
-        <v>70</v>
-      </c>
-      <c r="BH58">
-        <f t="shared" si="8"/>
         <v>70</v>
       </c>
     </row>
@@ -10028,11 +10579,11 @@
         <v>26.223776223776223</v>
       </c>
       <c r="BG59">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH59">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="BH59">
-        <f t="shared" si="8"/>
         <v>75</v>
       </c>
     </row>
@@ -10141,11 +10692,11 @@
         <v>100</v>
       </c>
       <c r="BG60">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="BH60">
         <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="BH60">
-        <f t="shared" si="8"/>
         <v>150</v>
       </c>
     </row>
@@ -10260,11 +10811,11 @@
         <v>60</v>
       </c>
       <c r="BG61">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="BH61">
         <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="BH61">
-        <f t="shared" si="8"/>
         <v>150</v>
       </c>
     </row>
@@ -10287,7 +10838,7 @@
       <c r="F62">
         <v>1</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" t="s">
         <v>73</v>
       </c>
       <c r="H62">
@@ -10373,12 +10924,1981 @@
         <v>0</v>
       </c>
       <c r="BG62">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="BH62">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>775</v>
+      </c>
+      <c r="C63" t="s">
+        <v>776</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E63">
+        <v>10000000</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>73</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>73</v>
+      </c>
+      <c r="M63" t="s">
+        <v>84</v>
+      </c>
+      <c r="N63" t="s">
+        <v>84</v>
+      </c>
+      <c r="O63" t="s">
+        <v>84</v>
+      </c>
+      <c r="P63" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>84</v>
+      </c>
+      <c r="R63" t="s">
+        <v>84</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U63" t="s">
+        <v>274</v>
+      </c>
+      <c r="V63" t="s">
+        <v>777</v>
+      </c>
+      <c r="W63" t="s">
+        <v>778</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC63" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="AD63" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="AE63" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="AF63" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="AG63" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="AH63" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>791</v>
+      </c>
+      <c r="AK63">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="AL63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG63">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="BH63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>779</v>
+      </c>
+      <c r="C64" t="s">
+        <v>780</v>
+      </c>
+      <c r="D64" t="s">
+        <v>781</v>
+      </c>
+      <c r="E64">
+        <v>5000000</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>782</v>
+      </c>
+      <c r="H64">
+        <v>1500000</v>
+      </c>
+      <c r="I64">
+        <v>10</v>
+      </c>
+      <c r="J64">
+        <v>3500000</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>86</v>
+      </c>
+      <c r="M64" t="s">
+        <v>84</v>
+      </c>
+      <c r="N64" t="s">
+        <v>84</v>
+      </c>
+      <c r="O64" t="s">
+        <v>84</v>
+      </c>
+      <c r="P64" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>84</v>
+      </c>
+      <c r="R64" t="s">
+        <v>84</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U64" t="s">
+        <v>272</v>
+      </c>
+      <c r="V64" t="s">
+        <v>783</v>
+      </c>
+      <c r="W64" t="s">
+        <v>784</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC64" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="AD64" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="AE64" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="AF64" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="AG64" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="AH64" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>792</v>
+      </c>
+      <c r="AK64">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AL64">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="BG64">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BH64">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>785</v>
+      </c>
+      <c r="C65" t="s">
+        <v>786</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="E65">
+        <v>10000000</v>
+      </c>
+      <c r="F65">
+        <v>1.4</v>
+      </c>
+      <c r="G65" t="s">
+        <v>73</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>73</v>
+      </c>
+      <c r="M65" t="s">
+        <v>84</v>
+      </c>
+      <c r="N65" t="s">
+        <v>84</v>
+      </c>
+      <c r="O65" t="s">
+        <v>84</v>
+      </c>
+      <c r="P65" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>84</v>
+      </c>
+      <c r="R65" t="s">
+        <v>84</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="U65" t="s">
+        <v>273</v>
+      </c>
+      <c r="V65" t="s">
+        <v>788</v>
+      </c>
+      <c r="W65" t="s">
+        <v>789</v>
+      </c>
+      <c r="X65" t="s">
+        <v>790</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC65" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="AD65" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="AE65" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="AF65" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="AG65" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="AH65" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>793</v>
+      </c>
+      <c r="AK65">
+        <f t="shared" si="4"/>
+        <v>71.428571428571445</v>
+      </c>
+      <c r="AL65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG65">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="BH65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>794</v>
+      </c>
+      <c r="C66" t="s">
+        <v>795</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="E66">
+        <v>10000000</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>73</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>73</v>
+      </c>
+      <c r="M66" t="s">
+        <v>84</v>
+      </c>
+      <c r="N66" t="s">
+        <v>84</v>
+      </c>
+      <c r="O66" t="s">
+        <v>84</v>
+      </c>
+      <c r="P66" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>84</v>
+      </c>
+      <c r="R66" t="s">
+        <v>84</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="U66" t="s">
+        <v>270</v>
+      </c>
+      <c r="V66" t="s">
+        <v>797</v>
+      </c>
+      <c r="W66" t="s">
+        <v>798</v>
+      </c>
+      <c r="X66" t="s">
+        <v>799</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC66" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="AD66" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="AE66" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="AF66" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="AG66" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="AH66" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>800</v>
+      </c>
+      <c r="AK66">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="AL66">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG66">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="BH66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>801</v>
+      </c>
+      <c r="C67" t="s">
+        <v>802</v>
+      </c>
+      <c r="D67" t="s">
+        <v>803</v>
+      </c>
+      <c r="E67">
+        <v>8000000</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="H67">
+        <v>10000000</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>86</v>
+      </c>
+      <c r="M67" t="s">
+        <v>85</v>
+      </c>
+      <c r="N67" t="s">
+        <v>84</v>
+      </c>
+      <c r="O67" t="s">
+        <v>84</v>
+      </c>
+      <c r="P67" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>85</v>
+      </c>
+      <c r="R67" t="s">
+        <v>84</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="U67" t="s">
+        <v>272</v>
+      </c>
+      <c r="V67" t="s">
+        <v>805</v>
+      </c>
+      <c r="W67" t="s">
+        <v>806</v>
+      </c>
+      <c r="X67" t="s">
+        <v>807</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC67" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="AD67" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="AE67" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="AF67" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="AG67" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="AH67" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>808</v>
+      </c>
+      <c r="AK67">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="AL67">
+        <f t="shared" si="5"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="BG67">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="BH67">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>809</v>
+      </c>
+      <c r="C68" t="s">
+        <v>810</v>
+      </c>
+      <c r="D68" t="s">
+        <v>811</v>
+      </c>
+      <c r="E68">
+        <v>7500000</v>
+      </c>
+      <c r="F68">
+        <v>2.5</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="H68">
+        <v>7500000</v>
+      </c>
+      <c r="I68">
+        <v>10</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>86</v>
+      </c>
+      <c r="M68" t="s">
+        <v>84</v>
+      </c>
+      <c r="N68" t="s">
+        <v>85</v>
+      </c>
+      <c r="O68" t="s">
+        <v>84</v>
+      </c>
+      <c r="P68" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>84</v>
+      </c>
+      <c r="R68" t="s">
+        <v>84</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U68" t="s">
+        <v>271</v>
+      </c>
+      <c r="V68" t="s">
+        <v>813</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC68" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="AD68" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="AE68" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="AF68" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="AG68" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="AH68" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>813</v>
+      </c>
+      <c r="AK68">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="AL68">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
+      <c r="BG68">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH68">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>814</v>
+      </c>
+      <c r="C69" t="s">
+        <v>815</v>
+      </c>
+      <c r="D69" t="s">
+        <v>816</v>
+      </c>
+      <c r="E69">
+        <v>7500000</v>
+      </c>
+      <c r="F69">
+        <v>7.5</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="H69">
+        <v>5000000</v>
+      </c>
+      <c r="I69">
         <v>20</v>
       </c>
-      <c r="BH62">
+      <c r="J69">
+        <v>2500000</v>
+      </c>
+      <c r="K69">
+        <v>12</v>
+      </c>
+      <c r="L69" t="s">
+        <v>86</v>
+      </c>
+      <c r="M69" t="s">
+        <v>84</v>
+      </c>
+      <c r="N69" t="s">
+        <v>85</v>
+      </c>
+      <c r="O69" t="s">
+        <v>85</v>
+      </c>
+      <c r="P69" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>84</v>
+      </c>
+      <c r="R69" t="s">
+        <v>84</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T69">
+        <f t="shared" ref="T69:T79" si="8">COUNTIF(V69:AA69, "*")</f>
+        <v>2</v>
+      </c>
+      <c r="U69" t="s">
+        <v>270</v>
+      </c>
+      <c r="V69" t="s">
+        <v>818</v>
+      </c>
+      <c r="W69" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC69" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="AD69" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="AE69" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="AF69" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="AG69" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="AH69" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK69">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="AL69">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="BG69">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH69">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>821</v>
+      </c>
+      <c r="C70" t="s">
+        <v>822</v>
+      </c>
+      <c r="D70" t="s">
+        <v>485</v>
+      </c>
+      <c r="E70">
+        <v>5000000</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="H70">
+        <v>10000000</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70" t="s">
+        <v>86</v>
+      </c>
+      <c r="M70" t="s">
+        <v>85</v>
+      </c>
+      <c r="N70" t="s">
+        <v>85</v>
+      </c>
+      <c r="O70" t="s">
+        <v>85</v>
+      </c>
+      <c r="P70" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>85</v>
+      </c>
+      <c r="R70" t="s">
+        <v>84</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T70">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U70" t="s">
+        <v>271</v>
+      </c>
+      <c r="V70" t="s">
+        <v>824</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC70" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="AD70" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="AE70" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="AF70" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="AG70" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="AH70" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>825</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>824</v>
+      </c>
+      <c r="AK70">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="AL70">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="BG70">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BH70">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>826</v>
+      </c>
+      <c r="C71" t="s">
+        <v>827</v>
+      </c>
+      <c r="D71" t="s">
+        <v>679</v>
+      </c>
+      <c r="E71">
+        <v>5000000</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="H71">
+        <v>2500000</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+      <c r="J71">
+        <v>2500000</v>
+      </c>
+      <c r="K71">
+        <v>12</v>
+      </c>
+      <c r="L71" t="s">
+        <v>86</v>
+      </c>
+      <c r="M71" t="s">
+        <v>85</v>
+      </c>
+      <c r="N71" t="s">
+        <v>84</v>
+      </c>
+      <c r="O71" t="s">
+        <v>85</v>
+      </c>
+      <c r="P71" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>84</v>
+      </c>
+      <c r="R71" t="s">
+        <v>84</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="U71" t="s">
+        <v>270</v>
+      </c>
+      <c r="V71" t="s">
+        <v>829</v>
+      </c>
+      <c r="W71" t="s">
+        <v>830</v>
+      </c>
+      <c r="X71" t="s">
+        <v>831</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC71" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="AD71" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="AE71" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="AF71" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="AH71" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>832</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>833</v>
+      </c>
+      <c r="AK71">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="AL71">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="BG71">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BH71">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>836</v>
+      </c>
+      <c r="C72" t="s">
+        <v>837</v>
+      </c>
+      <c r="D72" t="s">
+        <v>838</v>
+      </c>
+      <c r="E72">
+        <v>3000000</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="H72">
+        <v>3000000</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>73</v>
+      </c>
+      <c r="M72" t="s">
+        <v>84</v>
+      </c>
+      <c r="N72" t="s">
+        <v>84</v>
+      </c>
+      <c r="O72" t="s">
+        <v>85</v>
+      </c>
+      <c r="P72" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>85</v>
+      </c>
+      <c r="R72" t="s">
+        <v>84</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="U72" t="s">
+        <v>271</v>
+      </c>
+      <c r="V72" t="s">
+        <v>834</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>835</v>
+      </c>
+      <c r="AC72" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="AD72" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="AE72" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="AF72" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="AG72" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="AH72" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>840</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>834</v>
+      </c>
+      <c r="AK72">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="AL72">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="BG72">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="BH72">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>841</v>
+      </c>
+      <c r="C73" t="s">
+        <v>842</v>
+      </c>
+      <c r="D73" t="s">
+        <v>843</v>
+      </c>
+      <c r="E73">
+        <v>10000000</v>
+      </c>
+      <c r="F73">
+        <v>2.5</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>73</v>
+      </c>
+      <c r="M73" t="s">
+        <v>84</v>
+      </c>
+      <c r="N73" t="s">
+        <v>84</v>
+      </c>
+      <c r="O73" t="s">
+        <v>84</v>
+      </c>
+      <c r="P73" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>84</v>
+      </c>
+      <c r="R73" t="s">
+        <v>84</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="U73" t="s">
+        <v>270</v>
+      </c>
+      <c r="V73" t="s">
+        <v>844</v>
+      </c>
+      <c r="W73" t="s">
+        <v>845</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC73" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="AD73" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="AE73" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="AF73" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="AG73" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="AH73" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>932</v>
+      </c>
+      <c r="AK73">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="AL73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG73">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="BH73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>846</v>
+      </c>
+      <c r="C74" t="s">
+        <v>847</v>
+      </c>
+      <c r="D74" t="s">
+        <v>816</v>
+      </c>
+      <c r="E74">
+        <v>7500000</v>
+      </c>
+      <c r="F74">
+        <v>7.5</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="H74">
+        <v>10000000</v>
+      </c>
+      <c r="I74">
+        <v>10</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>86</v>
+      </c>
+      <c r="M74" t="s">
+        <v>84</v>
+      </c>
+      <c r="N74" t="s">
+        <v>85</v>
+      </c>
+      <c r="O74" t="s">
+        <v>85</v>
+      </c>
+      <c r="P74" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>84</v>
+      </c>
+      <c r="R74" t="s">
+        <v>84</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="U74" t="s">
+        <v>273</v>
+      </c>
+      <c r="V74" t="s">
+        <v>848</v>
+      </c>
+      <c r="W74" t="s">
+        <v>849</v>
+      </c>
+      <c r="X74" t="s">
+        <v>850</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC74" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="AD74" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="AE74" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="AF74" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="AG74" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="AH74" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>851</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>852</v>
+      </c>
+      <c r="AK74">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="AL74">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="BG74">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH74">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>853</v>
+      </c>
+      <c r="C75" t="s">
+        <v>854</v>
+      </c>
+      <c r="D75" t="s">
+        <v>504</v>
+      </c>
+      <c r="E75">
+        <v>7500000</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="H75">
+        <v>7500000</v>
+      </c>
+      <c r="I75">
+        <v>7.5</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>86</v>
+      </c>
+      <c r="M75" t="s">
+        <v>84</v>
+      </c>
+      <c r="N75" t="s">
+        <v>85</v>
+      </c>
+      <c r="O75" t="s">
+        <v>84</v>
+      </c>
+      <c r="P75" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>84</v>
+      </c>
+      <c r="R75" t="s">
+        <v>84</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="U75" t="s">
+        <v>272</v>
+      </c>
+      <c r="V75" t="s">
+        <v>856</v>
+      </c>
+      <c r="W75" t="s">
+        <v>857</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC75" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="AD75" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="AE75" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="AF75" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="AG75" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="AH75" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>858</v>
+      </c>
+      <c r="AK75">
+        <f t="shared" si="4"/>
+        <v>18.75</v>
+      </c>
+      <c r="AL75">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="BG75">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH75">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>859</v>
+      </c>
+      <c r="C76" t="s">
+        <v>860</v>
+      </c>
+      <c r="D76" t="s">
+        <v>861</v>
+      </c>
+      <c r="E76">
+        <v>5000000</v>
+      </c>
+      <c r="F76">
+        <v>2.5</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>73</v>
+      </c>
+      <c r="M76" t="s">
+        <v>84</v>
+      </c>
+      <c r="N76" t="s">
+        <v>84</v>
+      </c>
+      <c r="O76" t="s">
+        <v>84</v>
+      </c>
+      <c r="P76" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>84</v>
+      </c>
+      <c r="R76" t="s">
+        <v>84</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="U76" t="s">
+        <v>271</v>
+      </c>
+      <c r="V76" t="s">
+        <v>862</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC76" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="AD76" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="AE76" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="AF76" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="AG76" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="AH76" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>862</v>
+      </c>
+      <c r="AK76">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AL76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG76">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BH76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>863</v>
+      </c>
+      <c r="C77" t="s">
+        <v>864</v>
+      </c>
+      <c r="D77" t="s">
+        <v>865</v>
+      </c>
+      <c r="E77">
+        <v>6000000</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77" t="s">
+        <v>866</v>
+      </c>
+      <c r="H77">
+        <v>6000000</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77" t="s">
+        <v>86</v>
+      </c>
+      <c r="M77" t="s">
+        <v>84</v>
+      </c>
+      <c r="N77" t="s">
+        <v>84</v>
+      </c>
+      <c r="O77" t="s">
+        <v>84</v>
+      </c>
+      <c r="P77" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>84</v>
+      </c>
+      <c r="R77" t="s">
+        <v>85</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="U77" t="s">
+        <v>271</v>
+      </c>
+      <c r="V77" t="s">
+        <v>867</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC77" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="AD77" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="AE77" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="AF77" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="AG77" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="AH77" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>867</v>
+      </c>
+      <c r="AK77">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AL77">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="BG77">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="BH77">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>868</v>
+      </c>
+      <c r="C78" t="s">
+        <v>869</v>
+      </c>
+      <c r="D78" t="s">
+        <v>870</v>
+      </c>
+      <c r="E78">
+        <v>4000000</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>871</v>
+      </c>
+      <c r="H78">
+        <v>4000000</v>
+      </c>
+      <c r="I78">
+        <v>20</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>86</v>
+      </c>
+      <c r="M78" t="s">
+        <v>84</v>
+      </c>
+      <c r="N78" t="s">
+        <v>85</v>
+      </c>
+      <c r="O78" t="s">
+        <v>84</v>
+      </c>
+      <c r="P78" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>84</v>
+      </c>
+      <c r="R78" t="s">
+        <v>84</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="U78" t="s">
+        <v>270</v>
+      </c>
+      <c r="V78" t="s">
+        <v>872</v>
+      </c>
+      <c r="W78" t="s">
+        <v>873</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC78" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="AD78" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="AE78" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="AF78" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="AG78" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="AH78" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>874</v>
+      </c>
+      <c r="AK78">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AL78">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BG78">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="BH78">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>875</v>
+      </c>
+      <c r="C79" t="s">
+        <v>876</v>
+      </c>
+      <c r="D79" t="s">
+        <v>811</v>
+      </c>
+      <c r="E79">
+        <v>7500000</v>
+      </c>
+      <c r="F79">
+        <v>2.5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>877</v>
+      </c>
+      <c r="H79">
+        <v>7500000</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>86</v>
+      </c>
+      <c r="M79" t="s">
+        <v>84</v>
+      </c>
+      <c r="N79" t="s">
+        <v>84</v>
+      </c>
+      <c r="O79" t="s">
+        <v>84</v>
+      </c>
+      <c r="P79" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>84</v>
+      </c>
+      <c r="R79" t="s">
+        <v>84</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="U79" t="s">
+        <v>272</v>
+      </c>
+      <c r="V79" t="s">
+        <v>878</v>
+      </c>
+      <c r="W79" t="s">
+        <v>879</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC79" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="AD79" s="6" t="s">
+        <v>955</v>
+      </c>
+      <c r="AE79" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="AF79" s="6" t="s">
+        <v>953</v>
+      </c>
+      <c r="AG79" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="AH79" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ79" t="s">
+        <v>880</v>
+      </c>
+      <c r="AK79">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="AL79">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
+      <c r="BG79">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BH79">
+        <f t="shared" si="7"/>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -10749,8 +13269,108 @@
     <hyperlink ref="AG62" r:id="rId364" xr:uid="{57BF6EF9-A0DA-4BE4-A775-DFAB52218477}"/>
     <hyperlink ref="AD62" r:id="rId365" xr:uid="{30C5B129-014D-4AFE-9920-4454DE19415A}"/>
     <hyperlink ref="AC62" r:id="rId366" xr:uid="{09EB148C-7DC2-4178-8ACF-8C8245C2CFF8}"/>
+    <hyperlink ref="AE63" r:id="rId367" xr:uid="{C123751F-9380-49E9-AB3F-6EB22981FA76}"/>
+    <hyperlink ref="AH63" r:id="rId368" xr:uid="{4E42CAC0-D975-4DA7-9102-F51CD0ED8D43}"/>
+    <hyperlink ref="AG63" r:id="rId369" xr:uid="{2B42C4C8-6A92-4EE6-B1EA-8E06DF89F799}"/>
+    <hyperlink ref="AC63" r:id="rId370" xr:uid="{D0C03D73-E7D2-425F-8E2D-65789D40CE4B}"/>
+    <hyperlink ref="AF63" r:id="rId371" xr:uid="{6866A25D-19F9-4783-960E-B1BD4FF9BEC7}"/>
+    <hyperlink ref="AD63" r:id="rId372" xr:uid="{76A706E8-1889-4036-99EF-5F80562B56C8}"/>
+    <hyperlink ref="AH64" r:id="rId373" xr:uid="{6F495E7D-EA0A-4C7C-AE9D-18A0C0627181}"/>
+    <hyperlink ref="AG64" r:id="rId374" xr:uid="{721714A2-CCB5-454C-A2C9-6E29ECDFF8B2}"/>
+    <hyperlink ref="AF64" r:id="rId375" xr:uid="{D87A62C7-BB46-49EA-B64B-3B171299A5B7}"/>
+    <hyperlink ref="AE64" r:id="rId376" xr:uid="{C74825F7-306D-4C30-99D9-745A71C92899}"/>
+    <hyperlink ref="AC64" r:id="rId377" xr:uid="{53188186-C2B4-4A47-A829-79F247F76F83}"/>
+    <hyperlink ref="AD64" r:id="rId378" xr:uid="{0CE313F5-1890-47EC-9FB0-C93601FA12C5}"/>
+    <hyperlink ref="AH65" r:id="rId379" xr:uid="{A009E8C0-6B96-40EE-A1D5-7F67A8FA0BA7}"/>
+    <hyperlink ref="AG65" r:id="rId380" xr:uid="{47A153AB-67C8-499C-BA88-155C18D41A79}"/>
+    <hyperlink ref="AF65" r:id="rId381" xr:uid="{B410D639-D52E-42CD-8C46-DEA27DB0F458}"/>
+    <hyperlink ref="AE65" r:id="rId382" xr:uid="{A136B434-9A29-4FC2-A76E-49A9C6E7D6C2}"/>
+    <hyperlink ref="AD65" r:id="rId383" xr:uid="{481BC0C0-B6AE-43DE-9E93-864A084200DD}"/>
+    <hyperlink ref="AC65" r:id="rId384" xr:uid="{64A52066-0F36-4A74-88EA-74058E617975}"/>
+    <hyperlink ref="AH66" r:id="rId385" xr:uid="{502CFCDB-0439-4E25-9402-6CE3E4FEAF4C}"/>
+    <hyperlink ref="AE66" r:id="rId386" xr:uid="{6DB889B0-1FAD-4346-9C27-69D7EA13330E}"/>
+    <hyperlink ref="AF66" r:id="rId387" xr:uid="{57A49E2D-99EB-43A9-9404-39B9229704D3}"/>
+    <hyperlink ref="AG66" r:id="rId388" xr:uid="{65A48B96-E91F-4476-B060-D4B7CE2CA7E6}"/>
+    <hyperlink ref="AD66" r:id="rId389" xr:uid="{0A5032A3-DCF3-4C83-BF41-D88EC0CFE51B}"/>
+    <hyperlink ref="AC66" r:id="rId390" xr:uid="{A019BC36-709D-4A3E-8088-AB82A8E1608A}"/>
+    <hyperlink ref="AH67" r:id="rId391" xr:uid="{9F82233E-0C55-4964-9B4B-96A89475EEA7}"/>
+    <hyperlink ref="AD67" r:id="rId392" xr:uid="{CF5E5FCE-474B-4A6D-B28D-FBA15BED0E9B}"/>
+    <hyperlink ref="AF67" r:id="rId393" xr:uid="{702B3C02-1994-4B1E-A5D9-8F33DC0AA914}"/>
+    <hyperlink ref="AE67" r:id="rId394" xr:uid="{2A235159-B68E-490F-8A76-1C011B5C4757}"/>
+    <hyperlink ref="AG67" r:id="rId395" xr:uid="{03737C56-6BC2-4E89-A541-33AE54AA28CE}"/>
+    <hyperlink ref="AC67" r:id="rId396" xr:uid="{C72BEED8-86DE-43B1-8F12-0CF635242B6B}"/>
+    <hyperlink ref="AH68" r:id="rId397" xr:uid="{0AAA7B30-621A-4BB2-9B8C-2ED5AD8CAAB5}"/>
+    <hyperlink ref="AG68" r:id="rId398" xr:uid="{C3038AD5-A574-415D-868F-83F7387E5AF1}"/>
+    <hyperlink ref="AF68" r:id="rId399" xr:uid="{EC537C77-43DA-4DF5-B4AD-506223ABF2D1}"/>
+    <hyperlink ref="AE68" r:id="rId400" xr:uid="{F7C464C2-E48E-4892-9A82-1A12299579BC}"/>
+    <hyperlink ref="AC68" r:id="rId401" xr:uid="{4EE76102-EF7D-47C4-A215-83066AB8E266}"/>
+    <hyperlink ref="AD68" r:id="rId402" xr:uid="{AA2D736B-321A-4A10-82A3-2E3FBF71F260}"/>
+    <hyperlink ref="AH69" r:id="rId403" xr:uid="{ABE26CF0-C7CA-4DF2-A108-E8DC879F89CA}"/>
+    <hyperlink ref="AF69" r:id="rId404" xr:uid="{33AC284E-42F4-4CAA-AF75-2E6DA10B59C9}"/>
+    <hyperlink ref="AE69" r:id="rId405" xr:uid="{41A1EDD3-0192-43C1-BF68-73D22562FAC6}"/>
+    <hyperlink ref="AC69" r:id="rId406" xr:uid="{FBBD47B9-4E32-476C-A349-CC09CA11B11B}"/>
+    <hyperlink ref="AG69" r:id="rId407" xr:uid="{A742DF4B-2AC8-4304-B014-99FF545E50F5}"/>
+    <hyperlink ref="AD69" r:id="rId408" xr:uid="{07F10D4E-1072-47AC-942F-2973AB8F81A7}"/>
+    <hyperlink ref="AH70" r:id="rId409" xr:uid="{37835AD5-756F-4E97-A2F0-A054E4996998}"/>
+    <hyperlink ref="AG70" r:id="rId410" xr:uid="{1D2E17AE-FF07-4FDD-983A-4890AE88A677}"/>
+    <hyperlink ref="AD70" r:id="rId411" xr:uid="{470A6CD4-2EF7-42F2-A319-9601A023CE0A}"/>
+    <hyperlink ref="AF70" r:id="rId412" xr:uid="{341F2897-8DAA-4BFB-90A0-6BDE119848EB}"/>
+    <hyperlink ref="AC70" r:id="rId413" xr:uid="{033069B7-1A21-4FE3-BFCD-42B9C6D472EE}"/>
+    <hyperlink ref="AE70" r:id="rId414" xr:uid="{6AD891BE-2C51-4A6D-9C9B-676956CCA2F8}"/>
+    <hyperlink ref="AH71" r:id="rId415" xr:uid="{3AEF6575-20F4-45BE-8B24-12E0204EF9F5}"/>
+    <hyperlink ref="AF71" r:id="rId416" xr:uid="{98885DC2-3336-4323-B18A-03304C2D4A87}"/>
+    <hyperlink ref="AE71" r:id="rId417" xr:uid="{E4A02570-3CA5-4F69-8C51-F314C7D89389}"/>
+    <hyperlink ref="AD71" r:id="rId418" xr:uid="{DF3AA393-A085-404C-BD68-E16E8AD7E72F}"/>
+    <hyperlink ref="AC71" r:id="rId419" xr:uid="{1CA6BDB4-17D4-4744-829D-52ABB9E36759}"/>
+    <hyperlink ref="AD72" r:id="rId420" xr:uid="{5F1D1568-2489-4270-BC4A-9265C4FE3463}"/>
+    <hyperlink ref="AF72" r:id="rId421" xr:uid="{F37EE164-ECEC-4549-B8BC-3327420059C8}"/>
+    <hyperlink ref="AC72" r:id="rId422" xr:uid="{7AF4CBB1-325B-4ED0-9583-5EB519169FC2}"/>
+    <hyperlink ref="AG72" r:id="rId423" xr:uid="{FCD24FF6-9FDA-45C5-A160-3CDCDAF0E398}"/>
+    <hyperlink ref="AE72" r:id="rId424" xr:uid="{140647FB-34FF-4D7E-BA22-B574356EA26B}"/>
+    <hyperlink ref="AH73" r:id="rId425" xr:uid="{0237CEA9-98B1-4655-B2CA-94CF9637F1D6}"/>
+    <hyperlink ref="AE73" r:id="rId426" xr:uid="{00BAA099-7535-4E36-A0EB-89E362407191}"/>
+    <hyperlink ref="AF73" r:id="rId427" xr:uid="{606EAD63-889B-46B8-9F9E-88F036E98C77}"/>
+    <hyperlink ref="AG73" r:id="rId428" xr:uid="{3312DA06-2887-43B0-95CC-C43BCE941AF3}"/>
+    <hyperlink ref="AD73" r:id="rId429" xr:uid="{F1DA94D4-5ADF-4627-A771-AEFD0F2BCAFF}"/>
+    <hyperlink ref="AC73" r:id="rId430" xr:uid="{2EC8E396-959C-4069-B030-868A4CB1E950}"/>
+    <hyperlink ref="AH74" r:id="rId431" xr:uid="{1DB0BC06-A680-48B1-9416-E43AE4FD5BCA}"/>
+    <hyperlink ref="AG74" r:id="rId432" xr:uid="{564D4844-162A-4E81-9DB5-DE0082A07C6B}"/>
+    <hyperlink ref="AF74" r:id="rId433" xr:uid="{FC0FBB5D-42E1-41A8-9B12-9DFBF57B0D40}"/>
+    <hyperlink ref="AE74" r:id="rId434" xr:uid="{9AD11FE3-F80A-4CDF-8DE1-30D84A2C48B0}"/>
+    <hyperlink ref="AD74" r:id="rId435" xr:uid="{3B7C5C7C-45D0-475D-848D-DC4B0F69026B}"/>
+    <hyperlink ref="AC74" r:id="rId436" xr:uid="{9DB8D873-673E-4190-9DFE-CB6792B37B1A}"/>
+    <hyperlink ref="AH75" r:id="rId437" xr:uid="{B26943EB-5FD9-4BBB-B501-11A16991973A}"/>
+    <hyperlink ref="AE75" r:id="rId438" xr:uid="{194A9B7C-BECD-45FB-BBB8-6501CF4FB278}"/>
+    <hyperlink ref="AF75" r:id="rId439" xr:uid="{BA055000-C600-44F8-B440-BD4FEFD7833B}"/>
+    <hyperlink ref="AD75" r:id="rId440" xr:uid="{AC493472-2FF5-44E9-9792-D64207532B7A}"/>
+    <hyperlink ref="AG75" r:id="rId441" xr:uid="{752D633F-2AD9-4527-90B0-CD81CD5FFDAF}"/>
+    <hyperlink ref="AC75" r:id="rId442" xr:uid="{39BAB015-3959-4A6D-B82C-57663083845B}"/>
+    <hyperlink ref="AH76" r:id="rId443" xr:uid="{5CD97653-32A4-41D5-98A1-5C6860AEB29B}"/>
+    <hyperlink ref="AF76" r:id="rId444" xr:uid="{961FE657-C7A8-4264-85E9-F84FB6FA7BC6}"/>
+    <hyperlink ref="AE76" r:id="rId445" xr:uid="{02FB7442-8455-46D6-A8CE-94EFB6AAD893}"/>
+    <hyperlink ref="AD76" r:id="rId446" xr:uid="{6BC8C330-8C1F-46FA-A78E-AD1893740FEF}"/>
+    <hyperlink ref="AG76" r:id="rId447" xr:uid="{B536B770-5FEA-4D59-B928-E21AE71E58D1}"/>
+    <hyperlink ref="AC76" r:id="rId448" xr:uid="{62C06F18-E738-4C7C-A127-EA38C7D7CED7}"/>
+    <hyperlink ref="AH77" r:id="rId449" xr:uid="{54D52C20-0D64-44AF-9509-8B11528DF267}"/>
+    <hyperlink ref="AF77" r:id="rId450" xr:uid="{BDD2E5CC-B9F9-414D-A2C1-A59B495CF155}"/>
+    <hyperlink ref="AE77" r:id="rId451" xr:uid="{174B6FCB-A696-4B59-B6D9-C97078EEE163}"/>
+    <hyperlink ref="AC77" r:id="rId452" xr:uid="{4DF3FAD3-E109-4991-B7D9-8BE34331CDE6}"/>
+    <hyperlink ref="AD77" r:id="rId453" xr:uid="{625B93B1-A8AD-4E2B-A17D-D368D38D3D4A}"/>
+    <hyperlink ref="AG77" r:id="rId454" xr:uid="{7621B098-11F5-449E-8C56-1A5EC45885D0}"/>
+    <hyperlink ref="AH78" r:id="rId455" xr:uid="{1C9FD88D-5C21-49AC-90A8-0716340D966B}"/>
+    <hyperlink ref="AE78" r:id="rId456" xr:uid="{2185B398-1332-4C77-8D80-C93B6C3B0C4F}"/>
+    <hyperlink ref="AF78" r:id="rId457" xr:uid="{73BA0317-7EFD-4CE3-9810-463BEBF07938}"/>
+    <hyperlink ref="AG78" r:id="rId458" xr:uid="{EBE02371-28DD-4801-A2B2-0BF0F191147B}"/>
+    <hyperlink ref="AD78" r:id="rId459" xr:uid="{B255FC62-F16A-42DA-9CA4-A0727C3A6B08}"/>
+    <hyperlink ref="AC78" r:id="rId460" xr:uid="{1578AAD8-7DCB-4753-A1DD-7B3AABBFA239}"/>
+    <hyperlink ref="AH79" r:id="rId461" xr:uid="{4A96019D-9C3A-4663-9AA0-C5733941ACF0}"/>
+    <hyperlink ref="AF79" r:id="rId462" xr:uid="{0083D369-9D43-41F3-9659-2E237C16BA1F}"/>
+    <hyperlink ref="AE79" r:id="rId463" xr:uid="{7166F85F-4718-4463-BA95-6D7249B5B751}"/>
+    <hyperlink ref="AD79" r:id="rId464" xr:uid="{2E0F1775-CEFB-4941-ACB9-1D3F24420859}"/>
+    <hyperlink ref="AG79" r:id="rId465" xr:uid="{CF818ACA-A41B-4F25-AA40-5D94824E93C8}"/>
+    <hyperlink ref="AC79" r:id="rId466" xr:uid="{10336019-ED19-45CC-92FF-AEE00F1A2D69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId367"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId467"/>
 </worksheet>
 </file>
--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADD6B8D-45AB-45F2-9EE7-EDF15099CAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9A4DC0-B988-4B39-BF2D-037A26306FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="1081">
   <si>
     <t>#</t>
   </si>
@@ -3054,6 +3054,231 @@
   </si>
   <si>
     <t>https://www.youtube.com/channel/UCDrgcpOTFYElGPg5X_zAaIg</t>
+  </si>
+  <si>
+    <t>Green Snack Co.</t>
+  </si>
+  <si>
+    <t>₹ 1 crore for 2% Equity</t>
+  </si>
+  <si>
+    <t>₹ 1 crore for 8% Equity</t>
+  </si>
+  <si>
+    <t>Jasmine Kaur</t>
+  </si>
+  <si>
+    <t>Chetan Sharda, Jasmine Kaur</t>
+  </si>
+  <si>
+    <t>Chetan Sharda</t>
+  </si>
+  <si>
+    <t>Healthy Snacks</t>
+  </si>
+  <si>
+    <t>Hobby India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 50 lakh for 3% Equity	</t>
+  </si>
+  <si>
+    <t>Vaibhav Dilipbhai Sutariya</t>
+  </si>
+  <si>
+    <t>Shruti Vaibhav Sutariya</t>
+  </si>
+  <si>
+    <t>Khyati Dilipbhai Sutariya</t>
+  </si>
+  <si>
+    <t>Vaibhav Dilipbhai Sutariya, Shruti Vaibhav Sutariya, Khyati Dilipbhai Sutariya</t>
+  </si>
+  <si>
+    <t>Flhexible</t>
+  </si>
+  <si>
+    <t>Abhimanyu Singh</t>
+  </si>
+  <si>
+    <t>Shilpi Dua</t>
+  </si>
+  <si>
+    <t>Abhimanyu Singh, Shilpi Dua</t>
+  </si>
+  <si>
+    <t>Upthrust Esports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 75 lakh for 3% Equity	</t>
+  </si>
+  <si>
+    <t>Vaibhav Kumar</t>
+  </si>
+  <si>
+    <t>Kartik Sabherwal, Vaibhav Kumar</t>
+  </si>
+  <si>
+    <t>Kartik Sabherwal</t>
+  </si>
+  <si>
+    <t>Zoff</t>
+  </si>
+  <si>
+    <t>₹ 1 crore for 0.5% Equity</t>
+  </si>
+  <si>
+    <t>₹ 1 crore for 1.25% Equity</t>
+  </si>
+  <si>
+    <t>Ashish Agarwal</t>
+  </si>
+  <si>
+    <t>Akash Kumar Agarwal</t>
+  </si>
+  <si>
+    <t>Ashish Agarwal, Akash Kumar Agarwal</t>
+  </si>
+  <si>
+    <t>Desi Toys</t>
+  </si>
+  <si>
+    <t>Varieties of Masala (Spices)</t>
+  </si>
+  <si>
+    <t>Indian Toys</t>
+  </si>
+  <si>
+    <t>Swapna Soham Wagh</t>
+  </si>
+  <si>
+    <t>Cloudworx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 40 lakh for 2% Equity	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 40 lakh for 3.2% Equity	</t>
+  </si>
+  <si>
+    <t>Yuvraj Tomar</t>
+  </si>
+  <si>
+    <t>Namita, Anupam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 50 lakh for 7.5% Equity	</t>
+  </si>
+  <si>
+    <t>https://www.flhexible.com/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/flhexible/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/flhexible/?hl=en</t>
+  </si>
+  <si>
+    <t>https://twitter.com/flhexible1</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/company/flhexible</t>
+  </si>
+  <si>
+    <t>Paper Honeycomb Flatpack Furniture</t>
+  </si>
+  <si>
+    <t>https://thegreensnackco.com/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TheGreenSnackCo</t>
+  </si>
+  <si>
+    <t>https://twitter.com/TheGreenSnackCo</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/thegreensnackco/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCI2kf5_oAgs1hnI-PyxQz7g</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/company/the-green-snack-co</t>
+  </si>
+  <si>
+    <t>https://hobbyindia.store/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCympMxwRoERxEWT7V__Xs2A</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hobby.india/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/hobbyindia.store</t>
+  </si>
+  <si>
+    <t>Online Art &amp; Craft Store</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/company/upthrust-esports</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/upthrust_esports/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/UpthrustGaming?s=20&amp;t=SQW1OJ6Ubg8jh1MHyw08Jg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCnMM5HJs5y6qCKqnefg8Oig</t>
+  </si>
+  <si>
+    <t>E-Sports gaming platform</t>
+  </si>
+  <si>
+    <t>https://zofffoods.com/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/zofffoods/?igshid=YmMyMTA2M2Y%3D</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/zofffoods?mibextid=ZbWKwL</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/zoff-foods/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ZoffFoods</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@zofffoods</t>
+  </si>
+  <si>
+    <t>https://www.desitoys.in/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCJ9Qdg-04pPTEQDxqa47H1w/featured</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/desitoysindia/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/desitoysindia</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/desitoysindia</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/desi-toys/</t>
+  </si>
+  <si>
+    <t>https://www.cloudworx.ai/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/cloudworxstudio/?originalSubdomain=in</t>
+  </si>
+  <si>
+    <t>No Code Enterprise Metaverse Platform</t>
   </si>
 </sst>
 </file>
@@ -3470,10 +3695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH82"/>
+  <dimension ref="A1:BH89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="AG81" sqref="AG81"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3494,7 +3719,7 @@
     <col min="21" max="21" width="22.109375" customWidth="1"/>
     <col min="22" max="22" width="23.88671875" customWidth="1"/>
     <col min="23" max="23" width="21" customWidth="1"/>
-    <col min="24" max="24" width="18.44140625" customWidth="1"/>
+    <col min="24" max="24" width="21.44140625" customWidth="1"/>
     <col min="25" max="25" width="22.77734375" customWidth="1"/>
     <col min="26" max="26" width="14.6640625" customWidth="1"/>
     <col min="28" max="28" width="25.88671875" customWidth="1"/>
@@ -3794,42 +4019,42 @@
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP18" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AX2" t="s">
         <v>243</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD2" t="s">
         <v>253</v>
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -3896,7 +4121,7 @@
         <v>70</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S82" si="1">SUM(COUNTIF(M3:R3, "Y"))</f>
+        <f t="shared" ref="S3:T86" si="1">SUM(COUNTIF(M3:R3, "Y"))</f>
         <v>3</v>
       </c>
       <c r="T3">
@@ -3940,11 +4165,11 @@
         <v>924</v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK82" si="3" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK3:AK86" si="3" xml:space="preserve"> (( E3/F3 ) * 100) / 10000000</f>
         <v>6</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL82" si="4">IFERROR(((H3/I3)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL3:AL86" si="4">IFERROR(((H3/I3)*100)/10000000, 0)</f>
         <v>2</v>
       </c>
       <c r="AO3" t="s">
@@ -3959,42 +4184,42 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AU3" t="s">
         <v>238</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AX3" t="s">
         <v>244</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
       </c>
       <c r="BB3">
         <f>COUNTIF(N:N,"Y")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD3" t="s">
         <v>255</v>
       </c>
       <c r="BE3">
         <f>COUNTIF(U:U,BD3)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BG3">
-        <f t="shared" ref="BG3:BG82" si="5">E3/100000</f>
+        <f t="shared" ref="BG3:BG85" si="5">E3/100000</f>
         <v>30</v>
       </c>
       <c r="BH3">
-        <f t="shared" ref="BH3:BH82" si="6">H3/100000</f>
+        <f t="shared" ref="BH3:BH85" si="6">H3/100000</f>
         <v>30</v>
       </c>
     </row>
@@ -4117,28 +4342,28 @@
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX4" t="s">
         <v>245</v>
       </c>
       <c r="AY4">
         <f>COUNTIF(S:S,"2")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA4" t="s">
         <v>15</v>
       </c>
       <c r="BB4">
         <f>COUNTIF(O:O,"Y")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD4" t="s">
         <v>254</v>
       </c>
       <c r="BE4">
         <f>COUNTIF(U:U,BD4)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BG4">
         <f t="shared" si="5"/>
@@ -4279,14 +4504,14 @@
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD5" t="s">
         <v>257</v>
       </c>
       <c r="BE5">
         <f>COUNTIF(U:U,BD5)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BG5">
         <f t="shared" si="5"/>
@@ -4406,7 +4631,7 @@
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU6" t="s">
         <v>241</v>
@@ -4954,7 +5179,7 @@
       </c>
       <c r="AP10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG10">
         <f t="shared" si="5"/>
@@ -5203,7 +5428,7 @@
       </c>
       <c r="AP12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG12">
         <f t="shared" si="5"/>
@@ -11827,7 +12052,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T82" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T89" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -13377,6 +13602,783 @@
       <c r="BH82">
         <f t="shared" si="6"/>
         <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E83">
+        <v>10000000</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H83">
+        <v>10000000</v>
+      </c>
+      <c r="I83">
+        <v>8</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83" t="s">
+        <v>72</v>
+      </c>
+      <c r="M83" t="s">
+        <v>70</v>
+      </c>
+      <c r="N83" t="s">
+        <v>70</v>
+      </c>
+      <c r="O83" t="s">
+        <v>71</v>
+      </c>
+      <c r="P83" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>70</v>
+      </c>
+      <c r="R83" t="s">
+        <v>70</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U83" t="s">
+        <v>257</v>
+      </c>
+      <c r="V83" t="s">
+        <v>1011</v>
+      </c>
+      <c r="W83" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC83" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AD83" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AE83" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AF83" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AG83" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AH83" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AK83">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="AL83">
+        <f t="shared" si="4"/>
+        <v>12.5</v>
+      </c>
+      <c r="BG83">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="BH83">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E84">
+        <v>5000000</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84" t="s">
+        <v>59</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84" t="s">
+        <v>59</v>
+      </c>
+      <c r="M84" t="s">
+        <v>70</v>
+      </c>
+      <c r="N84" t="s">
+        <v>70</v>
+      </c>
+      <c r="O84" t="s">
+        <v>70</v>
+      </c>
+      <c r="P84" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>70</v>
+      </c>
+      <c r="R84" t="s">
+        <v>70</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U84" t="s">
+        <v>253</v>
+      </c>
+      <c r="V84" t="s">
+        <v>1015</v>
+      </c>
+      <c r="W84" t="s">
+        <v>1016</v>
+      </c>
+      <c r="X84" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC84" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AD84" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AE84" s="6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AF84" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AG84" s="6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AH84" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AK84">
+        <f t="shared" si="3"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AL84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BG84">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="BH84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E85">
+        <v>5000000</v>
+      </c>
+      <c r="F85">
+        <v>7.5</v>
+      </c>
+      <c r="G85" t="s">
+        <v>59</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85" t="s">
+        <v>59</v>
+      </c>
+      <c r="M85" t="s">
+        <v>70</v>
+      </c>
+      <c r="N85" t="s">
+        <v>70</v>
+      </c>
+      <c r="O85" t="s">
+        <v>70</v>
+      </c>
+      <c r="P85" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>70</v>
+      </c>
+      <c r="R85" t="s">
+        <v>70</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U85" t="s">
+        <v>257</v>
+      </c>
+      <c r="V85" t="s">
+        <v>1020</v>
+      </c>
+      <c r="W85" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC85" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AD85" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AE85" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AF85" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AG85" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AH85" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AK85">
+        <f t="shared" si="3"/>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="AL85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BG85">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="BH85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E86">
+        <v>7500000</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86" t="s">
+        <v>59</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86" t="s">
+        <v>59</v>
+      </c>
+      <c r="M86" t="s">
+        <v>70</v>
+      </c>
+      <c r="N86" t="s">
+        <v>70</v>
+      </c>
+      <c r="O86" t="s">
+        <v>70</v>
+      </c>
+      <c r="P86" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>70</v>
+      </c>
+      <c r="R86" t="s">
+        <v>70</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U86" t="s">
+        <v>255</v>
+      </c>
+      <c r="V86" t="s">
+        <v>1027</v>
+      </c>
+      <c r="W86" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC86" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AD86" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AE86" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AF86" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AG86" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AH86" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ86" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AK86">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="AL86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E87">
+        <v>10000000</v>
+      </c>
+      <c r="F87">
+        <v>0.5</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H87">
+        <v>10000000</v>
+      </c>
+      <c r="I87">
+        <v>1.25</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87" t="s">
+        <v>72</v>
+      </c>
+      <c r="M87" t="s">
+        <v>70</v>
+      </c>
+      <c r="N87" t="s">
+        <v>70</v>
+      </c>
+      <c r="O87" t="s">
+        <v>70</v>
+      </c>
+      <c r="P87" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>70</v>
+      </c>
+      <c r="R87" t="s">
+        <v>70</v>
+      </c>
+      <c r="S87">
+        <f t="shared" ref="S87:S89" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U87" t="s">
+        <v>253</v>
+      </c>
+      <c r="V87" t="s">
+        <v>1031</v>
+      </c>
+      <c r="W87" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC87" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AD87" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AE87" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AF87" s="6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AG87" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AH87" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AK87">
+        <f t="shared" ref="AK87:AK89" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <v>200</v>
+      </c>
+      <c r="AL87">
+        <f t="shared" ref="AL87:AL89" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E88">
+        <v>5000000</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88" t="s">
+        <v>59</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88" t="s">
+        <v>59</v>
+      </c>
+      <c r="M88" t="s">
+        <v>70</v>
+      </c>
+      <c r="N88" t="s">
+        <v>70</v>
+      </c>
+      <c r="O88" t="s">
+        <v>70</v>
+      </c>
+      <c r="P88" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>70</v>
+      </c>
+      <c r="R88" t="s">
+        <v>70</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U88" t="s">
+        <v>254</v>
+      </c>
+      <c r="V88" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC88" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AD88" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AE88" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AF88" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AG88" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AH88" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AK88">
+        <f t="shared" si="9"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AL88">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E89">
+        <v>4000000</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H89">
+        <v>4000000</v>
+      </c>
+      <c r="I89">
+        <v>3.2</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89" t="s">
+        <v>72</v>
+      </c>
+      <c r="M89" t="s">
+        <v>71</v>
+      </c>
+      <c r="N89" t="s">
+        <v>71</v>
+      </c>
+      <c r="O89" t="s">
+        <v>70</v>
+      </c>
+      <c r="P89" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>70</v>
+      </c>
+      <c r="R89" t="s">
+        <v>70</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U89" t="s">
+        <v>254</v>
+      </c>
+      <c r="V89" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC89" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AD89" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AE89" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AF89" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AG89" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AH89" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AJ89" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AK89">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="AL89">
+        <f t="shared" si="10"/>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
@@ -13865,8 +14867,50 @@
     <hyperlink ref="AE82" r:id="rId482" xr:uid="{DF5993A8-3B97-4D80-9986-3020D4267E2A}"/>
     <hyperlink ref="AC82" r:id="rId483" xr:uid="{2B2333AC-FDFC-43B8-8F2E-779D34D4378F}"/>
     <hyperlink ref="AD82" r:id="rId484" xr:uid="{CE16EB6A-BF81-42B2-B529-5FFDA1DCA091}"/>
+    <hyperlink ref="AH85" r:id="rId485" xr:uid="{6B2981AA-F968-4109-B6B7-8337FD9F8E8E}"/>
+    <hyperlink ref="AF85" r:id="rId486" xr:uid="{3CD22DE2-08FC-4EE8-88BF-2617A620BCD9}"/>
+    <hyperlink ref="AE85" r:id="rId487" xr:uid="{C93E75F1-0BC9-454D-872B-6D4A91EC05BC}"/>
+    <hyperlink ref="AC85" r:id="rId488" xr:uid="{D28FACF3-4831-432C-9128-01C6E431F24A}"/>
+    <hyperlink ref="AD85" r:id="rId489" xr:uid="{B21D1437-5E4E-4C01-9A29-9C2AA7C0C945}"/>
+    <hyperlink ref="AG85" r:id="rId490" xr:uid="{19E894B7-0485-4DA0-845B-50C1E72DBE15}"/>
+    <hyperlink ref="AH83" r:id="rId491" xr:uid="{3B621BBD-065F-4680-A3B3-A13FA66B9AF5}"/>
+    <hyperlink ref="AF83" r:id="rId492" xr:uid="{88D85FF6-851C-4454-8F72-4C296587BB7D}"/>
+    <hyperlink ref="AC83" r:id="rId493" xr:uid="{C9776E1C-5D78-4471-BE85-43924168C6B0}"/>
+    <hyperlink ref="AE83" r:id="rId494" xr:uid="{9263FB13-DCD4-4FB8-94AF-37D696FFDDFF}"/>
+    <hyperlink ref="AG83" r:id="rId495" xr:uid="{499B326E-BF8D-42DB-8E1D-45070F709410}"/>
+    <hyperlink ref="AD83" r:id="rId496" xr:uid="{F71DFE64-652C-4A9B-9D86-03967A604860}"/>
+    <hyperlink ref="AH84" r:id="rId497" xr:uid="{3E5715DF-BF98-4FD8-A00A-87D1215C86E5}"/>
+    <hyperlink ref="AG84" r:id="rId498" xr:uid="{61591E87-9966-4692-8123-DEABD8731AAD}"/>
+    <hyperlink ref="AE84" r:id="rId499" xr:uid="{119942D6-F339-4025-8C28-7FD154A1F479}"/>
+    <hyperlink ref="AF84" r:id="rId500" xr:uid="{75575FBB-6D24-42B1-98C0-D46BED1051CD}"/>
+    <hyperlink ref="AD84" r:id="rId501" xr:uid="{15F02B40-4B32-4B2D-819C-B7820CD8E082}"/>
+    <hyperlink ref="AC84" r:id="rId502" xr:uid="{25915599-06FD-4A9B-ABF3-61F06865AD3F}"/>
+    <hyperlink ref="AD86" r:id="rId503" xr:uid="{ED802F3E-0C7A-4F03-A20D-D435C86CD4FF}"/>
+    <hyperlink ref="AE86" r:id="rId504" xr:uid="{A742EA79-3C32-425C-9CCC-D267745DD2AC}"/>
+    <hyperlink ref="AC86" r:id="rId505" xr:uid="{C4EACE3C-7B57-4AE9-9976-D9CD15CD7E95}"/>
+    <hyperlink ref="AG86" r:id="rId506" xr:uid="{4A1449ED-F5E5-4CB6-BEF8-324095C22B78}"/>
+    <hyperlink ref="AH86" r:id="rId507" xr:uid="{418100BB-7295-49FB-BC2B-7365FC9FDC9D}"/>
+    <hyperlink ref="AF86" r:id="rId508" xr:uid="{475D7969-B2B0-45B3-960A-53F132CBFC04}"/>
+    <hyperlink ref="AH87" r:id="rId509" xr:uid="{74BFFC9E-6F95-4812-990A-B71258A9DDA2}"/>
+    <hyperlink ref="AE87" r:id="rId510" xr:uid="{98FEC13E-6D8E-4D88-AEEA-881083FD94E5}"/>
+    <hyperlink ref="AF87" r:id="rId511" xr:uid="{F476CCDB-5A19-465D-9B4C-2E06F700084F}"/>
+    <hyperlink ref="AD87" r:id="rId512" xr:uid="{10B98433-08CF-44EC-8E36-8E622FB5DDFD}"/>
+    <hyperlink ref="AC87" r:id="rId513" xr:uid="{91947885-CC61-463E-B1F8-49404EC13DD2}"/>
+    <hyperlink ref="AG87" r:id="rId514" xr:uid="{B0AD0886-D5D5-4ADA-B939-689DBDA1EFDE}"/>
+    <hyperlink ref="AH88" r:id="rId515" xr:uid="{1D8497AC-5FFD-4157-AE90-B7934134DC13}"/>
+    <hyperlink ref="AG88" r:id="rId516" xr:uid="{8BFE20A5-4FD3-4DB6-9210-7DF5E5A2B7A7}"/>
+    <hyperlink ref="AE88" r:id="rId517" xr:uid="{8C615B70-749E-49DA-8DEE-43DB78C7C3FC}"/>
+    <hyperlink ref="AC88" r:id="rId518" xr:uid="{91FDD3E9-5A8E-4B8F-8DF9-351CD9422FF5}"/>
+    <hyperlink ref="AF88" r:id="rId519" xr:uid="{74645235-81F6-4672-9E4C-1317155E24E1}"/>
+    <hyperlink ref="AD88" r:id="rId520" xr:uid="{932CA186-2944-4CEE-91D3-954A06085D59}"/>
+    <hyperlink ref="AH89" r:id="rId521" xr:uid="{9FD395E8-D5EF-4A83-9C48-A29C6B6E8584}"/>
+    <hyperlink ref="AD89" r:id="rId522" xr:uid="{4D98FF80-D2DE-4D22-8EE5-3CE71BFAF7F8}"/>
+    <hyperlink ref="AG89" r:id="rId523" xr:uid="{7B62C8F7-B44A-4FEE-9DFB-EC8A1D09051C}"/>
+    <hyperlink ref="AF89" r:id="rId524" xr:uid="{9D8A38FC-68A3-48B8-8C47-F547116FAA21}"/>
+    <hyperlink ref="AE89" r:id="rId525" xr:uid="{F29074DD-FA73-428A-B1E7-99AC060F0CAD}"/>
+    <hyperlink ref="AC89" r:id="rId526" xr:uid="{6E873B0B-B567-4D0A-B2E8-553ACB73B173}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId485"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId527"/>
 </worksheet>
 </file>
--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9A4DC0-B988-4B39-BF2D-037A26306FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111BA423-1962-4316-9FBA-68151D72AD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="1134">
   <si>
     <t>#</t>
   </si>
@@ -3279,6 +3279,165 @@
   </si>
   <si>
     <t>No Code Enterprise Metaverse Platform</t>
+  </si>
+  <si>
+    <t>Mahantam</t>
+  </si>
+  <si>
+    <t>Tea Glass Washing Machine</t>
+  </si>
+  <si>
+    <t>Dhaval Prakashbhai Nai</t>
+  </si>
+  <si>
+    <t>Jayesh Prakashbhai Nai</t>
+  </si>
+  <si>
+    <t>Dhaval Prakashbhai Nai, Jayesh Prakashbhai Nai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 30 lakh for 10% Equity	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 30 lakh for 20% Equity	</t>
+  </si>
+  <si>
+    <t>Namita, Anupam, Vineeta, Aman, Peyush</t>
+  </si>
+  <si>
+    <t>MindPeers</t>
+  </si>
+  <si>
+    <t>Sahil Chitkara</t>
+  </si>
+  <si>
+    <t>Kanika Agarwal</t>
+  </si>
+  <si>
+    <t>Sahil Chitkara, Kanika Agarwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 53 lakh for 1% Equity	</t>
+  </si>
+  <si>
+    <t>Mental Health Development Platform</t>
+  </si>
+  <si>
+    <t>₹ 1.06 crore for 2% Equity (1% Peyush, 1% Aman, Vineeta, Namita)</t>
+  </si>
+  <si>
+    <t>Namita, Vineeta, Aman, Peyush</t>
+  </si>
+  <si>
+    <t>Barosi</t>
+  </si>
+  <si>
+    <t>Durlabh Kumar Rawat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 50 lakh for 2% Equity	</t>
+  </si>
+  <si>
+    <t>Traditional Indian Products from Rural Area</t>
+  </si>
+  <si>
+    <t>https://www.barosi.in/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCxkmmjAUDKq9GxEAerHGE6Q</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Barosifarms/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/barosifarms/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/barosi/mycompany/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/barosifarms?lang=en-in</t>
+  </si>
+  <si>
+    <t>https://mindpeers.co/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mindpeers.co/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/mindpeersco</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/mindpeersco/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100075767145716&amp;locale=ne_NP</t>
+  </si>
+  <si>
+    <t>https://www.watanz.com/collections/mahantam-tea-glass-washing-machine</t>
+  </si>
+  <si>
+    <t>Daryaganj</t>
+  </si>
+  <si>
+    <t>Gurpreet Singh</t>
+  </si>
+  <si>
+    <t>Raghav Jaggi</t>
+  </si>
+  <si>
+    <t>Amit Bagga</t>
+  </si>
+  <si>
+    <t>Gurpreet Singh, Raghav Jaggi, Amit Bagga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 90 lakh for 0.5% Equity	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 90 lakh for 1% Equity	</t>
+  </si>
+  <si>
+    <t>Restaurant Chain</t>
+  </si>
+  <si>
+    <t>Dhruv Vidyut</t>
+  </si>
+  <si>
+    <t>Electric Converter for Cycle</t>
+  </si>
+  <si>
+    <t>Gursaurabh Singh</t>
+  </si>
+  <si>
+    <t>100 hours for 0.5% Equity</t>
+  </si>
+  <si>
+    <t>Anupam, Aman, Peyush</t>
+  </si>
+  <si>
+    <t>100 hours for 0.5% Equity (Conditions: 1. Has to raise 1 Crore, 2. Aman, Peyush will be firest investors then)</t>
+  </si>
+  <si>
+    <t>Cellbell</t>
+  </si>
+  <si>
+    <t>Ishwardas Gopichand Demla</t>
+  </si>
+  <si>
+    <t>Pawan Ishwardas Demla</t>
+  </si>
+  <si>
+    <t>Chirag Ishwardas Demla</t>
+  </si>
+  <si>
+    <t>Ishwardas Gopichand Demla, Pawan  Ishwardas Demla, Chirag Ishwardas Demla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 90 lakh for 1.5% Equity	</t>
+  </si>
+  <si>
+    <t>Chairs Manufacturing</t>
   </si>
 </sst>
 </file>
@@ -3695,10 +3854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH89"/>
+  <dimension ref="A1:BH95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3729,7 +3888,7 @@
     <col min="32" max="32" width="22.77734375" customWidth="1"/>
     <col min="33" max="33" width="20.44140625" customWidth="1"/>
     <col min="34" max="34" width="35" customWidth="1"/>
-    <col min="35" max="35" width="31.77734375" customWidth="1"/>
+    <col min="35" max="35" width="36.88671875" customWidth="1"/>
     <col min="36" max="36" width="80.88671875" customWidth="1"/>
     <col min="37" max="37" width="36" customWidth="1"/>
     <col min="38" max="38" width="29.88671875" customWidth="1"/>
@@ -4019,42 +4178,42 @@
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP18" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AX2" t="s">
         <v>243</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD2" t="s">
         <v>253</v>
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -4121,7 +4280,7 @@
         <v>70</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:T86" si="1">SUM(COUNTIF(M3:R3, "Y"))</f>
+        <f t="shared" ref="S3:S86" si="1">SUM(COUNTIF(M3:R3, "Y"))</f>
         <v>3</v>
       </c>
       <c r="T3">
@@ -4184,35 +4343,35 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AU3" t="s">
         <v>238</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AX3" t="s">
         <v>244</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
       </c>
       <c r="BB3">
         <f>COUNTIF(N:N,"Y")</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD3" t="s">
         <v>255</v>
       </c>
       <c r="BE3">
         <f>COUNTIF(U:U,BD3)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG85" si="5">E3/100000</f>
@@ -4335,14 +4494,14 @@
       </c>
       <c r="AP4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU4" t="s">
         <v>239</v>
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX4" t="s">
         <v>245</v>
@@ -4356,14 +4515,14 @@
       </c>
       <c r="BB4">
         <f>COUNTIF(O:O,"Y")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD4" t="s">
         <v>254</v>
       </c>
       <c r="BE4">
         <f>COUNTIF(U:U,BD4)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BG4">
         <f t="shared" si="5"/>
@@ -4483,7 +4642,7 @@
       </c>
       <c r="AP5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU5" t="s">
         <v>240</v>
@@ -4497,21 +4656,21 @@
       </c>
       <c r="AY5">
         <f>COUNTIF(S:S,"3")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA5" t="s">
         <v>13</v>
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BD5" t="s">
         <v>257</v>
       </c>
       <c r="BE5">
         <f>COUNTIF(U:U,BD5)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BG5">
         <f t="shared" si="5"/>
@@ -4631,7 +4790,7 @@
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU6" t="s">
         <v>241</v>
@@ -4645,14 +4804,14 @@
       </c>
       <c r="AY6">
         <f>COUNTIF(S:S,"4")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA6" t="s">
         <v>14</v>
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BD6" t="s">
         <v>256</v>
@@ -4796,7 +4955,7 @@
       </c>
       <c r="AY7">
         <f>COUNTIF(S:S,"5")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA7" t="s">
         <v>69</v>
@@ -5428,7 +5587,7 @@
       </c>
       <c r="AP12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG12">
         <f t="shared" si="5"/>
@@ -12052,7 +12211,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T89" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T95" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -14119,7 +14278,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S89" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S95" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -14163,11 +14322,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK89" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK95" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL89" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL95" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -14379,6 +14538,600 @@
       <c r="AL89">
         <f t="shared" si="10"/>
         <v>12.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E90">
+        <v>3000000</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H90">
+        <v>3000000</v>
+      </c>
+      <c r="I90">
+        <v>20</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90" t="s">
+        <v>72</v>
+      </c>
+      <c r="M90" t="s">
+        <v>71</v>
+      </c>
+      <c r="N90" t="s">
+        <v>71</v>
+      </c>
+      <c r="O90" t="s">
+        <v>71</v>
+      </c>
+      <c r="P90" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>71</v>
+      </c>
+      <c r="R90" t="s">
+        <v>70</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U90" t="s">
+        <v>253</v>
+      </c>
+      <c r="V90" t="s">
+        <v>1083</v>
+      </c>
+      <c r="W90" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC90" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AD90" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AE90" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AF90" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AG90" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AH90" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AJ90" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AK90">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AL90">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E91">
+        <v>5300000</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H91">
+        <v>10600000</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91" t="s">
+        <v>72</v>
+      </c>
+      <c r="M91" t="s">
+        <v>71</v>
+      </c>
+      <c r="N91" t="s">
+        <v>70</v>
+      </c>
+      <c r="O91" t="s">
+        <v>71</v>
+      </c>
+      <c r="P91" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>71</v>
+      </c>
+      <c r="R91" t="s">
+        <v>70</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U91" t="s">
+        <v>257</v>
+      </c>
+      <c r="V91" t="s">
+        <v>1090</v>
+      </c>
+      <c r="W91" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC91" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AD91" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AE91" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AF91" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AG91" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AH91" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AJ91" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AK91">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="AL91">
+        <f t="shared" si="10"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E92">
+        <v>5000000</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92" t="s">
+        <v>59</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92" t="s">
+        <v>59</v>
+      </c>
+      <c r="M92" t="s">
+        <v>70</v>
+      </c>
+      <c r="N92" t="s">
+        <v>70</v>
+      </c>
+      <c r="O92" t="s">
+        <v>70</v>
+      </c>
+      <c r="P92" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>70</v>
+      </c>
+      <c r="R92" t="s">
+        <v>70</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U92" t="s">
+        <v>254</v>
+      </c>
+      <c r="V92" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC92" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AD92" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AE92" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AF92" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AG92" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AH92" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ92" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AK92">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="AL92">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E93">
+        <v>9000000</v>
+      </c>
+      <c r="F93">
+        <v>0.5</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H93">
+        <v>9000000</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93" t="s">
+        <v>72</v>
+      </c>
+      <c r="M93" t="s">
+        <v>70</v>
+      </c>
+      <c r="N93" t="s">
+        <v>70</v>
+      </c>
+      <c r="O93" t="s">
+        <v>70</v>
+      </c>
+      <c r="P93" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>70</v>
+      </c>
+      <c r="R93" t="s">
+        <v>70</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U93" t="s">
+        <v>255</v>
+      </c>
+      <c r="V93" t="s">
+        <v>1114</v>
+      </c>
+      <c r="W93" t="s">
+        <v>1115</v>
+      </c>
+      <c r="X93" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ93" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AK93">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="AL93">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0.5</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0.5</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94" t="s">
+        <v>72</v>
+      </c>
+      <c r="M94" t="s">
+        <v>70</v>
+      </c>
+      <c r="N94" t="s">
+        <v>71</v>
+      </c>
+      <c r="O94" t="s">
+        <v>70</v>
+      </c>
+      <c r="P94" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>71</v>
+      </c>
+      <c r="R94" t="s">
+        <v>70</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U94" t="s">
+        <v>254</v>
+      </c>
+      <c r="V94" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AJ94" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AK94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E95">
+        <v>9000000</v>
+      </c>
+      <c r="F95">
+        <v>1.5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>59</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95" t="s">
+        <v>59</v>
+      </c>
+      <c r="M95" t="s">
+        <v>70</v>
+      </c>
+      <c r="N95" t="s">
+        <v>70</v>
+      </c>
+      <c r="O95" t="s">
+        <v>70</v>
+      </c>
+      <c r="P95" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>70</v>
+      </c>
+      <c r="R95" t="s">
+        <v>70</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U95" t="s">
+        <v>253</v>
+      </c>
+      <c r="V95" t="s">
+        <v>1128</v>
+      </c>
+      <c r="W95" t="s">
+        <v>1129</v>
+      </c>
+      <c r="X95" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ95" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AK95">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="AL95">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14909,8 +15662,26 @@
     <hyperlink ref="AF89" r:id="rId524" xr:uid="{9D8A38FC-68A3-48B8-8C47-F547116FAA21}"/>
     <hyperlink ref="AE89" r:id="rId525" xr:uid="{F29074DD-FA73-428A-B1E7-99AC060F0CAD}"/>
     <hyperlink ref="AC89" r:id="rId526" xr:uid="{6E873B0B-B567-4D0A-B2E8-553ACB73B173}"/>
+    <hyperlink ref="AH92" r:id="rId527" xr:uid="{1E6E5540-0A22-4F38-91A9-83ABC79AB3FA}"/>
+    <hyperlink ref="AG92" r:id="rId528" xr:uid="{91CC2CDE-2DA4-4F1F-A611-28E3D3805D6A}"/>
+    <hyperlink ref="AF92" r:id="rId529" xr:uid="{AACA694C-09A9-46F4-9959-A3DB64971B78}"/>
+    <hyperlink ref="AE92" r:id="rId530" xr:uid="{C5E204ED-38C9-4E63-85F1-476E528363BE}"/>
+    <hyperlink ref="AD92" r:id="rId531" xr:uid="{4864419B-6830-4C75-BF80-BCE6313A350E}"/>
+    <hyperlink ref="AC92" r:id="rId532" xr:uid="{0B4B672D-4E4F-4ACA-B46B-555967D76C69}"/>
+    <hyperlink ref="AH91" r:id="rId533" xr:uid="{F9FE6657-A059-4219-9AC2-99C45BBA94A0}"/>
+    <hyperlink ref="AE91" r:id="rId534" xr:uid="{BCF45ED0-B81E-4092-83EB-64C01CAC97A6}"/>
+    <hyperlink ref="AD91" r:id="rId535" xr:uid="{7EB849C4-174C-41A2-A1BF-A700E31CFEE1}"/>
+    <hyperlink ref="AC91" r:id="rId536" xr:uid="{3D7A20DA-890C-4B73-BAB3-D90CD9D1326C}"/>
+    <hyperlink ref="AG91" r:id="rId537" xr:uid="{02CD1F84-7136-4F19-A45A-73F3407BE684}"/>
+    <hyperlink ref="AF91" r:id="rId538" xr:uid="{BDB0720F-14DA-429A-B530-B750F9898B31}"/>
+    <hyperlink ref="AF90" r:id="rId539" xr:uid="{DE774AE0-DF6C-4C70-9B6C-73500DC35240}"/>
+    <hyperlink ref="AH90" r:id="rId540" xr:uid="{FE4312E6-DAEC-441A-9DE8-2ECC8632DBEE}"/>
+    <hyperlink ref="AG90" r:id="rId541" xr:uid="{7E785166-0037-4D82-8947-14804702CF7D}"/>
+    <hyperlink ref="AE90" r:id="rId542" xr:uid="{4B96EEE8-3635-48FB-84B8-D74C86D0CD84}"/>
+    <hyperlink ref="AD90" r:id="rId543" xr:uid="{D7DF04D3-6774-4E50-A583-0E151A06346A}"/>
+    <hyperlink ref="AC90" r:id="rId544" xr:uid="{6EB9ACBD-7541-4392-895D-5D103DF2B0B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId527"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId545"/>
 </worksheet>
 </file>
--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111BA423-1962-4316-9FBA-68151D72AD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E9E84C-2175-4331-AF90-B96EDBB2D79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="1176">
   <si>
     <t>#</t>
   </si>
@@ -3438,6 +3438,132 @@
   </si>
   <si>
     <t>Chairs Manufacturing</t>
+  </si>
+  <si>
+    <t>Tipayi</t>
+  </si>
+  <si>
+    <t>Prem Kale</t>
+  </si>
+  <si>
+    <t>Wooden Balance Bike without pedals and brakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 50 lakh for 10% Equity	</t>
+  </si>
+  <si>
+    <t>DigiQure E-Clinic</t>
+  </si>
+  <si>
+    <t>Akanksh Tandon</t>
+  </si>
+  <si>
+    <t>Soumen Banerjee</t>
+  </si>
+  <si>
+    <t>Akanksh Tandon, Soumen Banerjee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 40 lakh for 4% Equity	</t>
+  </si>
+  <si>
+    <t>Clinic Services for Rural Areas</t>
+  </si>
+  <si>
+    <t>Nirmalaya</t>
+  </si>
+  <si>
+    <t>Bharat Bansal</t>
+  </si>
+  <si>
+    <t>Rajeev Bansal</t>
+  </si>
+  <si>
+    <t>Surbhi Bansal</t>
+  </si>
+  <si>
+    <t>Bharat Bansal, Rajeev Bansal, Surbhi Bansal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 60 lakh for 1.5% Equity	</t>
+  </si>
+  <si>
+    <t>Incense Sticks, Aroma Oils made from Wasted Flowers</t>
+  </si>
+  <si>
+    <t>Pabiben.com</t>
+  </si>
+  <si>
+    <t>Pabiben Rabari</t>
+  </si>
+  <si>
+    <t>Nilesh Priyadarshi</t>
+  </si>
+  <si>
+    <t>Pabiben Rabari, Nilesh Priyadarshi</t>
+  </si>
+  <si>
+    <t>Designer Apparel from Pabiben Rabari</t>
+  </si>
+  <si>
+    <t>₹ 10 lakh for 5% Equity and ₹ 40 Lakhs Debt @ 0% Interest</t>
+  </si>
+  <si>
+    <t>Homestrap</t>
+  </si>
+  <si>
+    <t>Akash Mehta</t>
+  </si>
+  <si>
+    <t>Priyanka Mehta</t>
+  </si>
+  <si>
+    <t>Akash Mehta, Priyanka Mehta</t>
+  </si>
+  <si>
+    <t>Cupboard Organizers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 70 lakh for 1% Equity	</t>
+  </si>
+  <si>
+    <t>₹ 50 lakh for 7% Equity and ₹ 20 Lakhs Debt @ 10% Interest</t>
+  </si>
+  <si>
+    <t>₹ 1.5 crore for 7.5% Equity</t>
+  </si>
+  <si>
+    <t>Ubreathe</t>
+  </si>
+  <si>
+    <t>Plant based Air Purifiers</t>
+  </si>
+  <si>
+    <t>Shubham Singh</t>
+  </si>
+  <si>
+    <t>Sanjay Maurya</t>
+  </si>
+  <si>
+    <t>Shubham Singh, Sanjay Maurya</t>
+  </si>
+  <si>
+    <t>₹ 50 lakh for 5% Equity and ₹ 1 Crore Debt @ 10% Interest</t>
+  </si>
+  <si>
+    <t>Deyor</t>
+  </si>
+  <si>
+    <t>Himanshu Agarwal</t>
+  </si>
+  <si>
+    <t>Chirag Gupta</t>
+  </si>
+  <si>
+    <t>Himanshu Agarwal, Chirag Gupta</t>
+  </si>
+  <si>
+    <t>Travel Chatbot Platform</t>
   </si>
 </sst>
 </file>
@@ -3854,10 +3980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH95"/>
+  <dimension ref="A1:BH102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4185,28 +4311,28 @@
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX2" t="s">
         <v>243</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BD2" t="s">
         <v>253</v>
@@ -4343,35 +4469,35 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AU3" t="s">
         <v>238</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AX3" t="s">
         <v>244</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
       </c>
       <c r="BB3">
         <f>COUNTIF(N:N,"Y")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD3" t="s">
         <v>255</v>
       </c>
       <c r="BE3">
         <f>COUNTIF(U:U,BD3)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG85" si="5">E3/100000</f>
@@ -4501,7 +4627,7 @@
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX4" t="s">
         <v>245</v>
@@ -4522,7 +4648,7 @@
       </c>
       <c r="BE4">
         <f>COUNTIF(U:U,BD4)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BG4">
         <f t="shared" si="5"/>
@@ -4642,7 +4768,7 @@
       </c>
       <c r="AP5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU5" t="s">
         <v>240</v>
@@ -4670,7 +4796,7 @@
       </c>
       <c r="BE5">
         <f>COUNTIF(U:U,BD5)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BG5">
         <f t="shared" si="5"/>
@@ -4790,7 +4916,7 @@
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU6" t="s">
         <v>241</v>
@@ -4818,7 +4944,7 @@
       </c>
       <c r="BE6">
         <f>COUNTIF(U:U,BD6)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG6">
         <f t="shared" si="5"/>
@@ -4941,7 +5067,7 @@
       </c>
       <c r="AP7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU7" t="s">
         <v>242</v>
@@ -5338,7 +5464,7 @@
       </c>
       <c r="AP10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG10">
         <f t="shared" si="5"/>
@@ -5461,7 +5587,7 @@
       </c>
       <c r="AP11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG11">
         <f t="shared" si="5"/>
@@ -5587,7 +5713,7 @@
       </c>
       <c r="AP12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG12">
         <f t="shared" si="5"/>
@@ -12211,7 +12337,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T95" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T102" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -14278,7 +14404,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S95" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S102" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -14322,11 +14448,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK95" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK102" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL95" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL102" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -15130,6 +15256,636 @@
         <v>60</v>
       </c>
       <c r="AL95">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E96">
+        <v>5000000</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>59</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96" t="s">
+        <v>59</v>
+      </c>
+      <c r="M96" t="s">
+        <v>70</v>
+      </c>
+      <c r="N96" t="s">
+        <v>70</v>
+      </c>
+      <c r="O96" t="s">
+        <v>70</v>
+      </c>
+      <c r="P96" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>70</v>
+      </c>
+      <c r="R96" t="s">
+        <v>70</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U96" t="s">
+        <v>254</v>
+      </c>
+      <c r="V96" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ96" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AK96">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AL96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E97">
+        <v>4000000</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
+      </c>
+      <c r="G97" t="s">
+        <v>837</v>
+      </c>
+      <c r="H97">
+        <v>4000000</v>
+      </c>
+      <c r="I97">
+        <v>10</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97" t="s">
+        <v>72</v>
+      </c>
+      <c r="M97" t="s">
+        <v>71</v>
+      </c>
+      <c r="N97" t="s">
+        <v>70</v>
+      </c>
+      <c r="O97" t="s">
+        <v>70</v>
+      </c>
+      <c r="P97" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>70</v>
+      </c>
+      <c r="R97" t="s">
+        <v>70</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U97" t="s">
+        <v>255</v>
+      </c>
+      <c r="V97" t="s">
+        <v>1139</v>
+      </c>
+      <c r="W97" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI97" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ97" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AK97">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AL97">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E98">
+        <v>6000000</v>
+      </c>
+      <c r="F98">
+        <v>1.5</v>
+      </c>
+      <c r="G98" t="s">
+        <v>59</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98" t="s">
+        <v>59</v>
+      </c>
+      <c r="M98" t="s">
+        <v>70</v>
+      </c>
+      <c r="N98" t="s">
+        <v>70</v>
+      </c>
+      <c r="O98" t="s">
+        <v>70</v>
+      </c>
+      <c r="P98" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>70</v>
+      </c>
+      <c r="R98" t="s">
+        <v>70</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U98" t="s">
+        <v>256</v>
+      </c>
+      <c r="V98" t="s">
+        <v>1145</v>
+      </c>
+      <c r="W98" t="s">
+        <v>1146</v>
+      </c>
+      <c r="X98" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ98" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AK98">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="AL98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D99" t="s">
+        <v>974</v>
+      </c>
+      <c r="E99">
+        <v>5000000</v>
+      </c>
+      <c r="F99">
+        <v>5</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H99">
+        <v>1000000</v>
+      </c>
+      <c r="I99">
+        <v>5</v>
+      </c>
+      <c r="J99">
+        <v>4000000</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99" t="s">
+        <v>72</v>
+      </c>
+      <c r="M99" t="s">
+        <v>71</v>
+      </c>
+      <c r="N99" t="s">
+        <v>70</v>
+      </c>
+      <c r="O99" t="s">
+        <v>70</v>
+      </c>
+      <c r="P99" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>70</v>
+      </c>
+      <c r="R99" t="s">
+        <v>70</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U99" t="s">
+        <v>255</v>
+      </c>
+      <c r="V99" t="s">
+        <v>1152</v>
+      </c>
+      <c r="W99" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ99" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AK99">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AL99">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E100">
+        <v>7000000</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H100">
+        <v>5000000</v>
+      </c>
+      <c r="I100">
+        <v>7</v>
+      </c>
+      <c r="J100">
+        <v>2000000</v>
+      </c>
+      <c r="K100">
+        <v>10</v>
+      </c>
+      <c r="L100" t="s">
+        <v>72</v>
+      </c>
+      <c r="M100" t="s">
+        <v>70</v>
+      </c>
+      <c r="N100" t="s">
+        <v>71</v>
+      </c>
+      <c r="O100" t="s">
+        <v>70</v>
+      </c>
+      <c r="P100" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>70</v>
+      </c>
+      <c r="R100" t="s">
+        <v>70</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U100" t="s">
+        <v>257</v>
+      </c>
+      <c r="V100" t="s">
+        <v>1158</v>
+      </c>
+      <c r="W100" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ100" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AK100">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="AL100">
+        <f t="shared" si="10"/>
+        <v>7.1428571428571432</v>
+      </c>
+    </row>
+    <row r="101" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E101">
+        <v>15000000</v>
+      </c>
+      <c r="F101">
+        <v>7.5</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H101">
+        <v>5000000</v>
+      </c>
+      <c r="I101">
+        <v>5</v>
+      </c>
+      <c r="J101">
+        <v>10000000</v>
+      </c>
+      <c r="K101">
+        <v>10</v>
+      </c>
+      <c r="L101" t="s">
+        <v>72</v>
+      </c>
+      <c r="M101" t="s">
+        <v>71</v>
+      </c>
+      <c r="N101" t="s">
+        <v>70</v>
+      </c>
+      <c r="O101" t="s">
+        <v>70</v>
+      </c>
+      <c r="P101" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>70</v>
+      </c>
+      <c r="R101" t="s">
+        <v>70</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U101" t="s">
+        <v>255</v>
+      </c>
+      <c r="V101" t="s">
+        <v>1167</v>
+      </c>
+      <c r="W101" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ101" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AK101">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="AL101">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D102" t="s">
+        <v>980</v>
+      </c>
+      <c r="E102">
+        <v>10000000</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>59</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102" t="s">
+        <v>59</v>
+      </c>
+      <c r="M102" t="s">
+        <v>70</v>
+      </c>
+      <c r="N102" t="s">
+        <v>70</v>
+      </c>
+      <c r="O102" t="s">
+        <v>70</v>
+      </c>
+      <c r="P102" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>70</v>
+      </c>
+      <c r="R102" t="s">
+        <v>70</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U102" t="s">
+        <v>255</v>
+      </c>
+      <c r="V102" t="s">
+        <v>1172</v>
+      </c>
+      <c r="W102" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>325</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ102" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AK102">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="AL102">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E9E84C-2175-4331-AF90-B96EDBB2D79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22831F9B-5CB4-47FC-BBAC-A824AE98C8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="1193">
   <si>
     <t>#</t>
   </si>
@@ -3564,6 +3564,57 @@
   </si>
   <si>
     <t>Travel Chatbot Platform</t>
+  </si>
+  <si>
+    <t>iMumz</t>
+  </si>
+  <si>
+    <t>Mayur Dhurpate</t>
+  </si>
+  <si>
+    <t>Ravi Teja Akondi</t>
+  </si>
+  <si>
+    <t>Dr. Jaideep Malhotra</t>
+  </si>
+  <si>
+    <t>Pregnant Women Care</t>
+  </si>
+  <si>
+    <t>₹ 10 lakh for 1% Equity and ₹ 60 Lakh Debt @ 10% Interest</t>
+  </si>
+  <si>
+    <t>Mayur Dhurpate, Ravi Teja Akondi, Dr. Jaideep Malhotra</t>
+  </si>
+  <si>
+    <t>The Healthy Binge</t>
+  </si>
+  <si>
+    <t>Pranav Korke</t>
+  </si>
+  <si>
+    <t>Karan Korke</t>
+  </si>
+  <si>
+    <t>Pranav Korke, Karan Korke</t>
+  </si>
+  <si>
+    <t>Freakins</t>
+  </si>
+  <si>
+    <t>Denim based Apparel Clothing</t>
+  </si>
+  <si>
+    <t>Puneet Sehgal</t>
+  </si>
+  <si>
+    <t>Shaan Shah</t>
+  </si>
+  <si>
+    <t>Puneet Sehgal, Shaan Shah</t>
+  </si>
+  <si>
+    <t>₹ 50 lakh for 2.5% Equity and ₹ 20 Lakhs Debt @ 12% Interest (Condition: This investment will be part of bigger round)</t>
   </si>
 </sst>
 </file>
@@ -3980,10 +4031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH102"/>
+  <dimension ref="A1:BH105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="C87" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4304,14 +4355,14 @@
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP18" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
@@ -4339,7 +4390,7 @@
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -4476,14 +4527,14 @@
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AX3" t="s">
         <v>244</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
@@ -4497,7 +4548,7 @@
       </c>
       <c r="BE3">
         <f>COUNTIF(U:U,BD3)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG85" si="5">E3/100000</f>
@@ -4627,21 +4678,21 @@
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX4" t="s">
         <v>245</v>
       </c>
       <c r="AY4">
         <f>COUNTIF(S:S,"2")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA4" t="s">
         <v>15</v>
       </c>
       <c r="BB4">
         <f>COUNTIF(O:O,"Y")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD4" t="s">
         <v>254</v>
@@ -4789,7 +4840,7 @@
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD5" t="s">
         <v>257</v>
@@ -4937,7 +4988,7 @@
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BD6" t="s">
         <v>256</v>
@@ -5067,7 +5118,7 @@
       </c>
       <c r="AP7">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU7" t="s">
         <v>242</v>
@@ -5587,7 +5638,7 @@
       </c>
       <c r="AP11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG11">
         <f t="shared" si="5"/>
@@ -12337,7 +12388,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T102" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T105" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -14404,7 +14455,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S102" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S105" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -14448,11 +14499,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK102" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK105" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL102" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL105" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -15888,6 +15939,279 @@
       <c r="AL102">
         <f t="shared" si="10"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E103">
+        <v>7000000</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H103">
+        <v>1000000</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>6000000</v>
+      </c>
+      <c r="K103">
+        <v>10</v>
+      </c>
+      <c r="L103" t="s">
+        <v>72</v>
+      </c>
+      <c r="M103" t="s">
+        <v>70</v>
+      </c>
+      <c r="N103" t="s">
+        <v>70</v>
+      </c>
+      <c r="O103" t="s">
+        <v>70</v>
+      </c>
+      <c r="P103" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>71</v>
+      </c>
+      <c r="R103" t="s">
+        <v>70</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T103">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U103" t="s">
+        <v>255</v>
+      </c>
+      <c r="V103" t="s">
+        <v>1177</v>
+      </c>
+      <c r="W103" t="s">
+        <v>1178</v>
+      </c>
+      <c r="X103" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ103" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AK103">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="AL103">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D104" t="s">
+        <v>974</v>
+      </c>
+      <c r="E104">
+        <v>5000000</v>
+      </c>
+      <c r="F104">
+        <v>5</v>
+      </c>
+      <c r="G104" t="s">
+        <v>974</v>
+      </c>
+      <c r="H104">
+        <v>5000000</v>
+      </c>
+      <c r="I104">
+        <v>5</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104" t="s">
+        <v>72</v>
+      </c>
+      <c r="M104" t="s">
+        <v>70</v>
+      </c>
+      <c r="N104" t="s">
+        <v>70</v>
+      </c>
+      <c r="O104" t="s">
+        <v>70</v>
+      </c>
+      <c r="P104" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>71</v>
+      </c>
+      <c r="R104" t="s">
+        <v>70</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="T104">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U104" t="s">
+        <v>253</v>
+      </c>
+      <c r="V104" t="s">
+        <v>1184</v>
+      </c>
+      <c r="W104" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI104" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ104" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AK104">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AL104">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E105">
+        <v>7000000</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H105">
+        <v>5000000</v>
+      </c>
+      <c r="I105">
+        <v>2.5</v>
+      </c>
+      <c r="J105">
+        <v>2000000</v>
+      </c>
+      <c r="K105">
+        <v>12</v>
+      </c>
+      <c r="L105" t="s">
+        <v>72</v>
+      </c>
+      <c r="M105" t="s">
+        <v>70</v>
+      </c>
+      <c r="N105" t="s">
+        <v>70</v>
+      </c>
+      <c r="O105" t="s">
+        <v>71</v>
+      </c>
+      <c r="P105" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>70</v>
+      </c>
+      <c r="R105" t="s">
+        <v>70</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T105">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U105" t="s">
+        <v>255</v>
+      </c>
+      <c r="V105" t="s">
+        <v>1189</v>
+      </c>
+      <c r="W105" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ105" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AK105">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="AL105">
+        <f t="shared" si="10"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22831F9B-5CB4-47FC-BBAC-A824AE98C8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6ECC1E-6501-4EA0-82DA-435D08D9B103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="1213">
   <si>
     <t>#</t>
   </si>
@@ -3615,6 +3615,66 @@
   </si>
   <si>
     <t>₹ 50 lakh for 2.5% Equity and ₹ 20 Lakhs Debt @ 12% Interest (Condition: This investment will be part of bigger round)</t>
+  </si>
+  <si>
+    <t>Perfora</t>
+  </si>
+  <si>
+    <t>Jatan Bawa, Tushar Khurana</t>
+  </si>
+  <si>
+    <t>Jatan Bawa</t>
+  </si>
+  <si>
+    <t>Tushar Khurana</t>
+  </si>
+  <si>
+    <t>Oral Care Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 80 lakh for 1% Equity	</t>
+  </si>
+  <si>
+    <t>Namita, Vineeta, Peyush</t>
+  </si>
+  <si>
+    <t>Midnight Angels by PC</t>
+  </si>
+  <si>
+    <t>Nightwear Apparel</t>
+  </si>
+  <si>
+    <t>Punya Chugh</t>
+  </si>
+  <si>
+    <t>Parina Chugh</t>
+  </si>
+  <si>
+    <t>Punya Chugh, Parina Chugh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 75 lakh for 6% Equity	</t>
+  </si>
+  <si>
+    <t>CureSee</t>
+  </si>
+  <si>
+    <t>Puneet</t>
+  </si>
+  <si>
+    <t>Amit Sahni</t>
+  </si>
+  <si>
+    <t>Jatin Kaushik</t>
+  </si>
+  <si>
+    <t>Puneet, Amit Sahni, Jatin Kaushik</t>
+  </si>
+  <si>
+    <t>AI based vision therapy website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 40 lakh for 5% Equity	</t>
   </si>
 </sst>
 </file>
@@ -4031,10 +4091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH105"/>
+  <dimension ref="A1:BH108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C87" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4362,7 +4422,7 @@
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
@@ -4376,21 +4436,21 @@
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD2" t="s">
         <v>253</v>
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -4513,28 +4573,28 @@
       </c>
       <c r="AP3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR3" t="s">
         <v>59</v>
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AU3" t="s">
         <v>238</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AX3" t="s">
         <v>244</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
@@ -4548,7 +4608,7 @@
       </c>
       <c r="BE3">
         <f>COUNTIF(U:U,BD3)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG85" si="5">E3/100000</f>
@@ -4678,7 +4738,7 @@
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX4" t="s">
         <v>245</v>
@@ -4692,7 +4752,7 @@
       </c>
       <c r="BB4">
         <f>COUNTIF(O:O,"Y")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD4" t="s">
         <v>254</v>
@@ -4833,7 +4893,7 @@
       </c>
       <c r="AY5">
         <f>COUNTIF(S:S,"3")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA5" t="s">
         <v>13</v>
@@ -4988,7 +5048,7 @@
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BD6" t="s">
         <v>256</v>
@@ -5118,7 +5178,7 @@
       </c>
       <c r="AP7">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU7" t="s">
         <v>242</v>
@@ -5638,7 +5698,7 @@
       </c>
       <c r="AP11">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG11">
         <f t="shared" si="5"/>
@@ -12388,7 +12448,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T105" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T108" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -14455,7 +14515,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S105" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S108" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -14499,11 +14559,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK105" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK108" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL105" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL108" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -16212,6 +16272,279 @@
       <c r="AL105">
         <f t="shared" si="10"/>
         <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E106">
+        <v>8000000</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H106">
+        <v>8000000</v>
+      </c>
+      <c r="I106">
+        <v>2.5</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106" t="s">
+        <v>72</v>
+      </c>
+      <c r="M106" t="s">
+        <v>71</v>
+      </c>
+      <c r="N106" t="s">
+        <v>70</v>
+      </c>
+      <c r="O106" t="s">
+        <v>71</v>
+      </c>
+      <c r="P106" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>71</v>
+      </c>
+      <c r="R106" t="s">
+        <v>70</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U106" t="s">
+        <v>255</v>
+      </c>
+      <c r="V106" t="s">
+        <v>1195</v>
+      </c>
+      <c r="W106" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>326</v>
+      </c>
+      <c r="AI106" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AJ106" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AK106">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="AL106">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E107">
+        <v>7500000</v>
+      </c>
+      <c r="F107">
+        <v>6</v>
+      </c>
+      <c r="G107" t="s">
+        <v>59</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107" t="s">
+        <v>59</v>
+      </c>
+      <c r="M107" t="s">
+        <v>70</v>
+      </c>
+      <c r="N107" t="s">
+        <v>70</v>
+      </c>
+      <c r="O107" t="s">
+        <v>70</v>
+      </c>
+      <c r="P107" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>70</v>
+      </c>
+      <c r="R107" t="s">
+        <v>70</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U107" t="s">
+        <v>253</v>
+      </c>
+      <c r="V107" t="s">
+        <v>1202</v>
+      </c>
+      <c r="W107" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI107" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ107" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AK107">
+        <f t="shared" si="9"/>
+        <v>12.5</v>
+      </c>
+      <c r="AL107">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E108">
+        <v>4000000</v>
+      </c>
+      <c r="F108">
+        <v>5</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H108">
+        <v>5000000</v>
+      </c>
+      <c r="I108">
+        <v>10</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108" t="s">
+        <v>72</v>
+      </c>
+      <c r="M108" t="s">
+        <v>70</v>
+      </c>
+      <c r="N108" t="s">
+        <v>70</v>
+      </c>
+      <c r="O108" t="s">
+        <v>70</v>
+      </c>
+      <c r="P108" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>71</v>
+      </c>
+      <c r="R108" t="s">
+        <v>70</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T108">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U108" t="s">
+        <v>255</v>
+      </c>
+      <c r="V108" t="s">
+        <v>1207</v>
+      </c>
+      <c r="W108" t="s">
+        <v>1208</v>
+      </c>
+      <c r="X108" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ108" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AK108">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="AL108">
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6ECC1E-6501-4EA0-82DA-435D08D9B103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F348D494-1E72-491F-A2B5-CDFCB8E2BAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="1236">
   <si>
     <t>#</t>
   </si>
@@ -3675,6 +3675,75 @@
   </si>
   <si>
     <t xml:space="preserve">₹ 40 lakh for 5% Equity	</t>
+  </si>
+  <si>
+    <t>Medulance</t>
+  </si>
+  <si>
+    <t>Quick Ambulance Service</t>
+  </si>
+  <si>
+    <t>Ravjot Singh Arora</t>
+  </si>
+  <si>
+    <t>Pranav Bajaj</t>
+  </si>
+  <si>
+    <t>Ravjot Singh Arora, Pranav Bajaj</t>
+  </si>
+  <si>
+    <t>₹ 2 crore for 1% Equity</t>
+  </si>
+  <si>
+    <t>₹ 2 crore for 2% Equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 25 lakh for 5% Equity	</t>
+  </si>
+  <si>
+    <t>Cakelicious</t>
+  </si>
+  <si>
+    <t>Cake Items</t>
+  </si>
+  <si>
+    <t>Duriya Barodawala</t>
+  </si>
+  <si>
+    <t>Fatema Barodawala</t>
+  </si>
+  <si>
+    <t>Duriya Barodawala, Fatema Barodawala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 25 lakh for 20% Equity	</t>
+  </si>
+  <si>
+    <t>Bowled.io</t>
+  </si>
+  <si>
+    <t>Akshay Khandelwal</t>
+  </si>
+  <si>
+    <t>Rahul Singh</t>
+  </si>
+  <si>
+    <t>Akshay Khandelwal, Rahul Singh</t>
+  </si>
+  <si>
+    <t>Social App for Sport based Games</t>
+  </si>
+  <si>
+    <t>Toyshine</t>
+  </si>
+  <si>
+    <t>Rohit Khanna</t>
+  </si>
+  <si>
+    <t>Toys brand for kids</t>
+  </si>
+  <si>
+    <t>₹ 1.25 crore for 0.5% Equity</t>
   </si>
 </sst>
 </file>
@@ -4091,10 +4160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH108"/>
+  <dimension ref="A1:BH112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4415,42 +4484,42 @@
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP18" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX2" t="s">
         <v>243</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD2" t="s">
         <v>253</v>
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -4580,21 +4649,21 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AU3" t="s">
         <v>238</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AX3" t="s">
         <v>244</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
@@ -4608,7 +4677,7 @@
       </c>
       <c r="BE3">
         <f>COUNTIF(U:U,BD3)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG85" si="5">E3/100000</f>
@@ -4759,7 +4828,7 @@
       </c>
       <c r="BE4">
         <f>COUNTIF(U:U,BD4)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BG4">
         <f t="shared" si="5"/>
@@ -4893,14 +4962,14 @@
       </c>
       <c r="AY5">
         <f>COUNTIF(S:S,"3")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA5" t="s">
         <v>13</v>
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD5" t="s">
         <v>257</v>
@@ -5048,7 +5117,7 @@
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD6" t="s">
         <v>256</v>
@@ -5199,7 +5268,7 @@
       </c>
       <c r="BB7">
         <f>COUNTIF(R:R,"Y")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BG7">
         <f t="shared" si="5"/>
@@ -5575,7 +5644,7 @@
       </c>
       <c r="AP10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG10">
         <f t="shared" si="5"/>
@@ -5698,7 +5767,7 @@
       </c>
       <c r="AP11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG11">
         <f t="shared" si="5"/>
@@ -12448,7 +12517,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T108" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T112" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -14515,7 +14584,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S108" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S112" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -14559,11 +14628,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK108" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK112" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL108" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL112" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -16545,6 +16614,360 @@
       <c r="AL108">
         <f t="shared" si="10"/>
         <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E109">
+        <v>20000000</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H109">
+        <v>20000000</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109" t="s">
+        <v>72</v>
+      </c>
+      <c r="M109" t="s">
+        <v>71</v>
+      </c>
+      <c r="N109" t="s">
+        <v>70</v>
+      </c>
+      <c r="O109" t="s">
+        <v>70</v>
+      </c>
+      <c r="P109" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>71</v>
+      </c>
+      <c r="R109" t="s">
+        <v>70</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="T109">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U109" t="s">
+        <v>255</v>
+      </c>
+      <c r="V109" t="s">
+        <v>1215</v>
+      </c>
+      <c r="W109" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ109" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AK109">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="AL109">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E110">
+        <v>2500000</v>
+      </c>
+      <c r="F110">
+        <v>5</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H110">
+        <v>2500000</v>
+      </c>
+      <c r="I110">
+        <v>20</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110" t="s">
+        <v>72</v>
+      </c>
+      <c r="M110" t="s">
+        <v>70</v>
+      </c>
+      <c r="N110" t="s">
+        <v>70</v>
+      </c>
+      <c r="O110" t="s">
+        <v>70</v>
+      </c>
+      <c r="P110" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>70</v>
+      </c>
+      <c r="R110" t="s">
+        <v>71</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T110">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U110" t="s">
+        <v>253</v>
+      </c>
+      <c r="V110" t="s">
+        <v>1223</v>
+      </c>
+      <c r="W110" t="s">
+        <v>1224</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI110" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ110" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AK110">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AL110">
+        <f t="shared" si="10"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E111">
+        <v>8000000</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>59</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111" t="s">
+        <v>59</v>
+      </c>
+      <c r="M111" t="s">
+        <v>70</v>
+      </c>
+      <c r="N111" t="s">
+        <v>70</v>
+      </c>
+      <c r="O111" t="s">
+        <v>70</v>
+      </c>
+      <c r="P111" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>70</v>
+      </c>
+      <c r="R111" t="s">
+        <v>70</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U111" t="s">
+        <v>255</v>
+      </c>
+      <c r="V111" t="s">
+        <v>1228</v>
+      </c>
+      <c r="W111" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>325</v>
+      </c>
+      <c r="AI111" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ111" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AK111">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="AL111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E112">
+        <v>12500000</v>
+      </c>
+      <c r="F112">
+        <v>0.5</v>
+      </c>
+      <c r="G112" t="s">
+        <v>59</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112" t="s">
+        <v>59</v>
+      </c>
+      <c r="M112" t="s">
+        <v>70</v>
+      </c>
+      <c r="N112" t="s">
+        <v>70</v>
+      </c>
+      <c r="O112" t="s">
+        <v>70</v>
+      </c>
+      <c r="P112" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>70</v>
+      </c>
+      <c r="R112" t="s">
+        <v>70</v>
+      </c>
+      <c r="S112">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U112" t="s">
+        <v>254</v>
+      </c>
+      <c r="V112" t="s">
+        <v>1233</v>
+      </c>
+      <c r="AI112" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ112" t="s">
+        <v>1233</v>
+      </c>
+      <c r="AK112">
+        <f t="shared" si="9"/>
+        <v>250</v>
+      </c>
+      <c r="AL112">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F348D494-1E72-491F-A2B5-CDFCB8E2BAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62626038-FE8B-4F91-A84B-CD5A1B49F58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="1255">
   <si>
     <t>#</t>
   </si>
@@ -3744,6 +3744,63 @@
   </si>
   <si>
     <t>₹ 1.25 crore for 0.5% Equity</t>
+  </si>
+  <si>
+    <t>Neuphony</t>
+  </si>
+  <si>
+    <t>Bhavya Madan</t>
+  </si>
+  <si>
+    <t>Ria Rustagi</t>
+  </si>
+  <si>
+    <t>Bhavya Madan, Ria Rustagi</t>
+  </si>
+  <si>
+    <t>Brain stress, mood tracking machine</t>
+  </si>
+  <si>
+    <t>₹ 1 crore for 5.4% Equity</t>
+  </si>
+  <si>
+    <t>Amrutam</t>
+  </si>
+  <si>
+    <t>Agnim Gupta</t>
+  </si>
+  <si>
+    <t>Ashok Gupta</t>
+  </si>
+  <si>
+    <t>Stuti Gupta</t>
+  </si>
+  <si>
+    <t>Agnim Gupta, Ashok Gupta, Stuti Gupta</t>
+  </si>
+  <si>
+    <t>Ayurvedic wellness beauty products</t>
+  </si>
+  <si>
+    <t>HoloKitab</t>
+  </si>
+  <si>
+    <t>Dipanshu Bajaj</t>
+  </si>
+  <si>
+    <t>Nikhil Miglani</t>
+  </si>
+  <si>
+    <t>Dipanshu Bajaj, Nikhil Miglani</t>
+  </si>
+  <si>
+    <t>AR based books</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 45 lakh for 10% Equity	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 45 lakh for 25% Equity	</t>
   </si>
 </sst>
 </file>
@@ -4160,10 +4217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH112"/>
+  <dimension ref="A1:BH115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4491,7 +4548,7 @@
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
@@ -4505,21 +4562,21 @@
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD2" t="s">
         <v>253</v>
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -4642,28 +4699,28 @@
       </c>
       <c r="AP3">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR3" t="s">
         <v>59</v>
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AU3" t="s">
         <v>238</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AX3" t="s">
         <v>244</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
@@ -4677,7 +4734,7 @@
       </c>
       <c r="BE3">
         <f>COUNTIF(U:U,BD3)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG85" si="5">E3/100000</f>
@@ -4807,14 +4864,14 @@
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX4" t="s">
         <v>245</v>
       </c>
       <c r="AY4">
         <f>COUNTIF(S:S,"2")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="s">
         <v>15</v>
@@ -4969,14 +5026,14 @@
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD5" t="s">
         <v>257</v>
       </c>
       <c r="BE5">
         <f>COUNTIF(U:U,BD5)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BG5">
         <f t="shared" si="5"/>
@@ -5096,7 +5153,7 @@
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU6" t="s">
         <v>241</v>
@@ -5117,7 +5174,7 @@
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BD6" t="s">
         <v>256</v>
@@ -5644,7 +5701,7 @@
       </c>
       <c r="AP10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG10">
         <f t="shared" si="5"/>
@@ -5767,7 +5824,7 @@
       </c>
       <c r="AP11">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG11">
         <f t="shared" si="5"/>
@@ -12517,7 +12574,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T112" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T115" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -14584,7 +14641,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S112" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S115" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -14628,11 +14685,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK112" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK115" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL112" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL115" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -16955,6 +17012,9 @@
       <c r="V112" t="s">
         <v>1233</v>
       </c>
+      <c r="AB112" t="s">
+        <v>230</v>
+      </c>
       <c r="AI112" t="s">
         <v>189</v>
       </c>
@@ -16968,6 +17028,279 @@
       <c r="AL112">
         <f t="shared" si="10"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E113">
+        <v>10000000</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H113">
+        <v>10000000</v>
+      </c>
+      <c r="I113">
+        <v>5.4</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113" t="s">
+        <v>72</v>
+      </c>
+      <c r="M113" t="s">
+        <v>70</v>
+      </c>
+      <c r="N113" t="s">
+        <v>70</v>
+      </c>
+      <c r="O113" t="s">
+        <v>70</v>
+      </c>
+      <c r="P113" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>71</v>
+      </c>
+      <c r="R113" t="s">
+        <v>70</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U113" t="s">
+        <v>257</v>
+      </c>
+      <c r="V113" t="s">
+        <v>1237</v>
+      </c>
+      <c r="W113" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI113" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ113" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AK113">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="AL113">
+        <f t="shared" si="10"/>
+        <v>18.518518518518515</v>
+      </c>
+    </row>
+    <row r="114" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E114">
+        <v>5000000</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114" t="s">
+        <v>59</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114" t="s">
+        <v>59</v>
+      </c>
+      <c r="M114" t="s">
+        <v>70</v>
+      </c>
+      <c r="N114" t="s">
+        <v>70</v>
+      </c>
+      <c r="O114" t="s">
+        <v>70</v>
+      </c>
+      <c r="P114" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>70</v>
+      </c>
+      <c r="R114" t="s">
+        <v>70</v>
+      </c>
+      <c r="S114">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U114" t="s">
+        <v>253</v>
+      </c>
+      <c r="V114" t="s">
+        <v>1243</v>
+      </c>
+      <c r="W114" t="s">
+        <v>1244</v>
+      </c>
+      <c r="X114" t="s">
+        <v>1245</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>326</v>
+      </c>
+      <c r="AI114" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ114" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AK114">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="AL114">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E115">
+        <v>4000000</v>
+      </c>
+      <c r="F115">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H115">
+        <v>4500000</v>
+      </c>
+      <c r="I115">
+        <v>25</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115" t="s">
+        <v>59</v>
+      </c>
+      <c r="M115" t="s">
+        <v>71</v>
+      </c>
+      <c r="N115" t="s">
+        <v>70</v>
+      </c>
+      <c r="O115" t="s">
+        <v>70</v>
+      </c>
+      <c r="P115" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>70</v>
+      </c>
+      <c r="R115" t="s">
+        <v>70</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T115">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U115" t="s">
+        <v>255</v>
+      </c>
+      <c r="V115" t="s">
+        <v>1249</v>
+      </c>
+      <c r="W115" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>325</v>
+      </c>
+      <c r="AI115" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ115" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AK115">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AL115">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62626038-FE8B-4F91-A84B-CD5A1B49F58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B9CA49-CC65-44B0-A60B-7AD246894E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="1255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="1276">
   <si>
     <t>#</t>
   </si>
@@ -3801,6 +3801,69 @@
   </si>
   <si>
     <t xml:space="preserve">₹ 45 lakh for 25% Equity	</t>
+  </si>
+  <si>
+    <t>Zoe Nutrition for Life</t>
+  </si>
+  <si>
+    <t>Karan Jindal</t>
+  </si>
+  <si>
+    <t>Taniya Dhirasaria</t>
+  </si>
+  <si>
+    <t>Karan Jindal, Taniya Dhirasaria</t>
+  </si>
+  <si>
+    <t>Nutrition based wellness products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 75 lakh for 5% Equity	</t>
+  </si>
+  <si>
+    <t>Hornback</t>
+  </si>
+  <si>
+    <t>Rajkumar Kewat</t>
+  </si>
+  <si>
+    <t>Nishith Parikh</t>
+  </si>
+  <si>
+    <t>Rajkumar Kewat, Nishith Parikh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 50 lakh for 1% Equity	</t>
+  </si>
+  <si>
+    <t>Foldable Cycles</t>
+  </si>
+  <si>
+    <t>Malaki</t>
+  </si>
+  <si>
+    <t>Mohit Bhatia</t>
+  </si>
+  <si>
+    <t>Ashish Bhatia</t>
+  </si>
+  <si>
+    <t>Mohit Bhatia, Ashish Bhatia</t>
+  </si>
+  <si>
+    <t>Sparkling Water Brand</t>
+  </si>
+  <si>
+    <t>Nanoclean</t>
+  </si>
+  <si>
+    <t>Prateek Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 80 lakh for 2% Equity	</t>
+  </si>
+  <si>
+    <t>Nasal air purifying products</t>
   </si>
 </sst>
 </file>
@@ -4217,10 +4280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH115"/>
+  <dimension ref="A1:BH119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4541,28 +4604,28 @@
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP18" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AX2" t="s">
         <v>243</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
@@ -4576,7 +4639,7 @@
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -4706,21 +4769,21 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AU3" t="s">
         <v>238</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AX3" t="s">
         <v>244</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
@@ -4734,7 +4797,7 @@
       </c>
       <c r="BE3">
         <f>COUNTIF(U:U,BD3)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG85" si="5">E3/100000</f>
@@ -4871,7 +4934,7 @@
       </c>
       <c r="AY4">
         <f>COUNTIF(S:S,"2")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA4" t="s">
         <v>15</v>
@@ -4885,7 +4948,7 @@
       </c>
       <c r="BE4">
         <f>COUNTIF(U:U,BD4)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BG4">
         <f t="shared" si="5"/>
@@ -5005,7 +5068,7 @@
       </c>
       <c r="AP5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU5" t="s">
         <v>240</v>
@@ -5026,14 +5089,14 @@
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BD5" t="s">
         <v>257</v>
       </c>
       <c r="BE5">
         <f>COUNTIF(U:U,BD5)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BG5">
         <f t="shared" si="5"/>
@@ -5153,7 +5216,7 @@
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU6" t="s">
         <v>241</v>
@@ -5174,7 +5237,7 @@
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BD6" t="s">
         <v>256</v>
@@ -5325,7 +5388,7 @@
       </c>
       <c r="BB7">
         <f>COUNTIF(R:R,"Y")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BG7">
         <f t="shared" si="5"/>
@@ -5824,7 +5887,7 @@
       </c>
       <c r="AP11">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BG11">
         <f t="shared" si="5"/>
@@ -12574,7 +12637,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T115" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T119" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -14641,7 +14704,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S115" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S119" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -14685,11 +14748,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK115" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK119" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL115" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL119" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -17301,6 +17364,363 @@
       <c r="AL115">
         <f t="shared" si="10"/>
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E116">
+        <v>7500000</v>
+      </c>
+      <c r="F116">
+        <v>5</v>
+      </c>
+      <c r="G116" t="s">
+        <v>59</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116" t="s">
+        <v>59</v>
+      </c>
+      <c r="M116" t="s">
+        <v>70</v>
+      </c>
+      <c r="N116" t="s">
+        <v>70</v>
+      </c>
+      <c r="O116" t="s">
+        <v>70</v>
+      </c>
+      <c r="P116" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>70</v>
+      </c>
+      <c r="R116" t="s">
+        <v>70</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U116" t="s">
+        <v>257</v>
+      </c>
+      <c r="V116" t="s">
+        <v>1256</v>
+      </c>
+      <c r="W116" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ116" t="s">
+        <v>1258</v>
+      </c>
+      <c r="AK116">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="AL116">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E117">
+        <v>5000000</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" t="s">
+        <v>828</v>
+      </c>
+      <c r="H117">
+        <v>5000000</v>
+      </c>
+      <c r="I117">
+        <v>2.5</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117" t="s">
+        <v>72</v>
+      </c>
+      <c r="M117" t="s">
+        <v>70</v>
+      </c>
+      <c r="N117" t="s">
+        <v>70</v>
+      </c>
+      <c r="O117" t="s">
+        <v>70</v>
+      </c>
+      <c r="P117" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>70</v>
+      </c>
+      <c r="R117" t="s">
+        <v>71</v>
+      </c>
+      <c r="S117">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T117">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U117" t="s">
+        <v>255</v>
+      </c>
+      <c r="V117" t="s">
+        <v>1262</v>
+      </c>
+      <c r="W117" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI117" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ117" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AK117">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="AL117">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E118">
+        <v>5000000</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H118">
+        <v>5000000</v>
+      </c>
+      <c r="I118">
+        <v>3</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118" t="s">
+        <v>72</v>
+      </c>
+      <c r="M118" t="s">
+        <v>70</v>
+      </c>
+      <c r="N118" t="s">
+        <v>70</v>
+      </c>
+      <c r="O118" t="s">
+        <v>70</v>
+      </c>
+      <c r="P118" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>71</v>
+      </c>
+      <c r="R118" t="s">
+        <v>70</v>
+      </c>
+      <c r="S118">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="T118">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U118" t="s">
+        <v>253</v>
+      </c>
+      <c r="V118" t="s">
+        <v>1268</v>
+      </c>
+      <c r="W118" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI118" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ118" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AK118">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="AL118">
+        <f t="shared" si="10"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="119" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E119">
+        <v>8000000</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119" t="s">
+        <v>59</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119" t="s">
+        <v>59</v>
+      </c>
+      <c r="M119" t="s">
+        <v>70</v>
+      </c>
+      <c r="N119" t="s">
+        <v>70</v>
+      </c>
+      <c r="O119" t="s">
+        <v>70</v>
+      </c>
+      <c r="P119" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>70</v>
+      </c>
+      <c r="R119" t="s">
+        <v>70</v>
+      </c>
+      <c r="S119">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U119" t="s">
+        <v>254</v>
+      </c>
+      <c r="V119" t="s">
+        <v>1273</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI119" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ119" t="s">
+        <v>1273</v>
+      </c>
+      <c r="AK119">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="AL119">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B9CA49-CC65-44B0-A60B-7AD246894E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C9DC63-0377-49B6-9CB8-7A12F0238636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="1276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="1296">
   <si>
     <t>#</t>
   </si>
@@ -3864,6 +3864,66 @@
   </si>
   <si>
     <t>Nasal air purifying products</t>
+  </si>
+  <si>
+    <t>DesmondJi</t>
+  </si>
+  <si>
+    <t>Conrad Braganza</t>
+  </si>
+  <si>
+    <t>Desmond Nazareth</t>
+  </si>
+  <si>
+    <t>Conrad Braganza, Desmond Nazareth</t>
+  </si>
+  <si>
+    <t>Alcoholic Brand</t>
+  </si>
+  <si>
+    <t>Cremeitalia</t>
+  </si>
+  <si>
+    <t>Italian Cheese Brand</t>
+  </si>
+  <si>
+    <t>Rajas Dhote</t>
+  </si>
+  <si>
+    <t>Nawgati</t>
+  </si>
+  <si>
+    <t>Aryan Sisodia</t>
+  </si>
+  <si>
+    <t>Vaibhav Kaushik</t>
+  </si>
+  <si>
+    <t>Aalaap Nair</t>
+  </si>
+  <si>
+    <t>Aryan Sisodia, Vaibhav Kaushik, Aalaap Nair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 67 lakh for 2% Equity	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 67 lakh for 3% Equity	</t>
+  </si>
+  <si>
+    <t>Fuel Stations Tracking App</t>
+  </si>
+  <si>
+    <t>Aman, Amit</t>
+  </si>
+  <si>
+    <t>Electric Vehicle Subscription</t>
+  </si>
+  <si>
+    <t>Swytchd</t>
+  </si>
+  <si>
+    <t>Sameer Arif</t>
   </si>
 </sst>
 </file>
@@ -4280,10 +4340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH119"/>
+  <dimension ref="A1:BH123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4604,28 +4664,28 @@
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP18" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AX2" t="s">
         <v>243</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
@@ -4769,14 +4829,14 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AU3" t="s">
         <v>238</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AX3" t="s">
         <v>244</v>
@@ -4797,7 +4857,7 @@
       </c>
       <c r="BE3">
         <f>COUNTIF(U:U,BD3)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG85" si="5">E3/100000</f>
@@ -4927,14 +4987,14 @@
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX4" t="s">
         <v>245</v>
       </c>
       <c r="AY4">
         <f>COUNTIF(S:S,"2")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA4" t="s">
         <v>15</v>
@@ -4948,7 +5008,7 @@
       </c>
       <c r="BE4">
         <f>COUNTIF(U:U,BD4)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BG4">
         <f t="shared" si="5"/>
@@ -5068,7 +5128,7 @@
       </c>
       <c r="AP5">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU5" t="s">
         <v>240</v>
@@ -5089,7 +5149,7 @@
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BD5" t="s">
         <v>257</v>
@@ -5388,7 +5448,7 @@
       </c>
       <c r="BB7">
         <f>COUNTIF(R:R,"Y")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BG7">
         <f t="shared" si="5"/>
@@ -5764,7 +5824,7 @@
       </c>
       <c r="AP10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG10">
         <f t="shared" si="5"/>
@@ -12637,7 +12697,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T119" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T123" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -14704,7 +14764,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S119" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S123" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -14748,11 +14808,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK119" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK123" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL119" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL123" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -17719,6 +17779,363 @@
         <v>40</v>
       </c>
       <c r="AL119">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D120" t="s">
+        <v>980</v>
+      </c>
+      <c r="E120">
+        <v>10000000</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120" t="s">
+        <v>59</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120" t="s">
+        <v>59</v>
+      </c>
+      <c r="M120" t="s">
+        <v>70</v>
+      </c>
+      <c r="N120" t="s">
+        <v>70</v>
+      </c>
+      <c r="O120" t="s">
+        <v>70</v>
+      </c>
+      <c r="P120" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>70</v>
+      </c>
+      <c r="R120" t="s">
+        <v>70</v>
+      </c>
+      <c r="S120">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U120" t="s">
+        <v>255</v>
+      </c>
+      <c r="V120" t="s">
+        <v>1277</v>
+      </c>
+      <c r="W120" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI120" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ120" t="s">
+        <v>1279</v>
+      </c>
+      <c r="AK120">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="AL120">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E121">
+        <v>9000000</v>
+      </c>
+      <c r="F121">
+        <v>1.5</v>
+      </c>
+      <c r="G121" t="s">
+        <v>59</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121" t="s">
+        <v>59</v>
+      </c>
+      <c r="M121" t="s">
+        <v>70</v>
+      </c>
+      <c r="N121" t="s">
+        <v>70</v>
+      </c>
+      <c r="O121" t="s">
+        <v>70</v>
+      </c>
+      <c r="P121" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>70</v>
+      </c>
+      <c r="R121" t="s">
+        <v>70</v>
+      </c>
+      <c r="S121">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U121" t="s">
+        <v>254</v>
+      </c>
+      <c r="V121" t="s">
+        <v>1283</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI121" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ121" t="s">
+        <v>1283</v>
+      </c>
+      <c r="AK121">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="AL121">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E122">
+        <v>6700000</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H122">
+        <v>6700000</v>
+      </c>
+      <c r="I122">
+        <v>3</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122" t="s">
+        <v>72</v>
+      </c>
+      <c r="M122" t="s">
+        <v>70</v>
+      </c>
+      <c r="N122" t="s">
+        <v>70</v>
+      </c>
+      <c r="O122" t="s">
+        <v>70</v>
+      </c>
+      <c r="P122" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>70</v>
+      </c>
+      <c r="R122" t="s">
+        <v>71</v>
+      </c>
+      <c r="S122">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U122" t="s">
+        <v>255</v>
+      </c>
+      <c r="V122" t="s">
+        <v>1285</v>
+      </c>
+      <c r="W122" t="s">
+        <v>1286</v>
+      </c>
+      <c r="X122" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>325</v>
+      </c>
+      <c r="AI122" t="s">
+        <v>1292</v>
+      </c>
+      <c r="AJ122" t="s">
+        <v>1288</v>
+      </c>
+      <c r="AK122">
+        <f t="shared" si="9"/>
+        <v>33.5</v>
+      </c>
+      <c r="AL122">
+        <f t="shared" si="10"/>
+        <v>22.333333333333336</v>
+      </c>
+    </row>
+    <row r="123" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E123">
+        <v>5000000</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+      <c r="G123" t="s">
+        <v>59</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123" t="s">
+        <v>59</v>
+      </c>
+      <c r="M123" t="s">
+        <v>70</v>
+      </c>
+      <c r="N123" t="s">
+        <v>70</v>
+      </c>
+      <c r="O123" t="s">
+        <v>70</v>
+      </c>
+      <c r="P123" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>70</v>
+      </c>
+      <c r="R123" t="s">
+        <v>70</v>
+      </c>
+      <c r="S123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U123" t="s">
+        <v>254</v>
+      </c>
+      <c r="V123" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI123" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ123" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AK123">
+        <f t="shared" si="9"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AL123">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C9DC63-0377-49B6-9CB8-7A12F0238636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27050ECF-C929-4AC5-86F8-F79B86D29748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2782" uniqueCount="1321">
   <si>
     <t>#</t>
   </si>
@@ -3924,6 +3924,81 @@
   </si>
   <si>
     <t>Sameer Arif</t>
+  </si>
+  <si>
+    <t>Gladful</t>
+  </si>
+  <si>
+    <t>Manu Sharma</t>
+  </si>
+  <si>
+    <t>Parul Sharma</t>
+  </si>
+  <si>
+    <t>Manu Sharma, Parul Sharma</t>
+  </si>
+  <si>
+    <t>Protein based Snack Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 50 lakh for 3.5% Equity	</t>
+  </si>
+  <si>
+    <t>Namita, Aman, Amit</t>
+  </si>
+  <si>
+    <t>Pharmallama</t>
+  </si>
+  <si>
+    <t>Arjun Raghunandan</t>
+  </si>
+  <si>
+    <t>Achintya Dayal</t>
+  </si>
+  <si>
+    <t>Deepesh Rajpal</t>
+  </si>
+  <si>
+    <t>Arjun Raghunandan, Achintya Dayal, Deepesh Rajpal</t>
+  </si>
+  <si>
+    <t>₹ 1 crore for 1.5% Equity</t>
+  </si>
+  <si>
+    <t>Pharmacy and Comprehensive Medication Management Platform</t>
+  </si>
+  <si>
+    <t>₹ 2 crore for 5% Equity</t>
+  </si>
+  <si>
+    <t>Namita, Anupam, Aman, Peyush, Amit</t>
+  </si>
+  <si>
+    <t>Crave Raja Foods</t>
+  </si>
+  <si>
+    <t>Subhabrata Ganguly</t>
+  </si>
+  <si>
+    <t>Soupaul Dey</t>
+  </si>
+  <si>
+    <t>Subhabrata Ganguly, Soupaul Dey</t>
+  </si>
+  <si>
+    <t>Cloud kithcen for different food brands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 65 lakh for 3% Equity	</t>
+  </si>
+  <si>
+    <t>V A Perfume</t>
+  </si>
+  <si>
+    <t>Amit Hotchandani</t>
+  </si>
+  <si>
+    <t>Variety Incense Sticks</t>
   </si>
 </sst>
 </file>
@@ -4340,10 +4415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH123"/>
+  <dimension ref="A1:BH127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4664,42 +4739,42 @@
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP18" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AX2" t="s">
         <v>243</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BD2" t="s">
         <v>253</v>
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -4829,14 +4904,14 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU3" t="s">
         <v>238</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AX3" t="s">
         <v>244</v>
@@ -4850,14 +4925,14 @@
       </c>
       <c r="BB3">
         <f>COUNTIF(N:N,"Y")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD3" t="s">
         <v>255</v>
       </c>
       <c r="BE3">
         <f>COUNTIF(U:U,BD3)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG85" si="5">E3/100000</f>
@@ -4987,7 +5062,7 @@
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX4" t="s">
         <v>245</v>
@@ -5008,7 +5083,7 @@
       </c>
       <c r="BE4">
         <f>COUNTIF(U:U,BD4)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BG4">
         <f t="shared" si="5"/>
@@ -5142,14 +5217,14 @@
       </c>
       <c r="AY5">
         <f>COUNTIF(S:S,"3")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA5" t="s">
         <v>13</v>
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BD5" t="s">
         <v>257</v>
@@ -5276,7 +5351,7 @@
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU6" t="s">
         <v>241</v>
@@ -5297,7 +5372,7 @@
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BD6" t="s">
         <v>256</v>
@@ -5441,14 +5516,14 @@
       </c>
       <c r="AY7">
         <f>COUNTIF(S:S,"5")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA7" t="s">
         <v>69</v>
       </c>
       <c r="BB7">
         <f>COUNTIF(R:R,"Y")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BG7">
         <f t="shared" si="5"/>
@@ -5947,7 +6022,7 @@
       </c>
       <c r="AP11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BG11">
         <f t="shared" si="5"/>
@@ -12697,7 +12772,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T123" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T127" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -14764,7 +14839,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S123" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S127" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -14808,11 +14883,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK123" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK127" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL123" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL127" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -18136,6 +18211,366 @@
         <v>16.666666666666668</v>
       </c>
       <c r="AL123">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E124">
+        <v>5000000</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H124">
+        <v>5000000</v>
+      </c>
+      <c r="I124">
+        <v>3.5</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124" t="s">
+        <v>72</v>
+      </c>
+      <c r="M124" t="s">
+        <v>71</v>
+      </c>
+      <c r="N124" t="s">
+        <v>70</v>
+      </c>
+      <c r="O124" t="s">
+        <v>70</v>
+      </c>
+      <c r="P124" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>70</v>
+      </c>
+      <c r="R124" t="s">
+        <v>71</v>
+      </c>
+      <c r="S124">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U124" t="s">
+        <v>253</v>
+      </c>
+      <c r="V124" t="s">
+        <v>1297</v>
+      </c>
+      <c r="W124" t="s">
+        <v>1298</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI124" t="s">
+        <v>1302</v>
+      </c>
+      <c r="AJ124" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AK124">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="AL124">
+        <f t="shared" si="10"/>
+        <v>14.285714285714286</v>
+      </c>
+    </row>
+    <row r="125" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E125">
+        <v>10000000</v>
+      </c>
+      <c r="F125">
+        <v>1.5</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H125">
+        <v>20000000</v>
+      </c>
+      <c r="I125">
+        <v>5</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125" t="s">
+        <v>72</v>
+      </c>
+      <c r="M125" t="s">
+        <v>71</v>
+      </c>
+      <c r="N125" t="s">
+        <v>71</v>
+      </c>
+      <c r="O125" t="s">
+        <v>70</v>
+      </c>
+      <c r="P125" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>71</v>
+      </c>
+      <c r="R125" t="s">
+        <v>71</v>
+      </c>
+      <c r="S125">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U125" t="s">
+        <v>255</v>
+      </c>
+      <c r="V125" t="s">
+        <v>1304</v>
+      </c>
+      <c r="W125" t="s">
+        <v>1305</v>
+      </c>
+      <c r="X125" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI125" t="s">
+        <v>1311</v>
+      </c>
+      <c r="AJ125" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AK125">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="AL125">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E126">
+        <v>6500000</v>
+      </c>
+      <c r="F126">
+        <v>3</v>
+      </c>
+      <c r="G126" t="s">
+        <v>59</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126" t="s">
+        <v>59</v>
+      </c>
+      <c r="M126" t="s">
+        <v>70</v>
+      </c>
+      <c r="N126" t="s">
+        <v>70</v>
+      </c>
+      <c r="O126" t="s">
+        <v>70</v>
+      </c>
+      <c r="P126" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>70</v>
+      </c>
+      <c r="R126" t="s">
+        <v>70</v>
+      </c>
+      <c r="S126">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U126" t="s">
+        <v>255</v>
+      </c>
+      <c r="V126" t="s">
+        <v>1313</v>
+      </c>
+      <c r="W126" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI126" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ126" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AK126">
+        <f t="shared" si="9"/>
+        <v>21.666666666666664</v>
+      </c>
+      <c r="AL126">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D127" t="s">
+        <v>763</v>
+      </c>
+      <c r="E127">
+        <v>10000000</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>59</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127" t="s">
+        <v>59</v>
+      </c>
+      <c r="M127" t="s">
+        <v>70</v>
+      </c>
+      <c r="N127" t="s">
+        <v>70</v>
+      </c>
+      <c r="O127" t="s">
+        <v>70</v>
+      </c>
+      <c r="P127" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>70</v>
+      </c>
+      <c r="R127" t="s">
+        <v>70</v>
+      </c>
+      <c r="S127">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U127" t="s">
+        <v>254</v>
+      </c>
+      <c r="V127" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI127" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ127" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AK127">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AL127">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27050ECF-C929-4AC5-86F8-F79B86D29748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2111DFE-5BC4-41A0-9FD1-906532A2046A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2782" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="1341">
   <si>
     <t>#</t>
   </si>
@@ -3999,6 +3999,66 @@
   </si>
   <si>
     <t>Variety Incense Sticks</t>
+  </si>
+  <si>
+    <t>Hood</t>
+  </si>
+  <si>
+    <t>Pseudononymous Social Network</t>
+  </si>
+  <si>
+    <t>Abhishek Asthana</t>
+  </si>
+  <si>
+    <t>Jasveer Singh</t>
+  </si>
+  <si>
+    <t>Deepak Kumar</t>
+  </si>
+  <si>
+    <t>Abhishek Asthana, Jasveer Singh, Deepak Kumar</t>
+  </si>
+  <si>
+    <t>₹ 1.2 crore for 0.2% Equity</t>
+  </si>
+  <si>
+    <t>₹ 60 lakh for 0.54% Equity and ₹ 60 Lakhs Debt @ 12% Interest</t>
+  </si>
+  <si>
+    <t>Twisting Scoops</t>
+  </si>
+  <si>
+    <t>Kunwarpreet Singh Juneja</t>
+  </si>
+  <si>
+    <t>Manmeet Singh Batra</t>
+  </si>
+  <si>
+    <t>Kunwarpreet Singh Juneja, Manmeet Singh Batra</t>
+  </si>
+  <si>
+    <t>Turkish Ice Creams</t>
+  </si>
+  <si>
+    <t>GrowIt</t>
+  </si>
+  <si>
+    <t>Saurabh Agarwal</t>
+  </si>
+  <si>
+    <t>Akshay Agarwal</t>
+  </si>
+  <si>
+    <t>Saurabh Agarwal, Akshay Agarwal</t>
+  </si>
+  <si>
+    <t>Products for Protective Farming</t>
+  </si>
+  <si>
+    <t>₹ 50 lakh for 1% Equity and ₹ 50 Lakhs Debt @ 12% Interest</t>
+  </si>
+  <si>
+    <t>Namita, Peyush</t>
   </si>
 </sst>
 </file>
@@ -4415,10 +4475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH127"/>
+  <dimension ref="A1:BH130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="C118" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4739,14 +4799,14 @@
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP18" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
@@ -4760,21 +4820,21 @@
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BD2" t="s">
         <v>253</v>
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -4904,14 +4964,14 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AU3" t="s">
         <v>238</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AX3" t="s">
         <v>244</v>
@@ -4932,7 +4992,7 @@
       </c>
       <c r="BE3">
         <f>COUNTIF(U:U,BD3)</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG85" si="5">E3/100000</f>
@@ -5062,14 +5122,14 @@
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX4" t="s">
         <v>245</v>
       </c>
       <c r="AY4">
         <f>COUNTIF(S:S,"2")</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA4" t="s">
         <v>15</v>
@@ -5224,7 +5284,7 @@
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BD5" t="s">
         <v>257</v>
@@ -5351,7 +5411,7 @@
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU6" t="s">
         <v>241</v>
@@ -5372,7 +5432,7 @@
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BD6" t="s">
         <v>256</v>
@@ -5899,7 +5959,7 @@
       </c>
       <c r="AP10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG10">
         <f t="shared" si="5"/>
@@ -12772,7 +12832,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T127" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T130" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -14839,7 +14899,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S127" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S130" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -14883,11 +14943,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK127" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK130" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL127" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL130" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -18573,6 +18633,279 @@
       <c r="AL127">
         <f t="shared" si="10"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E128">
+        <v>10000000</v>
+      </c>
+      <c r="F128">
+        <v>0.2</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H128">
+        <v>6000000</v>
+      </c>
+      <c r="I128">
+        <v>0.54</v>
+      </c>
+      <c r="J128">
+        <v>6000000</v>
+      </c>
+      <c r="K128">
+        <v>12</v>
+      </c>
+      <c r="L128" t="s">
+        <v>72</v>
+      </c>
+      <c r="M128" t="s">
+        <v>70</v>
+      </c>
+      <c r="N128" t="s">
+        <v>70</v>
+      </c>
+      <c r="O128" t="s">
+        <v>70</v>
+      </c>
+      <c r="P128" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>71</v>
+      </c>
+      <c r="R128" t="s">
+        <v>70</v>
+      </c>
+      <c r="S128">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="T128">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U128" t="s">
+        <v>255</v>
+      </c>
+      <c r="V128" t="s">
+        <v>1323</v>
+      </c>
+      <c r="W128" t="s">
+        <v>1324</v>
+      </c>
+      <c r="X128" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>325</v>
+      </c>
+      <c r="AI128" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ128" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AK128">
+        <f t="shared" si="9"/>
+        <v>500</v>
+      </c>
+      <c r="AL128">
+        <f t="shared" si="10"/>
+        <v>111.11111111111109</v>
+      </c>
+    </row>
+    <row r="129" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D129" t="s">
+        <v>810</v>
+      </c>
+      <c r="E129">
+        <v>10000000</v>
+      </c>
+      <c r="F129">
+        <v>2.5</v>
+      </c>
+      <c r="G129" t="s">
+        <v>59</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129" t="s">
+        <v>59</v>
+      </c>
+      <c r="M129" t="s">
+        <v>70</v>
+      </c>
+      <c r="N129" t="s">
+        <v>70</v>
+      </c>
+      <c r="O129" t="s">
+        <v>70</v>
+      </c>
+      <c r="P129" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>70</v>
+      </c>
+      <c r="R129" t="s">
+        <v>70</v>
+      </c>
+      <c r="S129">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U129" t="s">
+        <v>255</v>
+      </c>
+      <c r="V129" t="s">
+        <v>1330</v>
+      </c>
+      <c r="W129" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AB129" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI129" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ129" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AK129">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="AL129">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D130" t="s">
+        <v>980</v>
+      </c>
+      <c r="E130">
+        <v>10000000</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H130">
+        <v>5000000</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>5000000</v>
+      </c>
+      <c r="K130">
+        <v>12</v>
+      </c>
+      <c r="L130" t="s">
+        <v>72</v>
+      </c>
+      <c r="M130" t="s">
+        <v>71</v>
+      </c>
+      <c r="N130" t="s">
+        <v>70</v>
+      </c>
+      <c r="O130" t="s">
+        <v>70</v>
+      </c>
+      <c r="P130" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>71</v>
+      </c>
+      <c r="R130" t="s">
+        <v>70</v>
+      </c>
+      <c r="S130">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="T130">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U130" t="s">
+        <v>253</v>
+      </c>
+      <c r="V130" t="s">
+        <v>1335</v>
+      </c>
+      <c r="W130" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AB130" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI130" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AJ130" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AK130">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="AL130">
+        <f t="shared" si="10"/>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2111DFE-5BC4-41A0-9FD1-906532A2046A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C89F097-6034-4393-BBC6-94E25C9D0632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="1341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="1370">
   <si>
     <t>#</t>
   </si>
@@ -4059,6 +4059,93 @@
   </si>
   <si>
     <t>Namita, Peyush</t>
+  </si>
+  <si>
+    <t>Makino</t>
+  </si>
+  <si>
+    <t>Ankit Patel</t>
+  </si>
+  <si>
+    <t>Keval Patel</t>
+  </si>
+  <si>
+    <t>Ronik Patel</t>
+  </si>
+  <si>
+    <t>Priyank Patel</t>
+  </si>
+  <si>
+    <t>Ankit Patel, Keval Patel, Ronik Patel, Priyank Patel</t>
+  </si>
+  <si>
+    <t>Nachos &amp; Nuts</t>
+  </si>
+  <si>
+    <t>Trunome</t>
+  </si>
+  <si>
+    <t>Agragesh Ramani</t>
+  </si>
+  <si>
+    <t>Avinash Ramani</t>
+  </si>
+  <si>
+    <t>Agragesh Ramani, Avinash Ramani</t>
+  </si>
+  <si>
+    <t>Chronic Disease Detection &amp; Monitoring</t>
+  </si>
+  <si>
+    <t>₹ 1.5 crore for 1% Equity</t>
+  </si>
+  <si>
+    <t>₹ 1.5 crore for 2% Equity</t>
+  </si>
+  <si>
+    <t>Anupam, Vineeta, Aman, Peyush</t>
+  </si>
+  <si>
+    <t>WOL3D</t>
+  </si>
+  <si>
+    <t>Rahul Chandalia</t>
+  </si>
+  <si>
+    <t>Saloni Chandalia</t>
+  </si>
+  <si>
+    <t>Pradeep Jain</t>
+  </si>
+  <si>
+    <t>Swati Jain</t>
+  </si>
+  <si>
+    <t>Rahul Chandalia, Saloni Chandalia, Pradeep Jain, Swati Jain</t>
+  </si>
+  <si>
+    <t>Consumer 3D Printing</t>
+  </si>
+  <si>
+    <t>₹ 80 lakh for 2% Equity and ₹ 70 Lakhs Debt @ 12% Interest</t>
+  </si>
+  <si>
+    <t>What's Up Wellness</t>
+  </si>
+  <si>
+    <t>Hair &amp; Skin Care</t>
+  </si>
+  <si>
+    <t>Vaibhav Makhija</t>
+  </si>
+  <si>
+    <t>Sayantani Mandal</t>
+  </si>
+  <si>
+    <t>Vaibhav Makhija, Sayantani Mandal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 60 lakh for 4.76% Equity	</t>
   </si>
 </sst>
 </file>
@@ -4475,10 +4562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH130"/>
+  <dimension ref="A1:BH134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C118" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4799,14 +4886,14 @@
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP18" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
@@ -4820,7 +4907,7 @@
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
@@ -4834,7 +4921,7 @@
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -4957,35 +5044,35 @@
       </c>
       <c r="AP3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR3" t="s">
         <v>59</v>
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AU3" t="s">
         <v>238</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AX3" t="s">
         <v>244</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
       </c>
       <c r="BB3">
         <f>COUNTIF(N:N,"Y")</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD3" t="s">
         <v>255</v>
@@ -5115,7 +5202,7 @@
       </c>
       <c r="AP4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU4" t="s">
         <v>239</v>
@@ -5136,7 +5223,7 @@
       </c>
       <c r="BB4">
         <f>COUNTIF(O:O,"Y")</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD4" t="s">
         <v>254</v>
@@ -5270,28 +5357,28 @@
       </c>
       <c r="AV5">
         <f>COUNTIF(T:T,"4")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="s">
         <v>246</v>
       </c>
       <c r="AY5">
         <f>COUNTIF(S:S,"3")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA5" t="s">
         <v>13</v>
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="BD5" t="s">
         <v>257</v>
       </c>
       <c r="BE5">
         <f>COUNTIF(U:U,BD5)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BG5">
         <f t="shared" si="5"/>
@@ -5425,21 +5512,21 @@
       </c>
       <c r="AY6">
         <f>COUNTIF(S:S,"4")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA6" t="s">
         <v>14</v>
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BD6" t="s">
         <v>256</v>
       </c>
       <c r="BE6">
         <f>COUNTIF(U:U,BD6)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG6">
         <f t="shared" si="5"/>
@@ -6082,7 +6169,7 @@
       </c>
       <c r="AP11">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BG11">
         <f t="shared" si="5"/>
@@ -12832,7 +12919,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T130" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T134" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -14899,7 +14986,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S130" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S134" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -14943,11 +15030,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK130" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK134" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL130" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL134" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -18906,6 +18993,378 @@
       <c r="AL130">
         <f t="shared" si="10"/>
         <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E131">
+        <v>20000000</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131" t="s">
+        <v>59</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131" t="s">
+        <v>59</v>
+      </c>
+      <c r="M131" t="s">
+        <v>70</v>
+      </c>
+      <c r="N131" t="s">
+        <v>70</v>
+      </c>
+      <c r="O131" t="s">
+        <v>70</v>
+      </c>
+      <c r="P131" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>70</v>
+      </c>
+      <c r="R131" t="s">
+        <v>70</v>
+      </c>
+      <c r="S131">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="U131" t="s">
+        <v>253</v>
+      </c>
+      <c r="V131" t="s">
+        <v>1342</v>
+      </c>
+      <c r="W131" t="s">
+        <v>1343</v>
+      </c>
+      <c r="X131" t="s">
+        <v>1344</v>
+      </c>
+      <c r="Y131" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AB131" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI131" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ131" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AK131">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="AL131">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E132">
+        <v>15000000</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H132">
+        <v>15000000</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132" t="s">
+        <v>72</v>
+      </c>
+      <c r="M132" t="s">
+        <v>70</v>
+      </c>
+      <c r="N132" t="s">
+        <v>71</v>
+      </c>
+      <c r="O132" t="s">
+        <v>71</v>
+      </c>
+      <c r="P132" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>71</v>
+      </c>
+      <c r="R132" t="s">
+        <v>70</v>
+      </c>
+      <c r="S132">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="T132">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U132" t="s">
+        <v>253</v>
+      </c>
+      <c r="V132" t="s">
+        <v>1349</v>
+      </c>
+      <c r="W132" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AB132" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI132" t="s">
+        <v>1355</v>
+      </c>
+      <c r="AJ132" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AK132">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+      <c r="AL132">
+        <f t="shared" si="10"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E133">
+        <v>15000000</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H133">
+        <v>8000000</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133">
+        <v>7000000</v>
+      </c>
+      <c r="K133">
+        <v>12</v>
+      </c>
+      <c r="L133" t="s">
+        <v>72</v>
+      </c>
+      <c r="M133" t="s">
+        <v>70</v>
+      </c>
+      <c r="N133" t="s">
+        <v>70</v>
+      </c>
+      <c r="O133" t="s">
+        <v>70</v>
+      </c>
+      <c r="P133" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>70</v>
+      </c>
+      <c r="R133" t="s">
+        <v>70</v>
+      </c>
+      <c r="S133">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="U133" t="s">
+        <v>256</v>
+      </c>
+      <c r="V133" t="s">
+        <v>1357</v>
+      </c>
+      <c r="W133" t="s">
+        <v>1358</v>
+      </c>
+      <c r="X133" t="s">
+        <v>1359</v>
+      </c>
+      <c r="Y133" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AB133" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI133" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ133" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AK133">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+      <c r="AL133">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E134">
+        <v>5000000</v>
+      </c>
+      <c r="F134">
+        <v>3</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H134">
+        <v>6000000</v>
+      </c>
+      <c r="I134">
+        <v>4.76</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134" t="s">
+        <v>72</v>
+      </c>
+      <c r="M134" t="s">
+        <v>70</v>
+      </c>
+      <c r="N134" t="s">
+        <v>71</v>
+      </c>
+      <c r="O134" t="s">
+        <v>71</v>
+      </c>
+      <c r="P134" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>70</v>
+      </c>
+      <c r="R134" t="s">
+        <v>70</v>
+      </c>
+      <c r="S134">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U134" t="s">
+        <v>257</v>
+      </c>
+      <c r="V134" t="s">
+        <v>1366</v>
+      </c>
+      <c r="W134" t="s">
+        <v>1367</v>
+      </c>
+      <c r="AB134" t="s">
+        <v>326</v>
+      </c>
+      <c r="AI134" t="s">
+        <v>818</v>
+      </c>
+      <c r="AJ134" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AK134">
+        <f t="shared" si="9"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AL134">
+        <f t="shared" si="10"/>
+        <v>12.605042016806722</v>
       </c>
     </row>
   </sheetData>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C89F097-6034-4393-BBC6-94E25C9D0632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850DA4F1-5DC8-4CAE-AA20-8BC4E32A11C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="1390">
   <si>
     <t>#</t>
   </si>
@@ -4146,6 +4146,66 @@
   </si>
   <si>
     <t xml:space="preserve">₹ 60 lakh for 4.76% Equity	</t>
+  </si>
+  <si>
+    <t>Proost Beer</t>
+  </si>
+  <si>
+    <t>Mass Premium Beer</t>
+  </si>
+  <si>
+    <t>Tarun Bhargava</t>
+  </si>
+  <si>
+    <t>₹ 1 crore for 0.75% Equity</t>
+  </si>
+  <si>
+    <t>Dr. Cubes</t>
+  </si>
+  <si>
+    <t>Naveed Munshi</t>
+  </si>
+  <si>
+    <t>Vijay P Sharma</t>
+  </si>
+  <si>
+    <t>Pramod Tirlapur</t>
+  </si>
+  <si>
+    <t>Naveed Munshi, Pramod Tirlapur</t>
+  </si>
+  <si>
+    <t>Vijay P Sharma, Tarun Bhargava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 80 lakh for 15% Equity	</t>
+  </si>
+  <si>
+    <t>Ice Cubes</t>
+  </si>
+  <si>
+    <t>MetroRide</t>
+  </si>
+  <si>
+    <t>Kaaman Agarwal</t>
+  </si>
+  <si>
+    <t>Girish Nagpal</t>
+  </si>
+  <si>
+    <t>Kaaman Agarwal, Girish Nagpal</t>
+  </si>
+  <si>
+    <t>AI based EV ride app to reach public transport stations</t>
+  </si>
+  <si>
+    <t>Conker App</t>
+  </si>
+  <si>
+    <t>Arvind Arora</t>
+  </si>
+  <si>
+    <t>Skill based Learning App</t>
   </si>
 </sst>
 </file>
@@ -4562,10 +4622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH134"/>
+  <dimension ref="A1:BH138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" topLeftCell="AJ121" workbookViewId="0">
+      <selection activeCell="AL137" sqref="AL137:AL138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4886,7 +4946,7 @@
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP18" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
@@ -4900,14 +4960,14 @@
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AX2" t="s">
         <v>243</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
@@ -4921,7 +4981,7 @@
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -5051,14 +5111,14 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AU3" t="s">
         <v>238</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AX3" t="s">
         <v>244</v>
@@ -5079,7 +5139,7 @@
       </c>
       <c r="BE3">
         <f>COUNTIF(U:U,BD3)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG85" si="5">E3/100000</f>
@@ -5230,7 +5290,7 @@
       </c>
       <c r="BE4">
         <f>COUNTIF(U:U,BD4)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BG4">
         <f t="shared" si="5"/>
@@ -5350,7 +5410,7 @@
       </c>
       <c r="AP5">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="s">
         <v>240</v>
@@ -5498,7 +5558,7 @@
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU6" t="s">
         <v>241</v>
@@ -7024,7 +7084,7 @@
       </c>
       <c r="AP18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG18">
         <f t="shared" si="5"/>
@@ -12919,7 +12979,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T134" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T138" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -14986,7 +15046,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S134" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S138" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -15030,11 +15090,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK134" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK138" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL134" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL138" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -19365,6 +19425,363 @@
       <c r="AL134">
         <f t="shared" si="10"/>
         <v>12.605042016806722</v>
+      </c>
+    </row>
+    <row r="135" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E135">
+        <v>10000000</v>
+      </c>
+      <c r="F135">
+        <v>0.75</v>
+      </c>
+      <c r="G135" t="s">
+        <v>59</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135" t="s">
+        <v>59</v>
+      </c>
+      <c r="M135" t="s">
+        <v>70</v>
+      </c>
+      <c r="N135" t="s">
+        <v>70</v>
+      </c>
+      <c r="O135" t="s">
+        <v>70</v>
+      </c>
+      <c r="P135" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>70</v>
+      </c>
+      <c r="R135" t="s">
+        <v>70</v>
+      </c>
+      <c r="S135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U135" t="s">
+        <v>253</v>
+      </c>
+      <c r="V135" t="s">
+        <v>1376</v>
+      </c>
+      <c r="W135" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AB135" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI135" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ135" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AK135">
+        <f t="shared" si="9"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="AL135">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E136">
+        <v>8000000</v>
+      </c>
+      <c r="F136">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>59</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136" t="s">
+        <v>59</v>
+      </c>
+      <c r="M136" t="s">
+        <v>70</v>
+      </c>
+      <c r="N136" t="s">
+        <v>70</v>
+      </c>
+      <c r="O136" t="s">
+        <v>70</v>
+      </c>
+      <c r="P136" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>70</v>
+      </c>
+      <c r="R136" t="s">
+        <v>70</v>
+      </c>
+      <c r="S136">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U136" t="s">
+        <v>255</v>
+      </c>
+      <c r="V136" t="s">
+        <v>1375</v>
+      </c>
+      <c r="W136" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AB136" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI136" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ136" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AK136">
+        <f t="shared" si="9"/>
+        <v>5.3333333333333339</v>
+      </c>
+      <c r="AL136">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D137" t="s">
+        <v>988</v>
+      </c>
+      <c r="E137">
+        <v>7500000</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>59</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137" t="s">
+        <v>59</v>
+      </c>
+      <c r="M137" t="s">
+        <v>70</v>
+      </c>
+      <c r="N137" t="s">
+        <v>70</v>
+      </c>
+      <c r="O137" t="s">
+        <v>70</v>
+      </c>
+      <c r="P137" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>70</v>
+      </c>
+      <c r="R137" t="s">
+        <v>70</v>
+      </c>
+      <c r="S137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U137" t="s">
+        <v>255</v>
+      </c>
+      <c r="V137" t="s">
+        <v>1383</v>
+      </c>
+      <c r="W137" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AB137" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI137" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ137" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AK137">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="AL137">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E138">
+        <v>4000000</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138" t="s">
+        <v>59</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138" t="s">
+        <v>59</v>
+      </c>
+      <c r="M138" t="s">
+        <v>70</v>
+      </c>
+      <c r="N138" t="s">
+        <v>70</v>
+      </c>
+      <c r="O138" t="s">
+        <v>70</v>
+      </c>
+      <c r="P138" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>70</v>
+      </c>
+      <c r="R138" t="s">
+        <v>70</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U138" t="s">
+        <v>254</v>
+      </c>
+      <c r="V138" t="s">
+        <v>1388</v>
+      </c>
+      <c r="AB138" t="s">
+        <v>802</v>
+      </c>
+      <c r="AI138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ138" t="s">
+        <v>1388</v>
+      </c>
+      <c r="AK138">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="AL138">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850DA4F1-5DC8-4CAE-AA20-8BC4E32A11C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB491BD-2081-46A1-A0E1-F9DB56EE4341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="1412">
   <si>
     <t>#</t>
   </si>
@@ -4206,6 +4206,72 @@
   </si>
   <si>
     <t>Skill based Learning App</t>
+  </si>
+  <si>
+    <t>WTF! Where's the Food</t>
+  </si>
+  <si>
+    <t>Sayan Chakraborty</t>
+  </si>
+  <si>
+    <t>Asian Food Restaurant Chain</t>
+  </si>
+  <si>
+    <t>Funngro</t>
+  </si>
+  <si>
+    <t>Anik Jain</t>
+  </si>
+  <si>
+    <t>Payal Jain</t>
+  </si>
+  <si>
+    <t>Vea Jain</t>
+  </si>
+  <si>
+    <t>Anik Jain, Payal Jain, Vea Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 50 lakh for 1.25% Equity	</t>
+  </si>
+  <si>
+    <t>Platforms to earn from Skills for Teenagers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 50 lakh for 4.16% Equity	</t>
+  </si>
+  <si>
+    <t>Aadvik</t>
+  </si>
+  <si>
+    <t>Camel &amp; Goat Milk Products</t>
+  </si>
+  <si>
+    <t>Hitesh Rathi</t>
+  </si>
+  <si>
+    <t>Shrey Kumar</t>
+  </si>
+  <si>
+    <t>Hitesh Rathi, Shrey Kumar</t>
+  </si>
+  <si>
+    <t>₹ 15 lakh for 1.5% Equity and ₹ 45 Lakhs Debt @ 12% Interest</t>
+  </si>
+  <si>
+    <t>Oye Happy</t>
+  </si>
+  <si>
+    <t>Harsh Khemani</t>
+  </si>
+  <si>
+    <t>Varun Todi</t>
+  </si>
+  <si>
+    <t>Harsh Khemani, Varun Todi</t>
+  </si>
+  <si>
+    <t>Naughty &amp; Thoughtful Gift Products</t>
   </si>
 </sst>
 </file>
@@ -4622,10 +4688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH138"/>
+  <dimension ref="A1:BH142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ121" workbookViewId="0">
-      <selection activeCell="AL137" sqref="AL137:AL138"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4946,42 +5012,42 @@
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP18" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AX2" t="s">
         <v>243</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BD2" t="s">
         <v>253</v>
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -5111,21 +5177,21 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AU3" t="s">
         <v>238</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AX3" t="s">
         <v>244</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
@@ -5139,7 +5205,7 @@
       </c>
       <c r="BE3">
         <f>COUNTIF(U:U,BD3)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG85" si="5">E3/100000</f>
@@ -5269,14 +5335,14 @@
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX4" t="s">
         <v>245</v>
       </c>
       <c r="AY4">
         <f>COUNTIF(S:S,"2")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA4" t="s">
         <v>15</v>
@@ -5290,7 +5356,7 @@
       </c>
       <c r="BE4">
         <f>COUNTIF(U:U,BD4)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BG4">
         <f t="shared" si="5"/>
@@ -5558,7 +5624,7 @@
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU6" t="s">
         <v>241</v>
@@ -5730,7 +5796,7 @@
       </c>
       <c r="BB7">
         <f>COUNTIF(R:R,"Y")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BG7">
         <f t="shared" si="5"/>
@@ -6475,7 +6541,7 @@
       </c>
       <c r="AP13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG13">
         <f t="shared" si="5"/>
@@ -12979,7 +13045,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T138" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T142" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -15046,7 +15112,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S138" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S142" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -15090,11 +15156,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK138" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK142" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL138" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL142" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -19780,6 +19846,366 @@
         <v>20</v>
       </c>
       <c r="AL138">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E139">
+        <v>7500000</v>
+      </c>
+      <c r="F139">
+        <v>5</v>
+      </c>
+      <c r="G139" t="s">
+        <v>59</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139" t="s">
+        <v>59</v>
+      </c>
+      <c r="M139" t="s">
+        <v>70</v>
+      </c>
+      <c r="N139" t="s">
+        <v>70</v>
+      </c>
+      <c r="O139" t="s">
+        <v>70</v>
+      </c>
+      <c r="P139" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>70</v>
+      </c>
+      <c r="R139" t="s">
+        <v>70</v>
+      </c>
+      <c r="S139">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T139">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U139" t="s">
+        <v>254</v>
+      </c>
+      <c r="V139" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AB139" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI139" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ139" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AK139">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="AL139">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E140">
+        <v>5000000</v>
+      </c>
+      <c r="F140">
+        <v>1.25</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H140">
+        <v>5000000</v>
+      </c>
+      <c r="I140">
+        <v>4.16</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140" t="s">
+        <v>72</v>
+      </c>
+      <c r="M140" t="s">
+        <v>71</v>
+      </c>
+      <c r="N140" t="s">
+        <v>70</v>
+      </c>
+      <c r="O140" t="s">
+        <v>70</v>
+      </c>
+      <c r="P140" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>70</v>
+      </c>
+      <c r="R140" t="s">
+        <v>71</v>
+      </c>
+      <c r="S140">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="T140">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U140" t="s">
+        <v>253</v>
+      </c>
+      <c r="V140" t="s">
+        <v>1394</v>
+      </c>
+      <c r="W140" t="s">
+        <v>1395</v>
+      </c>
+      <c r="X140" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AB140" t="s">
+        <v>371</v>
+      </c>
+      <c r="AI140" t="s">
+        <v>522</v>
+      </c>
+      <c r="AJ140" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AK140">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="AL140">
+        <f t="shared" si="10"/>
+        <v>12.01923076923077</v>
+      </c>
+    </row>
+    <row r="141" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E141">
+        <v>6000000</v>
+      </c>
+      <c r="F141">
+        <v>1.5</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1406</v>
+      </c>
+      <c r="H141">
+        <v>1500000</v>
+      </c>
+      <c r="I141">
+        <v>1.5</v>
+      </c>
+      <c r="J141">
+        <v>4500000</v>
+      </c>
+      <c r="K141">
+        <v>12</v>
+      </c>
+      <c r="L141" t="s">
+        <v>72</v>
+      </c>
+      <c r="M141" t="s">
+        <v>70</v>
+      </c>
+      <c r="N141" t="s">
+        <v>70</v>
+      </c>
+      <c r="O141" t="s">
+        <v>70</v>
+      </c>
+      <c r="P141" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>70</v>
+      </c>
+      <c r="R141" t="s">
+        <v>71</v>
+      </c>
+      <c r="S141">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T141">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U141" t="s">
+        <v>255</v>
+      </c>
+      <c r="V141" t="s">
+        <v>1403</v>
+      </c>
+      <c r="W141" t="s">
+        <v>1404</v>
+      </c>
+      <c r="AB141" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI141" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ141" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AK141">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="AL141">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E142">
+        <v>5000000</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142" t="s">
+        <v>59</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142" t="s">
+        <v>59</v>
+      </c>
+      <c r="M142" t="s">
+        <v>70</v>
+      </c>
+      <c r="N142" t="s">
+        <v>70</v>
+      </c>
+      <c r="O142" t="s">
+        <v>70</v>
+      </c>
+      <c r="P142" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>70</v>
+      </c>
+      <c r="R142" t="s">
+        <v>70</v>
+      </c>
+      <c r="S142">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T142">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U142" t="s">
+        <v>253</v>
+      </c>
+      <c r="V142" t="s">
+        <v>1408</v>
+      </c>
+      <c r="W142" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AB142" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI142" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ142" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AK142">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="AL142">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB491BD-2081-46A1-A0E1-F9DB56EE4341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F0CCA6-CCA0-40F1-AA91-42F883435236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="1412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="1435">
   <si>
     <t>#</t>
   </si>
@@ -4272,6 +4272,75 @@
   </si>
   <si>
     <t>Naughty &amp; Thoughtful Gift Products</t>
+  </si>
+  <si>
+    <t>Healthy Master</t>
+  </si>
+  <si>
+    <t>Dipti Singhal</t>
+  </si>
+  <si>
+    <t>Shivali Garg</t>
+  </si>
+  <si>
+    <t>Tarun Agarwal</t>
+  </si>
+  <si>
+    <t>Dipti Singhal, Shivali Garg, Tarun Agarwal</t>
+  </si>
+  <si>
+    <t>Healthy Snacks from millets, oats, nuts etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 50 lakh for 6.5% Equity	</t>
+  </si>
+  <si>
+    <t>Kitsons</t>
+  </si>
+  <si>
+    <t>Abhishek Y</t>
+  </si>
+  <si>
+    <t>Shubhankar Y</t>
+  </si>
+  <si>
+    <t>Lt Col Y Rajasekhar Reddy</t>
+  </si>
+  <si>
+    <t>Abhishek Y, Shubhankar Y, Lt Col Y Rajasekhar Reddy</t>
+  </si>
+  <si>
+    <t>One Stop Shop for toys, stationary, art &amp; crafts</t>
+  </si>
+  <si>
+    <t>₹ 10 crore for 10% Equity</t>
+  </si>
+  <si>
+    <t>London Bubble Co</t>
+  </si>
+  <si>
+    <t>Mustakeen Sheikh</t>
+  </si>
+  <si>
+    <t>Darshan Shetty</t>
+  </si>
+  <si>
+    <t>Mustakeen Sheikh, Darshan Shetty</t>
+  </si>
+  <si>
+    <t>Waffle &amp; Pancake products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 75 lakh for 15% Equity	</t>
+  </si>
+  <si>
+    <t>Waggy Zone</t>
+  </si>
+  <si>
+    <t>Darshankaur Khalsa</t>
+  </si>
+  <si>
+    <t>Ice Cream Premix Powders for Dogs</t>
   </si>
 </sst>
 </file>
@@ -4688,10 +4757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH142"/>
+  <dimension ref="A1:BH146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5012,42 +5081,42 @@
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP18" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AX2" t="s">
         <v>243</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BD2" t="s">
         <v>253</v>
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -5177,21 +5246,21 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AU3" t="s">
         <v>238</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX3" t="s">
         <v>244</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
@@ -5205,7 +5274,7 @@
       </c>
       <c r="BE3">
         <f>COUNTIF(U:U,BD3)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG85" si="5">E3/100000</f>
@@ -5335,7 +5404,7 @@
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AX4" t="s">
         <v>245</v>
@@ -5349,14 +5418,14 @@
       </c>
       <c r="BB4">
         <f>COUNTIF(O:O,"Y")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="s">
         <v>254</v>
       </c>
       <c r="BE4">
         <f>COUNTIF(U:U,BD4)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BG4">
         <f t="shared" si="5"/>
@@ -5624,7 +5693,7 @@
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU6" t="s">
         <v>241</v>
@@ -13045,7 +13114,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T142" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T146" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -15112,7 +15181,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S142" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S146" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -15156,11 +15225,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK142" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK146" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL142" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL146" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -20206,6 +20275,369 @@
         <v>50</v>
       </c>
       <c r="AL142">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E143">
+        <v>5000000</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H143">
+        <v>5000000</v>
+      </c>
+      <c r="I143">
+        <v>6.5</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143" t="s">
+        <v>72</v>
+      </c>
+      <c r="M143" t="s">
+        <v>70</v>
+      </c>
+      <c r="N143" t="s">
+        <v>70</v>
+      </c>
+      <c r="O143" t="s">
+        <v>71</v>
+      </c>
+      <c r="P143" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>70</v>
+      </c>
+      <c r="R143" t="s">
+        <v>70</v>
+      </c>
+      <c r="S143">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T143">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U143" t="s">
+        <v>255</v>
+      </c>
+      <c r="V143" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W143" t="s">
+        <v>1414</v>
+      </c>
+      <c r="X143" t="s">
+        <v>1415</v>
+      </c>
+      <c r="AB143" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI143" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ143" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AK143">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="AL143">
+        <f t="shared" si="10"/>
+        <v>7.6923076923076925</v>
+      </c>
+    </row>
+    <row r="144" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E144">
+        <v>100000000</v>
+      </c>
+      <c r="F144">
+        <v>10</v>
+      </c>
+      <c r="G144" t="s">
+        <v>59</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144" t="s">
+        <v>59</v>
+      </c>
+      <c r="M144" t="s">
+        <v>70</v>
+      </c>
+      <c r="N144" t="s">
+        <v>70</v>
+      </c>
+      <c r="O144" t="s">
+        <v>70</v>
+      </c>
+      <c r="P144" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>70</v>
+      </c>
+      <c r="R144" t="s">
+        <v>70</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U144" t="s">
+        <v>253</v>
+      </c>
+      <c r="V144" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W144" t="s">
+        <v>1421</v>
+      </c>
+      <c r="X144" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AB144" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI144" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ144" t="s">
+        <v>1423</v>
+      </c>
+      <c r="AK144">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="AL144">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E145">
+        <v>7500000</v>
+      </c>
+      <c r="F145">
+        <v>5</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H145">
+        <v>7500000</v>
+      </c>
+      <c r="I145">
+        <v>15</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145" t="s">
+        <v>72</v>
+      </c>
+      <c r="M145" t="s">
+        <v>71</v>
+      </c>
+      <c r="N145" t="s">
+        <v>70</v>
+      </c>
+      <c r="O145" t="s">
+        <v>70</v>
+      </c>
+      <c r="P145" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>70</v>
+      </c>
+      <c r="R145" t="s">
+        <v>70</v>
+      </c>
+      <c r="S145">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T145">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U145" t="s">
+        <v>255</v>
+      </c>
+      <c r="V145" t="s">
+        <v>1427</v>
+      </c>
+      <c r="W145" t="s">
+        <v>1428</v>
+      </c>
+      <c r="AB145" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI145" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ145" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AK145">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="AL145">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D146" t="s">
+        <v>974</v>
+      </c>
+      <c r="E146">
+        <v>5000000</v>
+      </c>
+      <c r="F146">
+        <v>5</v>
+      </c>
+      <c r="G146" t="s">
+        <v>59</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146" t="s">
+        <v>59</v>
+      </c>
+      <c r="M146" t="s">
+        <v>70</v>
+      </c>
+      <c r="N146" t="s">
+        <v>70</v>
+      </c>
+      <c r="O146" t="s">
+        <v>70</v>
+      </c>
+      <c r="P146" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>70</v>
+      </c>
+      <c r="R146" t="s">
+        <v>70</v>
+      </c>
+      <c r="S146">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U146" t="s">
+        <v>254</v>
+      </c>
+      <c r="V146" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AB146" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI146" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ146" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AK146">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AL146">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F0CCA6-CCA0-40F1-AA91-42F883435236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C2367D-EED5-4161-9122-136EE2561025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="1435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="1454">
   <si>
     <t>#</t>
   </si>
@@ -4341,6 +4341,63 @@
   </si>
   <si>
     <t>Ice Cream Premix Powders for Dogs</t>
+  </si>
+  <si>
+    <t>Nutricook</t>
+  </si>
+  <si>
+    <t>Oil-less &amp; Waterless cookware</t>
+  </si>
+  <si>
+    <t>P Ravi Kumar Reddy</t>
+  </si>
+  <si>
+    <t>Asha V M</t>
+  </si>
+  <si>
+    <t>P Ravi Kumar Reddy, Asha V M</t>
+  </si>
+  <si>
+    <t>₹ 50 lakh for 10% Equity and ₹ 50 Lakhs Debt @ 12% Interest</t>
+  </si>
+  <si>
+    <t>Subhag</t>
+  </si>
+  <si>
+    <t>Sohan Sahu</t>
+  </si>
+  <si>
+    <t>Vikram Rajput</t>
+  </si>
+  <si>
+    <t>Chandan Prasad</t>
+  </si>
+  <si>
+    <t>Sohan Sahu, Vikram Rajput, Chandan Prasad</t>
+  </si>
+  <si>
+    <t>Home Kit for Infertility Treatment</t>
+  </si>
+  <si>
+    <t>₹ 20 lakh for 1% Equity and ₹ 30 Lakhs Debt @ 10% Interest</t>
+  </si>
+  <si>
+    <t>Singh Styled</t>
+  </si>
+  <si>
+    <t>Grooming Products for Sikhs</t>
+  </si>
+  <si>
+    <t>Charanjeev Singh Salva</t>
+  </si>
+  <si>
+    <t>Ashwath Poojari</t>
+  </si>
+  <si>
+    <t>Charanjeev Singh Salva, Ashwath Poojari</t>
+  </si>
+  <si>
+    <t>₹ 50 lakh for 10% Equity (Condition - Peyush has the option to invest ₹ 75 lakh more at same valuation)</t>
   </si>
 </sst>
 </file>
@@ -4757,10 +4814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH146"/>
+  <dimension ref="A1:BH149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5088,7 +5145,7 @@
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
@@ -5109,7 +5166,7 @@
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BD2" t="s">
         <v>253</v>
@@ -5239,7 +5296,7 @@
       </c>
       <c r="AP3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR3" t="s">
         <v>59</v>
@@ -5253,14 +5310,14 @@
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX3" t="s">
         <v>244</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
@@ -5274,7 +5331,7 @@
       </c>
       <c r="BE3">
         <f>COUNTIF(U:U,BD3)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG85" si="5">E3/100000</f>
@@ -5404,7 +5461,7 @@
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX4" t="s">
         <v>245</v>
@@ -5418,7 +5475,7 @@
       </c>
       <c r="BB4">
         <f>COUNTIF(O:O,"Y")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="s">
         <v>254</v>
@@ -5573,7 +5630,7 @@
       </c>
       <c r="BE5">
         <f>COUNTIF(U:U,BD5)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BG5">
         <f t="shared" si="5"/>
@@ -5693,7 +5750,7 @@
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU6" t="s">
         <v>241</v>
@@ -5714,7 +5771,7 @@
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BD6" t="s">
         <v>256</v>
@@ -6364,7 +6421,7 @@
       </c>
       <c r="AP11">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BG11">
         <f t="shared" si="5"/>
@@ -13114,7 +13171,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T146" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T149" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -15181,7 +15238,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S146" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S149" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -15225,11 +15282,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK146" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK149" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL146" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL149" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -20640,6 +20697,279 @@
       <c r="AL146">
         <f t="shared" si="10"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E147">
+        <v>10000000</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+      <c r="G147" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H147">
+        <v>5000000</v>
+      </c>
+      <c r="I147">
+        <v>10</v>
+      </c>
+      <c r="J147">
+        <v>5000000</v>
+      </c>
+      <c r="K147">
+        <v>12</v>
+      </c>
+      <c r="L147" t="s">
+        <v>72</v>
+      </c>
+      <c r="M147" t="s">
+        <v>70</v>
+      </c>
+      <c r="N147" t="s">
+        <v>70</v>
+      </c>
+      <c r="O147" t="s">
+        <v>71</v>
+      </c>
+      <c r="P147" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>70</v>
+      </c>
+      <c r="R147" t="s">
+        <v>70</v>
+      </c>
+      <c r="S147">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T147">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U147" t="s">
+        <v>257</v>
+      </c>
+      <c r="V147" t="s">
+        <v>1437</v>
+      </c>
+      <c r="W147" t="s">
+        <v>1438</v>
+      </c>
+      <c r="AB147" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI147" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ147" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AK147">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="AL147">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E148">
+        <v>5000000</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1447</v>
+      </c>
+      <c r="H148">
+        <v>2000000</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>3000000</v>
+      </c>
+      <c r="K148">
+        <v>10</v>
+      </c>
+      <c r="L148" t="s">
+        <v>72</v>
+      </c>
+      <c r="M148" t="s">
+        <v>71</v>
+      </c>
+      <c r="N148" t="s">
+        <v>70</v>
+      </c>
+      <c r="O148" t="s">
+        <v>70</v>
+      </c>
+      <c r="P148" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>70</v>
+      </c>
+      <c r="R148" t="s">
+        <v>70</v>
+      </c>
+      <c r="S148">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T148">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U148" t="s">
+        <v>255</v>
+      </c>
+      <c r="V148" t="s">
+        <v>1442</v>
+      </c>
+      <c r="W148" t="s">
+        <v>1443</v>
+      </c>
+      <c r="X148" t="s">
+        <v>1444</v>
+      </c>
+      <c r="AB148" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI148" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ148" t="s">
+        <v>1445</v>
+      </c>
+      <c r="AK148">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="AL148">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D149" t="s">
+        <v>974</v>
+      </c>
+      <c r="E149">
+        <v>5000000</v>
+      </c>
+      <c r="F149">
+        <v>5</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H149">
+        <v>5000000</v>
+      </c>
+      <c r="I149">
+        <v>10</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149" t="s">
+        <v>72</v>
+      </c>
+      <c r="M149" t="s">
+        <v>70</v>
+      </c>
+      <c r="N149" t="s">
+        <v>70</v>
+      </c>
+      <c r="O149" t="s">
+        <v>70</v>
+      </c>
+      <c r="P149" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>71</v>
+      </c>
+      <c r="R149" t="s">
+        <v>70</v>
+      </c>
+      <c r="S149">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T149">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U149" t="s">
+        <v>255</v>
+      </c>
+      <c r="V149" t="s">
+        <v>1450</v>
+      </c>
+      <c r="W149" t="s">
+        <v>1451</v>
+      </c>
+      <c r="AB149" t="s">
+        <v>326</v>
+      </c>
+      <c r="AI149" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ149" t="s">
+        <v>1452</v>
+      </c>
+      <c r="AK149">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AL149">
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C2367D-EED5-4161-9122-136EE2561025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A541BF-EDF6-44FF-990A-1395C7BAA922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="1454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="1480">
   <si>
     <t>#</t>
   </si>
@@ -4398,6 +4398,84 @@
   </si>
   <si>
     <t>₹ 50 lakh for 10% Equity (Condition - Peyush has the option to invest ₹ 75 lakh more at same valuation)</t>
+  </si>
+  <si>
+    <t>Zsportstech</t>
+  </si>
+  <si>
+    <t>Harshal Shah</t>
+  </si>
+  <si>
+    <t>Samir Shah</t>
+  </si>
+  <si>
+    <t>Harshal Shah, Samir Shah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 60 lakh for 2% Equity	</t>
+  </si>
+  <si>
+    <t>Cricket Bats</t>
+  </si>
+  <si>
+    <t>The Plated Project</t>
+  </si>
+  <si>
+    <t>Chitresh Sinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 75 lakh for 2% Equity	</t>
+  </si>
+  <si>
+    <t>Plates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 75 lakh for 3.75% Equity	</t>
+  </si>
+  <si>
+    <t>Namita, Vineeta, Aman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 50 lakh for 1.5% Equity	</t>
+  </si>
+  <si>
+    <t>VsnapU</t>
+  </si>
+  <si>
+    <t>One stop for Photographers</t>
+  </si>
+  <si>
+    <t>Taranbir Singh Sahni</t>
+  </si>
+  <si>
+    <t>Parminder Singh Sahni</t>
+  </si>
+  <si>
+    <t>Kaushik Singh</t>
+  </si>
+  <si>
+    <t>Anshu Sharma</t>
+  </si>
+  <si>
+    <t>Taranbir Singh Sahni, Parminder Singh Sahni, Kaushik Singh, Anshu Sharma</t>
+  </si>
+  <si>
+    <t>The Health Factory</t>
+  </si>
+  <si>
+    <t>Vinay Maheshwari</t>
+  </si>
+  <si>
+    <t>Mohit Sankhala</t>
+  </si>
+  <si>
+    <t>Vinay Maheshwari, Mohit Sankhala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 75 lakh for 2.1% Equity	</t>
+  </si>
+  <si>
+    <t>Protein based Bread</t>
   </si>
 </sst>
 </file>
@@ -4814,10 +4892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH149"/>
+  <dimension ref="A1:BH153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+    <sheetView tabSelected="1" topLeftCell="AI132" workbookViewId="0">
+      <selection activeCell="AK152" sqref="AK152:AK153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5138,42 +5216,42 @@
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP18" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AX2" t="s">
         <v>243</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BD2" t="s">
         <v>253</v>
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -5303,14 +5381,14 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU3" t="s">
         <v>238</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AX3" t="s">
         <v>244</v>
@@ -5331,7 +5409,7 @@
       </c>
       <c r="BE3">
         <f>COUNTIF(U:U,BD3)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG85" si="5">E3/100000</f>
@@ -5475,14 +5553,14 @@
       </c>
       <c r="BB4">
         <f>COUNTIF(O:O,"Y")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="s">
         <v>254</v>
       </c>
       <c r="BE4">
         <f>COUNTIF(U:U,BD4)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BG4">
         <f t="shared" si="5"/>
@@ -5609,21 +5687,21 @@
       </c>
       <c r="AV5">
         <f>COUNTIF(T:T,"4")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="s">
         <v>246</v>
       </c>
       <c r="AY5">
         <f>COUNTIF(S:S,"3")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA5" t="s">
         <v>13</v>
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BD5" t="s">
         <v>257</v>
@@ -5750,7 +5828,7 @@
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU6" t="s">
         <v>241</v>
@@ -6790,7 +6868,7 @@
       </c>
       <c r="AP14">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG14">
         <f t="shared" si="5"/>
@@ -13171,7 +13249,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T149" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T153" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -15238,7 +15316,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S149" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S153" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -15282,11 +15360,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK149" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK153" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL149" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL153" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -20970,6 +21048,369 @@
       <c r="AL149">
         <f t="shared" si="10"/>
         <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E150">
+        <v>6000000</v>
+      </c>
+      <c r="F150">
+        <v>2</v>
+      </c>
+      <c r="G150" t="s">
+        <v>59</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150" t="s">
+        <v>59</v>
+      </c>
+      <c r="M150" t="s">
+        <v>70</v>
+      </c>
+      <c r="N150" t="s">
+        <v>70</v>
+      </c>
+      <c r="O150" t="s">
+        <v>70</v>
+      </c>
+      <c r="P150" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>70</v>
+      </c>
+      <c r="R150" t="s">
+        <v>70</v>
+      </c>
+      <c r="S150">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U150" t="s">
+        <v>253</v>
+      </c>
+      <c r="V150" t="s">
+        <v>1455</v>
+      </c>
+      <c r="W150" t="s">
+        <v>1456</v>
+      </c>
+      <c r="AB150" t="s">
+        <v>400</v>
+      </c>
+      <c r="AI150" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ150" t="s">
+        <v>1457</v>
+      </c>
+      <c r="AK150">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="AL150">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E151">
+        <v>7500000</v>
+      </c>
+      <c r="F151">
+        <v>2</v>
+      </c>
+      <c r="G151" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H151">
+        <v>7500000</v>
+      </c>
+      <c r="I151">
+        <v>3.75</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151" t="s">
+        <v>72</v>
+      </c>
+      <c r="M151" t="s">
+        <v>71</v>
+      </c>
+      <c r="N151" t="s">
+        <v>70</v>
+      </c>
+      <c r="O151" t="s">
+        <v>71</v>
+      </c>
+      <c r="P151" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>70</v>
+      </c>
+      <c r="R151" t="s">
+        <v>70</v>
+      </c>
+      <c r="S151">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="T151">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U151" t="s">
+        <v>254</v>
+      </c>
+      <c r="V151" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AB151" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI151" t="s">
+        <v>1465</v>
+      </c>
+      <c r="AJ151" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AK151">
+        <f t="shared" si="9"/>
+        <v>37.5</v>
+      </c>
+      <c r="AL151">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E152">
+        <v>5000000</v>
+      </c>
+      <c r="F152">
+        <v>1.5</v>
+      </c>
+      <c r="G152" t="s">
+        <v>59</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152" t="s">
+        <v>59</v>
+      </c>
+      <c r="M152" t="s">
+        <v>70</v>
+      </c>
+      <c r="N152" t="s">
+        <v>70</v>
+      </c>
+      <c r="O152" t="s">
+        <v>70</v>
+      </c>
+      <c r="P152" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>70</v>
+      </c>
+      <c r="R152" t="s">
+        <v>70</v>
+      </c>
+      <c r="S152">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T152">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="U152" t="s">
+        <v>255</v>
+      </c>
+      <c r="V152" t="s">
+        <v>1469</v>
+      </c>
+      <c r="W152" t="s">
+        <v>1470</v>
+      </c>
+      <c r="X152" t="s">
+        <v>1471</v>
+      </c>
+      <c r="Y152" t="s">
+        <v>1472</v>
+      </c>
+      <c r="AB152" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI152" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ152" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AK152">
+        <f t="shared" si="9"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="AL152">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E153">
+        <v>7500000</v>
+      </c>
+      <c r="F153">
+        <v>2.1</v>
+      </c>
+      <c r="G153" t="s">
+        <v>59</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153" t="s">
+        <v>59</v>
+      </c>
+      <c r="M153" t="s">
+        <v>70</v>
+      </c>
+      <c r="N153" t="s">
+        <v>70</v>
+      </c>
+      <c r="O153" t="s">
+        <v>70</v>
+      </c>
+      <c r="P153" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>70</v>
+      </c>
+      <c r="R153" t="s">
+        <v>70</v>
+      </c>
+      <c r="S153">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T153">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U153" t="s">
+        <v>253</v>
+      </c>
+      <c r="V153" t="s">
+        <v>1475</v>
+      </c>
+      <c r="W153" t="s">
+        <v>1476</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI153" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ153" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AK153">
+        <f t="shared" si="9"/>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="AL153">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A541BF-EDF6-44FF-990A-1395C7BAA922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015BC520-52EC-458A-9C4F-2788C0B465D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="1480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3285" uniqueCount="1500">
   <si>
     <t>#</t>
   </si>
@@ -4476,6 +4476,66 @@
   </si>
   <si>
     <t>Protein based Bread</t>
+  </si>
+  <si>
+    <t>Brevistay</t>
+  </si>
+  <si>
+    <t>Aditya Naithani</t>
+  </si>
+  <si>
+    <t>Shubham Agarwal</t>
+  </si>
+  <si>
+    <t>Prateek Singh</t>
+  </si>
+  <si>
+    <t>Nikhil Kumar Pathak</t>
+  </si>
+  <si>
+    <t>Avnish Kumar</t>
+  </si>
+  <si>
+    <t>Aditya Naithani, Shubham Agarwal, Prateek Singh, Nikhil Kumar Pathak, Avnish Kumar</t>
+  </si>
+  <si>
+    <t>Hourly Hotel Booking</t>
+  </si>
+  <si>
+    <t>₹ 1 crore for 1.66% Equity</t>
+  </si>
+  <si>
+    <t>SoulUp</t>
+  </si>
+  <si>
+    <t>Punita Mittal</t>
+  </si>
+  <si>
+    <t>Mahak Maheshwari</t>
+  </si>
+  <si>
+    <t>Punita Mittal, Mahak Maheshwari</t>
+  </si>
+  <si>
+    <t>Emotional Wellness Platform</t>
+  </si>
+  <si>
+    <t>The Big Book Box &amp; Chapter One Books</t>
+  </si>
+  <si>
+    <t>Surabhi Sanjana Rai</t>
+  </si>
+  <si>
+    <t>Desh Deepak Singh</t>
+  </si>
+  <si>
+    <t>Surabhi Sanjana Rai, Desh Deepak Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 50 lakh for 8% Equity	</t>
+  </si>
+  <si>
+    <t>Books &amp; Curated Book Boxes</t>
   </si>
 </sst>
 </file>
@@ -4892,15 +4952,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH153"/>
+  <dimension ref="A1:BH156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI132" workbookViewId="0">
-      <selection activeCell="AK152" sqref="AK152:AK153"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
     <col min="3" max="3" width="65.88671875" customWidth="1"/>
     <col min="4" max="4" width="23.77734375" customWidth="1"/>
     <col min="5" max="5" width="30.109375" customWidth="1"/>
@@ -5223,7 +5283,7 @@
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
@@ -5237,14 +5297,14 @@
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BD2" t="s">
         <v>253</v>
@@ -5381,21 +5441,21 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU3" t="s">
         <v>238</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AX3" t="s">
         <v>244</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
@@ -5409,7 +5469,7 @@
       </c>
       <c r="BE3">
         <f>COUNTIF(U:U,BD3)</f>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG85" si="5">E3/100000</f>
@@ -5828,14 +5888,14 @@
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU6" t="s">
         <v>241</v>
       </c>
       <c r="AV6">
         <f>COUNTIF(T:T,"5")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX6" t="s">
         <v>247</v>
@@ -6499,7 +6559,7 @@
       </c>
       <c r="AP11">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BG11">
         <f t="shared" si="5"/>
@@ -13249,7 +13309,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T153" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T156" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -15316,7 +15376,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S153" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S156" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -15360,11 +15420,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK153" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK156" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL153" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL156" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -21409,6 +21469,285 @@
         <v>35.714285714285715</v>
       </c>
       <c r="AL153">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E154">
+        <v>10000000</v>
+      </c>
+      <c r="F154">
+        <v>1.66</v>
+      </c>
+      <c r="G154" t="s">
+        <v>59</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154" t="s">
+        <v>59</v>
+      </c>
+      <c r="M154" t="s">
+        <v>70</v>
+      </c>
+      <c r="N154" t="s">
+        <v>70</v>
+      </c>
+      <c r="O154" t="s">
+        <v>70</v>
+      </c>
+      <c r="P154" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>70</v>
+      </c>
+      <c r="R154" t="s">
+        <v>70</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T154">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="U154" t="s">
+        <v>255</v>
+      </c>
+      <c r="V154" t="s">
+        <v>1481</v>
+      </c>
+      <c r="W154" t="s">
+        <v>1482</v>
+      </c>
+      <c r="X154" t="s">
+        <v>1483</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>1484</v>
+      </c>
+      <c r="Z154" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AB154" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI154" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ154" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AK154">
+        <f t="shared" si="9"/>
+        <v>60.240963855421683</v>
+      </c>
+      <c r="AL154">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E155">
+        <v>5000000</v>
+      </c>
+      <c r="F155">
+        <v>3</v>
+      </c>
+      <c r="G155" t="s">
+        <v>974</v>
+      </c>
+      <c r="H155">
+        <v>5000000</v>
+      </c>
+      <c r="I155">
+        <v>5</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155" t="s">
+        <v>72</v>
+      </c>
+      <c r="M155" t="s">
+        <v>71</v>
+      </c>
+      <c r="N155" t="s">
+        <v>70</v>
+      </c>
+      <c r="O155" t="s">
+        <v>70</v>
+      </c>
+      <c r="P155" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>70</v>
+      </c>
+      <c r="R155" t="s">
+        <v>70</v>
+      </c>
+      <c r="S155">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T155">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U155" t="s">
+        <v>255</v>
+      </c>
+      <c r="V155" t="s">
+        <v>1490</v>
+      </c>
+      <c r="W155" t="s">
+        <v>1491</v>
+      </c>
+      <c r="AB155" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI155" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ155" t="s">
+        <v>1492</v>
+      </c>
+      <c r="AK155">
+        <f t="shared" si="9"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AL155">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E156">
+        <v>5000000</v>
+      </c>
+      <c r="F156">
+        <v>8</v>
+      </c>
+      <c r="G156" t="s">
+        <v>59</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156" t="s">
+        <v>59</v>
+      </c>
+      <c r="M156" t="s">
+        <v>70</v>
+      </c>
+      <c r="N156" t="s">
+        <v>70</v>
+      </c>
+      <c r="O156" t="s">
+        <v>70</v>
+      </c>
+      <c r="P156" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>70</v>
+      </c>
+      <c r="R156" t="s">
+        <v>70</v>
+      </c>
+      <c r="S156">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T156">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U156" t="s">
+        <v>255</v>
+      </c>
+      <c r="V156" t="s">
+        <v>1495</v>
+      </c>
+      <c r="W156" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI156" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ156" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AK156">
+        <f t="shared" si="9"/>
+        <v>6.25</v>
+      </c>
+      <c r="AL156">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015BC520-52EC-458A-9C4F-2788C0B465D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36210EC6-74A7-484A-A3B2-364BDCBEDB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3285" uniqueCount="1500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3352" uniqueCount="1523">
   <si>
     <t>#</t>
   </si>
@@ -4536,6 +4536,75 @@
   </si>
   <si>
     <t>Books &amp; Curated Book Boxes</t>
+  </si>
+  <si>
+    <t>Rubans</t>
+  </si>
+  <si>
+    <t>Amit Kala</t>
+  </si>
+  <si>
+    <t>Chinu Kala</t>
+  </si>
+  <si>
+    <t>Amit Kala, Chinu Kala</t>
+  </si>
+  <si>
+    <t>₹ 1.5 crore for 0.5% Equity</t>
+  </si>
+  <si>
+    <t>Fashion Jewellery</t>
+  </si>
+  <si>
+    <t>₹ 1 crore for 1% Equity and ₹ 50 Lakhs Debt @ 12% Interest</t>
+  </si>
+  <si>
+    <t>Same Notification</t>
+  </si>
+  <si>
+    <t>Ilesh Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 25 lakh for 15% Equity	</t>
+  </si>
+  <si>
+    <t>An app for sending same notifications across devices</t>
+  </si>
+  <si>
+    <t>Bottom Line Sprays</t>
+  </si>
+  <si>
+    <t>Aadil Attarwala</t>
+  </si>
+  <si>
+    <t>Prathana Singh</t>
+  </si>
+  <si>
+    <t>Aadil Attarwala, Prathana Shah</t>
+  </si>
+  <si>
+    <t>Portable Jet Spray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 35 lakh for 5% Equity	</t>
+  </si>
+  <si>
+    <t>LiL Goodness</t>
+  </si>
+  <si>
+    <t>Damanbir Singh</t>
+  </si>
+  <si>
+    <t>Harshavardhan</t>
+  </si>
+  <si>
+    <t>Damanbir Singh, Harshavardhan</t>
+  </si>
+  <si>
+    <t>Chocolates, Milkshakes, Puffs with less sugar</t>
+  </si>
+  <si>
+    <t>₹ 50 lakh for 1% Equity and ₹ 50 Lakhs Debt @ 10% Interest</t>
   </si>
 </sst>
 </file>
@@ -4952,10 +5021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH156"/>
+  <dimension ref="A1:BH160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5276,35 +5345,35 @@
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP18" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AX2" t="s">
         <v>243</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BD2" t="s">
         <v>253</v>
@@ -5434,28 +5503,28 @@
       </c>
       <c r="AP3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="s">
         <v>59</v>
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AU3" t="s">
         <v>238</v>
       </c>
       <c r="AV3">
         <f>COUNTIF(T:T,"2")</f>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX3" t="s">
         <v>244</v>
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
@@ -5469,7 +5538,7 @@
       </c>
       <c r="BE3">
         <f>COUNTIF(U:U,BD3)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG85" si="5">E3/100000</f>
@@ -5613,14 +5682,14 @@
       </c>
       <c r="BB4">
         <f>COUNTIF(O:O,"Y")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="s">
         <v>254</v>
       </c>
       <c r="BE4">
         <f>COUNTIF(U:U,BD4)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BG4">
         <f t="shared" si="5"/>
@@ -5754,21 +5823,21 @@
       </c>
       <c r="AY5">
         <f>COUNTIF(S:S,"3")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA5" t="s">
         <v>13</v>
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BD5" t="s">
         <v>257</v>
       </c>
       <c r="BE5">
         <f>COUNTIF(U:U,BD5)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BG5">
         <f t="shared" si="5"/>
@@ -5888,7 +5957,7 @@
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU6" t="s">
         <v>241</v>
@@ -5909,7 +5978,7 @@
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BD6" t="s">
         <v>256</v>
@@ -6436,7 +6505,7 @@
       </c>
       <c r="AP10">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BG10">
         <f t="shared" si="5"/>
@@ -13309,7 +13378,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T156" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T160" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -15376,7 +15445,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S156" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S160" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -15420,11 +15489,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK156" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK160" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL156" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL160" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -21750,6 +21819,363 @@
       <c r="AL156">
         <f t="shared" si="10"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E157">
+        <v>15000000</v>
+      </c>
+      <c r="F157">
+        <v>0.5</v>
+      </c>
+      <c r="G157" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H157">
+        <v>10000000</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>5000000</v>
+      </c>
+      <c r="K157">
+        <v>12</v>
+      </c>
+      <c r="L157" t="s">
+        <v>72</v>
+      </c>
+      <c r="M157" t="s">
+        <v>71</v>
+      </c>
+      <c r="N157" t="s">
+        <v>70</v>
+      </c>
+      <c r="O157" t="s">
+        <v>71</v>
+      </c>
+      <c r="P157" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>70</v>
+      </c>
+      <c r="R157" t="s">
+        <v>70</v>
+      </c>
+      <c r="S157">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="T157">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U157" t="s">
+        <v>257</v>
+      </c>
+      <c r="V157" t="s">
+        <v>1501</v>
+      </c>
+      <c r="W157" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AB157" t="s">
+        <v>326</v>
+      </c>
+      <c r="AI157" t="s">
+        <v>1465</v>
+      </c>
+      <c r="AJ157" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AK157">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+      <c r="AL157">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E158">
+        <v>2500000</v>
+      </c>
+      <c r="F158">
+        <v>15</v>
+      </c>
+      <c r="G158" t="s">
+        <v>59</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158" t="s">
+        <v>59</v>
+      </c>
+      <c r="M158" t="s">
+        <v>70</v>
+      </c>
+      <c r="N158" t="s">
+        <v>70</v>
+      </c>
+      <c r="O158" t="s">
+        <v>70</v>
+      </c>
+      <c r="P158" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>70</v>
+      </c>
+      <c r="R158" t="s">
+        <v>70</v>
+      </c>
+      <c r="S158">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T158">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U158" t="s">
+        <v>254</v>
+      </c>
+      <c r="V158" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AB158" t="s">
+        <v>325</v>
+      </c>
+      <c r="AI158" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ158" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AK158">
+        <f t="shared" si="9"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="AL158">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E159">
+        <v>3500000</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159" t="s">
+        <v>59</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159" t="s">
+        <v>59</v>
+      </c>
+      <c r="M159" t="s">
+        <v>70</v>
+      </c>
+      <c r="N159" t="s">
+        <v>70</v>
+      </c>
+      <c r="O159" t="s">
+        <v>70</v>
+      </c>
+      <c r="P159" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>70</v>
+      </c>
+      <c r="R159" t="s">
+        <v>70</v>
+      </c>
+      <c r="S159">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T159">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U159" t="s">
+        <v>257</v>
+      </c>
+      <c r="V159" t="s">
+        <v>1512</v>
+      </c>
+      <c r="W159" t="s">
+        <v>1513</v>
+      </c>
+      <c r="AB159" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI159" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ159" t="s">
+        <v>1514</v>
+      </c>
+      <c r="AK159">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AL159">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D160" t="s">
+        <v>980</v>
+      </c>
+      <c r="E160">
+        <v>10000000</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H160">
+        <v>5000000</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>5000000</v>
+      </c>
+      <c r="K160">
+        <v>10</v>
+      </c>
+      <c r="L160" t="s">
+        <v>72</v>
+      </c>
+      <c r="M160" t="s">
+        <v>70</v>
+      </c>
+      <c r="N160" t="s">
+        <v>70</v>
+      </c>
+      <c r="O160" t="s">
+        <v>70</v>
+      </c>
+      <c r="P160" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>71</v>
+      </c>
+      <c r="R160" t="s">
+        <v>70</v>
+      </c>
+      <c r="S160">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T160">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U160" t="s">
+        <v>255</v>
+      </c>
+      <c r="V160" t="s">
+        <v>1518</v>
+      </c>
+      <c r="W160" t="s">
+        <v>1519</v>
+      </c>
+      <c r="AB160" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI160" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ160" t="s">
+        <v>1520</v>
+      </c>
+      <c r="AK160">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="AL160">
+        <f t="shared" si="10"/>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36210EC6-74A7-484A-A3B2-364BDCBEDB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E80C7BB-DBD7-4F83-B470-8B1BBC035ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3352" uniqueCount="1523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="1545">
   <si>
     <t>#</t>
   </si>
@@ -4605,6 +4605,72 @@
   </si>
   <si>
     <t>₹ 50 lakh for 1% Equity and ₹ 50 Lakhs Debt @ 10% Interest</t>
+  </si>
+  <si>
+    <t>Forever Modest</t>
+  </si>
+  <si>
+    <t>Sana Farheen Shaikh</t>
+  </si>
+  <si>
+    <t>Modest Fashion Wear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 20 lakh for 10% Equity	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">₹ 20 lakh for 20% Equity	</t>
+  </si>
+  <si>
+    <t>Namita, Anupam, Vineeta, Amit</t>
+  </si>
+  <si>
+    <t>Sahayatha</t>
+  </si>
+  <si>
+    <t>Sruthi Babu</t>
+  </si>
+  <si>
+    <t>Self cleansing wheelchair</t>
+  </si>
+  <si>
+    <t>WickedGud</t>
+  </si>
+  <si>
+    <t>Monish Debnath</t>
+  </si>
+  <si>
+    <t>Soumalya Biswas</t>
+  </si>
+  <si>
+    <t>Bhuman Dani</t>
+  </si>
+  <si>
+    <t>Monish Debnath, Soumalya Biswas, Bhuman Dani</t>
+  </si>
+  <si>
+    <t>Healthy Noodles with no Maida</t>
+  </si>
+  <si>
+    <t>Maisha</t>
+  </si>
+  <si>
+    <t>Nayan Hasmukhlal Shah</t>
+  </si>
+  <si>
+    <t>Esha Nayan Shah</t>
+  </si>
+  <si>
+    <t>Neel Ilesh Vora</t>
+  </si>
+  <si>
+    <t>Nayan Hasmukhlal Shah, Esha Nayan Shah, Neel Ilesh Shah</t>
+  </si>
+  <si>
+    <t>Low cost fashion hand bangs</t>
+  </si>
+  <si>
+    <t>₹ 10 lakh for 1% Equity and ₹ 65 Lakhs Debt @ 18% Interest</t>
   </si>
 </sst>
 </file>
@@ -5021,10 +5087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH160"/>
+  <dimension ref="A1:BH164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5345,42 +5411,42 @@
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP18" si="0">COUNTIF(AB:AB,AO2)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="s">
         <v>72</v>
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AX2" t="s">
         <v>243</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
       </c>
       <c r="BB2">
         <f>COUNTIF(M:M,"Y")</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="BD2" t="s">
         <v>253</v>
       </c>
       <c r="BE2">
         <f>COUNTIF(U:U,BD2)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BG2">
         <f>E2/100000</f>
@@ -5510,7 +5576,7 @@
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU3" t="s">
         <v>238</v>
@@ -5524,21 +5590,21 @@
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
       </c>
       <c r="BB3">
         <f>COUNTIF(N:N,"Y")</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BD3" t="s">
         <v>255</v>
       </c>
       <c r="BE3">
         <f>COUNTIF(U:U,BD3)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG85" si="5">E3/100000</f>
@@ -5668,7 +5734,7 @@
       </c>
       <c r="AV4">
         <f>COUNTIF(T:T,"3")</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AX4" t="s">
         <v>245</v>
@@ -5682,14 +5748,14 @@
       </c>
       <c r="BB4">
         <f>COUNTIF(O:O,"Y")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD4" t="s">
         <v>254</v>
       </c>
       <c r="BE4">
         <f>COUNTIF(U:U,BD4)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="BG4">
         <f t="shared" si="5"/>
@@ -5830,7 +5896,7 @@
       </c>
       <c r="BB5">
         <f>COUNTIF(P:P,"Y")</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BD5" t="s">
         <v>257</v>
@@ -5971,14 +6037,14 @@
       </c>
       <c r="AY6">
         <f>COUNTIF(S:S,"4")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA6" t="s">
         <v>14</v>
       </c>
       <c r="BB6">
         <f>COUNTIF(Q:Q,"Y")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BD6" t="s">
         <v>256</v>
@@ -6108,7 +6174,7 @@
       </c>
       <c r="AP7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU7" t="s">
         <v>242</v>
@@ -6122,14 +6188,14 @@
       </c>
       <c r="AY7">
         <f>COUNTIF(S:S,"5")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA7" t="s">
         <v>69</v>
       </c>
       <c r="BB7">
         <f>COUNTIF(R:R,"Y")</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BG7">
         <f t="shared" si="5"/>
@@ -6628,7 +6694,7 @@
       </c>
       <c r="AP11">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BG11">
         <f t="shared" si="5"/>
@@ -13378,7 +13444,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T160" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T164" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -15445,7 +15511,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S160" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S164" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -15489,11 +15555,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK160" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK164" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL160" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL164" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -22176,6 +22242,366 @@
       <c r="AL160">
         <f t="shared" si="10"/>
         <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E161">
+        <v>2000000</v>
+      </c>
+      <c r="F161">
+        <v>10</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H161">
+        <v>2000000</v>
+      </c>
+      <c r="I161">
+        <v>20</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161" t="s">
+        <v>72</v>
+      </c>
+      <c r="M161" t="s">
+        <v>71</v>
+      </c>
+      <c r="N161" t="s">
+        <v>71</v>
+      </c>
+      <c r="O161" t="s">
+        <v>71</v>
+      </c>
+      <c r="P161" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>70</v>
+      </c>
+      <c r="R161" t="s">
+        <v>71</v>
+      </c>
+      <c r="S161">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="T161">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U161" t="s">
+        <v>254</v>
+      </c>
+      <c r="V161" t="s">
+        <v>1524</v>
+      </c>
+      <c r="AB161" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI161" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AJ161" t="s">
+        <v>1524</v>
+      </c>
+      <c r="AK161">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AL161">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D162" t="s">
+        <v>763</v>
+      </c>
+      <c r="E162">
+        <v>10000000</v>
+      </c>
+      <c r="F162">
+        <v>10</v>
+      </c>
+      <c r="G162" t="s">
+        <v>763</v>
+      </c>
+      <c r="H162">
+        <v>10000000</v>
+      </c>
+      <c r="I162">
+        <v>10</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162" t="s">
+        <v>72</v>
+      </c>
+      <c r="M162" t="s">
+        <v>71</v>
+      </c>
+      <c r="N162" t="s">
+        <v>71</v>
+      </c>
+      <c r="O162" t="s">
+        <v>70</v>
+      </c>
+      <c r="P162" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>71</v>
+      </c>
+      <c r="R162" t="s">
+        <v>71</v>
+      </c>
+      <c r="S162">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="T162">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U162" t="s">
+        <v>254</v>
+      </c>
+      <c r="V162" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AB162" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI162" t="s">
+        <v>1311</v>
+      </c>
+      <c r="AJ162" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AK162">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AL162">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E163">
+        <v>5000000</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163" t="s">
+        <v>59</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163" t="s">
+        <v>59</v>
+      </c>
+      <c r="M163" t="s">
+        <v>70</v>
+      </c>
+      <c r="N163" t="s">
+        <v>70</v>
+      </c>
+      <c r="O163" t="s">
+        <v>70</v>
+      </c>
+      <c r="P163" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>70</v>
+      </c>
+      <c r="R163" t="s">
+        <v>70</v>
+      </c>
+      <c r="S163">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T163">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U163" t="s">
+        <v>255</v>
+      </c>
+      <c r="V163" t="s">
+        <v>1533</v>
+      </c>
+      <c r="W163" t="s">
+        <v>1534</v>
+      </c>
+      <c r="X163" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AB163" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI163" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ163" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AK163">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="AL163">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E164">
+        <v>7500000</v>
+      </c>
+      <c r="F164">
+        <v>3</v>
+      </c>
+      <c r="G164" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H164">
+        <v>1000000</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>6500000</v>
+      </c>
+      <c r="K164">
+        <v>18</v>
+      </c>
+      <c r="L164" t="s">
+        <v>72</v>
+      </c>
+      <c r="M164" t="s">
+        <v>70</v>
+      </c>
+      <c r="N164" t="s">
+        <v>70</v>
+      </c>
+      <c r="O164" t="s">
+        <v>70</v>
+      </c>
+      <c r="P164" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>70</v>
+      </c>
+      <c r="R164" t="s">
+        <v>71</v>
+      </c>
+      <c r="S164">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T164">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U164" t="s">
+        <v>253</v>
+      </c>
+      <c r="V164" t="s">
+        <v>1539</v>
+      </c>
+      <c r="W164" t="s">
+        <v>1540</v>
+      </c>
+      <c r="X164" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AB164" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI164" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ164" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AK164">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="AL164">
+        <f t="shared" si="10"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E80C7BB-DBD7-4F83-B470-8B1BBC035ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5779BD1B-39F0-4721-9541-E298C749FA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="1545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="1551">
   <si>
     <t>#</t>
   </si>
@@ -4671,6 +4671,24 @@
   </si>
   <si>
     <t>₹ 10 lakh for 1% Equity and ₹ 65 Lakhs Debt @ 18% Interest</t>
+  </si>
+  <si>
+    <t>Nish Hair</t>
+  </si>
+  <si>
+    <t>Parul Hariom Gulati</t>
+  </si>
+  <si>
+    <t>Hair Extensions</t>
+  </si>
+  <si>
+    <t>Mybyk</t>
+  </si>
+  <si>
+    <t>Arjit Soni</t>
+  </si>
+  <si>
+    <t>Public Bicycle Sharing Service</t>
   </si>
 </sst>
 </file>
@@ -5087,10 +5105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BH164"/>
+  <dimension ref="A1:BH166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5418,21 +5436,21 @@
       </c>
       <c r="AS2">
         <f>COUNTIF(L:L,AR2)</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AU2" t="s">
         <v>237</v>
       </c>
       <c r="AV2">
         <f>COUNTIF(T:T,"1")</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AX2" t="s">
         <v>243</v>
       </c>
       <c r="AY2">
         <f>COUNTIF(S:S,"0")</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA2" t="s">
         <v>12</v>
@@ -5569,14 +5587,14 @@
       </c>
       <c r="AP3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="s">
         <v>59</v>
       </c>
       <c r="AS3">
         <f>COUNTIF(L:L,AR3)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU3" t="s">
         <v>238</v>
@@ -5590,7 +5608,7 @@
       </c>
       <c r="AY3">
         <f>COUNTIF(S:S,"1")</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
@@ -5755,7 +5773,7 @@
       </c>
       <c r="BE4">
         <f>COUNTIF(U:U,BD4)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="BG4">
         <f t="shared" si="5"/>
@@ -5875,7 +5893,7 @@
       </c>
       <c r="AP5">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="s">
         <v>240</v>
@@ -6195,7 +6213,7 @@
       </c>
       <c r="BB7">
         <f>COUNTIF(R:R,"Y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BG7">
         <f t="shared" si="5"/>
@@ -13444,7 +13462,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T164" si="7">COUNTIF(V69:AA69, "*")</f>
+        <f t="shared" ref="T69:T166" si="7">COUNTIF(V69:AA69, "*")</f>
         <v>2</v>
       </c>
       <c r="U69" t="s">
@@ -15511,7 +15529,7 @@
         <v>70</v>
       </c>
       <c r="S87">
-        <f t="shared" ref="S87:S164" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
+        <f t="shared" ref="S87:S166" si="8">SUM(COUNTIF(M87:R87, "Y"))</f>
         <v>1</v>
       </c>
       <c r="T87">
@@ -15555,11 +15573,11 @@
         <v>1033</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK164" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
+        <f t="shared" ref="AK87:AK166" si="9" xml:space="preserve"> (( E87/F87 ) * 100) / 10000000</f>
         <v>200</v>
       </c>
       <c r="AL87">
-        <f t="shared" ref="AL87:AL164" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
+        <f t="shared" ref="AL87:AL166" si="10">IFERROR(((H87/I87)*100)/10000000, 0)</f>
         <v>80</v>
       </c>
     </row>
@@ -22602,6 +22620,180 @@
       <c r="AL164">
         <f t="shared" si="10"/>
         <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E165">
+        <v>10000000</v>
+      </c>
+      <c r="F165">
+        <v>2</v>
+      </c>
+      <c r="G165" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H165">
+        <v>10000000</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165" t="s">
+        <v>72</v>
+      </c>
+      <c r="M165" t="s">
+        <v>70</v>
+      </c>
+      <c r="N165" t="s">
+        <v>70</v>
+      </c>
+      <c r="O165" t="s">
+        <v>70</v>
+      </c>
+      <c r="P165" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>70</v>
+      </c>
+      <c r="R165" t="s">
+        <v>71</v>
+      </c>
+      <c r="S165">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T165">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U165" t="s">
+        <v>254</v>
+      </c>
+      <c r="V165" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AB165" t="s">
+        <v>326</v>
+      </c>
+      <c r="AI165" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ165" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AK165">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="AL165">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E166">
+        <v>20000000</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166" t="s">
+        <v>59</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166" t="s">
+        <v>59</v>
+      </c>
+      <c r="M166" t="s">
+        <v>70</v>
+      </c>
+      <c r="N166" t="s">
+        <v>70</v>
+      </c>
+      <c r="O166" t="s">
+        <v>70</v>
+      </c>
+      <c r="P166" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>70</v>
+      </c>
+      <c r="R166" t="s">
+        <v>70</v>
+      </c>
+      <c r="S166">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T166">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U166" t="s">
+        <v>254</v>
+      </c>
+      <c r="V166" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI166" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ166" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AK166">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="AL166">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5463D326-61BD-4042-92DE-752FC2A479B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72FAF9B-BC26-41ED-9335-FCFD32B52070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3475" uniqueCount="1574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3487" uniqueCount="1574">
   <si>
     <t>#</t>
   </si>
@@ -5174,10 +5174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
-  <dimension ref="A1:BW182"/>
+  <dimension ref="A1:CK182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH161" workbookViewId="0">
-      <selection activeCell="BM180" sqref="BM180"/>
+    <sheetView tabSelected="1" topLeftCell="BU1" workbookViewId="0">
+      <selection activeCell="BZ1" sqref="BZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5239,9 +5239,10 @@
     <col min="73" max="73" width="19" customWidth="1"/>
     <col min="74" max="74" width="23.33203125" customWidth="1"/>
     <col min="75" max="75" width="19.77734375" customWidth="1"/>
+    <col min="78" max="78" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5434,8 +5435,44 @@
       <c r="BW1" s="1" t="s">
         <v>1562</v>
       </c>
+      <c r="BZ1" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>1562</v>
+      </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5640,8 +5677,44 @@
         <f>IF(O2="Y",J2/S2,0)</f>
         <v>0</v>
       </c>
+      <c r="BZ2">
+        <v>5000000</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>5000000</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5846,8 +5919,44 @@
         <f t="shared" ref="BW3:BW66" si="18">IF(O3="Y",J3/S3,0)</f>
         <v>0</v>
       </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>1000000</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>1000000</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>1000000</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6045,8 +6154,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6241,8 +6386,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ5">
+        <v>2500000</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>2500000</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6437,8 +6618,44 @@
         <f t="shared" si="18"/>
         <v>5000000</v>
       </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>5000000</v>
+      </c>
+      <c r="CE6">
+        <v>5000000</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>5000000</v>
+      </c>
+      <c r="CK6">
+        <v>5000000</v>
+      </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -6629,8 +6846,44 @@
         <f t="shared" si="18"/>
         <v>2500000</v>
       </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>5000000</v>
+      </c>
+      <c r="CK7">
+        <v>2500000</v>
+      </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6807,8 +7060,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6981,8 +7270,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ9">
+        <v>5000000</v>
+      </c>
+      <c r="CA9">
+        <v>5000000</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>5000000</v>
+      </c>
+      <c r="CG9">
+        <v>5000000</v>
+      </c>
+      <c r="CH9">
+        <v>5000000</v>
+      </c>
+      <c r="CI9">
+        <v>5000000</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -7149,8 +7474,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>2000000</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -7320,8 +7681,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ11">
+        <v>5000000</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>5000000</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -7494,8 +7891,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12">
+        <v>2000000</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>2000000</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -7662,8 +8095,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ13">
+        <v>0</v>
+      </c>
+      <c r="CA13">
+        <v>0</v>
+      </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13">
+        <v>0</v>
+      </c>
+      <c r="CE13">
+        <v>0</v>
+      </c>
+      <c r="CF13">
+        <v>3500000</v>
+      </c>
+      <c r="CG13">
+        <v>3500000</v>
+      </c>
+      <c r="CH13">
+        <v>0</v>
+      </c>
+      <c r="CI13">
+        <v>0</v>
+      </c>
+      <c r="CJ13">
+        <v>0</v>
+      </c>
+      <c r="CK13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -7833,8 +8302,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ14">
+        <v>0</v>
+      </c>
+      <c r="CA14">
+        <v>0</v>
+      </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CD14">
+        <v>5000000</v>
+      </c>
+      <c r="CE14">
+        <v>0</v>
+      </c>
+      <c r="CF14">
+        <v>0</v>
+      </c>
+      <c r="CG14">
+        <v>0</v>
+      </c>
+      <c r="CH14">
+        <v>0</v>
+      </c>
+      <c r="CI14">
+        <v>0</v>
+      </c>
+      <c r="CJ14">
+        <v>5000000</v>
+      </c>
+      <c r="CK14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -8001,8 +8506,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ15">
+        <v>0</v>
+      </c>
+      <c r="CA15">
+        <v>0</v>
+      </c>
+      <c r="CB15">
+        <v>0</v>
+      </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
+      <c r="CD15">
+        <v>0</v>
+      </c>
+      <c r="CE15">
+        <v>0</v>
+      </c>
+      <c r="CF15">
+        <v>0</v>
+      </c>
+      <c r="CG15">
+        <v>0</v>
+      </c>
+      <c r="CH15">
+        <v>0</v>
+      </c>
+      <c r="CI15">
+        <v>0</v>
+      </c>
+      <c r="CJ15">
+        <v>0</v>
+      </c>
+      <c r="CK15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -8175,8 +8716,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ16">
+        <v>0</v>
+      </c>
+      <c r="CA16">
+        <v>0</v>
+      </c>
+      <c r="CB16">
+        <v>0</v>
+      </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
+      <c r="CD16">
+        <v>0</v>
+      </c>
+      <c r="CE16">
+        <v>0</v>
+      </c>
+      <c r="CF16">
+        <v>0</v>
+      </c>
+      <c r="CG16">
+        <v>0</v>
+      </c>
+      <c r="CH16">
+        <v>0</v>
+      </c>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16">
+        <v>0</v>
+      </c>
+      <c r="CK16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8343,8 +8920,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ17">
+        <v>1250000</v>
+      </c>
+      <c r="CA17">
+        <v>0</v>
+      </c>
+      <c r="CB17">
+        <v>0</v>
+      </c>
+      <c r="CC17">
+        <v>0</v>
+      </c>
+      <c r="CD17">
+        <v>1250000</v>
+      </c>
+      <c r="CE17">
+        <v>0</v>
+      </c>
+      <c r="CF17">
+        <v>0</v>
+      </c>
+      <c r="CG17">
+        <v>0</v>
+      </c>
+      <c r="CH17">
+        <v>1250000</v>
+      </c>
+      <c r="CI17">
+        <v>0</v>
+      </c>
+      <c r="CJ17">
+        <v>1250000</v>
+      </c>
+      <c r="CK17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8511,8 +9124,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ18">
+        <v>3333333.3333333335</v>
+      </c>
+      <c r="CA18">
+        <v>0</v>
+      </c>
+      <c r="CB18">
+        <v>0</v>
+      </c>
+      <c r="CC18">
+        <v>0</v>
+      </c>
+      <c r="CD18">
+        <v>0</v>
+      </c>
+      <c r="CE18">
+        <v>0</v>
+      </c>
+      <c r="CF18">
+        <v>3333333.3333333335</v>
+      </c>
+      <c r="CG18">
+        <v>0</v>
+      </c>
+      <c r="CH18">
+        <v>3333333.3333333335</v>
+      </c>
+      <c r="CI18">
+        <v>0</v>
+      </c>
+      <c r="CJ18">
+        <v>0</v>
+      </c>
+      <c r="CK18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8678,8 +9327,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ19">
+        <v>0</v>
+      </c>
+      <c r="CA19">
+        <v>0</v>
+      </c>
+      <c r="CB19">
+        <v>0</v>
+      </c>
+      <c r="CC19">
+        <v>0</v>
+      </c>
+      <c r="CD19">
+        <v>0</v>
+      </c>
+      <c r="CE19">
+        <v>0</v>
+      </c>
+      <c r="CF19">
+        <v>0</v>
+      </c>
+      <c r="CG19">
+        <v>0</v>
+      </c>
+      <c r="CH19">
+        <v>0</v>
+      </c>
+      <c r="CI19">
+        <v>0</v>
+      </c>
+      <c r="CJ19">
+        <v>0</v>
+      </c>
+      <c r="CK19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8842,8 +9527,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ20">
+        <v>0</v>
+      </c>
+      <c r="CA20">
+        <v>0</v>
+      </c>
+      <c r="CB20">
+        <v>0</v>
+      </c>
+      <c r="CC20">
+        <v>0</v>
+      </c>
+      <c r="CD20">
+        <v>0</v>
+      </c>
+      <c r="CE20">
+        <v>0</v>
+      </c>
+      <c r="CF20">
+        <v>0</v>
+      </c>
+      <c r="CG20">
+        <v>0</v>
+      </c>
+      <c r="CH20">
+        <v>0</v>
+      </c>
+      <c r="CI20">
+        <v>0</v>
+      </c>
+      <c r="CJ20">
+        <v>0</v>
+      </c>
+      <c r="CK20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9006,8 +9727,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ21">
+        <v>1500000</v>
+      </c>
+      <c r="CA21">
+        <v>0</v>
+      </c>
+      <c r="CB21">
+        <v>0</v>
+      </c>
+      <c r="CC21">
+        <v>0</v>
+      </c>
+      <c r="CD21">
+        <v>0</v>
+      </c>
+      <c r="CE21">
+        <v>0</v>
+      </c>
+      <c r="CF21">
+        <v>0</v>
+      </c>
+      <c r="CG21">
+        <v>0</v>
+      </c>
+      <c r="CH21">
+        <v>0</v>
+      </c>
+      <c r="CI21">
+        <v>0</v>
+      </c>
+      <c r="CJ21">
+        <v>1500000</v>
+      </c>
+      <c r="CK21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9173,8 +9930,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ22">
+        <v>0</v>
+      </c>
+      <c r="CA22">
+        <v>0</v>
+      </c>
+      <c r="CB22">
+        <v>0</v>
+      </c>
+      <c r="CC22">
+        <v>0</v>
+      </c>
+      <c r="CD22">
+        <v>0</v>
+      </c>
+      <c r="CE22">
+        <v>0</v>
+      </c>
+      <c r="CF22">
+        <v>5000000</v>
+      </c>
+      <c r="CG22">
+        <v>5000000</v>
+      </c>
+      <c r="CH22">
+        <v>0</v>
+      </c>
+      <c r="CI22">
+        <v>0</v>
+      </c>
+      <c r="CJ22">
+        <v>0</v>
+      </c>
+      <c r="CK22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9334,8 +10127,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ23">
+        <v>1500000</v>
+      </c>
+      <c r="CA23">
+        <v>0</v>
+      </c>
+      <c r="CB23">
+        <v>0</v>
+      </c>
+      <c r="CC23">
+        <v>0</v>
+      </c>
+      <c r="CD23">
+        <v>0</v>
+      </c>
+      <c r="CE23">
+        <v>0</v>
+      </c>
+      <c r="CF23">
+        <v>1500000</v>
+      </c>
+      <c r="CG23">
+        <v>0</v>
+      </c>
+      <c r="CH23">
+        <v>0</v>
+      </c>
+      <c r="CI23">
+        <v>0</v>
+      </c>
+      <c r="CJ23">
+        <v>0</v>
+      </c>
+      <c r="CK23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9498,8 +10327,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ24">
+        <v>3750000</v>
+      </c>
+      <c r="CA24">
+        <v>0</v>
+      </c>
+      <c r="CB24">
+        <v>0</v>
+      </c>
+      <c r="CC24">
+        <v>0</v>
+      </c>
+      <c r="CD24">
+        <v>0</v>
+      </c>
+      <c r="CE24">
+        <v>0</v>
+      </c>
+      <c r="CF24">
+        <v>0</v>
+      </c>
+      <c r="CG24">
+        <v>0</v>
+      </c>
+      <c r="CH24">
+        <v>3750000</v>
+      </c>
+      <c r="CI24">
+        <v>0</v>
+      </c>
+      <c r="CJ24">
+        <v>0</v>
+      </c>
+      <c r="CK24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9659,8 +10524,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ25">
+        <v>0</v>
+      </c>
+      <c r="CA25">
+        <v>0</v>
+      </c>
+      <c r="CB25">
+        <v>0</v>
+      </c>
+      <c r="CC25">
+        <v>0</v>
+      </c>
+      <c r="CD25">
+        <v>0</v>
+      </c>
+      <c r="CE25">
+        <v>0</v>
+      </c>
+      <c r="CF25">
+        <v>0</v>
+      </c>
+      <c r="CG25">
+        <v>0</v>
+      </c>
+      <c r="CH25">
+        <v>0</v>
+      </c>
+      <c r="CI25">
+        <v>0</v>
+      </c>
+      <c r="CJ25">
+        <v>0</v>
+      </c>
+      <c r="CK25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9823,8 +10724,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ26">
+        <v>3250000</v>
+      </c>
+      <c r="CA26">
+        <v>0</v>
+      </c>
+      <c r="CB26">
+        <v>0</v>
+      </c>
+      <c r="CC26">
+        <v>0</v>
+      </c>
+      <c r="CD26">
+        <v>0</v>
+      </c>
+      <c r="CE26">
+        <v>0</v>
+      </c>
+      <c r="CF26">
+        <v>0</v>
+      </c>
+      <c r="CG26">
+        <v>0</v>
+      </c>
+      <c r="CH26">
+        <v>0</v>
+      </c>
+      <c r="CI26">
+        <v>0</v>
+      </c>
+      <c r="CJ26">
+        <v>3250000</v>
+      </c>
+      <c r="CK26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9984,8 +10921,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ27">
+        <v>0</v>
+      </c>
+      <c r="CA27">
+        <v>0</v>
+      </c>
+      <c r="CB27">
+        <v>0</v>
+      </c>
+      <c r="CC27">
+        <v>0</v>
+      </c>
+      <c r="CD27">
+        <v>0</v>
+      </c>
+      <c r="CE27">
+        <v>0</v>
+      </c>
+      <c r="CF27">
+        <v>5000000</v>
+      </c>
+      <c r="CG27">
+        <v>0</v>
+      </c>
+      <c r="CH27">
+        <v>0</v>
+      </c>
+      <c r="CI27">
+        <v>0</v>
+      </c>
+      <c r="CJ27">
+        <v>0</v>
+      </c>
+      <c r="CK27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10145,8 +11118,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ28">
+        <v>0</v>
+      </c>
+      <c r="CA28">
+        <v>0</v>
+      </c>
+      <c r="CB28">
+        <v>0</v>
+      </c>
+      <c r="CC28">
+        <v>0</v>
+      </c>
+      <c r="CD28">
+        <v>0</v>
+      </c>
+      <c r="CE28">
+        <v>0</v>
+      </c>
+      <c r="CF28">
+        <v>0</v>
+      </c>
+      <c r="CG28">
+        <v>0</v>
+      </c>
+      <c r="CH28">
+        <v>0</v>
+      </c>
+      <c r="CI28">
+        <v>0</v>
+      </c>
+      <c r="CJ28">
+        <v>0</v>
+      </c>
+      <c r="CK28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10309,8 +11318,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ29">
+        <v>0</v>
+      </c>
+      <c r="CA29">
+        <v>0</v>
+      </c>
+      <c r="CB29">
+        <v>0</v>
+      </c>
+      <c r="CC29">
+        <v>0</v>
+      </c>
+      <c r="CD29">
+        <v>10000000</v>
+      </c>
+      <c r="CE29">
+        <v>0</v>
+      </c>
+      <c r="CF29">
+        <v>0</v>
+      </c>
+      <c r="CG29">
+        <v>0</v>
+      </c>
+      <c r="CH29">
+        <v>0</v>
+      </c>
+      <c r="CI29">
+        <v>0</v>
+      </c>
+      <c r="CJ29">
+        <v>0</v>
+      </c>
+      <c r="CK29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10473,8 +11518,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ30">
+        <v>0</v>
+      </c>
+      <c r="CA30">
+        <v>0</v>
+      </c>
+      <c r="CB30">
+        <v>0</v>
+      </c>
+      <c r="CC30">
+        <v>0</v>
+      </c>
+      <c r="CD30">
+        <v>0</v>
+      </c>
+      <c r="CE30">
+        <v>0</v>
+      </c>
+      <c r="CF30">
+        <v>0</v>
+      </c>
+      <c r="CG30">
+        <v>0</v>
+      </c>
+      <c r="CH30">
+        <v>0</v>
+      </c>
+      <c r="CI30">
+        <v>0</v>
+      </c>
+      <c r="CJ30">
+        <v>0</v>
+      </c>
+      <c r="CK30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10637,8 +11718,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ31">
+        <v>0</v>
+      </c>
+      <c r="CA31">
+        <v>0</v>
+      </c>
+      <c r="CB31">
+        <v>0</v>
+      </c>
+      <c r="CC31">
+        <v>0</v>
+      </c>
+      <c r="CD31">
+        <v>0</v>
+      </c>
+      <c r="CE31">
+        <v>0</v>
+      </c>
+      <c r="CF31">
+        <v>2500000</v>
+      </c>
+      <c r="CG31">
+        <v>5000000</v>
+      </c>
+      <c r="CH31">
+        <v>0</v>
+      </c>
+      <c r="CI31">
+        <v>0</v>
+      </c>
+      <c r="CJ31">
+        <v>0</v>
+      </c>
+      <c r="CK31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10801,8 +11918,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ32">
+        <v>0</v>
+      </c>
+      <c r="CA32">
+        <v>0</v>
+      </c>
+      <c r="CB32">
+        <v>0</v>
+      </c>
+      <c r="CC32">
+        <v>0</v>
+      </c>
+      <c r="CD32">
+        <v>0</v>
+      </c>
+      <c r="CE32">
+        <v>0</v>
+      </c>
+      <c r="CF32">
+        <v>0</v>
+      </c>
+      <c r="CG32">
+        <v>0</v>
+      </c>
+      <c r="CH32">
+        <v>4000000</v>
+      </c>
+      <c r="CI32">
+        <v>0</v>
+      </c>
+      <c r="CJ32">
+        <v>0</v>
+      </c>
+      <c r="CK32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10971,8 +12124,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ33">
+        <v>3750000</v>
+      </c>
+      <c r="CA33">
+        <v>0</v>
+      </c>
+      <c r="CB33">
+        <v>0</v>
+      </c>
+      <c r="CC33">
+        <v>0</v>
+      </c>
+      <c r="CD33">
+        <v>0</v>
+      </c>
+      <c r="CE33">
+        <v>0</v>
+      </c>
+      <c r="CF33">
+        <v>0</v>
+      </c>
+      <c r="CG33">
+        <v>0</v>
+      </c>
+      <c r="CH33">
+        <v>3750000</v>
+      </c>
+      <c r="CI33">
+        <v>0</v>
+      </c>
+      <c r="CJ33">
+        <v>0</v>
+      </c>
+      <c r="CK33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11135,8 +12324,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ34">
+        <v>0</v>
+      </c>
+      <c r="CA34">
+        <v>0</v>
+      </c>
+      <c r="CB34">
+        <v>0</v>
+      </c>
+      <c r="CC34">
+        <v>0</v>
+      </c>
+      <c r="CD34">
+        <v>0</v>
+      </c>
+      <c r="CE34">
+        <v>0</v>
+      </c>
+      <c r="CF34">
+        <v>3000000</v>
+      </c>
+      <c r="CG34">
+        <v>5000000</v>
+      </c>
+      <c r="CH34">
+        <v>0</v>
+      </c>
+      <c r="CI34">
+        <v>0</v>
+      </c>
+      <c r="CJ34">
+        <v>0</v>
+      </c>
+      <c r="CK34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11299,8 +12524,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ35">
+        <v>6000000</v>
+      </c>
+      <c r="CA35">
+        <v>0</v>
+      </c>
+      <c r="CB35">
+        <v>0</v>
+      </c>
+      <c r="CC35">
+        <v>0</v>
+      </c>
+      <c r="CD35">
+        <v>0</v>
+      </c>
+      <c r="CE35">
+        <v>0</v>
+      </c>
+      <c r="CF35">
+        <v>0</v>
+      </c>
+      <c r="CG35">
+        <v>0</v>
+      </c>
+      <c r="CH35">
+        <v>0</v>
+      </c>
+      <c r="CI35">
+        <v>0</v>
+      </c>
+      <c r="CJ35">
+        <v>0</v>
+      </c>
+      <c r="CK35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11460,8 +12721,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ36">
+        <v>0</v>
+      </c>
+      <c r="CA36">
+        <v>0</v>
+      </c>
+      <c r="CB36">
+        <v>0</v>
+      </c>
+      <c r="CC36">
+        <v>0</v>
+      </c>
+      <c r="CD36">
+        <v>0</v>
+      </c>
+      <c r="CE36">
+        <v>0</v>
+      </c>
+      <c r="CF36">
+        <v>10000000</v>
+      </c>
+      <c r="CG36">
+        <v>0</v>
+      </c>
+      <c r="CH36">
+        <v>0</v>
+      </c>
+      <c r="CI36">
+        <v>0</v>
+      </c>
+      <c r="CJ36">
+        <v>0</v>
+      </c>
+      <c r="CK36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11621,8 +12918,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ37">
+        <v>0</v>
+      </c>
+      <c r="CA37">
+        <v>0</v>
+      </c>
+      <c r="CB37">
+        <v>0</v>
+      </c>
+      <c r="CC37">
+        <v>0</v>
+      </c>
+      <c r="CD37">
+        <v>0</v>
+      </c>
+      <c r="CE37">
+        <v>0</v>
+      </c>
+      <c r="CF37">
+        <v>0</v>
+      </c>
+      <c r="CG37">
+        <v>0</v>
+      </c>
+      <c r="CH37">
+        <v>0</v>
+      </c>
+      <c r="CI37">
+        <v>0</v>
+      </c>
+      <c r="CJ37">
+        <v>0</v>
+      </c>
+      <c r="CK37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11788,8 +13121,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ38">
+        <v>1875000</v>
+      </c>
+      <c r="CA38">
+        <v>0</v>
+      </c>
+      <c r="CB38">
+        <v>1875000</v>
+      </c>
+      <c r="CC38">
+        <v>0</v>
+      </c>
+      <c r="CD38">
+        <v>0</v>
+      </c>
+      <c r="CE38">
+        <v>0</v>
+      </c>
+      <c r="CF38">
+        <v>1875000</v>
+      </c>
+      <c r="CG38">
+        <v>0</v>
+      </c>
+      <c r="CH38">
+        <v>1875000</v>
+      </c>
+      <c r="CI38">
+        <v>0</v>
+      </c>
+      <c r="CJ38">
+        <v>0</v>
+      </c>
+      <c r="CK38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11952,8 +13321,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ39">
+        <v>0</v>
+      </c>
+      <c r="CA39">
+        <v>0</v>
+      </c>
+      <c r="CB39">
+        <v>4000000</v>
+      </c>
+      <c r="CC39">
+        <v>0</v>
+      </c>
+      <c r="CD39">
+        <v>0</v>
+      </c>
+      <c r="CE39">
+        <v>0</v>
+      </c>
+      <c r="CF39">
+        <v>0</v>
+      </c>
+      <c r="CG39">
+        <v>0</v>
+      </c>
+      <c r="CH39">
+        <v>0</v>
+      </c>
+      <c r="CI39">
+        <v>0</v>
+      </c>
+      <c r="CJ39">
+        <v>0</v>
+      </c>
+      <c r="CK39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12116,8 +13521,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ40">
+        <v>0</v>
+      </c>
+      <c r="CA40">
+        <v>0</v>
+      </c>
+      <c r="CB40">
+        <v>0</v>
+      </c>
+      <c r="CC40">
+        <v>0</v>
+      </c>
+      <c r="CD40">
+        <v>0</v>
+      </c>
+      <c r="CE40">
+        <v>0</v>
+      </c>
+      <c r="CF40">
+        <v>0</v>
+      </c>
+      <c r="CG40">
+        <v>0</v>
+      </c>
+      <c r="CH40">
+        <v>0</v>
+      </c>
+      <c r="CI40">
+        <v>0</v>
+      </c>
+      <c r="CJ40">
+        <v>0</v>
+      </c>
+      <c r="CK40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12280,8 +13721,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ41">
+        <v>0</v>
+      </c>
+      <c r="CA41">
+        <v>0</v>
+      </c>
+      <c r="CB41">
+        <v>0</v>
+      </c>
+      <c r="CC41">
+        <v>0</v>
+      </c>
+      <c r="CD41">
+        <v>2550000</v>
+      </c>
+      <c r="CE41">
+        <v>0</v>
+      </c>
+      <c r="CF41">
+        <v>0</v>
+      </c>
+      <c r="CG41">
+        <v>0</v>
+      </c>
+      <c r="CH41">
+        <v>2550000</v>
+      </c>
+      <c r="CI41">
+        <v>0</v>
+      </c>
+      <c r="CJ41">
+        <v>0</v>
+      </c>
+      <c r="CK41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12444,8 +13921,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ42">
+        <v>0</v>
+      </c>
+      <c r="CA42">
+        <v>0</v>
+      </c>
+      <c r="CB42">
+        <v>7500000</v>
+      </c>
+      <c r="CC42">
+        <v>0</v>
+      </c>
+      <c r="CD42">
+        <v>0</v>
+      </c>
+      <c r="CE42">
+        <v>0</v>
+      </c>
+      <c r="CF42">
+        <v>0</v>
+      </c>
+      <c r="CG42">
+        <v>0</v>
+      </c>
+      <c r="CH42">
+        <v>0</v>
+      </c>
+      <c r="CI42">
+        <v>0</v>
+      </c>
+      <c r="CJ42">
+        <v>0</v>
+      </c>
+      <c r="CK42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12614,8 +14127,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ43">
+        <v>0</v>
+      </c>
+      <c r="CA43">
+        <v>0</v>
+      </c>
+      <c r="CB43">
+        <v>0</v>
+      </c>
+      <c r="CC43">
+        <v>0</v>
+      </c>
+      <c r="CD43">
+        <v>0</v>
+      </c>
+      <c r="CE43">
+        <v>0</v>
+      </c>
+      <c r="CF43">
+        <v>0</v>
+      </c>
+      <c r="CG43">
+        <v>0</v>
+      </c>
+      <c r="CH43">
+        <v>0</v>
+      </c>
+      <c r="CI43">
+        <v>0</v>
+      </c>
+      <c r="CJ43">
+        <v>0</v>
+      </c>
+      <c r="CK43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12778,8 +14327,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ44">
+        <v>0</v>
+      </c>
+      <c r="CA44">
+        <v>0</v>
+      </c>
+      <c r="CB44">
+        <v>7200000</v>
+      </c>
+      <c r="CC44">
+        <v>0</v>
+      </c>
+      <c r="CD44">
+        <v>0</v>
+      </c>
+      <c r="CE44">
+        <v>0</v>
+      </c>
+      <c r="CF44">
+        <v>0</v>
+      </c>
+      <c r="CG44">
+        <v>0</v>
+      </c>
+      <c r="CH44">
+        <v>0</v>
+      </c>
+      <c r="CI44">
+        <v>0</v>
+      </c>
+      <c r="CJ44">
+        <v>0</v>
+      </c>
+      <c r="CK44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12942,8 +14527,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ45">
+        <v>4500000</v>
+      </c>
+      <c r="CA45">
+        <v>0</v>
+      </c>
+      <c r="CB45">
+        <v>0</v>
+      </c>
+      <c r="CC45">
+        <v>0</v>
+      </c>
+      <c r="CD45">
+        <v>0</v>
+      </c>
+      <c r="CE45">
+        <v>0</v>
+      </c>
+      <c r="CF45">
+        <v>0</v>
+      </c>
+      <c r="CG45">
+        <v>0</v>
+      </c>
+      <c r="CH45">
+        <v>4500000</v>
+      </c>
+      <c r="CI45">
+        <v>0</v>
+      </c>
+      <c r="CJ45">
+        <v>0</v>
+      </c>
+      <c r="CK45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13106,8 +14727,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ46">
+        <v>0</v>
+      </c>
+      <c r="CA46">
+        <v>0</v>
+      </c>
+      <c r="CB46">
+        <v>3000000</v>
+      </c>
+      <c r="CC46">
+        <v>0</v>
+      </c>
+      <c r="CD46">
+        <v>0</v>
+      </c>
+      <c r="CE46">
+        <v>0</v>
+      </c>
+      <c r="CF46">
+        <v>3000000</v>
+      </c>
+      <c r="CG46">
+        <v>0</v>
+      </c>
+      <c r="CH46">
+        <v>0</v>
+      </c>
+      <c r="CI46">
+        <v>0</v>
+      </c>
+      <c r="CJ46">
+        <v>0</v>
+      </c>
+      <c r="CK46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13273,8 +14930,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ47">
+        <v>0</v>
+      </c>
+      <c r="CA47">
+        <v>0</v>
+      </c>
+      <c r="CB47">
+        <v>0</v>
+      </c>
+      <c r="CC47">
+        <v>0</v>
+      </c>
+      <c r="CD47">
+        <v>0</v>
+      </c>
+      <c r="CE47">
+        <v>0</v>
+      </c>
+      <c r="CF47">
+        <v>1900000</v>
+      </c>
+      <c r="CG47">
+        <v>4100000</v>
+      </c>
+      <c r="CH47">
+        <v>0</v>
+      </c>
+      <c r="CI47">
+        <v>0</v>
+      </c>
+      <c r="CJ47">
+        <v>0</v>
+      </c>
+      <c r="CK47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13437,8 +15130,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ48">
+        <v>0</v>
+      </c>
+      <c r="CA48">
+        <v>0</v>
+      </c>
+      <c r="CB48">
+        <v>0</v>
+      </c>
+      <c r="CC48">
+        <v>0</v>
+      </c>
+      <c r="CD48">
+        <v>0</v>
+      </c>
+      <c r="CE48">
+        <v>0</v>
+      </c>
+      <c r="CF48">
+        <v>0</v>
+      </c>
+      <c r="CG48">
+        <v>0</v>
+      </c>
+      <c r="CH48">
+        <v>5000000</v>
+      </c>
+      <c r="CI48">
+        <v>0</v>
+      </c>
+      <c r="CJ48">
+        <v>0</v>
+      </c>
+      <c r="CK48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13607,8 +15336,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ49">
+        <v>0</v>
+      </c>
+      <c r="CA49">
+        <v>0</v>
+      </c>
+      <c r="CB49">
+        <v>0</v>
+      </c>
+      <c r="CC49">
+        <v>0</v>
+      </c>
+      <c r="CD49">
+        <v>4500000</v>
+      </c>
+      <c r="CE49">
+        <v>0</v>
+      </c>
+      <c r="CF49">
+        <v>0</v>
+      </c>
+      <c r="CG49">
+        <v>0</v>
+      </c>
+      <c r="CH49">
+        <v>4500000</v>
+      </c>
+      <c r="CI49">
+        <v>0</v>
+      </c>
+      <c r="CJ49">
+        <v>0</v>
+      </c>
+      <c r="CK49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13780,8 +15545,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ50">
+        <v>0</v>
+      </c>
+      <c r="CA50">
+        <v>0</v>
+      </c>
+      <c r="CB50">
+        <v>0</v>
+      </c>
+      <c r="CC50">
+        <v>0</v>
+      </c>
+      <c r="CD50">
+        <v>0</v>
+      </c>
+      <c r="CE50">
+        <v>0</v>
+      </c>
+      <c r="CF50">
+        <v>0</v>
+      </c>
+      <c r="CG50">
+        <v>0</v>
+      </c>
+      <c r="CH50">
+        <v>0</v>
+      </c>
+      <c r="CI50">
+        <v>0</v>
+      </c>
+      <c r="CJ50">
+        <v>0</v>
+      </c>
+      <c r="CK50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -13944,8 +15745,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ51">
+        <v>0</v>
+      </c>
+      <c r="CA51">
+        <v>0</v>
+      </c>
+      <c r="CB51">
+        <v>0</v>
+      </c>
+      <c r="CC51">
+        <v>0</v>
+      </c>
+      <c r="CD51">
+        <v>0</v>
+      </c>
+      <c r="CE51">
+        <v>0</v>
+      </c>
+      <c r="CF51">
+        <v>0</v>
+      </c>
+      <c r="CG51">
+        <v>0</v>
+      </c>
+      <c r="CH51">
+        <v>0</v>
+      </c>
+      <c r="CI51">
+        <v>0</v>
+      </c>
+      <c r="CJ51">
+        <v>0</v>
+      </c>
+      <c r="CK51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -14108,8 +15945,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ52">
+        <v>0</v>
+      </c>
+      <c r="CA52">
+        <v>0</v>
+      </c>
+      <c r="CB52">
+        <v>1000000</v>
+      </c>
+      <c r="CC52">
+        <v>0</v>
+      </c>
+      <c r="CD52">
+        <v>0</v>
+      </c>
+      <c r="CE52">
+        <v>0</v>
+      </c>
+      <c r="CF52">
+        <v>0</v>
+      </c>
+      <c r="CG52">
+        <v>0</v>
+      </c>
+      <c r="CH52">
+        <v>1000000</v>
+      </c>
+      <c r="CI52">
+        <v>0</v>
+      </c>
+      <c r="CJ52">
+        <v>0</v>
+      </c>
+      <c r="CK52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -14269,8 +16142,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ53">
+        <v>0</v>
+      </c>
+      <c r="CA53">
+        <v>0</v>
+      </c>
+      <c r="CB53">
+        <v>0</v>
+      </c>
+      <c r="CC53">
+        <v>0</v>
+      </c>
+      <c r="CD53">
+        <v>5000000</v>
+      </c>
+      <c r="CE53">
+        <v>0</v>
+      </c>
+      <c r="CF53">
+        <v>0</v>
+      </c>
+      <c r="CG53">
+        <v>0</v>
+      </c>
+      <c r="CH53">
+        <v>0</v>
+      </c>
+      <c r="CI53">
+        <v>0</v>
+      </c>
+      <c r="CJ53">
+        <v>0</v>
+      </c>
+      <c r="CK53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -14436,8 +16345,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ54">
+        <v>0</v>
+      </c>
+      <c r="CA54">
+        <v>0</v>
+      </c>
+      <c r="CB54">
+        <v>0</v>
+      </c>
+      <c r="CC54">
+        <v>0</v>
+      </c>
+      <c r="CD54">
+        <v>0</v>
+      </c>
+      <c r="CE54">
+        <v>0</v>
+      </c>
+      <c r="CF54">
+        <v>0</v>
+      </c>
+      <c r="CG54">
+        <v>0</v>
+      </c>
+      <c r="CH54">
+        <v>10000000</v>
+      </c>
+      <c r="CI54">
+        <v>0</v>
+      </c>
+      <c r="CJ54">
+        <v>0</v>
+      </c>
+      <c r="CK54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -14600,8 +16545,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ55">
+        <v>0</v>
+      </c>
+      <c r="CA55">
+        <v>0</v>
+      </c>
+      <c r="CB55">
+        <v>2500000</v>
+      </c>
+      <c r="CC55">
+        <v>2500000</v>
+      </c>
+      <c r="CD55">
+        <v>0</v>
+      </c>
+      <c r="CE55">
+        <v>0</v>
+      </c>
+      <c r="CF55">
+        <v>0</v>
+      </c>
+      <c r="CG55">
+        <v>0</v>
+      </c>
+      <c r="CH55">
+        <v>0</v>
+      </c>
+      <c r="CI55">
+        <v>0</v>
+      </c>
+      <c r="CJ55">
+        <v>0</v>
+      </c>
+      <c r="CK55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -14761,8 +16742,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ56">
+        <v>0</v>
+      </c>
+      <c r="CA56">
+        <v>0</v>
+      </c>
+      <c r="CB56">
+        <v>0</v>
+      </c>
+      <c r="CC56">
+        <v>0</v>
+      </c>
+      <c r="CD56">
+        <v>0</v>
+      </c>
+      <c r="CE56">
+        <v>0</v>
+      </c>
+      <c r="CF56">
+        <v>0</v>
+      </c>
+      <c r="CG56">
+        <v>0</v>
+      </c>
+      <c r="CH56">
+        <v>0</v>
+      </c>
+      <c r="CI56">
+        <v>0</v>
+      </c>
+      <c r="CJ56">
+        <v>0</v>
+      </c>
+      <c r="CK56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -14922,8 +16939,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ57">
+        <v>0</v>
+      </c>
+      <c r="CA57">
+        <v>0</v>
+      </c>
+      <c r="CB57">
+        <v>0</v>
+      </c>
+      <c r="CC57">
+        <v>0</v>
+      </c>
+      <c r="CD57">
+        <v>0</v>
+      </c>
+      <c r="CE57">
+        <v>0</v>
+      </c>
+      <c r="CF57">
+        <v>0</v>
+      </c>
+      <c r="CG57">
+        <v>0</v>
+      </c>
+      <c r="CH57">
+        <v>0</v>
+      </c>
+      <c r="CI57">
+        <v>0</v>
+      </c>
+      <c r="CJ57">
+        <v>0</v>
+      </c>
+      <c r="CK57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -15089,8 +17142,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ58">
+        <v>0</v>
+      </c>
+      <c r="CA58">
+        <v>0</v>
+      </c>
+      <c r="CB58">
+        <v>0</v>
+      </c>
+      <c r="CC58">
+        <v>0</v>
+      </c>
+      <c r="CD58">
+        <v>0</v>
+      </c>
+      <c r="CE58">
+        <v>0</v>
+      </c>
+      <c r="CF58">
+        <v>7000000</v>
+      </c>
+      <c r="CG58">
+        <v>0</v>
+      </c>
+      <c r="CH58">
+        <v>0</v>
+      </c>
+      <c r="CI58">
+        <v>0</v>
+      </c>
+      <c r="CJ58">
+        <v>0</v>
+      </c>
+      <c r="CK58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -15256,8 +17345,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ59">
+        <v>3750000</v>
+      </c>
+      <c r="CA59">
+        <v>0</v>
+      </c>
+      <c r="CB59">
+        <v>0</v>
+      </c>
+      <c r="CC59">
+        <v>0</v>
+      </c>
+      <c r="CD59">
+        <v>0</v>
+      </c>
+      <c r="CE59">
+        <v>0</v>
+      </c>
+      <c r="CF59">
+        <v>0</v>
+      </c>
+      <c r="CG59">
+        <v>0</v>
+      </c>
+      <c r="CH59">
+        <v>3750000</v>
+      </c>
+      <c r="CI59">
+        <v>0</v>
+      </c>
+      <c r="CJ59">
+        <v>0</v>
+      </c>
+      <c r="CK59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -15417,8 +17542,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ60">
+        <v>3000000</v>
+      </c>
+      <c r="CA60">
+        <v>0</v>
+      </c>
+      <c r="CB60">
+        <v>0</v>
+      </c>
+      <c r="CC60">
+        <v>0</v>
+      </c>
+      <c r="CD60">
+        <v>3000000</v>
+      </c>
+      <c r="CE60">
+        <v>0</v>
+      </c>
+      <c r="CF60">
+        <v>3000000</v>
+      </c>
+      <c r="CG60">
+        <v>0</v>
+      </c>
+      <c r="CH60">
+        <v>3000000</v>
+      </c>
+      <c r="CI60">
+        <v>0</v>
+      </c>
+      <c r="CJ60">
+        <v>3000000</v>
+      </c>
+      <c r="CK60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -15584,8 +17745,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ61">
+        <v>5000000</v>
+      </c>
+      <c r="CA61">
+        <v>0</v>
+      </c>
+      <c r="CB61">
+        <v>0</v>
+      </c>
+      <c r="CC61">
+        <v>0</v>
+      </c>
+      <c r="CD61">
+        <v>0</v>
+      </c>
+      <c r="CE61">
+        <v>0</v>
+      </c>
+      <c r="CF61">
+        <v>5000000</v>
+      </c>
+      <c r="CG61">
+        <v>0</v>
+      </c>
+      <c r="CH61">
+        <v>5000000</v>
+      </c>
+      <c r="CI61">
+        <v>0</v>
+      </c>
+      <c r="CJ61">
+        <v>0</v>
+      </c>
+      <c r="CK61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -15745,8 +17942,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ62">
+        <v>0</v>
+      </c>
+      <c r="CA62">
+        <v>0</v>
+      </c>
+      <c r="CB62">
+        <v>0</v>
+      </c>
+      <c r="CC62">
+        <v>0</v>
+      </c>
+      <c r="CD62">
+        <v>0</v>
+      </c>
+      <c r="CE62">
+        <v>0</v>
+      </c>
+      <c r="CF62">
+        <v>0</v>
+      </c>
+      <c r="CG62">
+        <v>0</v>
+      </c>
+      <c r="CH62">
+        <v>0</v>
+      </c>
+      <c r="CI62">
+        <v>0</v>
+      </c>
+      <c r="CJ62">
+        <v>0</v>
+      </c>
+      <c r="CK62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -15909,8 +18142,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ63">
+        <v>0</v>
+      </c>
+      <c r="CA63">
+        <v>0</v>
+      </c>
+      <c r="CB63">
+        <v>0</v>
+      </c>
+      <c r="CC63">
+        <v>0</v>
+      </c>
+      <c r="CD63">
+        <v>0</v>
+      </c>
+      <c r="CE63">
+        <v>0</v>
+      </c>
+      <c r="CF63">
+        <v>0</v>
+      </c>
+      <c r="CG63">
+        <v>0</v>
+      </c>
+      <c r="CH63">
+        <v>0</v>
+      </c>
+      <c r="CI63">
+        <v>0</v>
+      </c>
+      <c r="CJ63">
+        <v>0</v>
+      </c>
+      <c r="CK63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -16073,8 +18342,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ64">
+        <v>1500000</v>
+      </c>
+      <c r="CA64">
+        <v>3500000</v>
+      </c>
+      <c r="CB64">
+        <v>0</v>
+      </c>
+      <c r="CC64">
+        <v>0</v>
+      </c>
+      <c r="CD64">
+        <v>0</v>
+      </c>
+      <c r="CE64">
+        <v>0</v>
+      </c>
+      <c r="CF64">
+        <v>0</v>
+      </c>
+      <c r="CG64">
+        <v>0</v>
+      </c>
+      <c r="CH64">
+        <v>0</v>
+      </c>
+      <c r="CI64">
+        <v>0</v>
+      </c>
+      <c r="CJ64">
+        <v>0</v>
+      </c>
+      <c r="CK64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -16240,8 +18545,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ65">
+        <v>0</v>
+      </c>
+      <c r="CA65">
+        <v>0</v>
+      </c>
+      <c r="CB65">
+        <v>0</v>
+      </c>
+      <c r="CC65">
+        <v>0</v>
+      </c>
+      <c r="CD65">
+        <v>0</v>
+      </c>
+      <c r="CE65">
+        <v>0</v>
+      </c>
+      <c r="CF65">
+        <v>0</v>
+      </c>
+      <c r="CG65">
+        <v>0</v>
+      </c>
+      <c r="CH65">
+        <v>0</v>
+      </c>
+      <c r="CI65">
+        <v>0</v>
+      </c>
+      <c r="CJ65">
+        <v>0</v>
+      </c>
+      <c r="CK65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -16407,8 +18748,44 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="BZ66">
+        <v>0</v>
+      </c>
+      <c r="CA66">
+        <v>0</v>
+      </c>
+      <c r="CB66">
+        <v>0</v>
+      </c>
+      <c r="CC66">
+        <v>0</v>
+      </c>
+      <c r="CD66">
+        <v>0</v>
+      </c>
+      <c r="CE66">
+        <v>0</v>
+      </c>
+      <c r="CF66">
+        <v>0</v>
+      </c>
+      <c r="CG66">
+        <v>0</v>
+      </c>
+      <c r="CH66">
+        <v>0</v>
+      </c>
+      <c r="CI66">
+        <v>0</v>
+      </c>
+      <c r="CJ66">
+        <v>0</v>
+      </c>
+      <c r="CK66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -16574,8 +18951,44 @@
         <f t="shared" ref="BW67:BW130" si="30">IF(O67="Y",J67/S67,0)</f>
         <v>0</v>
       </c>
+      <c r="BZ67">
+        <v>3333333.3333333335</v>
+      </c>
+      <c r="CA67">
+        <v>0</v>
+      </c>
+      <c r="CB67">
+        <v>0</v>
+      </c>
+      <c r="CC67">
+        <v>0</v>
+      </c>
+      <c r="CD67">
+        <v>0</v>
+      </c>
+      <c r="CE67">
+        <v>0</v>
+      </c>
+      <c r="CF67">
+        <v>3333333.3333333335</v>
+      </c>
+      <c r="CG67">
+        <v>0</v>
+      </c>
+      <c r="CH67">
+        <v>3333333.3333333335</v>
+      </c>
+      <c r="CI67">
+        <v>0</v>
+      </c>
+      <c r="CJ67">
+        <v>0</v>
+      </c>
+      <c r="CK67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -16735,8 +19148,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ68">
+        <v>0</v>
+      </c>
+      <c r="CA68">
+        <v>0</v>
+      </c>
+      <c r="CB68">
+        <v>0</v>
+      </c>
+      <c r="CC68">
+        <v>0</v>
+      </c>
+      <c r="CD68">
+        <v>7500000</v>
+      </c>
+      <c r="CE68">
+        <v>0</v>
+      </c>
+      <c r="CF68">
+        <v>0</v>
+      </c>
+      <c r="CG68">
+        <v>0</v>
+      </c>
+      <c r="CH68">
+        <v>0</v>
+      </c>
+      <c r="CI68">
+        <v>0</v>
+      </c>
+      <c r="CJ68">
+        <v>0</v>
+      </c>
+      <c r="CK68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -16899,8 +19348,44 @@
         <f t="shared" si="30"/>
         <v>1250000</v>
       </c>
+      <c r="BZ69">
+        <v>0</v>
+      </c>
+      <c r="CA69">
+        <v>0</v>
+      </c>
+      <c r="CB69">
+        <v>0</v>
+      </c>
+      <c r="CC69">
+        <v>0</v>
+      </c>
+      <c r="CD69">
+        <v>2500000</v>
+      </c>
+      <c r="CE69">
+        <v>1250000</v>
+      </c>
+      <c r="CF69">
+        <v>0</v>
+      </c>
+      <c r="CG69">
+        <v>0</v>
+      </c>
+      <c r="CH69">
+        <v>0</v>
+      </c>
+      <c r="CI69">
+        <v>0</v>
+      </c>
+      <c r="CJ69">
+        <v>2500000</v>
+      </c>
+      <c r="CK69">
+        <v>1250000</v>
+      </c>
     </row>
-    <row r="70" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -17060,8 +19545,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ70">
+        <v>0</v>
+      </c>
+      <c r="CA70">
+        <v>0</v>
+      </c>
+      <c r="CB70">
+        <v>0</v>
+      </c>
+      <c r="CC70">
+        <v>0</v>
+      </c>
+      <c r="CD70">
+        <v>2500000</v>
+      </c>
+      <c r="CE70">
+        <v>0</v>
+      </c>
+      <c r="CF70">
+        <v>2500000</v>
+      </c>
+      <c r="CG70">
+        <v>0</v>
+      </c>
+      <c r="CH70">
+        <v>2500000</v>
+      </c>
+      <c r="CI70">
+        <v>0</v>
+      </c>
+      <c r="CJ70">
+        <v>2500000</v>
+      </c>
+      <c r="CK70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -17224,8 +19745,44 @@
         <f t="shared" si="30"/>
         <v>1250000</v>
       </c>
+      <c r="BZ71">
+        <v>0</v>
+      </c>
+      <c r="CA71">
+        <v>0</v>
+      </c>
+      <c r="CB71">
+        <v>0</v>
+      </c>
+      <c r="CC71">
+        <v>0</v>
+      </c>
+      <c r="CD71">
+        <v>0</v>
+      </c>
+      <c r="CE71">
+        <v>0</v>
+      </c>
+      <c r="CF71">
+        <v>1250000</v>
+      </c>
+      <c r="CG71">
+        <v>1250000</v>
+      </c>
+      <c r="CH71">
+        <v>0</v>
+      </c>
+      <c r="CI71">
+        <v>0</v>
+      </c>
+      <c r="CJ71">
+        <v>1250000</v>
+      </c>
+      <c r="CK71">
+        <v>1250000</v>
+      </c>
     </row>
-    <row r="72" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -17385,8 +19942,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ72">
+        <v>0</v>
+      </c>
+      <c r="CA72">
+        <v>0</v>
+      </c>
+      <c r="CB72">
+        <v>0</v>
+      </c>
+      <c r="CC72">
+        <v>0</v>
+      </c>
+      <c r="CD72">
+        <v>0</v>
+      </c>
+      <c r="CE72">
+        <v>0</v>
+      </c>
+      <c r="CF72">
+        <v>0</v>
+      </c>
+      <c r="CG72">
+        <v>0</v>
+      </c>
+      <c r="CH72">
+        <v>1500000</v>
+      </c>
+      <c r="CI72">
+        <v>0</v>
+      </c>
+      <c r="CJ72">
+        <v>1500000</v>
+      </c>
+      <c r="CK72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -17549,8 +20142,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ73">
+        <v>0</v>
+      </c>
+      <c r="CA73">
+        <v>0</v>
+      </c>
+      <c r="CB73">
+        <v>0</v>
+      </c>
+      <c r="CC73">
+        <v>0</v>
+      </c>
+      <c r="CD73">
+        <v>0</v>
+      </c>
+      <c r="CE73">
+        <v>0</v>
+      </c>
+      <c r="CF73">
+        <v>0</v>
+      </c>
+      <c r="CG73">
+        <v>0</v>
+      </c>
+      <c r="CH73">
+        <v>0</v>
+      </c>
+      <c r="CI73">
+        <v>0</v>
+      </c>
+      <c r="CJ73">
+        <v>0</v>
+      </c>
+      <c r="CK73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -17716,8 +20345,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ74">
+        <v>3333333.3333333335</v>
+      </c>
+      <c r="CA74">
+        <v>0</v>
+      </c>
+      <c r="CB74">
+        <v>0</v>
+      </c>
+      <c r="CC74">
+        <v>0</v>
+      </c>
+      <c r="CD74">
+        <v>3333333.3333333335</v>
+      </c>
+      <c r="CE74">
+        <v>0</v>
+      </c>
+      <c r="CF74">
+        <v>0</v>
+      </c>
+      <c r="CG74">
+        <v>0</v>
+      </c>
+      <c r="CH74">
+        <v>0</v>
+      </c>
+      <c r="CI74">
+        <v>0</v>
+      </c>
+      <c r="CJ74">
+        <v>3333333.3333333335</v>
+      </c>
+      <c r="CK74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -17880,8 +20545,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ75">
+        <v>0</v>
+      </c>
+      <c r="CA75">
+        <v>0</v>
+      </c>
+      <c r="CB75">
+        <v>0</v>
+      </c>
+      <c r="CC75">
+        <v>0</v>
+      </c>
+      <c r="CD75">
+        <v>7500000</v>
+      </c>
+      <c r="CE75">
+        <v>0</v>
+      </c>
+      <c r="CF75">
+        <v>0</v>
+      </c>
+      <c r="CG75">
+        <v>0</v>
+      </c>
+      <c r="CH75">
+        <v>0</v>
+      </c>
+      <c r="CI75">
+        <v>0</v>
+      </c>
+      <c r="CJ75">
+        <v>0</v>
+      </c>
+      <c r="CK75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -18041,8 +20742,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ76">
+        <v>0</v>
+      </c>
+      <c r="CA76">
+        <v>0</v>
+      </c>
+      <c r="CB76">
+        <v>0</v>
+      </c>
+      <c r="CC76">
+        <v>0</v>
+      </c>
+      <c r="CD76">
+        <v>0</v>
+      </c>
+      <c r="CE76">
+        <v>0</v>
+      </c>
+      <c r="CF76">
+        <v>0</v>
+      </c>
+      <c r="CG76">
+        <v>0</v>
+      </c>
+      <c r="CH76">
+        <v>0</v>
+      </c>
+      <c r="CI76">
+        <v>0</v>
+      </c>
+      <c r="CJ76">
+        <v>0</v>
+      </c>
+      <c r="CK76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -18202,8 +20939,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ77">
+        <v>0</v>
+      </c>
+      <c r="CA77">
+        <v>0</v>
+      </c>
+      <c r="CB77">
+        <v>6000000</v>
+      </c>
+      <c r="CC77">
+        <v>0</v>
+      </c>
+      <c r="CD77">
+        <v>0</v>
+      </c>
+      <c r="CE77">
+        <v>0</v>
+      </c>
+      <c r="CF77">
+        <v>0</v>
+      </c>
+      <c r="CG77">
+        <v>0</v>
+      </c>
+      <c r="CH77">
+        <v>0</v>
+      </c>
+      <c r="CI77">
+        <v>0</v>
+      </c>
+      <c r="CJ77">
+        <v>0</v>
+      </c>
+      <c r="CK77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -18366,8 +21139,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ78">
+        <v>0</v>
+      </c>
+      <c r="CA78">
+        <v>0</v>
+      </c>
+      <c r="CB78">
+        <v>0</v>
+      </c>
+      <c r="CC78">
+        <v>0</v>
+      </c>
+      <c r="CD78">
+        <v>4000000</v>
+      </c>
+      <c r="CE78">
+        <v>0</v>
+      </c>
+      <c r="CF78">
+        <v>0</v>
+      </c>
+      <c r="CG78">
+        <v>0</v>
+      </c>
+      <c r="CH78">
+        <v>0</v>
+      </c>
+      <c r="CI78">
+        <v>0</v>
+      </c>
+      <c r="CJ78">
+        <v>0</v>
+      </c>
+      <c r="CK78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -18530,8 +21339,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ79">
+        <v>7500000</v>
+      </c>
+      <c r="CA79">
+        <v>0</v>
+      </c>
+      <c r="CB79">
+        <v>0</v>
+      </c>
+      <c r="CC79">
+        <v>0</v>
+      </c>
+      <c r="CD79">
+        <v>0</v>
+      </c>
+      <c r="CE79">
+        <v>0</v>
+      </c>
+      <c r="CF79">
+        <v>0</v>
+      </c>
+      <c r="CG79">
+        <v>0</v>
+      </c>
+      <c r="CH79">
+        <v>0</v>
+      </c>
+      <c r="CI79">
+        <v>0</v>
+      </c>
+      <c r="CJ79">
+        <v>0</v>
+      </c>
+      <c r="CK79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -18694,8 +21539,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ80">
+        <v>0</v>
+      </c>
+      <c r="CA80">
+        <v>0</v>
+      </c>
+      <c r="CB80">
+        <v>0</v>
+      </c>
+      <c r="CC80">
+        <v>0</v>
+      </c>
+      <c r="CD80">
+        <v>0</v>
+      </c>
+      <c r="CE80">
+        <v>0</v>
+      </c>
+      <c r="CF80">
+        <v>0</v>
+      </c>
+      <c r="CG80">
+        <v>0</v>
+      </c>
+      <c r="CH80">
+        <v>0</v>
+      </c>
+      <c r="CI80">
+        <v>0</v>
+      </c>
+      <c r="CJ80">
+        <v>0</v>
+      </c>
+      <c r="CK80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -18855,8 +21736,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ81">
+        <v>5000000</v>
+      </c>
+      <c r="CA81">
+        <v>0</v>
+      </c>
+      <c r="CB81">
+        <v>5000000</v>
+      </c>
+      <c r="CC81">
+        <v>0</v>
+      </c>
+      <c r="CD81">
+        <v>5000000</v>
+      </c>
+      <c r="CE81">
+        <v>0</v>
+      </c>
+      <c r="CF81">
+        <v>5000000</v>
+      </c>
+      <c r="CG81">
+        <v>0</v>
+      </c>
+      <c r="CH81">
+        <v>0</v>
+      </c>
+      <c r="CI81">
+        <v>0</v>
+      </c>
+      <c r="CJ81">
+        <v>0</v>
+      </c>
+      <c r="CK81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -19019,8 +21936,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ82">
+        <v>5000000</v>
+      </c>
+      <c r="CA82">
+        <v>2500000</v>
+      </c>
+      <c r="CB82">
+        <v>0</v>
+      </c>
+      <c r="CC82">
+        <v>0</v>
+      </c>
+      <c r="CD82">
+        <v>0</v>
+      </c>
+      <c r="CE82">
+        <v>0</v>
+      </c>
+      <c r="CF82">
+        <v>0</v>
+      </c>
+      <c r="CG82">
+        <v>0</v>
+      </c>
+      <c r="CH82">
+        <v>0</v>
+      </c>
+      <c r="CI82">
+        <v>0</v>
+      </c>
+      <c r="CJ82">
+        <v>0</v>
+      </c>
+      <c r="CK82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -19183,8 +22136,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ83">
+        <v>0</v>
+      </c>
+      <c r="CA83">
+        <v>0</v>
+      </c>
+      <c r="CB83">
+        <v>0</v>
+      </c>
+      <c r="CC83">
+        <v>0</v>
+      </c>
+      <c r="CD83">
+        <v>0</v>
+      </c>
+      <c r="CE83">
+        <v>0</v>
+      </c>
+      <c r="CF83">
+        <v>0</v>
+      </c>
+      <c r="CG83">
+        <v>0</v>
+      </c>
+      <c r="CH83">
+        <v>0</v>
+      </c>
+      <c r="CI83">
+        <v>0</v>
+      </c>
+      <c r="CJ83">
+        <v>10000000</v>
+      </c>
+      <c r="CK83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -19350,8 +22339,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ84">
+        <v>0</v>
+      </c>
+      <c r="CA84">
+        <v>0</v>
+      </c>
+      <c r="CB84">
+        <v>0</v>
+      </c>
+      <c r="CC84">
+        <v>0</v>
+      </c>
+      <c r="CD84">
+        <v>0</v>
+      </c>
+      <c r="CE84">
+        <v>0</v>
+      </c>
+      <c r="CF84">
+        <v>0</v>
+      </c>
+      <c r="CG84">
+        <v>0</v>
+      </c>
+      <c r="CH84">
+        <v>0</v>
+      </c>
+      <c r="CI84">
+        <v>0</v>
+      </c>
+      <c r="CJ84">
+        <v>0</v>
+      </c>
+      <c r="CK84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -19514,8 +22539,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ85">
+        <v>0</v>
+      </c>
+      <c r="CA85">
+        <v>0</v>
+      </c>
+      <c r="CB85">
+        <v>0</v>
+      </c>
+      <c r="CC85">
+        <v>0</v>
+      </c>
+      <c r="CD85">
+        <v>0</v>
+      </c>
+      <c r="CE85">
+        <v>0</v>
+      </c>
+      <c r="CF85">
+        <v>0</v>
+      </c>
+      <c r="CG85">
+        <v>0</v>
+      </c>
+      <c r="CH85">
+        <v>0</v>
+      </c>
+      <c r="CI85">
+        <v>0</v>
+      </c>
+      <c r="CJ85">
+        <v>0</v>
+      </c>
+      <c r="CK85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -19670,8 +22731,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ86">
+        <v>0</v>
+      </c>
+      <c r="CA86">
+        <v>0</v>
+      </c>
+      <c r="CB86">
+        <v>0</v>
+      </c>
+      <c r="CC86">
+        <v>0</v>
+      </c>
+      <c r="CD86">
+        <v>0</v>
+      </c>
+      <c r="CE86">
+        <v>0</v>
+      </c>
+      <c r="CF86">
+        <v>0</v>
+      </c>
+      <c r="CG86">
+        <v>0</v>
+      </c>
+      <c r="CH86">
+        <v>0</v>
+      </c>
+      <c r="CI86">
+        <v>0</v>
+      </c>
+      <c r="CJ86">
+        <v>0</v>
+      </c>
+      <c r="CK86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -19826,8 +22923,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ87">
+        <v>10000000</v>
+      </c>
+      <c r="CA87">
+        <v>0</v>
+      </c>
+      <c r="CB87">
+        <v>0</v>
+      </c>
+      <c r="CC87">
+        <v>0</v>
+      </c>
+      <c r="CD87">
+        <v>0</v>
+      </c>
+      <c r="CE87">
+        <v>0</v>
+      </c>
+      <c r="CF87">
+        <v>0</v>
+      </c>
+      <c r="CG87">
+        <v>0</v>
+      </c>
+      <c r="CH87">
+        <v>0</v>
+      </c>
+      <c r="CI87">
+        <v>0</v>
+      </c>
+      <c r="CJ87">
+        <v>0</v>
+      </c>
+      <c r="CK87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -19979,8 +23112,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ88">
+        <v>0</v>
+      </c>
+      <c r="CA88">
+        <v>0</v>
+      </c>
+      <c r="CB88">
+        <v>0</v>
+      </c>
+      <c r="CC88">
+        <v>0</v>
+      </c>
+      <c r="CD88">
+        <v>0</v>
+      </c>
+      <c r="CE88">
+        <v>0</v>
+      </c>
+      <c r="CF88">
+        <v>0</v>
+      </c>
+      <c r="CG88">
+        <v>0</v>
+      </c>
+      <c r="CH88">
+        <v>0</v>
+      </c>
+      <c r="CI88">
+        <v>0</v>
+      </c>
+      <c r="CJ88">
+        <v>0</v>
+      </c>
+      <c r="CK88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -20132,8 +23301,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ89">
+        <v>0</v>
+      </c>
+      <c r="CA89">
+        <v>0</v>
+      </c>
+      <c r="CB89">
+        <v>0</v>
+      </c>
+      <c r="CC89">
+        <v>0</v>
+      </c>
+      <c r="CD89">
+        <v>2000000</v>
+      </c>
+      <c r="CE89">
+        <v>0</v>
+      </c>
+      <c r="CF89">
+        <v>2000000</v>
+      </c>
+      <c r="CG89">
+        <v>0</v>
+      </c>
+      <c r="CH89">
+        <v>0</v>
+      </c>
+      <c r="CI89">
+        <v>0</v>
+      </c>
+      <c r="CJ89">
+        <v>0</v>
+      </c>
+      <c r="CK89">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -20288,8 +23493,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ90">
+        <v>600000</v>
+      </c>
+      <c r="CA90">
+        <v>0</v>
+      </c>
+      <c r="CB90">
+        <v>0</v>
+      </c>
+      <c r="CC90">
+        <v>0</v>
+      </c>
+      <c r="CD90">
+        <v>600000</v>
+      </c>
+      <c r="CE90">
+        <v>0</v>
+      </c>
+      <c r="CF90">
+        <v>600000</v>
+      </c>
+      <c r="CG90">
+        <v>0</v>
+      </c>
+      <c r="CH90">
+        <v>600000</v>
+      </c>
+      <c r="CI90">
+        <v>0</v>
+      </c>
+      <c r="CJ90">
+        <v>600000</v>
+      </c>
+      <c r="CK90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -20444,8 +23685,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ91">
+        <v>2650000</v>
+      </c>
+      <c r="CA91">
+        <v>0</v>
+      </c>
+      <c r="CB91">
+        <v>0</v>
+      </c>
+      <c r="CC91">
+        <v>0</v>
+      </c>
+      <c r="CD91">
+        <v>0</v>
+      </c>
+      <c r="CE91">
+        <v>0</v>
+      </c>
+      <c r="CF91">
+        <v>2650000</v>
+      </c>
+      <c r="CG91">
+        <v>0</v>
+      </c>
+      <c r="CH91">
+        <v>2650000</v>
+      </c>
+      <c r="CI91">
+        <v>0</v>
+      </c>
+      <c r="CJ91">
+        <v>2650000</v>
+      </c>
+      <c r="CK91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -20597,8 +23874,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ92">
+        <v>0</v>
+      </c>
+      <c r="CA92">
+        <v>0</v>
+      </c>
+      <c r="CB92">
+        <v>0</v>
+      </c>
+      <c r="CC92">
+        <v>0</v>
+      </c>
+      <c r="CD92">
+        <v>0</v>
+      </c>
+      <c r="CE92">
+        <v>0</v>
+      </c>
+      <c r="CF92">
+        <v>0</v>
+      </c>
+      <c r="CG92">
+        <v>0</v>
+      </c>
+      <c r="CH92">
+        <v>0</v>
+      </c>
+      <c r="CI92">
+        <v>0</v>
+      </c>
+      <c r="CJ92">
+        <v>0</v>
+      </c>
+      <c r="CK92">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -20738,8 +24051,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ93">
+        <v>9000000</v>
+      </c>
+      <c r="CA93">
+        <v>0</v>
+      </c>
+      <c r="CB93">
+        <v>0</v>
+      </c>
+      <c r="CC93">
+        <v>0</v>
+      </c>
+      <c r="CD93">
+        <v>0</v>
+      </c>
+      <c r="CE93">
+        <v>0</v>
+      </c>
+      <c r="CF93">
+        <v>0</v>
+      </c>
+      <c r="CG93">
+        <v>0</v>
+      </c>
+      <c r="CH93">
+        <v>0</v>
+      </c>
+      <c r="CI93">
+        <v>0</v>
+      </c>
+      <c r="CJ93">
+        <v>0</v>
+      </c>
+      <c r="CK93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -20873,8 +24222,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ94">
+        <v>0</v>
+      </c>
+      <c r="CA94">
+        <v>0</v>
+      </c>
+      <c r="CB94">
+        <v>0</v>
+      </c>
+      <c r="CC94">
+        <v>0</v>
+      </c>
+      <c r="CD94">
+        <v>0</v>
+      </c>
+      <c r="CE94">
+        <v>0</v>
+      </c>
+      <c r="CF94">
+        <v>0</v>
+      </c>
+      <c r="CG94">
+        <v>0</v>
+      </c>
+      <c r="CH94">
+        <v>0</v>
+      </c>
+      <c r="CI94">
+        <v>0</v>
+      </c>
+      <c r="CJ94">
+        <v>0</v>
+      </c>
+      <c r="CK94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -21014,8 +24399,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ95">
+        <v>0</v>
+      </c>
+      <c r="CA95">
+        <v>0</v>
+      </c>
+      <c r="CB95">
+        <v>0</v>
+      </c>
+      <c r="CC95">
+        <v>0</v>
+      </c>
+      <c r="CD95">
+        <v>0</v>
+      </c>
+      <c r="CE95">
+        <v>0</v>
+      </c>
+      <c r="CF95">
+        <v>0</v>
+      </c>
+      <c r="CG95">
+        <v>0</v>
+      </c>
+      <c r="CH95">
+        <v>0</v>
+      </c>
+      <c r="CI95">
+        <v>0</v>
+      </c>
+      <c r="CJ95">
+        <v>0</v>
+      </c>
+      <c r="CK95">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -21149,8 +24570,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ96">
+        <v>0</v>
+      </c>
+      <c r="CA96">
+        <v>0</v>
+      </c>
+      <c r="CB96">
+        <v>0</v>
+      </c>
+      <c r="CC96">
+        <v>0</v>
+      </c>
+      <c r="CD96">
+        <v>0</v>
+      </c>
+      <c r="CE96">
+        <v>0</v>
+      </c>
+      <c r="CF96">
+        <v>0</v>
+      </c>
+      <c r="CG96">
+        <v>0</v>
+      </c>
+      <c r="CH96">
+        <v>0</v>
+      </c>
+      <c r="CI96">
+        <v>0</v>
+      </c>
+      <c r="CJ96">
+        <v>0</v>
+      </c>
+      <c r="CK96">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -21287,8 +24744,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ97">
+        <v>0</v>
+      </c>
+      <c r="CA97">
+        <v>0</v>
+      </c>
+      <c r="CB97">
+        <v>0</v>
+      </c>
+      <c r="CC97">
+        <v>0</v>
+      </c>
+      <c r="CD97">
+        <v>0</v>
+      </c>
+      <c r="CE97">
+        <v>0</v>
+      </c>
+      <c r="CF97">
+        <v>4000000</v>
+      </c>
+      <c r="CG97">
+        <v>0</v>
+      </c>
+      <c r="CH97">
+        <v>0</v>
+      </c>
+      <c r="CI97">
+        <v>0</v>
+      </c>
+      <c r="CJ97">
+        <v>0</v>
+      </c>
+      <c r="CK97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -21428,8 +24921,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ98">
+        <v>0</v>
+      </c>
+      <c r="CA98">
+        <v>0</v>
+      </c>
+      <c r="CB98">
+        <v>0</v>
+      </c>
+      <c r="CC98">
+        <v>0</v>
+      </c>
+      <c r="CD98">
+        <v>0</v>
+      </c>
+      <c r="CE98">
+        <v>0</v>
+      </c>
+      <c r="CF98">
+        <v>0</v>
+      </c>
+      <c r="CG98">
+        <v>0</v>
+      </c>
+      <c r="CH98">
+        <v>0</v>
+      </c>
+      <c r="CI98">
+        <v>0</v>
+      </c>
+      <c r="CJ98">
+        <v>0</v>
+      </c>
+      <c r="CK98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -21566,8 +25095,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ99">
+        <v>0</v>
+      </c>
+      <c r="CA99">
+        <v>0</v>
+      </c>
+      <c r="CB99">
+        <v>0</v>
+      </c>
+      <c r="CC99">
+        <v>0</v>
+      </c>
+      <c r="CD99">
+        <v>0</v>
+      </c>
+      <c r="CE99">
+        <v>0</v>
+      </c>
+      <c r="CF99">
+        <v>1000000</v>
+      </c>
+      <c r="CG99">
+        <v>4000000</v>
+      </c>
+      <c r="CH99">
+        <v>0</v>
+      </c>
+      <c r="CI99">
+        <v>0</v>
+      </c>
+      <c r="CJ99">
+        <v>0</v>
+      </c>
+      <c r="CK99">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -21704,8 +25269,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ100">
+        <v>0</v>
+      </c>
+      <c r="CA100">
+        <v>0</v>
+      </c>
+      <c r="CB100">
+        <v>0</v>
+      </c>
+      <c r="CC100">
+        <v>0</v>
+      </c>
+      <c r="CD100">
+        <v>5000000</v>
+      </c>
+      <c r="CE100">
+        <v>2000000</v>
+      </c>
+      <c r="CF100">
+        <v>0</v>
+      </c>
+      <c r="CG100">
+        <v>0</v>
+      </c>
+      <c r="CH100">
+        <v>0</v>
+      </c>
+      <c r="CI100">
+        <v>0</v>
+      </c>
+      <c r="CJ100">
+        <v>0</v>
+      </c>
+      <c r="CK100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -21842,8 +25443,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ101">
+        <v>0</v>
+      </c>
+      <c r="CA101">
+        <v>0</v>
+      </c>
+      <c r="CB101">
+        <v>0</v>
+      </c>
+      <c r="CC101">
+        <v>0</v>
+      </c>
+      <c r="CD101">
+        <v>0</v>
+      </c>
+      <c r="CE101">
+        <v>0</v>
+      </c>
+      <c r="CF101">
+        <v>5000000</v>
+      </c>
+      <c r="CG101">
+        <v>10000000</v>
+      </c>
+      <c r="CH101">
+        <v>0</v>
+      </c>
+      <c r="CI101">
+        <v>0</v>
+      </c>
+      <c r="CJ101">
+        <v>0</v>
+      </c>
+      <c r="CK101">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -21980,8 +25617,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ102">
+        <v>0</v>
+      </c>
+      <c r="CA102">
+        <v>0</v>
+      </c>
+      <c r="CB102">
+        <v>0</v>
+      </c>
+      <c r="CC102">
+        <v>0</v>
+      </c>
+      <c r="CD102">
+        <v>0</v>
+      </c>
+      <c r="CE102">
+        <v>0</v>
+      </c>
+      <c r="CF102">
+        <v>0</v>
+      </c>
+      <c r="CG102">
+        <v>0</v>
+      </c>
+      <c r="CH102">
+        <v>0</v>
+      </c>
+      <c r="CI102">
+        <v>0</v>
+      </c>
+      <c r="CJ102">
+        <v>0</v>
+      </c>
+      <c r="CK102">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -22121,8 +25794,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ103">
+        <v>0</v>
+      </c>
+      <c r="CA103">
+        <v>0</v>
+      </c>
+      <c r="CB103">
+        <v>0</v>
+      </c>
+      <c r="CC103">
+        <v>0</v>
+      </c>
+      <c r="CD103">
+        <v>0</v>
+      </c>
+      <c r="CE103">
+        <v>0</v>
+      </c>
+      <c r="CF103">
+        <v>0</v>
+      </c>
+      <c r="CG103">
+        <v>0</v>
+      </c>
+      <c r="CH103">
+        <v>1000000</v>
+      </c>
+      <c r="CI103">
+        <v>6000000</v>
+      </c>
+      <c r="CJ103">
+        <v>0</v>
+      </c>
+      <c r="CK103">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -22259,8 +25968,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ104">
+        <v>2500000</v>
+      </c>
+      <c r="CA104">
+        <v>0</v>
+      </c>
+      <c r="CB104">
+        <v>0</v>
+      </c>
+      <c r="CC104">
+        <v>0</v>
+      </c>
+      <c r="CD104">
+        <v>0</v>
+      </c>
+      <c r="CE104">
+        <v>0</v>
+      </c>
+      <c r="CF104">
+        <v>0</v>
+      </c>
+      <c r="CG104">
+        <v>0</v>
+      </c>
+      <c r="CH104">
+        <v>2500000</v>
+      </c>
+      <c r="CI104">
+        <v>0</v>
+      </c>
+      <c r="CJ104">
+        <v>0</v>
+      </c>
+      <c r="CK104">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -22397,8 +26142,44 @@
         <f t="shared" si="30"/>
         <v>2000000</v>
       </c>
+      <c r="BZ105">
+        <v>0</v>
+      </c>
+      <c r="CA105">
+        <v>0</v>
+      </c>
+      <c r="CB105">
+        <v>0</v>
+      </c>
+      <c r="CC105">
+        <v>0</v>
+      </c>
+      <c r="CD105">
+        <v>0</v>
+      </c>
+      <c r="CE105">
+        <v>0</v>
+      </c>
+      <c r="CF105">
+        <v>0</v>
+      </c>
+      <c r="CG105">
+        <v>0</v>
+      </c>
+      <c r="CH105">
+        <v>0</v>
+      </c>
+      <c r="CI105">
+        <v>0</v>
+      </c>
+      <c r="CJ105">
+        <v>5000000</v>
+      </c>
+      <c r="CK105">
+        <v>2000000</v>
+      </c>
     </row>
-    <row r="106" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -22535,8 +26316,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ106">
+        <v>0</v>
+      </c>
+      <c r="CA106">
+        <v>0</v>
+      </c>
+      <c r="CB106">
+        <v>0</v>
+      </c>
+      <c r="CC106">
+        <v>0</v>
+      </c>
+      <c r="CD106">
+        <v>0</v>
+      </c>
+      <c r="CE106">
+        <v>0</v>
+      </c>
+      <c r="CF106">
+        <v>2666666.6666666665</v>
+      </c>
+      <c r="CG106">
+        <v>0</v>
+      </c>
+      <c r="CH106">
+        <v>2666666.6666666665</v>
+      </c>
+      <c r="CI106">
+        <v>0</v>
+      </c>
+      <c r="CJ106">
+        <v>2666666.6666666665</v>
+      </c>
+      <c r="CK106">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -22673,8 +26490,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ107">
+        <v>0</v>
+      </c>
+      <c r="CA107">
+        <v>0</v>
+      </c>
+      <c r="CB107">
+        <v>0</v>
+      </c>
+      <c r="CC107">
+        <v>0</v>
+      </c>
+      <c r="CD107">
+        <v>0</v>
+      </c>
+      <c r="CE107">
+        <v>0</v>
+      </c>
+      <c r="CF107">
+        <v>0</v>
+      </c>
+      <c r="CG107">
+        <v>0</v>
+      </c>
+      <c r="CH107">
+        <v>0</v>
+      </c>
+      <c r="CI107">
+        <v>0</v>
+      </c>
+      <c r="CJ107">
+        <v>0</v>
+      </c>
+      <c r="CK107">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -22814,8 +26667,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ108">
+        <v>0</v>
+      </c>
+      <c r="CA108">
+        <v>0</v>
+      </c>
+      <c r="CB108">
+        <v>0</v>
+      </c>
+      <c r="CC108">
+        <v>0</v>
+      </c>
+      <c r="CD108">
+        <v>0</v>
+      </c>
+      <c r="CE108">
+        <v>0</v>
+      </c>
+      <c r="CF108">
+        <v>0</v>
+      </c>
+      <c r="CG108">
+        <v>0</v>
+      </c>
+      <c r="CH108">
+        <v>5000000</v>
+      </c>
+      <c r="CI108">
+        <v>0</v>
+      </c>
+      <c r="CJ108">
+        <v>0</v>
+      </c>
+      <c r="CK108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -22952,8 +26841,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ109">
+        <v>6666666.666666667</v>
+      </c>
+      <c r="CA109">
+        <v>0</v>
+      </c>
+      <c r="CB109">
+        <v>0</v>
+      </c>
+      <c r="CC109">
+        <v>0</v>
+      </c>
+      <c r="CD109">
+        <v>0</v>
+      </c>
+      <c r="CE109">
+        <v>0</v>
+      </c>
+      <c r="CF109">
+        <v>6666666.666666667</v>
+      </c>
+      <c r="CG109">
+        <v>0</v>
+      </c>
+      <c r="CH109">
+        <v>6666666.666666667</v>
+      </c>
+      <c r="CI109">
+        <v>0</v>
+      </c>
+      <c r="CJ109">
+        <v>0</v>
+      </c>
+      <c r="CK109">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -23090,8 +27015,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ110">
+        <v>0</v>
+      </c>
+      <c r="CA110">
+        <v>0</v>
+      </c>
+      <c r="CB110">
+        <v>2500000</v>
+      </c>
+      <c r="CC110">
+        <v>0</v>
+      </c>
+      <c r="CD110">
+        <v>0</v>
+      </c>
+      <c r="CE110">
+        <v>0</v>
+      </c>
+      <c r="CF110">
+        <v>0</v>
+      </c>
+      <c r="CG110">
+        <v>0</v>
+      </c>
+      <c r="CH110">
+        <v>0</v>
+      </c>
+      <c r="CI110">
+        <v>0</v>
+      </c>
+      <c r="CJ110">
+        <v>0</v>
+      </c>
+      <c r="CK110">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -23228,8 +27189,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ111">
+        <v>0</v>
+      </c>
+      <c r="CA111">
+        <v>0</v>
+      </c>
+      <c r="CB111">
+        <v>0</v>
+      </c>
+      <c r="CC111">
+        <v>0</v>
+      </c>
+      <c r="CD111">
+        <v>0</v>
+      </c>
+      <c r="CE111">
+        <v>0</v>
+      </c>
+      <c r="CF111">
+        <v>0</v>
+      </c>
+      <c r="CG111">
+        <v>0</v>
+      </c>
+      <c r="CH111">
+        <v>0</v>
+      </c>
+      <c r="CI111">
+        <v>0</v>
+      </c>
+      <c r="CJ111">
+        <v>0</v>
+      </c>
+      <c r="CK111">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -23363,8 +27360,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ112">
+        <v>0</v>
+      </c>
+      <c r="CA112">
+        <v>0</v>
+      </c>
+      <c r="CB112">
+        <v>0</v>
+      </c>
+      <c r="CC112">
+        <v>0</v>
+      </c>
+      <c r="CD112">
+        <v>0</v>
+      </c>
+      <c r="CE112">
+        <v>0</v>
+      </c>
+      <c r="CF112">
+        <v>0</v>
+      </c>
+      <c r="CG112">
+        <v>0</v>
+      </c>
+      <c r="CH112">
+        <v>0</v>
+      </c>
+      <c r="CI112">
+        <v>0</v>
+      </c>
+      <c r="CJ112">
+        <v>0</v>
+      </c>
+      <c r="CK112">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -23501,8 +27534,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ113">
+        <v>5000000</v>
+      </c>
+      <c r="CA113">
+        <v>0</v>
+      </c>
+      <c r="CB113">
+        <v>0</v>
+      </c>
+      <c r="CC113">
+        <v>0</v>
+      </c>
+      <c r="CD113">
+        <v>0</v>
+      </c>
+      <c r="CE113">
+        <v>0</v>
+      </c>
+      <c r="CF113">
+        <v>0</v>
+      </c>
+      <c r="CG113">
+        <v>0</v>
+      </c>
+      <c r="CH113">
+        <v>5000000</v>
+      </c>
+      <c r="CI113">
+        <v>0</v>
+      </c>
+      <c r="CJ113">
+        <v>0</v>
+      </c>
+      <c r="CK113">
+        <v>0</v>
+      </c>
     </row>
-    <row r="114" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -23642,8 +27711,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ114">
+        <v>0</v>
+      </c>
+      <c r="CA114">
+        <v>0</v>
+      </c>
+      <c r="CB114">
+        <v>0</v>
+      </c>
+      <c r="CC114">
+        <v>0</v>
+      </c>
+      <c r="CD114">
+        <v>0</v>
+      </c>
+      <c r="CE114">
+        <v>0</v>
+      </c>
+      <c r="CF114">
+        <v>0</v>
+      </c>
+      <c r="CG114">
+        <v>0</v>
+      </c>
+      <c r="CH114">
+        <v>0</v>
+      </c>
+      <c r="CI114">
+        <v>0</v>
+      </c>
+      <c r="CJ114">
+        <v>0</v>
+      </c>
+      <c r="CK114">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -23780,8 +27885,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ115">
+        <v>0</v>
+      </c>
+      <c r="CA115">
+        <v>0</v>
+      </c>
+      <c r="CB115">
+        <v>0</v>
+      </c>
+      <c r="CC115">
+        <v>0</v>
+      </c>
+      <c r="CD115">
+        <v>0</v>
+      </c>
+      <c r="CE115">
+        <v>0</v>
+      </c>
+      <c r="CF115">
+        <v>4500000</v>
+      </c>
+      <c r="CG115">
+        <v>0</v>
+      </c>
+      <c r="CH115">
+        <v>0</v>
+      </c>
+      <c r="CI115">
+        <v>0</v>
+      </c>
+      <c r="CJ115">
+        <v>0</v>
+      </c>
+      <c r="CK115">
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -23918,8 +28059,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ116">
+        <v>0</v>
+      </c>
+      <c r="CA116">
+        <v>0</v>
+      </c>
+      <c r="CB116">
+        <v>0</v>
+      </c>
+      <c r="CC116">
+        <v>0</v>
+      </c>
+      <c r="CD116">
+        <v>0</v>
+      </c>
+      <c r="CE116">
+        <v>0</v>
+      </c>
+      <c r="CF116">
+        <v>0</v>
+      </c>
+      <c r="CG116">
+        <v>0</v>
+      </c>
+      <c r="CH116">
+        <v>0</v>
+      </c>
+      <c r="CI116">
+        <v>0</v>
+      </c>
+      <c r="CJ116">
+        <v>0</v>
+      </c>
+      <c r="CK116">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -24056,8 +28233,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ117">
+        <v>0</v>
+      </c>
+      <c r="CA117">
+        <v>0</v>
+      </c>
+      <c r="CB117">
+        <v>5000000</v>
+      </c>
+      <c r="CC117">
+        <v>0</v>
+      </c>
+      <c r="CD117">
+        <v>0</v>
+      </c>
+      <c r="CE117">
+        <v>0</v>
+      </c>
+      <c r="CF117">
+        <v>0</v>
+      </c>
+      <c r="CG117">
+        <v>0</v>
+      </c>
+      <c r="CH117">
+        <v>0</v>
+      </c>
+      <c r="CI117">
+        <v>0</v>
+      </c>
+      <c r="CJ117">
+        <v>0</v>
+      </c>
+      <c r="CK117">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -24194,8 +28407,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ118">
+        <v>2500000</v>
+      </c>
+      <c r="CA118">
+        <v>0</v>
+      </c>
+      <c r="CB118">
+        <v>0</v>
+      </c>
+      <c r="CC118">
+        <v>0</v>
+      </c>
+      <c r="CD118">
+        <v>0</v>
+      </c>
+      <c r="CE118">
+        <v>0</v>
+      </c>
+      <c r="CF118">
+        <v>0</v>
+      </c>
+      <c r="CG118">
+        <v>0</v>
+      </c>
+      <c r="CH118">
+        <v>2500000</v>
+      </c>
+      <c r="CI118">
+        <v>0</v>
+      </c>
+      <c r="CJ118">
+        <v>0</v>
+      </c>
+      <c r="CK118">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -24329,8 +28578,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ119">
+        <v>0</v>
+      </c>
+      <c r="CA119">
+        <v>0</v>
+      </c>
+      <c r="CB119">
+        <v>0</v>
+      </c>
+      <c r="CC119">
+        <v>0</v>
+      </c>
+      <c r="CD119">
+        <v>0</v>
+      </c>
+      <c r="CE119">
+        <v>0</v>
+      </c>
+      <c r="CF119">
+        <v>0</v>
+      </c>
+      <c r="CG119">
+        <v>0</v>
+      </c>
+      <c r="CH119">
+        <v>0</v>
+      </c>
+      <c r="CI119">
+        <v>0</v>
+      </c>
+      <c r="CJ119">
+        <v>0</v>
+      </c>
+      <c r="CK119">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -24467,8 +28752,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ120">
+        <v>0</v>
+      </c>
+      <c r="CA120">
+        <v>0</v>
+      </c>
+      <c r="CB120">
+        <v>0</v>
+      </c>
+      <c r="CC120">
+        <v>0</v>
+      </c>
+      <c r="CD120">
+        <v>0</v>
+      </c>
+      <c r="CE120">
+        <v>0</v>
+      </c>
+      <c r="CF120">
+        <v>0</v>
+      </c>
+      <c r="CG120">
+        <v>0</v>
+      </c>
+      <c r="CH120">
+        <v>0</v>
+      </c>
+      <c r="CI120">
+        <v>0</v>
+      </c>
+      <c r="CJ120">
+        <v>0</v>
+      </c>
+      <c r="CK120">
+        <v>0</v>
+      </c>
     </row>
-    <row r="121" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -24602,8 +28923,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ121">
+        <v>0</v>
+      </c>
+      <c r="CA121">
+        <v>0</v>
+      </c>
+      <c r="CB121">
+        <v>0</v>
+      </c>
+      <c r="CC121">
+        <v>0</v>
+      </c>
+      <c r="CD121">
+        <v>0</v>
+      </c>
+      <c r="CE121">
+        <v>0</v>
+      </c>
+      <c r="CF121">
+        <v>0</v>
+      </c>
+      <c r="CG121">
+        <v>0</v>
+      </c>
+      <c r="CH121">
+        <v>0</v>
+      </c>
+      <c r="CI121">
+        <v>0</v>
+      </c>
+      <c r="CJ121">
+        <v>0</v>
+      </c>
+      <c r="CK121">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -24743,8 +29100,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ122">
+        <v>3350000</v>
+      </c>
+      <c r="CA122">
+        <v>0</v>
+      </c>
+      <c r="CB122">
+        <v>3350000</v>
+      </c>
+      <c r="CC122">
+        <v>0</v>
+      </c>
+      <c r="CD122">
+        <v>0</v>
+      </c>
+      <c r="CE122">
+        <v>0</v>
+      </c>
+      <c r="CF122">
+        <v>0</v>
+      </c>
+      <c r="CG122">
+        <v>0</v>
+      </c>
+      <c r="CH122">
+        <v>0</v>
+      </c>
+      <c r="CI122">
+        <v>0</v>
+      </c>
+      <c r="CJ122">
+        <v>0</v>
+      </c>
+      <c r="CK122">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -24878,8 +29271,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ123">
+        <v>0</v>
+      </c>
+      <c r="CA123">
+        <v>0</v>
+      </c>
+      <c r="CB123">
+        <v>0</v>
+      </c>
+      <c r="CC123">
+        <v>0</v>
+      </c>
+      <c r="CD123">
+        <v>0</v>
+      </c>
+      <c r="CE123">
+        <v>0</v>
+      </c>
+      <c r="CF123">
+        <v>0</v>
+      </c>
+      <c r="CG123">
+        <v>0</v>
+      </c>
+      <c r="CH123">
+        <v>0</v>
+      </c>
+      <c r="CI123">
+        <v>0</v>
+      </c>
+      <c r="CJ123">
+        <v>0</v>
+      </c>
+      <c r="CK123">
+        <v>0</v>
+      </c>
     </row>
-    <row r="124" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -25016,8 +29445,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ124">
+        <v>1666666.6666666667</v>
+      </c>
+      <c r="CA124">
+        <v>0</v>
+      </c>
+      <c r="CB124">
+        <v>1666666.6666666667</v>
+      </c>
+      <c r="CC124">
+        <v>0</v>
+      </c>
+      <c r="CD124">
+        <v>0</v>
+      </c>
+      <c r="CE124">
+        <v>0</v>
+      </c>
+      <c r="CF124">
+        <v>1666666.6666666667</v>
+      </c>
+      <c r="CG124">
+        <v>0</v>
+      </c>
+      <c r="CH124">
+        <v>0</v>
+      </c>
+      <c r="CI124">
+        <v>0</v>
+      </c>
+      <c r="CJ124">
+        <v>0</v>
+      </c>
+      <c r="CK124">
+        <v>0</v>
+      </c>
     </row>
-    <row r="125" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -25157,8 +29622,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ125">
+        <v>4000000</v>
+      </c>
+      <c r="CA125">
+        <v>0</v>
+      </c>
+      <c r="CB125">
+        <v>4000000</v>
+      </c>
+      <c r="CC125">
+        <v>0</v>
+      </c>
+      <c r="CD125">
+        <v>4000000</v>
+      </c>
+      <c r="CE125">
+        <v>0</v>
+      </c>
+      <c r="CF125">
+        <v>4000000</v>
+      </c>
+      <c r="CG125">
+        <v>0</v>
+      </c>
+      <c r="CH125">
+        <v>4000000</v>
+      </c>
+      <c r="CI125">
+        <v>0</v>
+      </c>
+      <c r="CJ125">
+        <v>0</v>
+      </c>
+      <c r="CK125">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -25295,8 +29796,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ126">
+        <v>0</v>
+      </c>
+      <c r="CA126">
+        <v>0</v>
+      </c>
+      <c r="CB126">
+        <v>0</v>
+      </c>
+      <c r="CC126">
+        <v>0</v>
+      </c>
+      <c r="CD126">
+        <v>0</v>
+      </c>
+      <c r="CE126">
+        <v>0</v>
+      </c>
+      <c r="CF126">
+        <v>0</v>
+      </c>
+      <c r="CG126">
+        <v>0</v>
+      </c>
+      <c r="CH126">
+        <v>0</v>
+      </c>
+      <c r="CI126">
+        <v>0</v>
+      </c>
+      <c r="CJ126">
+        <v>0</v>
+      </c>
+      <c r="CK126">
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -25430,8 +29967,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ127">
+        <v>0</v>
+      </c>
+      <c r="CA127">
+        <v>0</v>
+      </c>
+      <c r="CB127">
+        <v>0</v>
+      </c>
+      <c r="CC127">
+        <v>0</v>
+      </c>
+      <c r="CD127">
+        <v>0</v>
+      </c>
+      <c r="CE127">
+        <v>0</v>
+      </c>
+      <c r="CF127">
+        <v>0</v>
+      </c>
+      <c r="CG127">
+        <v>0</v>
+      </c>
+      <c r="CH127">
+        <v>0</v>
+      </c>
+      <c r="CI127">
+        <v>0</v>
+      </c>
+      <c r="CJ127">
+        <v>0</v>
+      </c>
+      <c r="CK127">
+        <v>0</v>
+      </c>
     </row>
-    <row r="128" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -25571,8 +30144,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ128">
+        <v>3000000</v>
+      </c>
+      <c r="CA128">
+        <v>3000000</v>
+      </c>
+      <c r="CB128">
+        <v>0</v>
+      </c>
+      <c r="CC128">
+        <v>0</v>
+      </c>
+      <c r="CD128">
+        <v>0</v>
+      </c>
+      <c r="CE128">
+        <v>0</v>
+      </c>
+      <c r="CF128">
+        <v>0</v>
+      </c>
+      <c r="CG128">
+        <v>0</v>
+      </c>
+      <c r="CH128">
+        <v>3000000</v>
+      </c>
+      <c r="CI128">
+        <v>3000000</v>
+      </c>
+      <c r="CJ128">
+        <v>0</v>
+      </c>
+      <c r="CK128">
+        <v>0</v>
+      </c>
     </row>
-    <row r="129" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -25709,8 +30318,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ129">
+        <v>0</v>
+      </c>
+      <c r="CA129">
+        <v>0</v>
+      </c>
+      <c r="CB129">
+        <v>0</v>
+      </c>
+      <c r="CC129">
+        <v>0</v>
+      </c>
+      <c r="CD129">
+        <v>0</v>
+      </c>
+      <c r="CE129">
+        <v>0</v>
+      </c>
+      <c r="CF129">
+        <v>0</v>
+      </c>
+      <c r="CG129">
+        <v>0</v>
+      </c>
+      <c r="CH129">
+        <v>0</v>
+      </c>
+      <c r="CI129">
+        <v>0</v>
+      </c>
+      <c r="CJ129">
+        <v>0</v>
+      </c>
+      <c r="CK129">
+        <v>0</v>
+      </c>
     </row>
-    <row r="130" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -25847,8 +30492,44 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="BZ130">
+        <v>0</v>
+      </c>
+      <c r="CA130">
+        <v>0</v>
+      </c>
+      <c r="CB130">
+        <v>0</v>
+      </c>
+      <c r="CC130">
+        <v>0</v>
+      </c>
+      <c r="CD130">
+        <v>0</v>
+      </c>
+      <c r="CE130">
+        <v>0</v>
+      </c>
+      <c r="CF130">
+        <v>2500000</v>
+      </c>
+      <c r="CG130">
+        <v>2500000</v>
+      </c>
+      <c r="CH130">
+        <v>2500000</v>
+      </c>
+      <c r="CI130">
+        <v>2500000</v>
+      </c>
+      <c r="CJ130">
+        <v>0</v>
+      </c>
+      <c r="CK130">
+        <v>0</v>
+      </c>
     </row>
-    <row r="131" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -25991,8 +30672,44 @@
         <f t="shared" ref="BW131:BW166" si="46">IF(O131="Y",J131/S131,0)</f>
         <v>0</v>
       </c>
+      <c r="BZ131">
+        <v>0</v>
+      </c>
+      <c r="CA131">
+        <v>0</v>
+      </c>
+      <c r="CB131">
+        <v>0</v>
+      </c>
+      <c r="CC131">
+        <v>0</v>
+      </c>
+      <c r="CD131">
+        <v>0</v>
+      </c>
+      <c r="CE131">
+        <v>0</v>
+      </c>
+      <c r="CF131">
+        <v>0</v>
+      </c>
+      <c r="CG131">
+        <v>0</v>
+      </c>
+      <c r="CH131">
+        <v>0</v>
+      </c>
+      <c r="CI131">
+        <v>0</v>
+      </c>
+      <c r="CJ131">
+        <v>0</v>
+      </c>
+      <c r="CK131">
+        <v>0</v>
+      </c>
     </row>
-    <row r="132" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -26129,8 +30846,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ132">
+        <v>3750000</v>
+      </c>
+      <c r="CA132">
+        <v>0</v>
+      </c>
+      <c r="CB132">
+        <v>0</v>
+      </c>
+      <c r="CC132">
+        <v>0</v>
+      </c>
+      <c r="CD132">
+        <v>3750000</v>
+      </c>
+      <c r="CE132">
+        <v>0</v>
+      </c>
+      <c r="CF132">
+        <v>0</v>
+      </c>
+      <c r="CG132">
+        <v>0</v>
+      </c>
+      <c r="CH132">
+        <v>3750000</v>
+      </c>
+      <c r="CI132">
+        <v>0</v>
+      </c>
+      <c r="CJ132">
+        <v>3750000</v>
+      </c>
+      <c r="CK132">
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -26273,8 +31026,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ133">
+        <v>8000000</v>
+      </c>
+      <c r="CA133">
+        <v>7000000</v>
+      </c>
+      <c r="CB133">
+        <v>0</v>
+      </c>
+      <c r="CC133">
+        <v>0</v>
+      </c>
+      <c r="CD133">
+        <v>0</v>
+      </c>
+      <c r="CE133">
+        <v>0</v>
+      </c>
+      <c r="CF133">
+        <v>0</v>
+      </c>
+      <c r="CG133">
+        <v>0</v>
+      </c>
+      <c r="CH133">
+        <v>0</v>
+      </c>
+      <c r="CI133">
+        <v>0</v>
+      </c>
+      <c r="CJ133">
+        <v>0</v>
+      </c>
+      <c r="CK133">
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -26411,8 +31200,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ134">
+        <v>2000000</v>
+      </c>
+      <c r="CA134">
+        <v>0</v>
+      </c>
+      <c r="CB134">
+        <v>0</v>
+      </c>
+      <c r="CC134">
+        <v>0</v>
+      </c>
+      <c r="CD134">
+        <v>2000000</v>
+      </c>
+      <c r="CE134">
+        <v>0</v>
+      </c>
+      <c r="CF134">
+        <v>0</v>
+      </c>
+      <c r="CG134">
+        <v>0</v>
+      </c>
+      <c r="CH134">
+        <v>0</v>
+      </c>
+      <c r="CI134">
+        <v>0</v>
+      </c>
+      <c r="CJ134">
+        <v>2000000</v>
+      </c>
+      <c r="CK134">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -26549,8 +31374,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ135">
+        <v>0</v>
+      </c>
+      <c r="CA135">
+        <v>0</v>
+      </c>
+      <c r="CB135">
+        <v>0</v>
+      </c>
+      <c r="CC135">
+        <v>0</v>
+      </c>
+      <c r="CD135">
+        <v>0</v>
+      </c>
+      <c r="CE135">
+        <v>0</v>
+      </c>
+      <c r="CF135">
+        <v>0</v>
+      </c>
+      <c r="CG135">
+        <v>0</v>
+      </c>
+      <c r="CH135">
+        <v>0</v>
+      </c>
+      <c r="CI135">
+        <v>0</v>
+      </c>
+      <c r="CJ135">
+        <v>0</v>
+      </c>
+      <c r="CK135">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -26687,8 +31548,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ136">
+        <v>0</v>
+      </c>
+      <c r="CA136">
+        <v>0</v>
+      </c>
+      <c r="CB136">
+        <v>0</v>
+      </c>
+      <c r="CC136">
+        <v>0</v>
+      </c>
+      <c r="CD136">
+        <v>0</v>
+      </c>
+      <c r="CE136">
+        <v>0</v>
+      </c>
+      <c r="CF136">
+        <v>0</v>
+      </c>
+      <c r="CG136">
+        <v>0</v>
+      </c>
+      <c r="CH136">
+        <v>0</v>
+      </c>
+      <c r="CI136">
+        <v>0</v>
+      </c>
+      <c r="CJ136">
+        <v>0</v>
+      </c>
+      <c r="CK136">
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -26825,8 +31722,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ137">
+        <v>0</v>
+      </c>
+      <c r="CA137">
+        <v>0</v>
+      </c>
+      <c r="CB137">
+        <v>0</v>
+      </c>
+      <c r="CC137">
+        <v>0</v>
+      </c>
+      <c r="CD137">
+        <v>0</v>
+      </c>
+      <c r="CE137">
+        <v>0</v>
+      </c>
+      <c r="CF137">
+        <v>0</v>
+      </c>
+      <c r="CG137">
+        <v>0</v>
+      </c>
+      <c r="CH137">
+        <v>0</v>
+      </c>
+      <c r="CI137">
+        <v>0</v>
+      </c>
+      <c r="CJ137">
+        <v>0</v>
+      </c>
+      <c r="CK137">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -26960,8 +31893,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ138">
+        <v>0</v>
+      </c>
+      <c r="CA138">
+        <v>0</v>
+      </c>
+      <c r="CB138">
+        <v>0</v>
+      </c>
+      <c r="CC138">
+        <v>0</v>
+      </c>
+      <c r="CD138">
+        <v>0</v>
+      </c>
+      <c r="CE138">
+        <v>0</v>
+      </c>
+      <c r="CF138">
+        <v>0</v>
+      </c>
+      <c r="CG138">
+        <v>0</v>
+      </c>
+      <c r="CH138">
+        <v>0</v>
+      </c>
+      <c r="CI138">
+        <v>0</v>
+      </c>
+      <c r="CJ138">
+        <v>0</v>
+      </c>
+      <c r="CK138">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -27095,8 +32064,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ139">
+        <v>0</v>
+      </c>
+      <c r="CA139">
+        <v>0</v>
+      </c>
+      <c r="CB139">
+        <v>0</v>
+      </c>
+      <c r="CC139">
+        <v>0</v>
+      </c>
+      <c r="CD139">
+        <v>0</v>
+      </c>
+      <c r="CE139">
+        <v>0</v>
+      </c>
+      <c r="CF139">
+        <v>0</v>
+      </c>
+      <c r="CG139">
+        <v>0</v>
+      </c>
+      <c r="CH139">
+        <v>0</v>
+      </c>
+      <c r="CI139">
+        <v>0</v>
+      </c>
+      <c r="CJ139">
+        <v>0</v>
+      </c>
+      <c r="CK139">
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -27236,8 +32241,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ140">
+        <v>0</v>
+      </c>
+      <c r="CA140">
+        <v>0</v>
+      </c>
+      <c r="CB140">
+        <v>2500000</v>
+      </c>
+      <c r="CC140">
+        <v>0</v>
+      </c>
+      <c r="CD140">
+        <v>0</v>
+      </c>
+      <c r="CE140">
+        <v>0</v>
+      </c>
+      <c r="CF140">
+        <v>2500000</v>
+      </c>
+      <c r="CG140">
+        <v>0</v>
+      </c>
+      <c r="CH140">
+        <v>0</v>
+      </c>
+      <c r="CI140">
+        <v>0</v>
+      </c>
+      <c r="CJ140">
+        <v>0</v>
+      </c>
+      <c r="CK140">
+        <v>0</v>
+      </c>
     </row>
-    <row r="141" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -27374,8 +32415,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ141">
+        <v>0</v>
+      </c>
+      <c r="CA141">
+        <v>0</v>
+      </c>
+      <c r="CB141">
+        <v>1500000</v>
+      </c>
+      <c r="CC141">
+        <v>4500000</v>
+      </c>
+      <c r="CD141">
+        <v>0</v>
+      </c>
+      <c r="CE141">
+        <v>0</v>
+      </c>
+      <c r="CF141">
+        <v>0</v>
+      </c>
+      <c r="CG141">
+        <v>0</v>
+      </c>
+      <c r="CH141">
+        <v>0</v>
+      </c>
+      <c r="CI141">
+        <v>0</v>
+      </c>
+      <c r="CJ141">
+        <v>0</v>
+      </c>
+      <c r="CK141">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -27512,8 +32589,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ142">
+        <v>0</v>
+      </c>
+      <c r="CA142">
+        <v>0</v>
+      </c>
+      <c r="CB142">
+        <v>0</v>
+      </c>
+      <c r="CC142">
+        <v>0</v>
+      </c>
+      <c r="CD142">
+        <v>0</v>
+      </c>
+      <c r="CE142">
+        <v>0</v>
+      </c>
+      <c r="CF142">
+        <v>0</v>
+      </c>
+      <c r="CG142">
+        <v>0</v>
+      </c>
+      <c r="CH142">
+        <v>0</v>
+      </c>
+      <c r="CI142">
+        <v>0</v>
+      </c>
+      <c r="CJ142">
+        <v>0</v>
+      </c>
+      <c r="CK142">
+        <v>0</v>
+      </c>
     </row>
-    <row r="143" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -27653,8 +32766,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ143">
+        <v>0</v>
+      </c>
+      <c r="CA143">
+        <v>0</v>
+      </c>
+      <c r="CB143">
+        <v>0</v>
+      </c>
+      <c r="CC143">
+        <v>0</v>
+      </c>
+      <c r="CD143">
+        <v>0</v>
+      </c>
+      <c r="CE143">
+        <v>0</v>
+      </c>
+      <c r="CF143">
+        <v>0</v>
+      </c>
+      <c r="CG143">
+        <v>0</v>
+      </c>
+      <c r="CH143">
+        <v>0</v>
+      </c>
+      <c r="CI143">
+        <v>0</v>
+      </c>
+      <c r="CJ143">
+        <v>5000000</v>
+      </c>
+      <c r="CK143">
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -27794,8 +32943,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ144">
+        <v>0</v>
+      </c>
+      <c r="CA144">
+        <v>0</v>
+      </c>
+      <c r="CB144">
+        <v>0</v>
+      </c>
+      <c r="CC144">
+        <v>0</v>
+      </c>
+      <c r="CD144">
+        <v>0</v>
+      </c>
+      <c r="CE144">
+        <v>0</v>
+      </c>
+      <c r="CF144">
+        <v>0</v>
+      </c>
+      <c r="CG144">
+        <v>0</v>
+      </c>
+      <c r="CH144">
+        <v>0</v>
+      </c>
+      <c r="CI144">
+        <v>0</v>
+      </c>
+      <c r="CJ144">
+        <v>0</v>
+      </c>
+      <c r="CK144">
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -27932,8 +33117,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ145">
+        <v>0</v>
+      </c>
+      <c r="CA145">
+        <v>0</v>
+      </c>
+      <c r="CB145">
+        <v>0</v>
+      </c>
+      <c r="CC145">
+        <v>0</v>
+      </c>
+      <c r="CD145">
+        <v>0</v>
+      </c>
+      <c r="CE145">
+        <v>0</v>
+      </c>
+      <c r="CF145">
+        <v>7500000</v>
+      </c>
+      <c r="CG145">
+        <v>0</v>
+      </c>
+      <c r="CH145">
+        <v>0</v>
+      </c>
+      <c r="CI145">
+        <v>0</v>
+      </c>
+      <c r="CJ145">
+        <v>0</v>
+      </c>
+      <c r="CK145">
+        <v>0</v>
+      </c>
     </row>
-    <row r="146" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -28067,8 +33288,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ146">
+        <v>0</v>
+      </c>
+      <c r="CA146">
+        <v>0</v>
+      </c>
+      <c r="CB146">
+        <v>0</v>
+      </c>
+      <c r="CC146">
+        <v>0</v>
+      </c>
+      <c r="CD146">
+        <v>0</v>
+      </c>
+      <c r="CE146">
+        <v>0</v>
+      </c>
+      <c r="CF146">
+        <v>0</v>
+      </c>
+      <c r="CG146">
+        <v>0</v>
+      </c>
+      <c r="CH146">
+        <v>0</v>
+      </c>
+      <c r="CI146">
+        <v>0</v>
+      </c>
+      <c r="CJ146">
+        <v>0</v>
+      </c>
+      <c r="CK146">
+        <v>0</v>
+      </c>
     </row>
-    <row r="147" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -28205,8 +33462,44 @@
         <f t="shared" si="46"/>
         <v>5000000</v>
       </c>
+      <c r="BZ147">
+        <v>0</v>
+      </c>
+      <c r="CA147">
+        <v>0</v>
+      </c>
+      <c r="CB147">
+        <v>0</v>
+      </c>
+      <c r="CC147">
+        <v>0</v>
+      </c>
+      <c r="CD147">
+        <v>0</v>
+      </c>
+      <c r="CE147">
+        <v>0</v>
+      </c>
+      <c r="CF147">
+        <v>0</v>
+      </c>
+      <c r="CG147">
+        <v>0</v>
+      </c>
+      <c r="CH147">
+        <v>0</v>
+      </c>
+      <c r="CI147">
+        <v>0</v>
+      </c>
+      <c r="CJ147">
+        <v>5000000</v>
+      </c>
+      <c r="CK147">
+        <v>5000000</v>
+      </c>
     </row>
-    <row r="148" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -28346,8 +33639,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ148">
+        <v>0</v>
+      </c>
+      <c r="CA148">
+        <v>0</v>
+      </c>
+      <c r="CB148">
+        <v>0</v>
+      </c>
+      <c r="CC148">
+        <v>0</v>
+      </c>
+      <c r="CD148">
+        <v>0</v>
+      </c>
+      <c r="CE148">
+        <v>0</v>
+      </c>
+      <c r="CF148">
+        <v>2000000</v>
+      </c>
+      <c r="CG148">
+        <v>3000000</v>
+      </c>
+      <c r="CH148">
+        <v>0</v>
+      </c>
+      <c r="CI148">
+        <v>0</v>
+      </c>
+      <c r="CJ148">
+        <v>0</v>
+      </c>
+      <c r="CK148">
+        <v>0</v>
+      </c>
     </row>
-    <row r="149" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -28484,8 +33813,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ149">
+        <v>0</v>
+      </c>
+      <c r="CA149">
+        <v>0</v>
+      </c>
+      <c r="CB149">
+        <v>0</v>
+      </c>
+      <c r="CC149">
+        <v>0</v>
+      </c>
+      <c r="CD149">
+        <v>0</v>
+      </c>
+      <c r="CE149">
+        <v>0</v>
+      </c>
+      <c r="CF149">
+        <v>0</v>
+      </c>
+      <c r="CG149">
+        <v>0</v>
+      </c>
+      <c r="CH149">
+        <v>5000000</v>
+      </c>
+      <c r="CI149">
+        <v>0</v>
+      </c>
+      <c r="CJ149">
+        <v>0</v>
+      </c>
+      <c r="CK149">
+        <v>0</v>
+      </c>
     </row>
-    <row r="150" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -28622,8 +33987,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ150">
+        <v>0</v>
+      </c>
+      <c r="CA150">
+        <v>0</v>
+      </c>
+      <c r="CB150">
+        <v>0</v>
+      </c>
+      <c r="CC150">
+        <v>0</v>
+      </c>
+      <c r="CD150">
+        <v>0</v>
+      </c>
+      <c r="CE150">
+        <v>0</v>
+      </c>
+      <c r="CF150">
+        <v>0</v>
+      </c>
+      <c r="CG150">
+        <v>0</v>
+      </c>
+      <c r="CH150">
+        <v>0</v>
+      </c>
+      <c r="CI150">
+        <v>0</v>
+      </c>
+      <c r="CJ150">
+        <v>0</v>
+      </c>
+      <c r="CK150">
+        <v>0</v>
+      </c>
     </row>
-    <row r="151" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -28757,8 +34158,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ151">
+        <v>2500000</v>
+      </c>
+      <c r="CA151">
+        <v>0</v>
+      </c>
+      <c r="CB151">
+        <v>0</v>
+      </c>
+      <c r="CC151">
+        <v>0</v>
+      </c>
+      <c r="CD151">
+        <v>0</v>
+      </c>
+      <c r="CE151">
+        <v>0</v>
+      </c>
+      <c r="CF151">
+        <v>2500000</v>
+      </c>
+      <c r="CG151">
+        <v>0</v>
+      </c>
+      <c r="CH151">
+        <v>0</v>
+      </c>
+      <c r="CI151">
+        <v>0</v>
+      </c>
+      <c r="CJ151">
+        <v>2500000</v>
+      </c>
+      <c r="CK151">
+        <v>0</v>
+      </c>
     </row>
-    <row r="152" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -28901,8 +34338,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ152">
+        <v>0</v>
+      </c>
+      <c r="CA152">
+        <v>0</v>
+      </c>
+      <c r="CB152">
+        <v>0</v>
+      </c>
+      <c r="CC152">
+        <v>0</v>
+      </c>
+      <c r="CD152">
+        <v>0</v>
+      </c>
+      <c r="CE152">
+        <v>0</v>
+      </c>
+      <c r="CF152">
+        <v>0</v>
+      </c>
+      <c r="CG152">
+        <v>0</v>
+      </c>
+      <c r="CH152">
+        <v>0</v>
+      </c>
+      <c r="CI152">
+        <v>0</v>
+      </c>
+      <c r="CJ152">
+        <v>0</v>
+      </c>
+      <c r="CK152">
+        <v>0</v>
+      </c>
     </row>
-    <row r="153" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -29039,8 +34512,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ153">
+        <v>0</v>
+      </c>
+      <c r="CA153">
+        <v>0</v>
+      </c>
+      <c r="CB153">
+        <v>0</v>
+      </c>
+      <c r="CC153">
+        <v>0</v>
+      </c>
+      <c r="CD153">
+        <v>0</v>
+      </c>
+      <c r="CE153">
+        <v>0</v>
+      </c>
+      <c r="CF153">
+        <v>0</v>
+      </c>
+      <c r="CG153">
+        <v>0</v>
+      </c>
+      <c r="CH153">
+        <v>0</v>
+      </c>
+      <c r="CI153">
+        <v>0</v>
+      </c>
+      <c r="CJ153">
+        <v>0</v>
+      </c>
+      <c r="CK153">
+        <v>0</v>
+      </c>
     </row>
-    <row r="154" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -29186,8 +34695,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ154">
+        <v>0</v>
+      </c>
+      <c r="CA154">
+        <v>0</v>
+      </c>
+      <c r="CB154">
+        <v>0</v>
+      </c>
+      <c r="CC154">
+        <v>0</v>
+      </c>
+      <c r="CD154">
+        <v>0</v>
+      </c>
+      <c r="CE154">
+        <v>0</v>
+      </c>
+      <c r="CF154">
+        <v>0</v>
+      </c>
+      <c r="CG154">
+        <v>0</v>
+      </c>
+      <c r="CH154">
+        <v>0</v>
+      </c>
+      <c r="CI154">
+        <v>0</v>
+      </c>
+      <c r="CJ154">
+        <v>0</v>
+      </c>
+      <c r="CK154">
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -29324,8 +34869,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ155">
+        <v>0</v>
+      </c>
+      <c r="CA155">
+        <v>0</v>
+      </c>
+      <c r="CB155">
+        <v>0</v>
+      </c>
+      <c r="CC155">
+        <v>0</v>
+      </c>
+      <c r="CD155">
+        <v>0</v>
+      </c>
+      <c r="CE155">
+        <v>0</v>
+      </c>
+      <c r="CF155">
+        <v>5000000</v>
+      </c>
+      <c r="CG155">
+        <v>0</v>
+      </c>
+      <c r="CH155">
+        <v>0</v>
+      </c>
+      <c r="CI155">
+        <v>0</v>
+      </c>
+      <c r="CJ155">
+        <v>0</v>
+      </c>
+      <c r="CK155">
+        <v>0</v>
+      </c>
     </row>
-    <row r="156" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -29462,8 +35043,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ156">
+        <v>0</v>
+      </c>
+      <c r="CA156">
+        <v>0</v>
+      </c>
+      <c r="CB156">
+        <v>0</v>
+      </c>
+      <c r="CC156">
+        <v>0</v>
+      </c>
+      <c r="CD156">
+        <v>0</v>
+      </c>
+      <c r="CE156">
+        <v>0</v>
+      </c>
+      <c r="CF156">
+        <v>0</v>
+      </c>
+      <c r="CG156">
+        <v>0</v>
+      </c>
+      <c r="CH156">
+        <v>0</v>
+      </c>
+      <c r="CI156">
+        <v>0</v>
+      </c>
+      <c r="CJ156">
+        <v>0</v>
+      </c>
+      <c r="CK156">
+        <v>0</v>
+      </c>
     </row>
-    <row r="157" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -29600,8 +35217,44 @@
         <f t="shared" si="46"/>
         <v>1666666.6666666667</v>
       </c>
+      <c r="BZ157">
+        <v>3333333.3333333335</v>
+      </c>
+      <c r="CA157">
+        <v>1666666.6666666667</v>
+      </c>
+      <c r="CB157">
+        <v>0</v>
+      </c>
+      <c r="CC157">
+        <v>0</v>
+      </c>
+      <c r="CD157">
+        <v>0</v>
+      </c>
+      <c r="CE157">
+        <v>0</v>
+      </c>
+      <c r="CF157">
+        <v>3333333.3333333335</v>
+      </c>
+      <c r="CG157">
+        <v>1666666.6666666667</v>
+      </c>
+      <c r="CH157">
+        <v>0</v>
+      </c>
+      <c r="CI157">
+        <v>0</v>
+      </c>
+      <c r="CJ157">
+        <v>3333333.3333333335</v>
+      </c>
+      <c r="CK157">
+        <v>1666666.6666666667</v>
+      </c>
     </row>
-    <row r="158" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -29735,8 +35388,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ158">
+        <v>0</v>
+      </c>
+      <c r="CA158">
+        <v>0</v>
+      </c>
+      <c r="CB158">
+        <v>0</v>
+      </c>
+      <c r="CC158">
+        <v>0</v>
+      </c>
+      <c r="CD158">
+        <v>0</v>
+      </c>
+      <c r="CE158">
+        <v>0</v>
+      </c>
+      <c r="CF158">
+        <v>0</v>
+      </c>
+      <c r="CG158">
+        <v>0</v>
+      </c>
+      <c r="CH158">
+        <v>0</v>
+      </c>
+      <c r="CI158">
+        <v>0</v>
+      </c>
+      <c r="CJ158">
+        <v>0</v>
+      </c>
+      <c r="CK158">
+        <v>0</v>
+      </c>
     </row>
-    <row r="159" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -29873,8 +35562,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ159">
+        <v>0</v>
+      </c>
+      <c r="CA159">
+        <v>0</v>
+      </c>
+      <c r="CB159">
+        <v>0</v>
+      </c>
+      <c r="CC159">
+        <v>0</v>
+      </c>
+      <c r="CD159">
+        <v>0</v>
+      </c>
+      <c r="CE159">
+        <v>0</v>
+      </c>
+      <c r="CF159">
+        <v>0</v>
+      </c>
+      <c r="CG159">
+        <v>0</v>
+      </c>
+      <c r="CH159">
+        <v>0</v>
+      </c>
+      <c r="CI159">
+        <v>0</v>
+      </c>
+      <c r="CJ159">
+        <v>0</v>
+      </c>
+      <c r="CK159">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -30011,8 +35736,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ160">
+        <v>0</v>
+      </c>
+      <c r="CA160">
+        <v>0</v>
+      </c>
+      <c r="CB160">
+        <v>0</v>
+      </c>
+      <c r="CC160">
+        <v>0</v>
+      </c>
+      <c r="CD160">
+        <v>0</v>
+      </c>
+      <c r="CE160">
+        <v>0</v>
+      </c>
+      <c r="CF160">
+        <v>0</v>
+      </c>
+      <c r="CG160">
+        <v>0</v>
+      </c>
+      <c r="CH160">
+        <v>5000000</v>
+      </c>
+      <c r="CI160">
+        <v>5000000</v>
+      </c>
+      <c r="CJ160">
+        <v>0</v>
+      </c>
+      <c r="CK160">
+        <v>0</v>
+      </c>
     </row>
-    <row r="161" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -30146,8 +35907,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ161">
+        <v>0</v>
+      </c>
+      <c r="CA161">
+        <v>0</v>
+      </c>
+      <c r="CB161">
+        <v>500000</v>
+      </c>
+      <c r="CC161">
+        <v>0</v>
+      </c>
+      <c r="CD161">
+        <v>500000</v>
+      </c>
+      <c r="CE161">
+        <v>0</v>
+      </c>
+      <c r="CF161">
+        <v>500000</v>
+      </c>
+      <c r="CG161">
+        <v>0</v>
+      </c>
+      <c r="CH161">
+        <v>0</v>
+      </c>
+      <c r="CI161">
+        <v>0</v>
+      </c>
+      <c r="CJ161">
+        <v>500000</v>
+      </c>
+      <c r="CK161">
+        <v>0</v>
+      </c>
     </row>
-    <row r="162" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -30281,8 +36078,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ162">
+        <v>2000000</v>
+      </c>
+      <c r="CA162">
+        <v>0</v>
+      </c>
+      <c r="CB162">
+        <v>2000000</v>
+      </c>
+      <c r="CC162">
+        <v>0</v>
+      </c>
+      <c r="CD162">
+        <v>2000000</v>
+      </c>
+      <c r="CE162">
+        <v>0</v>
+      </c>
+      <c r="CF162">
+        <v>2000000</v>
+      </c>
+      <c r="CG162">
+        <v>0</v>
+      </c>
+      <c r="CH162">
+        <v>2000000</v>
+      </c>
+      <c r="CI162">
+        <v>0</v>
+      </c>
+      <c r="CJ162">
+        <v>0</v>
+      </c>
+      <c r="CK162">
+        <v>0</v>
+      </c>
     </row>
-    <row r="163" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -30422,8 +36255,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ163">
+        <v>0</v>
+      </c>
+      <c r="CA163">
+        <v>0</v>
+      </c>
+      <c r="CB163">
+        <v>0</v>
+      </c>
+      <c r="CC163">
+        <v>0</v>
+      </c>
+      <c r="CD163">
+        <v>0</v>
+      </c>
+      <c r="CE163">
+        <v>0</v>
+      </c>
+      <c r="CF163">
+        <v>0</v>
+      </c>
+      <c r="CG163">
+        <v>0</v>
+      </c>
+      <c r="CH163">
+        <v>0</v>
+      </c>
+      <c r="CI163">
+        <v>0</v>
+      </c>
+      <c r="CJ163">
+        <v>0</v>
+      </c>
+      <c r="CK163">
+        <v>0</v>
+      </c>
     </row>
-    <row r="164" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -30563,8 +36432,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ164">
+        <v>0</v>
+      </c>
+      <c r="CA164">
+        <v>0</v>
+      </c>
+      <c r="CB164">
+        <v>1000000</v>
+      </c>
+      <c r="CC164">
+        <v>6500000</v>
+      </c>
+      <c r="CD164">
+        <v>0</v>
+      </c>
+      <c r="CE164">
+        <v>0</v>
+      </c>
+      <c r="CF164">
+        <v>0</v>
+      </c>
+      <c r="CG164">
+        <v>0</v>
+      </c>
+      <c r="CH164">
+        <v>0</v>
+      </c>
+      <c r="CI164">
+        <v>0</v>
+      </c>
+      <c r="CJ164">
+        <v>0</v>
+      </c>
+      <c r="CK164">
+        <v>0</v>
+      </c>
     </row>
-    <row r="165" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -30698,8 +36603,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ165">
+        <v>0</v>
+      </c>
+      <c r="CA165">
+        <v>0</v>
+      </c>
+      <c r="CB165">
+        <v>10000000</v>
+      </c>
+      <c r="CC165">
+        <v>0</v>
+      </c>
+      <c r="CD165">
+        <v>0</v>
+      </c>
+      <c r="CE165">
+        <v>0</v>
+      </c>
+      <c r="CF165">
+        <v>0</v>
+      </c>
+      <c r="CG165">
+        <v>0</v>
+      </c>
+      <c r="CH165">
+        <v>0</v>
+      </c>
+      <c r="CI165">
+        <v>0</v>
+      </c>
+      <c r="CJ165">
+        <v>0</v>
+      </c>
+      <c r="CK165">
+        <v>0</v>
+      </c>
     </row>
-    <row r="166" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -30833,8 +36774,44 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
+      <c r="BZ166">
+        <v>0</v>
+      </c>
+      <c r="CA166">
+        <v>0</v>
+      </c>
+      <c r="CB166">
+        <v>0</v>
+      </c>
+      <c r="CC166">
+        <v>0</v>
+      </c>
+      <c r="CD166">
+        <v>0</v>
+      </c>
+      <c r="CE166">
+        <v>0</v>
+      </c>
+      <c r="CF166">
+        <v>0</v>
+      </c>
+      <c r="CG166">
+        <v>0</v>
+      </c>
+      <c r="CH166">
+        <v>0</v>
+      </c>
+      <c r="CI166">
+        <v>0</v>
+      </c>
+      <c r="CJ166">
+        <v>0</v>
+      </c>
+      <c r="CK166">
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:89" x14ac:dyDescent="0.3">
       <c r="BK168" s="1" t="s">
         <v>1563</v>
       </c>
@@ -30887,7 +36864,7 @@
         <v>18666666.666666668</v>
       </c>
     </row>
-    <row r="169" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:89" x14ac:dyDescent="0.3">
       <c r="H169">
         <f>SUM(H2:H166)</f>
         <v>677000000</v>
@@ -30952,7 +36929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:89" x14ac:dyDescent="0.3">
       <c r="BK170" s="1" t="s">
         <v>1564</v>
       </c>
@@ -30981,7 +36958,7 @@
         <v>97750000</v>
       </c>
     </row>
-    <row r="172" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:89" x14ac:dyDescent="0.3">
       <c r="BK172" s="1" t="s">
         <v>1565</v>
       </c>
@@ -31010,7 +36987,7 @@
         <v>80.903665814151736</v>
       </c>
     </row>
-    <row r="173" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:89" x14ac:dyDescent="0.3">
       <c r="BK173" s="1" t="s">
         <v>1566</v>
       </c>
@@ -31039,7 +37016,7 @@
         <v>19.096334185848253</v>
       </c>
     </row>
-    <row r="175" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:89" x14ac:dyDescent="0.3">
       <c r="BK175" s="1" t="s">
         <v>1568</v>
       </c>
@@ -31130,7 +37107,7 @@
         <v>18.080833333333334</v>
       </c>
       <c r="BN178">
-        <f t="shared" ref="BN178:BW178" si="48">BN170/10000000</f>
+        <f t="shared" ref="BN178:BV178" si="48">BN170/10000000</f>
         <v>8.5591666666666661</v>
       </c>
       <c r="BP178">

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC187D01-843A-4BA8-B68F-8F3165608408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3427A4-2F6E-49AA-9D0B-273E5206613E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -5194,8 +5194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
   <dimension ref="A1:CS182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CG1" workbookViewId="0">
-      <selection activeCell="BT91" sqref="BT91"/>
+    <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
+      <selection activeCell="CN2" sqref="CN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/excelData2.xlsx
+++ b/excelData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects A\SharkTankIndia\SharkTankIndiaStremlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A541F64-CD4D-40B0-9C57-A868107EC48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3419FB-ABC1-462B-9F11-E2C86BB473A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB7F2B1-3B27-4363-96C6-504B47982580}"/>
   </bookViews>
@@ -4978,7 +4978,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4988,7 +4988,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5306,8 +5305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92652862-575C-412B-96E3-2B4F85023423}">
   <dimension ref="A1:DT182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU156" workbookViewId="0">
-      <selection activeCell="DE170" sqref="DE170:DE175"/>
+    <sheetView tabSelected="1" topLeftCell="BI127" workbookViewId="0">
+      <selection activeCell="BP128" sqref="BP128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43857,7 +43856,7 @@
         <v>1326</v>
       </c>
       <c r="E128">
-        <v>10000000</v>
+        <v>12000000</v>
       </c>
       <c r="F128">
         <v>0.2</v>
@@ -43929,7 +43928,7 @@
       </c>
       <c r="AK128">
         <f t="shared" si="87"/>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL128">
         <f t="shared" si="88"/>
@@ -54871,7 +54870,7 @@
         <v>157258332.66666669</v>
       </c>
       <c r="BM168">
-        <f t="shared" ref="BL168:BW168" si="128">SUM(BM2:BM166)</f>
+        <f t="shared" ref="BM168:BW168" si="128">SUM(BM2:BM166)</f>
         <v>22666666.666666668</v>
       </c>
       <c r="BN168">
@@ -54945,90 +54944,90 @@
         <v>254</v>
       </c>
       <c r="CU168">
-        <f>COUNTIF(CU2:CU166,0)</f>
+        <f t="shared" ref="CU168:CZ168" si="130">COUNTIF(CU2:CU166,0)</f>
         <v>7</v>
       </c>
       <c r="CV168">
-        <f>COUNTIF(CV2:CV166,0)</f>
+        <f t="shared" si="130"/>
         <v>10</v>
       </c>
       <c r="CW168">
-        <f>COUNTIF(CW2:CW166,0)</f>
+        <f t="shared" si="130"/>
         <v>6</v>
       </c>
       <c r="CX168">
-        <f>COUNTIF(CX2:CX166,0)</f>
+        <f t="shared" si="130"/>
         <v>16</v>
       </c>
       <c r="CY168">
-        <f>COUNTIF(CY2:CY166,0)</f>
+        <f t="shared" si="130"/>
         <v>7</v>
       </c>
       <c r="CZ168">
-        <f>COUNTIF(CZ2:CZ166,0)</f>
+        <f t="shared" si="130"/>
         <v>5</v>
       </c>
       <c r="DE168" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="DF168" s="9">
+      <c r="DF168">
         <f>COUNTIF(DF2:DF166,"Y")</f>
         <v>6</v>
       </c>
-      <c r="DG168" s="9">
+      <c r="DG168">
         <f>COUNTIF(DG2:DG166,"Y")</f>
         <v>10</v>
       </c>
-      <c r="DH168" s="9">
-        <f t="shared" ref="DH168:DT168" si="130">COUNTIF(DH2:DH166,"Y")</f>
+      <c r="DH168">
+        <f t="shared" ref="DH168:DT168" si="131">COUNTIF(DH2:DH166,"Y")</f>
         <v>17</v>
       </c>
-      <c r="DI168" s="9">
-        <f t="shared" si="130"/>
+      <c r="DI168">
+        <f t="shared" si="131"/>
         <v>24</v>
       </c>
-      <c r="DJ168" s="9">
-        <f t="shared" si="130"/>
+      <c r="DJ168">
+        <f t="shared" si="131"/>
         <v>11</v>
       </c>
-      <c r="DK168" s="9">
-        <f t="shared" si="130"/>
+      <c r="DK168">
+        <f t="shared" si="131"/>
         <v>4</v>
       </c>
-      <c r="DL168" s="9">
-        <f t="shared" si="130"/>
+      <c r="DL168">
+        <f t="shared" si="131"/>
         <v>8</v>
       </c>
-      <c r="DM168" s="9">
-        <f t="shared" si="130"/>
+      <c r="DM168">
+        <f t="shared" si="131"/>
         <v>4</v>
       </c>
-      <c r="DN168" s="9">
-        <f t="shared" si="130"/>
+      <c r="DN168">
+        <f t="shared" si="131"/>
         <v>1</v>
       </c>
-      <c r="DO168" s="9">
+      <c r="DO168">
         <f>COUNTIF(DO2:DO166,"Y")</f>
         <v>8</v>
       </c>
-      <c r="DP168" s="9">
-        <f t="shared" si="130"/>
+      <c r="DP168">
+        <f t="shared" si="131"/>
         <v>12</v>
       </c>
-      <c r="DQ168" s="9">
-        <f t="shared" si="130"/>
+      <c r="DQ168">
+        <f t="shared" si="131"/>
         <v>12</v>
       </c>
-      <c r="DR168" s="9">
-        <f t="shared" si="130"/>
+      <c r="DR168">
+        <f t="shared" si="131"/>
         <v>14</v>
       </c>
-      <c r="DS168" s="9">
-        <f t="shared" si="130"/>
+      <c r="DS168">
+        <f t="shared" si="131"/>
         <v>9</v>
       </c>
-      <c r="DT168" s="9">
-        <f t="shared" si="130"/>
+      <c r="DT168">
+        <f t="shared" si="131"/>
         <v>9</v>
       </c>
     </row>
@@ -55100,27 +55099,27 @@
         <v>1586</v>
       </c>
       <c r="CU169">
-        <f>COUNTIF(CU2:CU166,1)</f>
+        <f t="shared" ref="CU169:CZ169" si="132">COUNTIF(CU2:CU166,1)</f>
         <v>15</v>
       </c>
       <c r="CV169">
-        <f>COUNTIF(CV2:CV166,1)</f>
+        <f t="shared" si="132"/>
         <v>4</v>
       </c>
       <c r="CW169">
-        <f>COUNTIF(CW2:CW166,1)</f>
+        <f t="shared" si="132"/>
         <v>7</v>
       </c>
       <c r="CX169">
-        <f>COUNTIF(CX2:CX166,1)</f>
+        <f t="shared" si="132"/>
         <v>7</v>
       </c>
       <c r="CY169">
-        <f>COUNTIF(CY2:CY166,1)</f>
+        <f t="shared" si="132"/>
         <v>16</v>
       </c>
       <c r="CZ169">
-        <f>COUNTIF(CZ2:CZ166,1)</f>
+        <f t="shared" si="132"/>
         <v>7</v>
       </c>
     </row>
@@ -55156,27 +55155,27 @@
         <v>1587</v>
       </c>
       <c r="CU170">
-        <f>COUNTIF(CU2:CU166,2)</f>
+        <f t="shared" ref="CU170:CZ170" si="133">COUNTIF(CU2:CU166,2)</f>
         <v>11</v>
       </c>
       <c r="CV170">
-        <f>COUNTIF(CV2:CV166,2)</f>
+        <f t="shared" si="133"/>
         <v>1</v>
       </c>
       <c r="CW170">
-        <f>COUNTIF(CW2:CW166,2)</f>
+        <f t="shared" si="133"/>
         <v>4</v>
       </c>
       <c r="CX170">
-        <f>COUNTIF(CX2:CX166,2)</f>
+        <f t="shared" si="133"/>
         <v>9</v>
       </c>
       <c r="CY170">
-        <f>COUNTIF(CY2:CY166,2)</f>
+        <f t="shared" si="133"/>
         <v>8</v>
       </c>
       <c r="CZ170">
-        <f>COUNTIF(CZ2:CZ166,2)</f>
+        <f t="shared" si="133"/>
         <v>6</v>
       </c>
       <c r="DE170" s="1" t="s">
@@ -55195,27 +55194,27 @@
         <v>1588</v>
       </c>
       <c r="CU171">
-        <f>COUNTIF(CU2:CU166,3)</f>
+        <f t="shared" ref="CU171:CZ171" si="134">COUNTIF(CU2:CU166,3)</f>
         <v>5</v>
       </c>
       <c r="CV171">
-        <f>COUNTIF(CV2:CV166,3)</f>
+        <f t="shared" si="134"/>
         <v>3</v>
       </c>
       <c r="CW171">
-        <f>COUNTIF(CW2:CW166,3)</f>
+        <f t="shared" si="134"/>
         <v>5</v>
       </c>
       <c r="CX171">
-        <f>COUNTIF(CX2:CX166,3)</f>
+        <f t="shared" si="134"/>
         <v>5</v>
       </c>
       <c r="CY171">
-        <f>COUNTIF(CY2:CY166,3)</f>
+        <f t="shared" si="134"/>
         <v>5</v>
       </c>
       <c r="CZ171">
-        <f>COUNTIF(CZ2:CZ166,3)</f>
+        <f t="shared" si="134"/>
         <v>5</v>
       </c>
       <c r="DE171" s="1" t="s">
@@ -55260,27 +55259,27 @@
         <v>1589</v>
       </c>
       <c r="CU172">
-        <f>COUNTIF(CU2:CU166,4)</f>
+        <f t="shared" ref="CU172:CZ172" si="135">COUNTIF(CU2:CU166,4)</f>
         <v>4</v>
       </c>
       <c r="CV172">
-        <f>COUNTIF(CV2:CV166,4)</f>
+        <f t="shared" si="135"/>
         <v>2</v>
       </c>
       <c r="CW172">
-        <f>COUNTIF(CW2:CW166,4)</f>
+        <f t="shared" si="135"/>
         <v>4</v>
       </c>
       <c r="CX172">
-        <f>COUNTIF(CX2:CX166,4)</f>
+        <f t="shared" si="135"/>
         <v>4</v>
       </c>
       <c r="CY172">
-        <f>COUNTIF(CY2:CY166,4)</f>
+        <f t="shared" si="135"/>
         <v>4</v>
       </c>
       <c r="CZ172">
-        <f>COUNTIF(CZ2:CZ166,4)</f>
+        <f t="shared" si="135"/>
         <v>2</v>
       </c>
       <c r="DE172" s="1" t="s">
@@ -55325,27 +55324,27 @@
         <v>1590</v>
       </c>
       <c r="CU173">
-        <f>COUNTIF(CU2:CU166,5)</f>
+        <f t="shared" ref="CU173:CZ173" si="136">COUNTIF(CU2:CU166,5)</f>
         <v>0</v>
       </c>
       <c r="CV173">
-        <f>COUNTIF(CV2:CV166,5)</f>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="CW173">
-        <f>COUNTIF(CW2:CW166,5)</f>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="CX173">
-        <f>COUNTIF(CX2:CX166,5)</f>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="CY173">
-        <f>COUNTIF(CY2:CY166,5)</f>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="CZ173">
-        <f>COUNTIF(CZ2:CZ166,5)</f>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="DE173" s="1" t="s">
@@ -55440,47 +55439,47 @@
         <v>15.725833266666669</v>
       </c>
       <c r="BM177">
-        <f t="shared" ref="BM177:BW177" si="131">BM168/10000000</f>
+        <f t="shared" ref="BM177:BW177" si="137">BM168/10000000</f>
         <v>2.2666666666666666</v>
       </c>
       <c r="BN177">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>7.2091666666666656</v>
       </c>
       <c r="BO177">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>1.35</v>
       </c>
       <c r="BP177">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>9.1483333333333352</v>
       </c>
       <c r="BQ177">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="BR177">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>13.889166600000003</v>
       </c>
       <c r="BS177">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>5.001666666666666</v>
       </c>
       <c r="BT177">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>13.907500000000001</v>
       </c>
       <c r="BU177">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>2.15</v>
       </c>
       <c r="BV177">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>7.8199999333333325</v>
       </c>
       <c r="BW177">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>1.8666666666666667</v>
       </c>
     </row>
@@ -55493,23 +55492,23 @@
         <v>17.992499933333335</v>
       </c>
       <c r="BN178">
-        <f t="shared" ref="BN178:BV178" si="132">BN170/10000000</f>
+        <f t="shared" ref="BN178:BV178" si="138">BN170/10000000</f>
         <v>8.5591666666666661</v>
       </c>
       <c r="BP178">
-        <f t="shared" si="132"/>
+        <f t="shared" si="138"/>
         <v>9.9733333333333345</v>
       </c>
       <c r="BR178">
-        <f t="shared" si="132"/>
+        <f t="shared" si="138"/>
         <v>18.890833266666668</v>
       </c>
       <c r="BT178">
-        <f t="shared" si="132"/>
+        <f t="shared" si="138"/>
         <v>16.057500000000001</v>
       </c>
       <c r="BV178">
-        <f t="shared" si="132"/>
+        <f t="shared" si="138"/>
         <v>9.6866666000000006</v>
       </c>
     </row>
